--- a/Axcels/rant.xlsx
+++ b/Axcels/rant.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27735" windowHeight="13650" activeTab="2"/>
+    <workbookView windowWidth="27735" windowHeight="13650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="letter" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t xml:space="preserve"> Z</t>
   </si>
@@ -110,6 +110,39 @@
   </si>
   <si>
     <t>Rows:53 Cols:45</t>
+  </si>
+  <si>
+    <t>九宫格 嵌入式 函数 右侧?.可变 随机颜色 算法(Cyber)</t>
+  </si>
+  <si>
+    <t>Func1</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Func2</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    a =3 b= 4 c=d e=a+b+c</t>
   </si>
 </sst>
 </file>
@@ -117,10 +150,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -149,89 +182,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,8 +204,16 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,6 +221,42 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,10 +286,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -298,6 +300,36 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="47">
     <fill>
@@ -320,6 +352,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -350,6 +388,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -362,18 +406,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.35"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -392,79 +424,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,108 +604,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -601,34 +633,38 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -675,10 +711,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -698,157 +732,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="46" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -858,58 +916,76 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -921,10 +997,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -936,31 +1009,25 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1356,8 +1423,8 @@
   <sheetPr/>
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1373,319 +1440,319 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="24">
+      <c r="A2" s="30">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="32" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="27">
-        <v>2</v>
-      </c>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="33">
+        <v>2</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="24">
+      <c r="A4" s="30">
         <v>3</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="32" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="24">
-        <v>4</v>
-      </c>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="30">
+        <v>4</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="34" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="24">
+      <c r="A6" s="30">
         <v>5</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="34" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="24">
+      <c r="A7" s="30">
         <v>6</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="24">
+      <c r="A8" s="30">
         <v>7</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="34" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="24">
+      <c r="A9" s="30">
         <v>8</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="34" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="29">
+      <c r="A10" s="35">
         <v>9</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="34" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="24">
+      <c r="A11" s="30">
         <v>10</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="31"/>
+      <c r="C11" s="34" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="31">
+      <c r="A12" s="36">
         <v>11</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="34" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="31">
+      <c r="A13" s="36">
         <v>12</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="37" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="31">
+      <c r="A14" s="36">
         <v>13</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="37" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="31">
+      <c r="A15" s="36">
         <v>14</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="37" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="31">
+      <c r="A16" s="36">
         <v>15</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="38" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="31">
+      <c r="A17" s="36">
         <v>16</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="38" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="24">
+      <c r="A18" s="30">
         <v>17</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="38" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="24">
+      <c r="A19" s="30">
         <v>18</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="38" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="24">
+      <c r="A20" s="30">
         <v>19</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="38" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="24">
+      <c r="A21" s="30">
         <v>20</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="38" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="35">
+      <c r="A22" s="36">
         <v>21</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="38" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="31">
+      <c r="A23" s="36">
         <v>22</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="39" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="31">
+      <c r="A24" s="36">
         <v>23</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="39" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="31">
+      <c r="A25" s="36">
         <v>24</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="39" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="31">
+      <c r="A26" s="36">
         <v>25</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="39" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="37">
+      <c r="A27" s="40">
         <v>26</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="41" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="24">
+      <c r="A28" s="30">
         <v>27</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="41" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="40"/>
+      <c r="C29" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1697,50 +1764,77 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="$A33:$XFD33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="2" width="4.375" customWidth="1"/>
-    <col min="3" max="3" width="3.375" customWidth="1"/>
+    <col min="3" max="3" width="3.125" customWidth="1"/>
     <col min="4" max="4" width="77.125" customWidth="1"/>
     <col min="5" max="7" width="2.375" customWidth="1"/>
+    <col min="9" max="9" width="3.375" customWidth="1"/>
+    <col min="10" max="10" width="3.5" customWidth="1"/>
+    <col min="11" max="11" width="3.375" customWidth="1"/>
+    <col min="12" max="19" width="2.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:19">
+      <c r="A1" s="1">
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
+      <c r="B2" s="1">
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -1757,16 +1851,39 @@
       <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
+      <c r="C3" s="1">
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1</v>
@@ -1780,8 +1897,31 @@
       <c r="G3" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="I3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>6</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1803,8 +1943,29 @@
       <c r="G4" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
+        <v>-25</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1826,8 +1987,33 @@
       <c r="G5" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="I5" s="4">
+        <v>2</v>
+      </c>
+      <c r="J5" s="4">
+        <v>-24</v>
+      </c>
+      <c r="K5" s="7">
+        <v>2</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="21"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -1849,8 +2035,41 @@
       <c r="G6" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="I6" s="4">
+        <v>3</v>
+      </c>
+      <c r="J6" s="4">
+        <v>-23</v>
+      </c>
+      <c r="K6" s="4">
+        <v>3</v>
+      </c>
+      <c r="L6" s="19">
+        <v>1</v>
+      </c>
+      <c r="M6" s="19">
+        <v>1</v>
+      </c>
+      <c r="N6" s="19">
+        <v>1</v>
+      </c>
+      <c r="O6" s="19">
+        <v>1</v>
+      </c>
+      <c r="P6" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -1872,8 +2091,41 @@
       <c r="G7" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="I7" s="4">
+        <v>4</v>
+      </c>
+      <c r="J7" s="4">
+        <v>-22</v>
+      </c>
+      <c r="K7" s="4">
+        <v>4</v>
+      </c>
+      <c r="L7" s="19">
+        <v>1</v>
+      </c>
+      <c r="M7" s="19">
+        <v>0</v>
+      </c>
+      <c r="N7" s="19">
+        <v>1</v>
+      </c>
+      <c r="O7" s="19">
+        <v>1</v>
+      </c>
+      <c r="P7" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -1895,8 +2147,41 @@
       <c r="G8" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="I8" s="4">
+        <v>5</v>
+      </c>
+      <c r="J8" s="4">
+        <v>-21</v>
+      </c>
+      <c r="K8" s="4">
+        <v>5</v>
+      </c>
+      <c r="L8" s="19">
+        <v>1</v>
+      </c>
+      <c r="M8" s="19">
+        <v>1</v>
+      </c>
+      <c r="N8" s="19">
+        <v>1</v>
+      </c>
+      <c r="O8" s="19">
+        <v>0</v>
+      </c>
+      <c r="P8" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -1909,8 +2194,8 @@
       <c r="D9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>13</v>
+      <c r="E9" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>13</v>
@@ -1918,8 +2203,41 @@
       <c r="G9" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="I9" s="4">
+        <v>6</v>
+      </c>
+      <c r="J9" s="4">
+        <v>-20</v>
+      </c>
+      <c r="K9" s="4">
+        <v>6</v>
+      </c>
+      <c r="L9" s="19">
+        <v>1</v>
+      </c>
+      <c r="M9" s="19">
+        <v>1</v>
+      </c>
+      <c r="N9" s="19">
+        <v>1</v>
+      </c>
+      <c r="O9" s="19">
+        <v>1</v>
+      </c>
+      <c r="P9" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -1932,7 +2250,7 @@
       <c r="D10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="8" t="s">
@@ -1941,8 +2259,33 @@
       <c r="G10" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="I10" s="4">
+        <v>7</v>
+      </c>
+      <c r="J10" s="4">
+        <v>-19</v>
+      </c>
+      <c r="K10" s="4">
+        <v>7</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="23"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -1955,8 +2298,8 @@
       <c r="D11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>16</v>
+      <c r="E11" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>16</v>
@@ -1964,22 +2307,45 @@
       <c r="G11" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="I11" s="4">
+        <v>8</v>
+      </c>
+      <c r="J11" s="4">
+        <v>-18</v>
+      </c>
+      <c r="K11" s="4">
+        <v>8</v>
+      </c>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="4">
         <v>9</v>
       </c>
       <c r="B12" s="4">
         <v>-17</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="10">
         <v>9</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>4</v>
+      <c r="E12" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>4</v>
@@ -1987,8 +2353,33 @@
       <c r="G12" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="I12" s="4">
+        <v>9</v>
+      </c>
+      <c r="J12" s="4">
+        <v>-17</v>
+      </c>
+      <c r="K12" s="10">
+        <v>9</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="21"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -1998,7 +2389,7 @@
       <c r="C13" s="4">
         <v>10</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
         <v>16</v>
       </c>
@@ -2008,8 +2399,41 @@
       <c r="G13" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="I13" s="4">
+        <v>10</v>
+      </c>
+      <c r="J13" s="4">
+        <v>-16</v>
+      </c>
+      <c r="K13" s="4">
+        <v>10</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="P13" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -2031,8 +2455,41 @@
       <c r="G14" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="I14" s="4">
+        <v>11</v>
+      </c>
+      <c r="J14" s="4">
+        <v>-15</v>
+      </c>
+      <c r="K14" s="11">
+        <v>11</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -2054,8 +2511,41 @@
       <c r="G15" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="I15" s="4">
+        <v>12</v>
+      </c>
+      <c r="J15" s="4">
+        <v>-14</v>
+      </c>
+      <c r="K15" s="11">
+        <v>12</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="O15" s="19">
+        <v>1</v>
+      </c>
+      <c r="P15" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -2077,8 +2567,41 @@
       <c r="G16" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16" s="4">
+        <v>13</v>
+      </c>
+      <c r="J16" s="4">
+        <v>-13</v>
+      </c>
+      <c r="K16" s="11">
+        <v>13</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M16" s="19">
+        <v>7</v>
+      </c>
+      <c r="N16" s="19">
+        <v>2</v>
+      </c>
+      <c r="O16" s="19">
+        <v>5</v>
+      </c>
+      <c r="P16" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -2100,8 +2623,33 @@
       <c r="G17" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17" s="4">
+        <v>14</v>
+      </c>
+      <c r="J17" s="4">
+        <v>-12</v>
+      </c>
+      <c r="K17" s="11">
+        <v>14</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="M17" s="23"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -2123,8 +2671,31 @@
       <c r="G18" s="13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18" s="4">
+        <v>15</v>
+      </c>
+      <c r="J18" s="4">
+        <v>-11</v>
+      </c>
+      <c r="K18" s="11">
+        <v>15</v>
+      </c>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="R18" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="S18" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -2146,8 +2717,31 @@
       <c r="G19" s="13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19" s="4">
+        <v>16</v>
+      </c>
+      <c r="J19" s="4">
+        <v>-10</v>
+      </c>
+      <c r="K19" s="11">
+        <v>16</v>
+      </c>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="R19" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="S19" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -2169,8 +2763,31 @@
       <c r="G20" s="13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20" s="4">
+        <v>17</v>
+      </c>
+      <c r="J20" s="4">
+        <v>-9</v>
+      </c>
+      <c r="K20" s="4">
+        <v>17</v>
+      </c>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -2192,8 +2809,31 @@
       <c r="G21" s="13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21" s="4">
+        <v>18</v>
+      </c>
+      <c r="J21" s="4">
+        <v>-8</v>
+      </c>
+      <c r="K21" s="4">
+        <v>18</v>
+      </c>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="R21" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="S21" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -2215,8 +2855,31 @@
       <c r="G22" s="13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22" s="4">
+        <v>19</v>
+      </c>
+      <c r="J22" s="4">
+        <v>-7</v>
+      </c>
+      <c r="K22" s="4">
+        <v>19</v>
+      </c>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -2229,40 +2892,86 @@
       <c r="D23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="E23" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="4">
+        <v>20</v>
+      </c>
+      <c r="J23" s="4">
+        <v>-6</v>
+      </c>
+      <c r="K23" s="4">
+        <v>20</v>
+      </c>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="R23" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="S23" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="4">
         <v>21</v>
       </c>
       <c r="B24" s="4">
         <v>-5</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="11">
         <v>21</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="E24" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="4">
+        <v>21</v>
+      </c>
+      <c r="J24" s="4">
+        <v>-5</v>
+      </c>
+      <c r="K24" s="11">
+        <v>21</v>
+      </c>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="R24" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="S24" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -2273,19 +2982,42 @@
         <v>22</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="I25" s="4">
+        <v>22</v>
+      </c>
+      <c r="J25" s="4">
+        <v>-4</v>
+      </c>
+      <c r="K25" s="11">
+        <v>22</v>
+      </c>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="R25" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="S25" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -2298,17 +3030,40 @@
       <c r="D26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="E26" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="4">
+        <v>23</v>
+      </c>
+      <c r="J26" s="4">
+        <v>-3</v>
+      </c>
+      <c r="K26" s="11">
+        <v>23</v>
+      </c>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="R26" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="S26" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -2321,17 +3076,40 @@
       <c r="D27" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F27" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="G27" s="14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="I27" s="4">
+        <v>24</v>
+      </c>
+      <c r="J27" s="4">
+        <v>-2</v>
+      </c>
+      <c r="K27" s="11">
+        <v>24</v>
+      </c>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="R27" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="S27" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -2344,40 +3122,86 @@
       <c r="D28" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="E28" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="4">
+        <v>25</v>
+      </c>
+      <c r="J28" s="4">
+        <v>-1</v>
+      </c>
+      <c r="K28" s="25">
+        <v>25</v>
+      </c>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="R28" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="S28" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="4">
         <v>26</v>
       </c>
       <c r="B29" s="4">
         <v>0</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="15">
         <v>26</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="E29" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="4">
+        <v>26</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0</v>
+      </c>
+      <c r="K29" s="25">
+        <v>26</v>
+      </c>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="R29" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="S29" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -2390,68 +3214,148 @@
       <c r="D30" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="19" t="s">
+      <c r="E30" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" s="4">
+        <v>27</v>
+      </c>
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
+      <c r="K30" s="4">
+        <v>27</v>
+      </c>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="R30" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="S30" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="19" t="s">
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="I31" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="J31" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="K31" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="19" t="s">
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="I32" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="J32" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="K32" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="I33" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K33" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L17:M17"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/Axcels/rant.xlsx
+++ b/Axcels/rant.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\Leonic\Axcels\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="27735" windowHeight="13650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27740" windowHeight="13650" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="letter" sheetId="2" r:id="rId1"/>
     <sheet name="word" sheetId="3" r:id="rId2"/>
     <sheet name="func" sheetId="1" r:id="rId3"/>
     <sheet name="nint" sheetId="4" r:id="rId4"/>
+    <sheet name="rant-triangle" sheetId="5" r:id="rId5"/>
+    <sheet name="rant-nocenter" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="54">
   <si>
     <t xml:space="preserve"> Z</t>
   </si>
@@ -143,19 +150,72 @@
   </si>
   <si>
     <t xml:space="preserve">    a =3 b= 4 c=d e=a+b+c</t>
+  </si>
+  <si>
+    <t>　　EP1树精火焰 Vengeance RageFire △</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Func:Step</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nd</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,56 +247,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -244,94 +297,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,37 +326,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.5"/>
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.25"/>
+        <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.5"/>
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,7 +392,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.35"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,7 +404,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.75"/>
+        <fgColor theme="2" tint="-0.749992370372631"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,109 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,72 +428,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -658,255 +506,22 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -965,6 +580,66 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -979,122 +654,78 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="1" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="4">
+    <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1381,409 +1012,402 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="2" width="77.125" customWidth="1"/>
-    <col min="3" max="3" width="2.375" customWidth="1"/>
-    <col min="4" max="4" width="3.375" customWidth="1"/>
-    <col min="5" max="5" width="4.375" customWidth="1"/>
-    <col min="6" max="6" width="3.375" customWidth="1"/>
-    <col min="7" max="7" width="77.125" customWidth="1"/>
-    <col min="8" max="10" width="2.375" customWidth="1"/>
+    <col min="1" max="1" width="3.36328125" customWidth="1"/>
+    <col min="2" max="2" width="77.08984375" customWidth="1"/>
+    <col min="3" max="3" width="2.36328125" customWidth="1"/>
+    <col min="4" max="4" width="3.36328125" customWidth="1"/>
+    <col min="5" max="5" width="4.36328125" customWidth="1"/>
+    <col min="6" max="6" width="3.36328125" customWidth="1"/>
+    <col min="7" max="7" width="77.08984375" customWidth="1"/>
+    <col min="8" max="10" width="2.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="30">
-        <v>1</v>
-      </c>
-      <c r="B2" s="31" t="s">
+      <c r="B1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="26">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="33">
-        <v>2</v>
-      </c>
-      <c r="B3" s="31" t="s">
+      <c r="C2" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="29">
+        <v>2</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="30">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
         <v>3</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="30">
-        <v>4</v>
-      </c>
-      <c r="B5" s="31" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="26">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="30">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="26">
         <v>5</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="30">
+      <c r="C6" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
         <v>6</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="30">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
         <v>7</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="30">
+      <c r="C8" s="30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
         <v>8</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="30" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="31">
         <v>9</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="30">
+      <c r="C10" s="30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
         <v>10</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="34" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="30" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="36">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="32">
         <v>11</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="36">
+      <c r="C12" s="30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="32">
         <v>12</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="36">
+      <c r="C13" s="33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="32">
         <v>13</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="36">
+      <c r="C14" s="33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="32">
         <v>14</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="36">
+      <c r="C15" s="33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="32">
         <v>15</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="36">
+      <c r="C16" s="34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="32">
         <v>16</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="30">
+      <c r="C17" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
         <v>17</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="30">
+      <c r="C18" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="26">
         <v>18</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="30">
+      <c r="C19" s="34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="26">
         <v>19</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="30">
+      <c r="C20" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="26">
         <v>20</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="36">
+      <c r="C21" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="32">
         <v>21</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="36">
+      <c r="C22" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="32">
         <v>22</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="36">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="32">
         <v>23</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="36">
+      <c r="C24" s="35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="32">
         <v>24</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="36">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="32">
         <v>25</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="40">
+      <c r="C26" s="35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="36">
         <v>26</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="30">
+      <c r="C27" s="37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="26">
         <v>27</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="42" t="s">
+      <c r="C28" s="37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="43"/>
+      <c r="C29" s="39"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I33" sqref="I25:S33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.375" customWidth="1"/>
-    <col min="2" max="2" width="4.375" customWidth="1"/>
-    <col min="3" max="3" width="3.125" customWidth="1"/>
-    <col min="4" max="4" width="77.125" customWidth="1"/>
-    <col min="5" max="7" width="2.375" customWidth="1"/>
-    <col min="9" max="9" width="3.375" customWidth="1"/>
-    <col min="10" max="10" width="3.5" customWidth="1"/>
-    <col min="11" max="11" width="3.375" customWidth="1"/>
-    <col min="12" max="19" width="2.375" customWidth="1"/>
+    <col min="1" max="1" width="3.36328125" customWidth="1"/>
+    <col min="2" max="2" width="4.36328125" customWidth="1"/>
+    <col min="3" max="3" width="3.08984375" customWidth="1"/>
+    <col min="4" max="4" width="77.08984375" customWidth="1"/>
+    <col min="5" max="7" width="2.36328125" customWidth="1"/>
+    <col min="9" max="9" width="3.36328125" customWidth="1"/>
+    <col min="10" max="10" width="3.453125" customWidth="1"/>
+    <col min="11" max="11" width="3.36328125" customWidth="1"/>
+    <col min="12" max="19" width="2.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -1819,17 +1443,17 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="S1" s="26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="Q1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1865,17 +1489,17 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-      <c r="Q2" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" s="26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="Q2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1911,17 +1535,17 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" s="26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="Q3" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1965,7 +1589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1996,10 +1620,10 @@
       <c r="K5" s="7">
         <v>2</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="21"/>
+      <c r="M5" s="41"/>
       <c r="N5" s="19"/>
       <c r="O5" s="19"/>
       <c r="P5" s="19"/>
@@ -2013,7 +1637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -2069,7 +1693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -2125,7 +1749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -2181,7 +1805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -2237,7 +1861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -2268,10 +1892,10 @@
       <c r="K10" s="4">
         <v>7</v>
       </c>
-      <c r="L10" s="22" t="s">
+      <c r="L10" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="23"/>
+      <c r="M10" s="43"/>
       <c r="N10" s="19"/>
       <c r="O10" s="19"/>
       <c r="P10" s="19"/>
@@ -2285,7 +1909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -2316,11 +1940,11 @@
       <c r="K11" s="4">
         <v>8</v>
       </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
       <c r="Q11" s="8" t="s">
         <v>16</v>
       </c>
@@ -2331,7 +1955,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -2362,10 +1986,10 @@
       <c r="K12" s="10">
         <v>9</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="L12" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="M12" s="21"/>
+      <c r="M12" s="41"/>
       <c r="N12" s="19"/>
       <c r="O12" s="19"/>
       <c r="P12" s="19"/>
@@ -2379,7 +2003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -2433,7 +2057,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -2489,7 +2113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -2545,7 +2169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -2601,7 +2225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -2632,10 +2256,10 @@
       <c r="K17" s="11">
         <v>14</v>
       </c>
-      <c r="L17" s="22" t="s">
+      <c r="L17" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="M17" s="23"/>
+      <c r="M17" s="43"/>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
       <c r="P17" s="19"/>
@@ -2649,7 +2273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -2659,8 +2283,8 @@
       <c r="C18" s="11">
         <v>15</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>22</v>
+      <c r="D18" s="46" t="s">
+        <v>42</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>2</v>
@@ -2680,11 +2304,11 @@
       <c r="K18" s="11">
         <v>15</v>
       </c>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
       <c r="Q18" s="13" t="s">
         <v>2</v>
       </c>
@@ -2695,7 +2319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -2726,11 +2350,11 @@
       <c r="K19" s="11">
         <v>16</v>
       </c>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
       <c r="Q19" s="13" t="s">
         <v>4</v>
       </c>
@@ -2741,7 +2365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -2772,11 +2396,13 @@
       <c r="K20" s="4">
         <v>17</v>
       </c>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
+      <c r="L20" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="M20" s="44"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
       <c r="Q20" s="13" t="s">
         <v>4</v>
       </c>
@@ -2787,7 +2413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -2818,11 +2444,11 @@
       <c r="K21" s="4">
         <v>18</v>
       </c>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="44"/>
       <c r="Q21" s="13" t="s">
         <v>2</v>
       </c>
@@ -2833,7 +2459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -2864,11 +2490,11 @@
       <c r="K22" s="4">
         <v>19</v>
       </c>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="44"/>
       <c r="Q22" s="13" t="s">
         <v>4</v>
       </c>
@@ -2879,7 +2505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -2910,11 +2536,11 @@
       <c r="K23" s="4">
         <v>20</v>
       </c>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
       <c r="Q23" s="13" t="s">
         <v>4</v>
       </c>
@@ -2925,7 +2551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -2956,11 +2582,11 @@
       <c r="K24" s="11">
         <v>21</v>
       </c>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
       <c r="Q24" s="13" t="s">
         <v>4</v>
       </c>
@@ -2971,7 +2597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -3002,11 +2628,13 @@
       <c r="K25" s="11">
         <v>22</v>
       </c>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
+      <c r="L25" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="M25" s="45"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
       <c r="Q25" s="14" t="s">
         <v>13</v>
       </c>
@@ -3017,7 +2645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -3048,11 +2676,11 @@
       <c r="K26" s="11">
         <v>23</v>
       </c>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
       <c r="Q26" s="14" t="s">
         <v>4</v>
       </c>
@@ -3063,7 +2691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -3094,11 +2722,11 @@
       <c r="K27" s="11">
         <v>24</v>
       </c>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
       <c r="Q27" s="14" t="s">
         <v>28</v>
       </c>
@@ -3109,7 +2737,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -3137,14 +2765,14 @@
       <c r="J28" s="4">
         <v>-1</v>
       </c>
-      <c r="K28" s="25">
+      <c r="K28" s="21">
         <v>25</v>
       </c>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
       <c r="Q28" s="14" t="s">
         <v>4</v>
       </c>
@@ -3155,7 +2783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -3183,14 +2811,14 @@
       <c r="J29" s="4">
         <v>0</v>
       </c>
-      <c r="K29" s="25">
+      <c r="K29" s="21">
         <v>26</v>
       </c>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
       <c r="Q29" s="16" t="s">
         <v>4</v>
       </c>
@@ -3201,7 +2829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -3232,11 +2860,11 @@
       <c r="K30" s="4">
         <v>27</v>
       </c>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
       <c r="Q30" s="16" t="s">
         <v>4</v>
       </c>
@@ -3247,7 +2875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>29</v>
       </c>
@@ -3281,7 +2909,7 @@
       <c r="R31" s="18"/>
       <c r="S31" s="18"/>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>29</v>
       </c>
@@ -3315,7 +2943,7 @@
       <c r="R32" s="18"/>
       <c r="S32" s="18"/>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>29</v>
       </c>
@@ -3356,7 +2984,340 @@
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L17:M17"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:X12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.26953125" customWidth="1"/>
+    <col min="4" max="19" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.36328125" customWidth="1"/>
+    <col min="21" max="23" width="2.26953125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B2" s="55">
+        <v>1</v>
+      </c>
+      <c r="C2" s="55">
+        <v>1</v>
+      </c>
+      <c r="D2" s="55">
+        <v>1</v>
+      </c>
+      <c r="E2" s="55">
+        <v>1</v>
+      </c>
+      <c r="F2" s="55">
+        <v>1</v>
+      </c>
+      <c r="G2" s="55">
+        <v>1</v>
+      </c>
+      <c r="H2" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B3" s="56">
+        <v>1</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="54"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B4" s="55">
+        <v>1</v>
+      </c>
+      <c r="C4" s="49"/>
+      <c r="D4" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="49"/>
+      <c r="H4" s="55">
+        <v>1</v>
+      </c>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="54"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B5" s="55">
+        <v>1</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="55">
+        <v>1</v>
+      </c>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B6" s="55">
+        <v>1</v>
+      </c>
+      <c r="C6" s="53"/>
+      <c r="D6" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="53"/>
+      <c r="H6" s="57">
+        <v>1</v>
+      </c>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="54"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B7" s="55">
+        <v>1</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="55">
+        <v>1</v>
+      </c>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="54"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="61"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B8" s="58">
+        <v>1</v>
+      </c>
+      <c r="C8" s="55">
+        <v>1</v>
+      </c>
+      <c r="D8" s="55">
+        <v>1</v>
+      </c>
+      <c r="E8" s="55">
+        <v>1</v>
+      </c>
+      <c r="F8" s="55">
+        <v>1</v>
+      </c>
+      <c r="G8" s="55">
+        <v>1</v>
+      </c>
+      <c r="H8" s="55">
+        <v>1</v>
+      </c>
+      <c r="K8" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="61"/>
+      <c r="W8" s="61"/>
+      <c r="X8" s="61"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="61"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="61"/>
+      <c r="V10" s="61"/>
+      <c r="W10" s="61"/>
+      <c r="X10" s="61"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="62"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="61"/>
+      <c r="V11" s="61"/>
+      <c r="W11" s="61"/>
+      <c r="X11" s="61"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="62"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Axcels/rant.xlsx
+++ b/Axcels/rant.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27735" windowHeight="13650" activeTab="5"/>
+    <workbookView windowWidth="27495" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="letter" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
   <si>
     <t xml:space="preserve"> Z</t>
   </si>
@@ -186,73 +186,76 @@
     <t>tye</t>
   </si>
   <si>
+    <t>Axis top centera b c d e f g h i g k l</t>
+  </si>
+  <si>
+    <t>toy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camray:Sumit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Requires Random Not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pony</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Pixels Font Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  //像素 比率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  //自定义 单位 </t>
+  </si>
+  <si>
+    <t>Pony</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ket arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  pony.font.perfomance.redraw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  screen:pixels/font.size</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> width:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    char[120] = 1920/16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wchar[100x] =  1920/16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   height:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    char[68] = 1080/16 67.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  covid.display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   linb:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Top bottom Left Right</t>
+  </si>
+  <si>
+    <t>bye</t>
+  </si>
+  <si>
+    <t>Rows：432 Cols：98</t>
+  </si>
+  <si>
+    <t>boy</t>
+  </si>
+  <si>
     <t>a b c d e f g h i g k l</t>
-  </si>
-  <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camray:Sumit </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Requires Random Not</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Pony</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Pixels Font Image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  //像素 比率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  //自定义 单位 </t>
-  </si>
-  <si>
-    <t>Pony</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ket arrays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  pony.font.perfomance.redraw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  screen:pixels/font.size</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> width:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    char[120] = 1920/16 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    wchar[100x] =  1920/16 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   height:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    char[68] = 1080/16 67.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  covid.display</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   linb:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Top bottom Left Right</t>
-  </si>
-  <si>
-    <t>bye</t>
-  </si>
-  <si>
-    <t>Rows：432 Cols：98</t>
-  </si>
-  <si>
-    <t>boy</t>
   </si>
   <si>
     <t>N</t>
@@ -271,8 +274,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -352,7 +355,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,31 +368,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,6 +384,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -412,7 +400,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,18 +447,33 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -645,37 +648,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,7 +684,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,19 +732,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,13 +744,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,12 +769,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,17 +834,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -870,13 +869,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -886,6 +889,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -913,21 +931,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -936,10 +939,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -948,7 +951,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -960,125 +963,125 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="49" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="48" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1100,18 +1103,12 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1127,9 +1124,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1137,9 +1131,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1174,9 +1165,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1717,7 +1705,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1750,319 +1738,319 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="77">
-        <v>1</v>
-      </c>
-      <c r="B2" s="78" t="s">
+      <c r="A2" s="72">
+        <v>1</v>
+      </c>
+      <c r="B2" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="74" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="80">
+      <c r="A3" s="75">
         <v>2</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="74" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="77">
+      <c r="A4" s="72">
         <v>3</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="74" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="77">
-        <v>4</v>
-      </c>
-      <c r="B5" s="78" t="s">
+      <c r="A5" s="72">
+        <v>4</v>
+      </c>
+      <c r="B5" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="76" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="77">
+      <c r="A6" s="72">
         <v>5</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="76" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="77">
+      <c r="A7" s="72">
         <v>6</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="76" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="77">
+      <c r="A8" s="72">
         <v>7</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="76" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="77">
+      <c r="A9" s="72">
         <v>8</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="76" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="82">
+      <c r="A10" s="77">
         <v>9</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="81" t="s">
+      <c r="C10" s="76" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="77">
+      <c r="A11" s="72">
         <v>10</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="81" t="s">
+      <c r="B11" s="73"/>
+      <c r="C11" s="76" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="32">
+      <c r="A12" s="25">
         <v>11</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="76" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="32">
+      <c r="A13" s="25">
         <v>12</v>
       </c>
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="78" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="32">
+      <c r="A14" s="25">
         <v>13</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="78" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="32">
+      <c r="A15" s="25">
         <v>14</v>
       </c>
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="83" t="s">
+      <c r="C15" s="78" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="32">
+      <c r="A16" s="25">
         <v>15</v>
       </c>
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="84" t="s">
+      <c r="C16" s="79" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="32">
+      <c r="A17" s="25">
         <v>16</v>
       </c>
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="84" t="s">
+      <c r="C17" s="79" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="77">
+      <c r="A18" s="72">
         <v>17</v>
       </c>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="84" t="s">
+      <c r="C18" s="79" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="77">
+      <c r="A19" s="72">
         <v>18</v>
       </c>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="84" t="s">
+      <c r="C19" s="79" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="77">
+      <c r="A20" s="72">
         <v>19</v>
       </c>
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="84" t="s">
+      <c r="C20" s="79" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="77">
+      <c r="A21" s="72">
         <v>20</v>
       </c>
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="84" t="s">
+      <c r="C21" s="79" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="32">
+      <c r="A22" s="25">
         <v>21</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="84" t="s">
+      <c r="C22" s="79" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="32">
+      <c r="A23" s="25">
         <v>22</v>
       </c>
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="85" t="s">
+      <c r="C23" s="80" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="32">
+      <c r="A24" s="25">
         <v>23</v>
       </c>
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="85" t="s">
+      <c r="C24" s="80" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="32">
+      <c r="A25" s="25">
         <v>24</v>
       </c>
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="85" t="s">
+      <c r="C25" s="80" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="32">
+      <c r="A26" s="25">
         <v>25</v>
       </c>
-      <c r="B26" s="78" t="s">
+      <c r="B26" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="85" t="s">
+      <c r="C26" s="80" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="86">
+      <c r="A27" s="81">
         <v>26</v>
       </c>
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="87" t="s">
+      <c r="C27" s="82" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="77">
+      <c r="A28" s="72">
         <v>27</v>
       </c>
-      <c r="B28" s="78" t="s">
+      <c r="B28" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="87" t="s">
+      <c r="C28" s="82" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="88" t="s">
+      <c r="A29" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="87" t="s">
+      <c r="B29" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="89"/>
+      <c r="C29" s="84"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2094,1574 +2082,1574 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="47">
-        <v>1</v>
-      </c>
-      <c r="B1" s="47" t="s">
+      <c r="A1" s="42">
+        <v>1</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="47">
-        <v>1</v>
-      </c>
-      <c r="J1" s="47" t="s">
+      <c r="I1" s="42">
+        <v>1</v>
+      </c>
+      <c r="J1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="74" t="s">
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="74" t="s">
+      <c r="R1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="74" t="s">
+      <c r="S1" s="69" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="47">
+      <c r="B2" s="42">
         <v>3</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="49" t="s">
+      <c r="D2" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="47">
+      <c r="J2" s="42">
         <v>3</v>
       </c>
-      <c r="K2" s="47" t="s">
+      <c r="K2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="74" t="s">
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="74" t="s">
+      <c r="R2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="74" t="s">
+      <c r="S2" s="69" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="47" t="s">
+      <c r="A3" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="42">
         <v>6</v>
       </c>
-      <c r="D3" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="49" t="s">
+      <c r="D3" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="47" t="s">
+      <c r="I3" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="47">
+      <c r="K3" s="42">
         <v>6</v>
       </c>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="74" t="s">
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="74" t="s">
+      <c r="R3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="74" t="s">
+      <c r="S3" s="69" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="50">
-        <v>1</v>
-      </c>
-      <c r="B4" s="50">
+      <c r="A4" s="45">
+        <v>1</v>
+      </c>
+      <c r="B4" s="45">
         <v>-25</v>
       </c>
-      <c r="C4" s="50">
-        <v>1</v>
-      </c>
-      <c r="D4" s="51" t="s">
+      <c r="C4" s="45">
+        <v>1</v>
+      </c>
+      <c r="D4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="50">
-        <v>1</v>
-      </c>
-      <c r="J4" s="50">
+      <c r="E4" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="45">
+        <v>1</v>
+      </c>
+      <c r="J4" s="45">
         <v>-25</v>
       </c>
-      <c r="K4" s="50">
-        <v>1</v>
-      </c>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="R4" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="S4" s="52" t="s">
+      <c r="K4" s="45">
+        <v>1</v>
+      </c>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" s="47" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="50">
+      <c r="A5" s="45">
         <v>2</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="45">
         <v>-24</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C5" s="48">
         <v>2</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="52" t="s">
+      <c r="G5" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="50">
+      <c r="I5" s="45">
         <v>2</v>
       </c>
-      <c r="J5" s="50">
+      <c r="J5" s="45">
         <v>-24</v>
       </c>
-      <c r="K5" s="53">
+      <c r="K5" s="48">
         <v>2</v>
       </c>
-      <c r="L5" s="66" t="s">
+      <c r="L5" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="52" t="s">
+      <c r="M5" s="62"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="R5" s="52" t="s">
+      <c r="R5" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="52" t="s">
+      <c r="S5" s="47" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="50">
+      <c r="A6" s="45">
         <v>3</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B6" s="45">
         <v>-23</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6" s="45">
         <v>3</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="52" t="s">
+      <c r="G6" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="50">
+      <c r="I6" s="45">
         <v>3</v>
       </c>
-      <c r="J6" s="50">
+      <c r="J6" s="45">
         <v>-23</v>
       </c>
-      <c r="K6" s="50">
+      <c r="K6" s="45">
         <v>3</v>
       </c>
-      <c r="L6" s="65">
-        <v>1</v>
-      </c>
-      <c r="M6" s="65">
-        <v>1</v>
-      </c>
-      <c r="N6" s="65">
-        <v>1</v>
-      </c>
-      <c r="O6" s="65">
-        <v>1</v>
-      </c>
-      <c r="P6" s="65">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="55" t="s">
+      <c r="L6" s="60">
+        <v>1</v>
+      </c>
+      <c r="M6" s="60">
+        <v>1</v>
+      </c>
+      <c r="N6" s="60">
+        <v>1</v>
+      </c>
+      <c r="O6" s="60">
+        <v>1</v>
+      </c>
+      <c r="P6" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="R6" s="52" t="s">
+      <c r="R6" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="S6" s="52" t="s">
+      <c r="S6" s="47" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="50">
-        <v>4</v>
-      </c>
-      <c r="B7" s="50">
+      <c r="A7" s="45">
+        <v>4</v>
+      </c>
+      <c r="B7" s="45">
         <v>-22</v>
       </c>
-      <c r="C7" s="50">
-        <v>4</v>
-      </c>
-      <c r="D7" s="51" t="s">
+      <c r="C7" s="45">
+        <v>4</v>
+      </c>
+      <c r="D7" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="54" t="s">
+      <c r="F7" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="G7" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="50">
-        <v>4</v>
-      </c>
-      <c r="J7" s="50">
+      <c r="I7" s="45">
+        <v>4</v>
+      </c>
+      <c r="J7" s="45">
         <v>-22</v>
       </c>
-      <c r="K7" s="50">
-        <v>4</v>
-      </c>
-      <c r="L7" s="65">
-        <v>1</v>
-      </c>
-      <c r="M7" s="65">
+      <c r="K7" s="45">
+        <v>4</v>
+      </c>
+      <c r="L7" s="60">
+        <v>1</v>
+      </c>
+      <c r="M7" s="60">
         <v>0</v>
       </c>
-      <c r="N7" s="65">
-        <v>1</v>
-      </c>
-      <c r="O7" s="65">
-        <v>1</v>
-      </c>
-      <c r="P7" s="65">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="R7" s="54" t="s">
+      <c r="N7" s="60">
+        <v>1</v>
+      </c>
+      <c r="O7" s="60">
+        <v>1</v>
+      </c>
+      <c r="P7" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="S7" s="54" t="s">
+      <c r="S7" s="49" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="50">
+      <c r="A8" s="45">
         <v>5</v>
       </c>
-      <c r="B8" s="50">
+      <c r="B8" s="45">
         <v>-21</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="45">
         <v>5</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="54" t="s">
+      <c r="F8" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="54" t="s">
+      <c r="G8" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="50">
+      <c r="I8" s="45">
         <v>5</v>
       </c>
-      <c r="J8" s="50">
+      <c r="J8" s="45">
         <v>-21</v>
       </c>
-      <c r="K8" s="50">
+      <c r="K8" s="45">
         <v>5</v>
       </c>
-      <c r="L8" s="65">
-        <v>1</v>
-      </c>
-      <c r="M8" s="65">
-        <v>1</v>
-      </c>
-      <c r="N8" s="65">
-        <v>1</v>
-      </c>
-      <c r="O8" s="65">
+      <c r="L8" s="60">
+        <v>1</v>
+      </c>
+      <c r="M8" s="60">
+        <v>1</v>
+      </c>
+      <c r="N8" s="60">
+        <v>1</v>
+      </c>
+      <c r="O8" s="60">
         <v>0</v>
       </c>
-      <c r="P8" s="65">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="55" t="s">
+      <c r="P8" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="R8" s="54" t="s">
+      <c r="R8" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="S8" s="54" t="s">
+      <c r="S8" s="49" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="50">
+      <c r="A9" s="45">
         <v>6</v>
       </c>
-      <c r="B9" s="50">
+      <c r="B9" s="45">
         <v>-20</v>
       </c>
-      <c r="C9" s="50">
+      <c r="C9" s="45">
         <v>6</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="54" t="s">
+      <c r="F9" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="54" t="s">
+      <c r="G9" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="50">
+      <c r="I9" s="45">
         <v>6</v>
       </c>
-      <c r="J9" s="50">
+      <c r="J9" s="45">
         <v>-20</v>
       </c>
-      <c r="K9" s="50">
+      <c r="K9" s="45">
         <v>6</v>
       </c>
-      <c r="L9" s="65">
-        <v>1</v>
-      </c>
-      <c r="M9" s="65">
-        <v>1</v>
-      </c>
-      <c r="N9" s="65">
-        <v>1</v>
-      </c>
-      <c r="O9" s="65">
-        <v>1</v>
-      </c>
-      <c r="P9" s="65">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="55" t="s">
+      <c r="L9" s="60">
+        <v>1</v>
+      </c>
+      <c r="M9" s="60">
+        <v>1</v>
+      </c>
+      <c r="N9" s="60">
+        <v>1</v>
+      </c>
+      <c r="O9" s="60">
+        <v>1</v>
+      </c>
+      <c r="P9" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="R9" s="54" t="s">
+      <c r="R9" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="S9" s="54" t="s">
+      <c r="S9" s="49" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="50">
+      <c r="A10" s="45">
         <v>7</v>
       </c>
-      <c r="B10" s="50">
+      <c r="B10" s="45">
         <v>-19</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="45">
         <v>7</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="50">
+      <c r="E10" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="45">
         <v>7</v>
       </c>
-      <c r="J10" s="50">
+      <c r="J10" s="45">
         <v>-19</v>
       </c>
-      <c r="K10" s="50">
+      <c r="K10" s="45">
         <v>7</v>
       </c>
-      <c r="L10" s="68" t="s">
+      <c r="L10" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="69"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="R10" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="S10" s="54" t="s">
+      <c r="M10" s="64"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="49" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="50">
+      <c r="A11" s="45">
         <v>8</v>
       </c>
-      <c r="B11" s="50">
+      <c r="B11" s="45">
         <v>-18</v>
       </c>
-      <c r="C11" s="50">
+      <c r="C11" s="45">
         <v>8</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="54" t="s">
+      <c r="F11" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="54" t="s">
+      <c r="G11" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="50">
+      <c r="I11" s="45">
         <v>8</v>
       </c>
-      <c r="J11" s="50">
+      <c r="J11" s="45">
         <v>-18</v>
       </c>
-      <c r="K11" s="50">
+      <c r="K11" s="45">
         <v>8</v>
       </c>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="54" t="s">
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="R11" s="54" t="s">
+      <c r="R11" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="S11" s="54" t="s">
+      <c r="S11" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="50">
+      <c r="A12" s="45">
         <v>9</v>
       </c>
-      <c r="B12" s="50">
+      <c r="B12" s="45">
         <v>-17</v>
       </c>
-      <c r="C12" s="56">
+      <c r="C12" s="51">
         <v>9</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="50">
+      <c r="F12" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="45">
         <v>9</v>
       </c>
-      <c r="J12" s="50">
+      <c r="J12" s="45">
         <v>-17</v>
       </c>
-      <c r="K12" s="56">
+      <c r="K12" s="51">
         <v>9</v>
       </c>
-      <c r="L12" s="66" t="s">
+      <c r="L12" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="M12" s="67"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="R12" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="S12" s="54" t="s">
+      <c r="M12" s="62"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="49" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="50">
+      <c r="A13" s="45">
         <v>10</v>
       </c>
-      <c r="B13" s="50">
+      <c r="B13" s="45">
         <v>-16</v>
       </c>
-      <c r="C13" s="50">
+      <c r="C13" s="45">
         <v>10</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="54" t="s">
+      <c r="D13" s="46"/>
+      <c r="E13" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="54" t="s">
+      <c r="F13" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="54" t="s">
+      <c r="G13" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="50">
+      <c r="I13" s="45">
         <v>10</v>
       </c>
-      <c r="J13" s="50">
+      <c r="J13" s="45">
         <v>-16</v>
       </c>
-      <c r="K13" s="50">
+      <c r="K13" s="45">
         <v>10</v>
       </c>
-      <c r="L13" s="65" t="s">
+      <c r="L13" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="M13" s="65" t="s">
+      <c r="M13" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="N13" s="65" t="s">
+      <c r="N13" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="65" t="s">
+      <c r="O13" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="P13" s="65" t="s">
+      <c r="P13" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="Q13" s="54" t="s">
+      <c r="Q13" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="R13" s="54" t="s">
+      <c r="R13" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="S13" s="54" t="s">
+      <c r="S13" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="50">
+      <c r="A14" s="45">
         <v>11</v>
       </c>
-      <c r="B14" s="50">
+      <c r="B14" s="45">
         <v>-15</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="52">
         <v>11</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="50">
+      <c r="E14" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="45">
         <v>11</v>
       </c>
-      <c r="J14" s="50">
+      <c r="J14" s="45">
         <v>-15</v>
       </c>
-      <c r="K14" s="57">
+      <c r="K14" s="52">
         <v>11</v>
       </c>
-      <c r="L14" s="65" t="s">
+      <c r="L14" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="M14" s="65" t="s">
+      <c r="M14" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="N14" s="65" t="s">
+      <c r="N14" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="O14" s="65" t="s">
+      <c r="O14" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="P14" s="65" t="s">
+      <c r="P14" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="Q14" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="54" t="s">
+      <c r="Q14" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="49" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="50">
+      <c r="A15" s="45">
         <v>12</v>
       </c>
-      <c r="B15" s="50">
+      <c r="B15" s="45">
         <v>-14</v>
       </c>
-      <c r="C15" s="57">
+      <c r="C15" s="52">
         <v>12</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="D15" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="50">
+      <c r="E15" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="45">
         <v>12</v>
       </c>
-      <c r="J15" s="50">
+      <c r="J15" s="45">
         <v>-14</v>
       </c>
-      <c r="K15" s="57">
+      <c r="K15" s="52">
         <v>12</v>
       </c>
-      <c r="L15" s="65" t="s">
+      <c r="L15" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="M15" s="65" t="s">
+      <c r="M15" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="N15" s="65" t="s">
+      <c r="N15" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="O15" s="65">
-        <v>1</v>
-      </c>
-      <c r="P15" s="65">
+      <c r="O15" s="60">
+        <v>1</v>
+      </c>
+      <c r="P15" s="60">
         <v>2</v>
       </c>
-      <c r="Q15" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="R15" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="S15" s="58" t="s">
+      <c r="Q15" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="53" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="50">
+      <c r="A16" s="45">
         <v>13</v>
       </c>
-      <c r="B16" s="50">
+      <c r="B16" s="45">
         <v>-13</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="52">
         <v>13</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" s="50">
+      <c r="E16" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="45">
         <v>13</v>
       </c>
-      <c r="J16" s="50">
+      <c r="J16" s="45">
         <v>-13</v>
       </c>
-      <c r="K16" s="57">
+      <c r="K16" s="52">
         <v>13</v>
       </c>
-      <c r="L16" s="65" t="s">
+      <c r="L16" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="M16" s="65">
+      <c r="M16" s="60">
         <v>7</v>
       </c>
-      <c r="N16" s="65">
+      <c r="N16" s="60">
         <v>2</v>
       </c>
-      <c r="O16" s="65">
+      <c r="O16" s="60">
         <v>5</v>
       </c>
-      <c r="P16" s="65">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="R16" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="S16" s="58" t="s">
+      <c r="P16" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="R16" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="S16" s="53" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="50">
+      <c r="A17" s="45">
         <v>14</v>
       </c>
-      <c r="B17" s="50">
+      <c r="B17" s="45">
         <v>-12</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="52">
         <v>14</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="50">
+      <c r="E17" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="45">
         <v>14</v>
       </c>
-      <c r="J17" s="50">
+      <c r="J17" s="45">
         <v>-12</v>
       </c>
-      <c r="K17" s="57">
+      <c r="K17" s="52">
         <v>14</v>
       </c>
-      <c r="L17" s="68" t="s">
+      <c r="L17" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="M17" s="69"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="R17" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="S17" s="58" t="s">
+      <c r="M17" s="64"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="R17" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="53" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="50">
+      <c r="A18" s="45">
         <v>15</v>
       </c>
-      <c r="B18" s="50">
+      <c r="B18" s="45">
         <v>-11</v>
       </c>
-      <c r="C18" s="57">
+      <c r="C18" s="52">
         <v>15</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="59" t="s">
+      <c r="E18" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="59" t="s">
+      <c r="F18" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="59" t="s">
+      <c r="G18" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="I18" s="50">
+      <c r="I18" s="45">
         <v>15</v>
       </c>
-      <c r="J18" s="50">
+      <c r="J18" s="45">
         <v>-11</v>
       </c>
-      <c r="K18" s="57">
+      <c r="K18" s="52">
         <v>15</v>
       </c>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="59" t="s">
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="R18" s="59" t="s">
+      <c r="R18" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="S18" s="59" t="s">
+      <c r="S18" s="54" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="50">
+      <c r="A19" s="45">
         <v>16</v>
       </c>
-      <c r="B19" s="50">
+      <c r="B19" s="45">
         <v>-10</v>
       </c>
-      <c r="C19" s="57">
+      <c r="C19" s="52">
         <v>16</v>
       </c>
-      <c r="D19" s="51" t="s">
+      <c r="D19" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="I19" s="50">
+      <c r="E19" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="45">
         <v>16</v>
       </c>
-      <c r="J19" s="50">
+      <c r="J19" s="45">
         <v>-10</v>
       </c>
-      <c r="K19" s="57">
+      <c r="K19" s="52">
         <v>16</v>
       </c>
-      <c r="L19" s="71"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="71"/>
-      <c r="O19" s="71"/>
-      <c r="P19" s="71"/>
-      <c r="Q19" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="R19" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="S19" s="59" t="s">
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="R19" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="S19" s="54" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="50">
+      <c r="A20" s="45">
         <v>17</v>
       </c>
-      <c r="B20" s="50">
+      <c r="B20" s="45">
         <v>-9</v>
       </c>
-      <c r="C20" s="50">
+      <c r="C20" s="45">
         <v>17</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="50">
+      <c r="E20" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="45">
         <v>17</v>
       </c>
-      <c r="J20" s="50">
+      <c r="J20" s="45">
         <v>-9</v>
       </c>
-      <c r="K20" s="50">
+      <c r="K20" s="45">
         <v>17</v>
       </c>
-      <c r="L20" s="71" t="s">
+      <c r="L20" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="R20" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="S20" s="59" t="s">
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="54" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="50">
+      <c r="A21" s="45">
         <v>18</v>
       </c>
-      <c r="B21" s="50">
+      <c r="B21" s="45">
         <v>-8</v>
       </c>
-      <c r="C21" s="50">
+      <c r="C21" s="45">
         <v>18</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="59" t="s">
+      <c r="E21" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="59" t="s">
+      <c r="F21" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="G21" s="59" t="s">
+      <c r="G21" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="I21" s="50">
+      <c r="I21" s="45">
         <v>18</v>
       </c>
-      <c r="J21" s="50">
+      <c r="J21" s="45">
         <v>-8</v>
       </c>
-      <c r="K21" s="50">
+      <c r="K21" s="45">
         <v>18</v>
       </c>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="59" t="s">
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="R21" s="59" t="s">
+      <c r="R21" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="S21" s="59" t="s">
+      <c r="S21" s="54" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="50">
+      <c r="A22" s="45">
         <v>19</v>
       </c>
-      <c r="B22" s="50">
+      <c r="B22" s="45">
         <v>-7</v>
       </c>
-      <c r="C22" s="50">
+      <c r="C22" s="45">
         <v>19</v>
       </c>
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="50">
+      <c r="E22" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="45">
         <v>19</v>
       </c>
-      <c r="J22" s="50">
+      <c r="J22" s="45">
         <v>-7</v>
       </c>
-      <c r="K22" s="50">
+      <c r="K22" s="45">
         <v>19</v>
       </c>
-      <c r="L22" s="71"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="72"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="R22" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="S22" s="59" t="s">
+      <c r="L22" s="66"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="54" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="50">
+      <c r="A23" s="45">
         <v>20</v>
       </c>
-      <c r="B23" s="50">
+      <c r="B23" s="45">
         <v>-6</v>
       </c>
-      <c r="C23" s="50">
+      <c r="C23" s="45">
         <v>20</v>
       </c>
-      <c r="D23" s="51" t="s">
+      <c r="D23" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="I23" s="50">
+      <c r="E23" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="45">
         <v>20</v>
       </c>
-      <c r="J23" s="50">
+      <c r="J23" s="45">
         <v>-6</v>
       </c>
-      <c r="K23" s="50">
+      <c r="K23" s="45">
         <v>20</v>
       </c>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="R23" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="S23" s="59" t="s">
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="R23" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="S23" s="54" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="50">
+      <c r="A24" s="45">
         <v>21</v>
       </c>
-      <c r="B24" s="50">
+      <c r="B24" s="45">
         <v>-5</v>
       </c>
-      <c r="C24" s="57">
+      <c r="C24" s="52">
         <v>21</v>
       </c>
-      <c r="D24" s="51" t="s">
+      <c r="D24" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="50">
+      <c r="E24" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="45">
         <v>21</v>
       </c>
-      <c r="J24" s="50">
+      <c r="J24" s="45">
         <v>-5</v>
       </c>
-      <c r="K24" s="57">
+      <c r="K24" s="52">
         <v>21</v>
       </c>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="R24" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="S24" s="59" t="s">
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="R24" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="S24" s="54" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="50">
+      <c r="A25" s="45">
         <v>22</v>
       </c>
-      <c r="B25" s="50">
+      <c r="B25" s="45">
         <v>-4</v>
       </c>
-      <c r="C25" s="57">
+      <c r="C25" s="52">
         <v>22</v>
       </c>
-      <c r="D25" s="51" t="s">
+      <c r="D25" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="60" t="s">
+      <c r="E25" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="60" t="s">
+      <c r="F25" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="60" t="s">
+      <c r="G25" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="50">
+      <c r="I25" s="45">
         <v>22</v>
       </c>
-      <c r="J25" s="50">
+      <c r="J25" s="45">
         <v>-4</v>
       </c>
-      <c r="K25" s="57">
+      <c r="K25" s="52">
         <v>22</v>
       </c>
-      <c r="L25" s="71" t="s">
+      <c r="L25" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="71"/>
-      <c r="Q25" s="60" t="s">
+      <c r="M25" s="66"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="R25" s="60" t="s">
+      <c r="R25" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="S25" s="60" t="s">
+      <c r="S25" s="55" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="50">
+      <c r="A26" s="45">
         <v>23</v>
       </c>
-      <c r="B26" s="50">
+      <c r="B26" s="45">
         <v>-3</v>
       </c>
-      <c r="C26" s="57">
+      <c r="C26" s="52">
         <v>23</v>
       </c>
-      <c r="D26" s="51" t="s">
+      <c r="D26" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="50">
+      <c r="E26" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="45">
         <v>23</v>
       </c>
-      <c r="J26" s="50">
+      <c r="J26" s="45">
         <v>-3</v>
       </c>
-      <c r="K26" s="57">
+      <c r="K26" s="52">
         <v>23</v>
       </c>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="R26" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="S26" s="60" t="s">
+      <c r="L26" s="66"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="R26" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="S26" s="55" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="50">
+      <c r="A27" s="45">
         <v>24</v>
       </c>
-      <c r="B27" s="50">
+      <c r="B27" s="45">
         <v>-2</v>
       </c>
-      <c r="C27" s="57">
+      <c r="C27" s="52">
         <v>24</v>
       </c>
-      <c r="D27" s="51" t="s">
+      <c r="D27" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="60" t="s">
+      <c r="E27" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="60" t="s">
+      <c r="F27" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="60" t="s">
+      <c r="G27" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="I27" s="50">
+      <c r="I27" s="45">
         <v>24</v>
       </c>
-      <c r="J27" s="50">
+      <c r="J27" s="45">
         <v>-2</v>
       </c>
-      <c r="K27" s="57">
+      <c r="K27" s="52">
         <v>24</v>
       </c>
-      <c r="L27" s="71"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="60" t="s">
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="R27" s="60" t="s">
+      <c r="R27" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="S27" s="60" t="s">
+      <c r="S27" s="55" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="50">
+      <c r="A28" s="45">
         <v>25</v>
       </c>
-      <c r="B28" s="50">
+      <c r="B28" s="45">
         <v>-1</v>
       </c>
-      <c r="C28" s="57">
+      <c r="C28" s="52">
         <v>25</v>
       </c>
-      <c r="D28" s="51" t="s">
+      <c r="D28" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="I28" s="50">
+      <c r="E28" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="45">
         <v>25</v>
       </c>
-      <c r="J28" s="50">
+      <c r="J28" s="45">
         <v>-1</v>
       </c>
-      <c r="K28" s="73">
+      <c r="K28" s="68">
         <v>25</v>
       </c>
-      <c r="L28" s="71"/>
-      <c r="M28" s="71"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="71"/>
-      <c r="P28" s="71"/>
-      <c r="Q28" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="R28" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="S28" s="60" t="s">
+      <c r="L28" s="66"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="66"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="R28" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="S28" s="55" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="50">
+      <c r="A29" s="45">
         <v>26</v>
       </c>
-      <c r="B29" s="50">
+      <c r="B29" s="45">
         <v>0</v>
       </c>
-      <c r="C29" s="61">
+      <c r="C29" s="56">
         <v>26</v>
       </c>
-      <c r="D29" s="51" t="s">
+      <c r="D29" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="50">
+      <c r="E29" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="45">
         <v>26</v>
       </c>
-      <c r="J29" s="50">
+      <c r="J29" s="45">
         <v>0</v>
       </c>
-      <c r="K29" s="73">
+      <c r="K29" s="68">
         <v>26</v>
       </c>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="71"/>
-      <c r="Q29" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="R29" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="S29" s="62" t="s">
+      <c r="L29" s="66"/>
+      <c r="M29" s="66"/>
+      <c r="N29" s="66"/>
+      <c r="O29" s="66"/>
+      <c r="P29" s="66"/>
+      <c r="Q29" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="R29" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="S29" s="57" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="50">
+      <c r="A30" s="45">
         <v>27</v>
       </c>
-      <c r="B30" s="50">
-        <v>1</v>
-      </c>
-      <c r="C30" s="50">
+      <c r="B30" s="45">
+        <v>1</v>
+      </c>
+      <c r="C30" s="45">
         <v>27</v>
       </c>
-      <c r="D30" s="51" t="s">
+      <c r="D30" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="G30" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="I30" s="50">
+      <c r="E30" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" s="45">
         <v>27</v>
       </c>
-      <c r="J30" s="50">
-        <v>1</v>
-      </c>
-      <c r="K30" s="50">
+      <c r="J30" s="45">
+        <v>1</v>
+      </c>
+      <c r="K30" s="45">
         <v>27</v>
       </c>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="71"/>
-      <c r="Q30" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="R30" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="S30" s="62" t="s">
+      <c r="L30" s="66"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="66"/>
+      <c r="Q30" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="R30" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="S30" s="57" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="63" t="s">
+      <c r="A31" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="63" t="s">
+      <c r="B31" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="62" t="s">
+      <c r="D31" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="I31" s="63" t="s">
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="I31" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="J31" s="63" t="s">
+      <c r="J31" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="K31" s="63" t="s">
+      <c r="K31" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="63"/>
-      <c r="P31" s="63"/>
-      <c r="Q31" s="64"/>
-      <c r="R31" s="64"/>
-      <c r="S31" s="64"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="59"/>
+      <c r="S31" s="59"/>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="63" t="s">
+      <c r="A32" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="62" t="s">
+      <c r="D32" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="I32" s="63" t="s">
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="I32" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="J32" s="63" t="s">
+      <c r="J32" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="63" t="s">
+      <c r="K32" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="63"/>
-      <c r="P32" s="63"/>
-      <c r="Q32" s="64"/>
-      <c r="R32" s="64"/>
-      <c r="S32" s="64"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="58"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="59"/>
+      <c r="S32" s="59"/>
     </row>
     <row r="33" spans="1:19">
-      <c r="A33" s="63" t="s">
+      <c r="A33" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="63" t="s">
+      <c r="B33" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="63" t="s">
+      <c r="C33" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="62" t="s">
+      <c r="D33" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="64"/>
-      <c r="I33" s="63" t="s">
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="I33" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="J33" s="63" t="s">
+      <c r="J33" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="K33" s="63" t="s">
+      <c r="K33" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="L33" s="63"/>
-      <c r="M33" s="63"/>
-      <c r="N33" s="63"/>
-      <c r="O33" s="63"/>
-      <c r="P33" s="63"/>
-      <c r="Q33" s="64"/>
-      <c r="R33" s="64"/>
-      <c r="S33" s="64"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="58"/>
+      <c r="O33" s="58"/>
+      <c r="P33" s="58"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="59"/>
+      <c r="S33" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3681,8 +3669,8 @@
   <sheetPr/>
   <dimension ref="B1:V90"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47:V67"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Z50" sqref="Z50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3699,712 +3687,712 @@
       </c>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="33">
-        <v>1</v>
-      </c>
-      <c r="C3" s="33">
-        <v>1</v>
-      </c>
-      <c r="D3" s="33">
-        <v>1</v>
-      </c>
-      <c r="E3" s="33">
-        <v>1</v>
-      </c>
-      <c r="F3" s="33">
-        <v>1</v>
-      </c>
-      <c r="G3" s="33">
-        <v>1</v>
-      </c>
-      <c r="H3" s="34" t="s">
+      <c r="B3" s="28">
+        <v>1</v>
+      </c>
+      <c r="C3" s="28">
+        <v>1</v>
+      </c>
+      <c r="D3" s="28">
+        <v>1</v>
+      </c>
+      <c r="E3" s="28">
+        <v>1</v>
+      </c>
+      <c r="F3" s="28">
+        <v>1</v>
+      </c>
+      <c r="G3" s="28">
+        <v>1</v>
+      </c>
+      <c r="H3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="44" t="s">
+      <c r="L3" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="44" t="s">
+      <c r="M3" s="39" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:22">
-      <c r="B4" s="35">
-        <v>1</v>
-      </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37" t="s">
+      <c r="B4" s="30">
+        <v>1</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44" t="s">
+      <c r="K4" s="39"/>
+      <c r="L4" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="44"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
     </row>
     <row r="5" spans="2:22">
-      <c r="B5" s="33">
-        <v>1</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="39" t="s">
+      <c r="B5" s="28">
+        <v>1</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="33">
-        <v>1</v>
-      </c>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44" t="s">
+      <c r="G5" s="31"/>
+      <c r="H5" s="28">
+        <v>1</v>
+      </c>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="44"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="46"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
     </row>
     <row r="6" spans="2:22">
-      <c r="B6" s="33">
-        <v>1</v>
-      </c>
-      <c r="C6" s="40" t="s">
+      <c r="B6" s="28">
+        <v>1</v>
+      </c>
+      <c r="C6" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="33">
-        <v>1</v>
-      </c>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="46"/>
-      <c r="V6" s="46"/>
+      <c r="H6" s="28">
+        <v>1</v>
+      </c>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
     </row>
     <row r="7" spans="2:22">
-      <c r="B7" s="33">
-        <v>1</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="39" t="s">
+      <c r="B7" s="28">
+        <v>1</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="42">
-        <v>1</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44" t="s">
+      <c r="G7" s="36"/>
+      <c r="H7" s="37">
+        <v>1</v>
+      </c>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="46"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="46"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
     </row>
     <row r="8" spans="2:22">
-      <c r="B8" s="33">
-        <v>1</v>
-      </c>
-      <c r="C8" s="40" t="s">
+      <c r="B8" s="28">
+        <v>1</v>
+      </c>
+      <c r="C8" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="33">
-        <v>1</v>
-      </c>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44" t="s">
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="28">
+        <v>1</v>
+      </c>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="44"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
     </row>
     <row r="9" spans="2:22">
-      <c r="B9" s="43">
-        <v>1</v>
-      </c>
-      <c r="C9" s="33">
-        <v>1</v>
-      </c>
-      <c r="D9" s="33">
-        <v>1</v>
-      </c>
-      <c r="E9" s="33">
-        <v>1</v>
-      </c>
-      <c r="F9" s="33">
-        <v>1</v>
-      </c>
-      <c r="G9" s="33">
-        <v>1</v>
-      </c>
-      <c r="H9" s="33">
-        <v>1</v>
-      </c>
-      <c r="K9" s="44" t="s">
+      <c r="B9" s="38">
+        <v>1</v>
+      </c>
+      <c r="C9" s="28">
+        <v>1</v>
+      </c>
+      <c r="D9" s="28">
+        <v>1</v>
+      </c>
+      <c r="E9" s="28">
+        <v>1</v>
+      </c>
+      <c r="F9" s="28">
+        <v>1</v>
+      </c>
+      <c r="G9" s="28">
+        <v>1</v>
+      </c>
+      <c r="H9" s="28">
+        <v>1</v>
+      </c>
+      <c r="K9" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="44" t="s">
+      <c r="L9" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="44" t="s">
+      <c r="M9" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
     </row>
     <row r="10" spans="14:22">
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
     </row>
     <row r="11" spans="14:22">
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
     </row>
     <row r="12" spans="14:22">
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
     </row>
     <row r="13" spans="14:22">
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="46"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="33">
-        <v>1</v>
-      </c>
-      <c r="C14" s="33">
-        <v>1</v>
-      </c>
-      <c r="D14" s="33">
-        <v>1</v>
-      </c>
-      <c r="E14" s="33">
-        <v>1</v>
-      </c>
-      <c r="F14" s="33">
-        <v>1</v>
-      </c>
-      <c r="G14" s="33">
-        <v>1</v>
-      </c>
-      <c r="H14" s="33">
-        <v>1</v>
-      </c>
-      <c r="I14" s="33">
-        <v>1</v>
-      </c>
-      <c r="J14" s="33">
-        <v>1</v>
-      </c>
-      <c r="K14" s="33">
-        <v>1</v>
-      </c>
-      <c r="L14" s="33">
-        <v>1</v>
-      </c>
-      <c r="M14" s="33">
-        <v>1</v>
-      </c>
-      <c r="N14" s="34" t="s">
+      <c r="B14" s="28">
+        <v>1</v>
+      </c>
+      <c r="C14" s="28">
+        <v>1</v>
+      </c>
+      <c r="D14" s="28">
+        <v>1</v>
+      </c>
+      <c r="E14" s="28">
+        <v>1</v>
+      </c>
+      <c r="F14" s="28">
+        <v>1</v>
+      </c>
+      <c r="G14" s="28">
+        <v>1</v>
+      </c>
+      <c r="H14" s="28">
+        <v>1</v>
+      </c>
+      <c r="I14" s="28">
+        <v>1</v>
+      </c>
+      <c r="J14" s="28">
+        <v>1</v>
+      </c>
+      <c r="K14" s="28">
+        <v>1</v>
+      </c>
+      <c r="L14" s="28">
+        <v>1</v>
+      </c>
+      <c r="M14" s="28">
+        <v>1</v>
+      </c>
+      <c r="N14" s="29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="2:14">
-      <c r="B15" s="35">
-        <v>1</v>
-      </c>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="37" t="s">
+      <c r="B15" s="30">
+        <v>1</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="35">
-        <v>1</v>
-      </c>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="37" t="s">
+      <c r="H15" s="30">
+        <v>1</v>
+      </c>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="N15" s="38" t="s">
+      <c r="N15" s="33" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="33">
-        <v>1</v>
-      </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="39" t="s">
+      <c r="B16" s="28">
+        <v>1</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="33">
-        <v>1</v>
-      </c>
-      <c r="I16" s="36"/>
-      <c r="J16" s="39" t="s">
+      <c r="G16" s="31"/>
+      <c r="H16" s="28">
+        <v>1</v>
+      </c>
+      <c r="I16" s="31"/>
+      <c r="J16" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="K16" s="39" t="s">
+      <c r="K16" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="L16" s="39" t="s">
+      <c r="L16" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="33">
+      <c r="M16" s="31"/>
+      <c r="N16" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="33">
-        <v>1</v>
-      </c>
-      <c r="C17" s="40" t="s">
+      <c r="B17" s="28">
+        <v>1</v>
+      </c>
+      <c r="C17" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="39" t="s">
+      <c r="F17" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="40" t="s">
+      <c r="G17" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="33">
-        <v>1</v>
-      </c>
-      <c r="I17" s="40" t="s">
+      <c r="H17" s="28">
+        <v>1</v>
+      </c>
+      <c r="I17" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="J17" s="39" t="s">
+      <c r="J17" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="K17" s="39" t="s">
+      <c r="K17" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="39" t="s">
+      <c r="L17" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="M17" s="40" t="s">
+      <c r="M17" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="N17" s="33">
+      <c r="N17" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:14">
-      <c r="B18" s="33">
-        <v>1</v>
-      </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="39" t="s">
+      <c r="B18" s="28">
+        <v>1</v>
+      </c>
+      <c r="C18" s="36"/>
+      <c r="D18" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="39" t="s">
+      <c r="F18" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="41"/>
-      <c r="H18" s="33">
-        <v>1</v>
-      </c>
-      <c r="I18" s="41"/>
-      <c r="J18" s="39" t="s">
+      <c r="G18" s="36"/>
+      <c r="H18" s="28">
+        <v>1</v>
+      </c>
+      <c r="I18" s="36"/>
+      <c r="J18" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="K18" s="39" t="s">
+      <c r="K18" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="L18" s="39" t="s">
+      <c r="L18" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="M18" s="41"/>
-      <c r="N18" s="42">
+      <c r="M18" s="36"/>
+      <c r="N18" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19" s="33">
-        <v>1</v>
-      </c>
-      <c r="C19" s="40" t="s">
+      <c r="B19" s="28">
+        <v>1</v>
+      </c>
+      <c r="C19" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="33">
-        <v>1</v>
-      </c>
-      <c r="I19" s="40" t="s">
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="28">
+        <v>1</v>
+      </c>
+      <c r="I19" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="33">
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:14">
-      <c r="B20" s="33">
-        <v>1</v>
-      </c>
-      <c r="C20" s="33">
-        <v>1</v>
-      </c>
-      <c r="D20" s="33">
-        <v>1</v>
-      </c>
-      <c r="E20" s="33">
-        <v>1</v>
-      </c>
-      <c r="F20" s="33">
-        <v>1</v>
-      </c>
-      <c r="G20" s="33">
-        <v>1</v>
-      </c>
-      <c r="H20" s="33">
-        <v>1</v>
-      </c>
-      <c r="I20" s="33">
-        <v>1</v>
-      </c>
-      <c r="J20" s="33">
-        <v>1</v>
-      </c>
-      <c r="K20" s="33">
-        <v>1</v>
-      </c>
-      <c r="L20" s="33">
-        <v>1</v>
-      </c>
-      <c r="M20" s="33">
-        <v>1</v>
-      </c>
-      <c r="N20" s="34" t="s">
+      <c r="B20" s="28">
+        <v>1</v>
+      </c>
+      <c r="C20" s="28">
+        <v>1</v>
+      </c>
+      <c r="D20" s="28">
+        <v>1</v>
+      </c>
+      <c r="E20" s="28">
+        <v>1</v>
+      </c>
+      <c r="F20" s="28">
+        <v>1</v>
+      </c>
+      <c r="G20" s="28">
+        <v>1</v>
+      </c>
+      <c r="H20" s="28">
+        <v>1</v>
+      </c>
+      <c r="I20" s="28">
+        <v>1</v>
+      </c>
+      <c r="J20" s="28">
+        <v>1</v>
+      </c>
+      <c r="K20" s="28">
+        <v>1</v>
+      </c>
+      <c r="L20" s="28">
+        <v>1</v>
+      </c>
+      <c r="M20" s="28">
+        <v>1</v>
+      </c>
+      <c r="N20" s="29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="2:14">
-      <c r="B21" s="35">
-        <v>1</v>
-      </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37" t="s">
+      <c r="B21" s="30">
+        <v>1</v>
+      </c>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="H21" s="35">
-        <v>1</v>
-      </c>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="37" t="s">
+      <c r="H21" s="30">
+        <v>1</v>
+      </c>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="N21" s="38" t="s">
+      <c r="N21" s="33" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="33">
-        <v>1</v>
-      </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="39" t="s">
+      <c r="B22" s="28">
+        <v>1</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="F22" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="36"/>
-      <c r="H22" s="33">
-        <v>1</v>
-      </c>
-      <c r="I22" s="36"/>
-      <c r="J22" s="39" t="s">
+      <c r="G22" s="31"/>
+      <c r="H22" s="28">
+        <v>1</v>
+      </c>
+      <c r="I22" s="31"/>
+      <c r="J22" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="K22" s="39" t="s">
+      <c r="K22" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="L22" s="39" t="s">
+      <c r="L22" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="M22" s="36"/>
-      <c r="N22" s="33">
+      <c r="M22" s="31"/>
+      <c r="N22" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:14">
-      <c r="B23" s="33">
-        <v>1</v>
-      </c>
-      <c r="C23" s="40" t="s">
+      <c r="B23" s="28">
+        <v>1</v>
+      </c>
+      <c r="C23" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="40" t="s">
+      <c r="G23" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="H23" s="33">
-        <v>1</v>
-      </c>
-      <c r="I23" s="40" t="s">
+      <c r="H23" s="28">
+        <v>1</v>
+      </c>
+      <c r="I23" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="J23" s="39" t="s">
+      <c r="J23" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="K23" s="39" t="s">
+      <c r="K23" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="L23" s="39" t="s">
+      <c r="L23" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="M23" s="40" t="s">
+      <c r="M23" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="N23" s="33">
+      <c r="N23" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:14">
-      <c r="B24" s="33">
-        <v>1</v>
-      </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="39" t="s">
+      <c r="B24" s="28">
+        <v>1</v>
+      </c>
+      <c r="C24" s="36"/>
+      <c r="D24" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="39" t="s">
+      <c r="F24" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="41"/>
-      <c r="H24" s="33">
-        <v>1</v>
-      </c>
-      <c r="I24" s="41"/>
-      <c r="J24" s="39" t="s">
+      <c r="G24" s="36"/>
+      <c r="H24" s="28">
+        <v>1</v>
+      </c>
+      <c r="I24" s="36"/>
+      <c r="J24" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="K24" s="39" t="s">
+      <c r="K24" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="L24" s="39" t="s">
+      <c r="L24" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="M24" s="41"/>
-      <c r="N24" s="42">
+      <c r="M24" s="36"/>
+      <c r="N24" s="37">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:14">
-      <c r="B25" s="33">
-        <v>1</v>
-      </c>
-      <c r="C25" s="40" t="s">
+      <c r="B25" s="28">
+        <v>1</v>
+      </c>
+      <c r="C25" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="33">
-        <v>1</v>
-      </c>
-      <c r="I25" s="40" t="s">
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="28">
+        <v>1</v>
+      </c>
+      <c r="I25" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="33">
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:14">
-      <c r="B26" s="43">
-        <v>1</v>
-      </c>
-      <c r="C26" s="33">
-        <v>1</v>
-      </c>
-      <c r="D26" s="33">
-        <v>1</v>
-      </c>
-      <c r="E26" s="33">
-        <v>1</v>
-      </c>
-      <c r="F26" s="33">
-        <v>1</v>
-      </c>
-      <c r="G26" s="33">
-        <v>1</v>
-      </c>
-      <c r="H26" s="43">
-        <v>1</v>
-      </c>
-      <c r="I26" s="33">
-        <v>1</v>
-      </c>
-      <c r="J26" s="33">
-        <v>1</v>
-      </c>
-      <c r="K26" s="33">
-        <v>1</v>
-      </c>
-      <c r="L26" s="33">
-        <v>1</v>
-      </c>
-      <c r="M26" s="33">
-        <v>1</v>
-      </c>
-      <c r="N26" s="33">
+      <c r="B26" s="38">
+        <v>1</v>
+      </c>
+      <c r="C26" s="28">
+        <v>1</v>
+      </c>
+      <c r="D26" s="28">
+        <v>1</v>
+      </c>
+      <c r="E26" s="28">
+        <v>1</v>
+      </c>
+      <c r="F26" s="28">
+        <v>1</v>
+      </c>
+      <c r="G26" s="28">
+        <v>1</v>
+      </c>
+      <c r="H26" s="38">
+        <v>1</v>
+      </c>
+      <c r="I26" s="28">
+        <v>1</v>
+      </c>
+      <c r="J26" s="28">
+        <v>1</v>
+      </c>
+      <c r="K26" s="28">
+        <v>1</v>
+      </c>
+      <c r="L26" s="28">
+        <v>1</v>
+      </c>
+      <c r="M26" s="28">
+        <v>1</v>
+      </c>
+      <c r="N26" s="28">
         <v>1</v>
       </c>
     </row>
@@ -4583,34 +4571,34 @@
       </c>
     </row>
     <row r="78" spans="11:14">
-      <c r="K78" s="39"/>
-      <c r="N78" s="39"/>
+      <c r="K78" s="34"/>
+      <c r="N78" s="34"/>
     </row>
     <row r="79" spans="8:10">
-      <c r="H79" s="39"/>
-      <c r="J79" s="39"/>
+      <c r="H79" s="34"/>
+      <c r="J79" s="34"/>
     </row>
     <row r="80" spans="10:10">
-      <c r="J80" s="39"/>
+      <c r="J80" s="34"/>
     </row>
     <row r="81" spans="7:7">
-      <c r="G81" s="39"/>
+      <c r="G81" s="34"/>
     </row>
     <row r="82" spans="11:11">
-      <c r="K82" s="39"/>
+      <c r="K82" s="34"/>
     </row>
     <row r="84" spans="9:9">
-      <c r="I84" s="39"/>
+      <c r="I84" s="34"/>
     </row>
     <row r="87" spans="18:18">
-      <c r="R87" s="39"/>
+      <c r="R87" s="34"/>
     </row>
     <row r="89" spans="7:7">
-      <c r="G89" s="39"/>
+      <c r="G89" s="34"/>
     </row>
     <row r="90" spans="7:15">
-      <c r="G90" s="39"/>
-      <c r="O90" s="39"/>
+      <c r="G90" s="34"/>
+      <c r="O90" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4623,8 +4611,8 @@
   <sheetPr/>
   <dimension ref="B2:V48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W25" sqref="W25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4662,8 +4650,8 @@
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="26" t="s">
+      <c r="U2" s="21"/>
+      <c r="V2" s="22" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4674,25 +4662,25 @@
       <c r="C3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="27" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="23" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4700,28 +4688,28 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="29">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="25">
         <v>18</v>
       </c>
     </row>
@@ -4729,28 +4717,28 @@
       <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="29">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="25">
         <v>13</v>
       </c>
     </row>
@@ -4758,28 +4746,28 @@
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="29">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="25">
         <v>13</v>
       </c>
     </row>
@@ -4787,26 +4775,26 @@
       <c r="B7" s="5">
         <v>5</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="29">
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="25">
         <v>16</v>
       </c>
     </row>
@@ -4814,28 +4802,28 @@
       <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="29">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="25">
         <v>15</v>
       </c>
     </row>
@@ -4843,28 +4831,28 @@
       <c r="B9" s="5">
         <v>7</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="29">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="25">
         <v>15</v>
       </c>
     </row>
@@ -4872,28 +4860,28 @@
       <c r="B10" s="5">
         <v>8</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="29">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="25">
         <v>14</v>
       </c>
     </row>
@@ -4901,28 +4889,28 @@
       <c r="B11" s="5">
         <v>9</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="30">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="26">
         <v>12</v>
       </c>
     </row>
@@ -4930,28 +4918,28 @@
       <c r="B12" s="5">
         <v>10</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="30">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="26">
         <v>11</v>
       </c>
     </row>
@@ -4959,28 +4947,28 @@
       <c r="B13" s="5">
         <v>11</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="30">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="26">
         <v>9</v>
       </c>
     </row>
@@ -4988,28 +4976,28 @@
       <c r="B14" s="5">
         <v>12</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="30">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="26">
         <v>8</v>
       </c>
     </row>
@@ -5017,28 +5005,28 @@
       <c r="B15" s="5">
         <v>13</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="30">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="26">
         <v>7</v>
       </c>
     </row>
@@ -5046,28 +5034,28 @@
       <c r="B16" s="5">
         <v>14</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="30">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="26">
         <v>6</v>
       </c>
     </row>
@@ -5075,28 +5063,28 @@
       <c r="B17" s="5">
         <v>15</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="30">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="26">
         <v>5</v>
       </c>
     </row>
@@ -5104,28 +5092,28 @@
       <c r="B18" s="5">
         <v>16</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="30">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="26">
         <v>4</v>
       </c>
     </row>
@@ -5133,28 +5121,28 @@
       <c r="B19" s="5">
         <v>17</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="30">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="26">
         <v>3</v>
       </c>
     </row>
@@ -5162,28 +5150,28 @@
       <c r="B20" s="5">
         <v>18</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="30">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="26">
         <v>2</v>
       </c>
     </row>
@@ -5191,647 +5179,647 @@
       <c r="B21" s="5">
         <v>19</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="30">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:22">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="14" t="s">
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="12" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="28" spans="2:22">
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="N28" s="17"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="18" t="s">
+      <c r="C28" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="N28" s="14"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="15" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="29" spans="2:22">
-      <c r="B29" s="18">
-        <v>1</v>
-      </c>
-      <c r="V29" s="32" t="s">
+      <c r="B29" s="15">
+        <v>1</v>
+      </c>
+      <c r="V29" s="25" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="2:22">
-      <c r="B30" s="18">
+      <c r="B30" s="15">
         <v>2</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="16"/>
-      <c r="V30" s="29">
+      <c r="C30" s="13"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="25">
         <v>18</v>
       </c>
     </row>
     <row r="31" spans="2:22">
-      <c r="B31" s="18">
+      <c r="B31" s="15">
         <v>3</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="29">
+      <c r="C31" s="17"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="25">
         <v>13</v>
       </c>
     </row>
     <row r="32" spans="2:22">
-      <c r="B32" s="18">
-        <v>4</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="15"/>
-      <c r="V32" s="29">
+      <c r="B32" s="15">
+        <v>4</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="25">
         <v>13</v>
       </c>
     </row>
     <row r="33" spans="2:22">
-      <c r="B33" s="18">
+      <c r="B33" s="15">
         <v>5</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="15"/>
-      <c r="T33" s="15"/>
-      <c r="U33" s="15"/>
-      <c r="V33" s="29">
+      <c r="C33" s="17"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="25">
         <v>16</v>
       </c>
     </row>
     <row r="34" spans="2:22">
-      <c r="B34" s="18">
+      <c r="B34" s="15">
         <v>6</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="29">
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="25">
         <v>15</v>
       </c>
     </row>
     <row r="35" spans="2:22">
-      <c r="B35" s="18">
+      <c r="B35" s="15">
         <v>7</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="20"/>
-      <c r="T35" s="20"/>
-      <c r="U35" s="20"/>
-      <c r="V35" s="29">
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="25">
         <v>15</v>
       </c>
     </row>
     <row r="36" spans="2:22">
-      <c r="B36" s="18">
+      <c r="B36" s="15">
         <v>8</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
-      <c r="S36" s="16"/>
-      <c r="T36" s="16"/>
-      <c r="U36" s="17"/>
-      <c r="V36" s="29">
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="25">
         <v>14</v>
       </c>
     </row>
     <row r="37" spans="2:22">
-      <c r="B37" s="18">
+      <c r="B37" s="15">
         <v>9</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
-      <c r="U37" s="16"/>
-      <c r="V37" s="30">
+      <c r="C37" s="13"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="26">
         <v>12</v>
       </c>
     </row>
     <row r="38" spans="2:22">
-      <c r="B38" s="18">
+      <c r="B38" s="15">
         <v>10</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="21"/>
-      <c r="V38" s="30">
+      <c r="C38" s="17"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="26">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="2:22">
-      <c r="B39" s="18">
+      <c r="B39" s="15">
         <v>11</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="15"/>
-      <c r="V39" s="30">
+      <c r="C39" s="13"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="26">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="2:22">
-      <c r="B40" s="18">
+      <c r="B40" s="15">
         <v>12</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="15"/>
-      <c r="S40" s="15"/>
-      <c r="T40" s="15"/>
-      <c r="U40" s="15"/>
-      <c r="V40" s="30">
+      <c r="C40" s="17"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="26">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="2:22">
-      <c r="B41" s="18">
+      <c r="B41" s="15">
         <v>13</v>
       </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="20"/>
-      <c r="T41" s="20"/>
-      <c r="U41" s="20"/>
-      <c r="V41" s="30">
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="26">
         <v>7</v>
       </c>
     </row>
     <row r="42" spans="2:22">
-      <c r="B42" s="18">
+      <c r="B42" s="15">
         <v>14</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="18"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="20"/>
-      <c r="U42" s="20"/>
-      <c r="V42" s="30">
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="26">
         <v>6</v>
       </c>
     </row>
     <row r="43" spans="2:22">
-      <c r="B43" s="18">
+      <c r="B43" s="15">
         <v>15</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="18"/>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="16"/>
-      <c r="S43" s="16"/>
-      <c r="T43" s="16"/>
-      <c r="U43" s="17"/>
-      <c r="V43" s="30">
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="26">
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="2:22">
-      <c r="B44" s="18">
+      <c r="B44" s="15">
         <v>16</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="19"/>
-      <c r="S44" s="19"/>
-      <c r="T44" s="19"/>
-      <c r="U44" s="16"/>
-      <c r="V44" s="30">
+      <c r="C44" s="13"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="2:22">
-      <c r="B45" s="18">
+      <c r="B45" s="15">
         <v>17</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="21"/>
-      <c r="R45" s="19"/>
-      <c r="S45" s="19"/>
-      <c r="T45" s="19"/>
-      <c r="U45" s="21"/>
-      <c r="V45" s="30">
+      <c r="C45" s="17"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="16"/>
+      <c r="T45" s="16"/>
+      <c r="U45" s="17"/>
+      <c r="V45" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="2:22">
-      <c r="B46" s="18">
+      <c r="B46" s="15">
         <v>18</v>
       </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="22"/>
-      <c r="P46" s="20"/>
-      <c r="Q46" s="15"/>
-      <c r="R46" s="19"/>
-      <c r="S46" s="19"/>
-      <c r="T46" s="19"/>
-      <c r="U46" s="15"/>
-      <c r="V46" s="30">
+      <c r="C46" s="13"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="16"/>
+      <c r="S46" s="16"/>
+      <c r="T46" s="16"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="2:22">
-      <c r="B47" s="18">
+      <c r="B47" s="15">
         <v>19</v>
       </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="20"/>
-      <c r="Q47" s="21"/>
-      <c r="R47" s="15"/>
-      <c r="S47" s="15"/>
-      <c r="T47" s="15"/>
-      <c r="U47" s="15"/>
-      <c r="V47" s="30">
+      <c r="C47" s="17"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="2:22">
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="G48" s="14" t="s">
+      <c r="E48" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G48" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H48" s="20">
-        <v>1</v>
-      </c>
-      <c r="I48" s="23" t="s">
+      <c r="H48" s="12">
+        <v>1</v>
+      </c>
+      <c r="I48" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="J48" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="K48" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="L48" s="14" t="s">
+      <c r="J48" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="M48" s="20">
-        <v>1</v>
-      </c>
-      <c r="N48" s="14" t="s">
+      <c r="K48" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="L48" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="M48" s="12">
+        <v>1</v>
+      </c>
+      <c r="N48" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O48" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="P48" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="14" t="s">
+      <c r="O48" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="P48" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="R48" s="20">
-        <v>1</v>
-      </c>
-      <c r="S48" s="20">
-        <v>1</v>
-      </c>
-      <c r="T48" s="20">
-        <v>1</v>
-      </c>
-      <c r="U48" s="20">
-        <v>1</v>
-      </c>
-      <c r="V48" s="14" t="s">
+      <c r="R48" s="12">
+        <v>1</v>
+      </c>
+      <c r="S48" s="12">
+        <v>1</v>
+      </c>
+      <c r="T48" s="12">
+        <v>1</v>
+      </c>
+      <c r="U48" s="12">
+        <v>1</v>
+      </c>
+      <c r="V48" s="12" t="s">
         <v>72</v>
       </c>
     </row>

--- a/Axcels/rant.xlsx
+++ b/Axcels/rant.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27495" windowHeight="12645" activeTab="4"/>
+    <workbookView windowWidth="27765" windowHeight="13650" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="letter" sheetId="2" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="func" sheetId="1" r:id="rId3"/>
     <sheet name="nint" sheetId="4" r:id="rId4"/>
     <sheet name="camary" sheetId="5" r:id="rId5"/>
-    <sheet name="komet" sheetId="6" r:id="rId6"/>
+    <sheet name="komet-O-Keset" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
   <si>
     <t xml:space="preserve"> Z</t>
   </si>
@@ -183,6 +183,24 @@
     <t>一</t>
   </si>
   <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>二</t>
+  </si>
+  <si>
+    <t>//</t>
+  </si>
+  <si>
+    <t>\\</t>
+  </si>
+  <si>
     <t>tye</t>
   </si>
   <si>
@@ -258,10 +276,28 @@
     <t>a b c d e f g h i g k l</t>
   </si>
   <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>S</t>
   </si>
   <si>
     <t>H</t>
@@ -272,10 +308,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -355,21 +391,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,7 +399,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,9 +413,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,6 +422,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,6 +465,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -445,39 +512,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="50">
+  <fills count="53">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -559,6 +595,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,6 +702,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -660,61 +804,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,49 +822,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,13 +888,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -854,17 +912,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -886,9 +947,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -907,30 +985,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -939,10 +993,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -951,7 +1005,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -960,7 +1014,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -969,61 +1023,61 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="49" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1032,56 +1086,56 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1199,142 +1253,193 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="31" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="27" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="30" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1738,10 +1843,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="88" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
@@ -1749,110 +1854,110 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="72">
-        <v>1</v>
-      </c>
-      <c r="B2" s="73" t="s">
+      <c r="A2" s="89">
+        <v>1</v>
+      </c>
+      <c r="B2" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="91" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="75">
+      <c r="A3" s="92">
         <v>2</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="91" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="72">
+      <c r="A4" s="89">
         <v>3</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="91" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="72">
-        <v>4</v>
-      </c>
-      <c r="B5" s="73" t="s">
+      <c r="A5" s="89">
+        <v>4</v>
+      </c>
+      <c r="B5" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="93" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="72">
+      <c r="A6" s="89">
         <v>5</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="93" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="72">
+      <c r="A7" s="89">
         <v>6</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="93" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="72">
+      <c r="A8" s="89">
         <v>7</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="93" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="72">
+      <c r="A9" s="89">
         <v>8</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="93" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="77">
+      <c r="A10" s="94">
         <v>9</v>
       </c>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="76" t="s">
+      <c r="C10" s="93" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="72">
+      <c r="A11" s="89">
         <v>10</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="76" t="s">
+      <c r="B11" s="90"/>
+      <c r="C11" s="93" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1860,10 +1965,10 @@
       <c r="A12" s="25">
         <v>11</v>
       </c>
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="76" t="s">
+      <c r="C12" s="93" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1871,10 +1976,10 @@
       <c r="A13" s="25">
         <v>12</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="95" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1882,10 +1987,10 @@
       <c r="A14" s="25">
         <v>13</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="78" t="s">
+      <c r="C14" s="95" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1893,10 +1998,10 @@
       <c r="A15" s="25">
         <v>14</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="78" t="s">
+      <c r="C15" s="95" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1904,10 +2009,10 @@
       <c r="A16" s="25">
         <v>15</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="79" t="s">
+      <c r="C16" s="96" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1915,54 +2020,54 @@
       <c r="A17" s="25">
         <v>16</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="79" t="s">
+      <c r="C17" s="96" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="72">
+      <c r="A18" s="89">
         <v>17</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="79" t="s">
+      <c r="C18" s="96" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="72">
+      <c r="A19" s="89">
         <v>18</v>
       </c>
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="79" t="s">
+      <c r="C19" s="96" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="72">
+      <c r="A20" s="89">
         <v>19</v>
       </c>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="79" t="s">
+      <c r="C20" s="96" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="72">
+      <c r="A21" s="89">
         <v>20</v>
       </c>
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="79" t="s">
+      <c r="C21" s="96" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1970,10 +2075,10 @@
       <c r="A22" s="25">
         <v>21</v>
       </c>
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="96" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1981,10 +2086,10 @@
       <c r="A23" s="25">
         <v>22</v>
       </c>
-      <c r="B23" s="73" t="s">
+      <c r="B23" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="80" t="s">
+      <c r="C23" s="97" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1992,10 +2097,10 @@
       <c r="A24" s="25">
         <v>23</v>
       </c>
-      <c r="B24" s="73" t="s">
+      <c r="B24" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="80" t="s">
+      <c r="C24" s="97" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2003,10 +2108,10 @@
       <c r="A25" s="25">
         <v>24</v>
       </c>
-      <c r="B25" s="73" t="s">
+      <c r="B25" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="80" t="s">
+      <c r="C25" s="97" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2014,43 +2119,43 @@
       <c r="A26" s="25">
         <v>25</v>
       </c>
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="80" t="s">
+      <c r="C26" s="97" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="81">
+      <c r="A27" s="98">
         <v>26</v>
       </c>
-      <c r="B27" s="73" t="s">
+      <c r="B27" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="82" t="s">
+      <c r="C27" s="99" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="72">
+      <c r="A28" s="89">
         <v>27</v>
       </c>
-      <c r="B28" s="73" t="s">
+      <c r="B28" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="82" t="s">
+      <c r="C28" s="99" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="83" t="s">
+      <c r="A29" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="82" t="s">
+      <c r="B29" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="84"/>
+      <c r="C29" s="101"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2082,1574 +2187,1574 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="42">
-        <v>1</v>
-      </c>
-      <c r="B1" s="42" t="s">
+      <c r="A1" s="59">
+        <v>1</v>
+      </c>
+      <c r="B1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="42">
-        <v>1</v>
-      </c>
-      <c r="J1" s="42" t="s">
+      <c r="I1" s="59">
+        <v>1</v>
+      </c>
+      <c r="J1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="69" t="s">
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="69" t="s">
+      <c r="R1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="69" t="s">
+      <c r="S1" s="86" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="59">
         <v>3</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="44" t="s">
+      <c r="D2" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="42">
+      <c r="J2" s="59">
         <v>3</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="69" t="s">
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="69" t="s">
+      <c r="R2" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="69" t="s">
+      <c r="S2" s="86" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="42" t="s">
+      <c r="A3" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="59">
         <v>6</v>
       </c>
-      <c r="D3" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="44" t="s">
+      <c r="D3" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="42" t="s">
+      <c r="I3" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="42">
+      <c r="K3" s="59">
         <v>6</v>
       </c>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="69" t="s">
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="69" t="s">
+      <c r="R3" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="69" t="s">
+      <c r="S3" s="86" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="45">
-        <v>1</v>
-      </c>
-      <c r="B4" s="45">
+      <c r="A4" s="62">
+        <v>1</v>
+      </c>
+      <c r="B4" s="62">
         <v>-25</v>
       </c>
-      <c r="C4" s="45">
-        <v>1</v>
-      </c>
-      <c r="D4" s="46" t="s">
+      <c r="C4" s="62">
+        <v>1</v>
+      </c>
+      <c r="D4" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="45">
-        <v>1</v>
-      </c>
-      <c r="J4" s="45">
+      <c r="E4" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="62">
+        <v>1</v>
+      </c>
+      <c r="J4" s="62">
         <v>-25</v>
       </c>
-      <c r="K4" s="45">
-        <v>1</v>
-      </c>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="R4" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="S4" s="47" t="s">
+      <c r="K4" s="62">
+        <v>1</v>
+      </c>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" s="64" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="45">
+      <c r="A5" s="62">
         <v>2</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="62">
         <v>-24</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="65">
         <v>2</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I5" s="62">
         <v>2</v>
       </c>
-      <c r="J5" s="45">
+      <c r="J5" s="62">
         <v>-24</v>
       </c>
-      <c r="K5" s="48">
+      <c r="K5" s="65">
         <v>2</v>
       </c>
-      <c r="L5" s="61" t="s">
+      <c r="L5" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="62"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="47" t="s">
+      <c r="M5" s="79"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="R5" s="47" t="s">
+      <c r="R5" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="47" t="s">
+      <c r="S5" s="64" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="45">
+      <c r="A6" s="62">
         <v>3</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="62">
         <v>-23</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="62">
         <v>3</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="47" t="s">
+      <c r="G6" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="45">
+      <c r="I6" s="62">
         <v>3</v>
       </c>
-      <c r="J6" s="45">
+      <c r="J6" s="62">
         <v>-23</v>
       </c>
-      <c r="K6" s="45">
+      <c r="K6" s="62">
         <v>3</v>
       </c>
-      <c r="L6" s="60">
-        <v>1</v>
-      </c>
-      <c r="M6" s="60">
-        <v>1</v>
-      </c>
-      <c r="N6" s="60">
-        <v>1</v>
-      </c>
-      <c r="O6" s="60">
-        <v>1</v>
-      </c>
-      <c r="P6" s="60">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="50" t="s">
+      <c r="L6" s="77">
+        <v>1</v>
+      </c>
+      <c r="M6" s="77">
+        <v>1</v>
+      </c>
+      <c r="N6" s="77">
+        <v>1</v>
+      </c>
+      <c r="O6" s="77">
+        <v>1</v>
+      </c>
+      <c r="P6" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="R6" s="47" t="s">
+      <c r="R6" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="S6" s="47" t="s">
+      <c r="S6" s="64" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="45">
-        <v>4</v>
-      </c>
-      <c r="B7" s="45">
+      <c r="A7" s="62">
+        <v>4</v>
+      </c>
+      <c r="B7" s="62">
         <v>-22</v>
       </c>
-      <c r="C7" s="45">
-        <v>4</v>
-      </c>
-      <c r="D7" s="46" t="s">
+      <c r="C7" s="62">
+        <v>4</v>
+      </c>
+      <c r="D7" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="45">
-        <v>4</v>
-      </c>
-      <c r="J7" s="45">
+      <c r="I7" s="62">
+        <v>4</v>
+      </c>
+      <c r="J7" s="62">
         <v>-22</v>
       </c>
-      <c r="K7" s="45">
-        <v>4</v>
-      </c>
-      <c r="L7" s="60">
-        <v>1</v>
-      </c>
-      <c r="M7" s="60">
+      <c r="K7" s="62">
+        <v>4</v>
+      </c>
+      <c r="L7" s="77">
+        <v>1</v>
+      </c>
+      <c r="M7" s="77">
         <v>0</v>
       </c>
-      <c r="N7" s="60">
-        <v>1</v>
-      </c>
-      <c r="O7" s="60">
-        <v>1</v>
-      </c>
-      <c r="P7" s="60">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="R7" s="49" t="s">
+      <c r="N7" s="77">
+        <v>1</v>
+      </c>
+      <c r="O7" s="77">
+        <v>1</v>
+      </c>
+      <c r="P7" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="S7" s="49" t="s">
+      <c r="S7" s="66" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="45">
+      <c r="A8" s="62">
         <v>5</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="62">
         <v>-21</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="62">
         <v>5</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="45">
+      <c r="I8" s="62">
         <v>5</v>
       </c>
-      <c r="J8" s="45">
+      <c r="J8" s="62">
         <v>-21</v>
       </c>
-      <c r="K8" s="45">
+      <c r="K8" s="62">
         <v>5</v>
       </c>
-      <c r="L8" s="60">
-        <v>1</v>
-      </c>
-      <c r="M8" s="60">
-        <v>1</v>
-      </c>
-      <c r="N8" s="60">
-        <v>1</v>
-      </c>
-      <c r="O8" s="60">
+      <c r="L8" s="77">
+        <v>1</v>
+      </c>
+      <c r="M8" s="77">
+        <v>1</v>
+      </c>
+      <c r="N8" s="77">
+        <v>1</v>
+      </c>
+      <c r="O8" s="77">
         <v>0</v>
       </c>
-      <c r="P8" s="60">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="50" t="s">
+      <c r="P8" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="R8" s="49" t="s">
+      <c r="R8" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="S8" s="49" t="s">
+      <c r="S8" s="66" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="45">
+      <c r="A9" s="62">
         <v>6</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="62">
         <v>-20</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="62">
         <v>6</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="45">
+      <c r="I9" s="62">
         <v>6</v>
       </c>
-      <c r="J9" s="45">
+      <c r="J9" s="62">
         <v>-20</v>
       </c>
-      <c r="K9" s="45">
+      <c r="K9" s="62">
         <v>6</v>
       </c>
-      <c r="L9" s="60">
-        <v>1</v>
-      </c>
-      <c r="M9" s="60">
-        <v>1</v>
-      </c>
-      <c r="N9" s="60">
-        <v>1</v>
-      </c>
-      <c r="O9" s="60">
-        <v>1</v>
-      </c>
-      <c r="P9" s="60">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="50" t="s">
+      <c r="L9" s="77">
+        <v>1</v>
+      </c>
+      <c r="M9" s="77">
+        <v>1</v>
+      </c>
+      <c r="N9" s="77">
+        <v>1</v>
+      </c>
+      <c r="O9" s="77">
+        <v>1</v>
+      </c>
+      <c r="P9" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="R9" s="49" t="s">
+      <c r="R9" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="S9" s="49" t="s">
+      <c r="S9" s="66" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="45">
+      <c r="A10" s="62">
         <v>7</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="62">
         <v>-19</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="62">
         <v>7</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="45">
+      <c r="E10" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="62">
         <v>7</v>
       </c>
-      <c r="J10" s="45">
+      <c r="J10" s="62">
         <v>-19</v>
       </c>
-      <c r="K10" s="45">
+      <c r="K10" s="62">
         <v>7</v>
       </c>
-      <c r="L10" s="63" t="s">
+      <c r="L10" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="64"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="R10" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="S10" s="49" t="s">
+      <c r="M10" s="81"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="66" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="45">
+      <c r="A11" s="62">
         <v>8</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="62">
         <v>-18</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="62">
         <v>8</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="49" t="s">
+      <c r="F11" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="49" t="s">
+      <c r="G11" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="45">
+      <c r="I11" s="62">
         <v>8</v>
       </c>
-      <c r="J11" s="45">
+      <c r="J11" s="62">
         <v>-18</v>
       </c>
-      <c r="K11" s="45">
+      <c r="K11" s="62">
         <v>8</v>
       </c>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="49" t="s">
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="R11" s="49" t="s">
+      <c r="R11" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="S11" s="49" t="s">
+      <c r="S11" s="66" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="45">
+      <c r="A12" s="62">
         <v>9</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="62">
         <v>-17</v>
       </c>
-      <c r="C12" s="51">
+      <c r="C12" s="68">
         <v>9</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="45">
+      <c r="F12" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="62">
         <v>9</v>
       </c>
-      <c r="J12" s="45">
+      <c r="J12" s="62">
         <v>-17</v>
       </c>
-      <c r="K12" s="51">
+      <c r="K12" s="68">
         <v>9</v>
       </c>
-      <c r="L12" s="61" t="s">
+      <c r="L12" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="M12" s="62"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="R12" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="S12" s="49" t="s">
+      <c r="M12" s="79"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="66" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="45">
+      <c r="A13" s="62">
         <v>10</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="62">
         <v>-16</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="62">
         <v>10</v>
       </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="49" t="s">
+      <c r="D13" s="63"/>
+      <c r="E13" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="49" t="s">
+      <c r="F13" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="49" t="s">
+      <c r="G13" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="45">
+      <c r="I13" s="62">
         <v>10</v>
       </c>
-      <c r="J13" s="45">
+      <c r="J13" s="62">
         <v>-16</v>
       </c>
-      <c r="K13" s="45">
+      <c r="K13" s="62">
         <v>10</v>
       </c>
-      <c r="L13" s="60" t="s">
+      <c r="L13" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="M13" s="60" t="s">
+      <c r="M13" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="N13" s="60" t="s">
+      <c r="N13" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="60" t="s">
+      <c r="O13" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="P13" s="60" t="s">
+      <c r="P13" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="Q13" s="49" t="s">
+      <c r="Q13" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="R13" s="49" t="s">
+      <c r="R13" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="S13" s="49" t="s">
+      <c r="S13" s="66" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="45">
+      <c r="A14" s="62">
         <v>11</v>
       </c>
-      <c r="B14" s="45">
+      <c r="B14" s="62">
         <v>-15</v>
       </c>
-      <c r="C14" s="52">
+      <c r="C14" s="69">
         <v>11</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="45">
+      <c r="E14" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="62">
         <v>11</v>
       </c>
-      <c r="J14" s="45">
+      <c r="J14" s="62">
         <v>-15</v>
       </c>
-      <c r="K14" s="52">
+      <c r="K14" s="69">
         <v>11</v>
       </c>
-      <c r="L14" s="60" t="s">
+      <c r="L14" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="M14" s="60" t="s">
+      <c r="M14" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="N14" s="60" t="s">
+      <c r="N14" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="O14" s="60" t="s">
+      <c r="O14" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="P14" s="60" t="s">
+      <c r="P14" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="Q14" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="49" t="s">
+      <c r="Q14" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="66" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="45">
+      <c r="A15" s="62">
         <v>12</v>
       </c>
-      <c r="B15" s="45">
+      <c r="B15" s="62">
         <v>-14</v>
       </c>
-      <c r="C15" s="52">
+      <c r="C15" s="69">
         <v>12</v>
       </c>
-      <c r="D15" s="46" t="s">
+      <c r="D15" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="45">
+      <c r="E15" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="62">
         <v>12</v>
       </c>
-      <c r="J15" s="45">
+      <c r="J15" s="62">
         <v>-14</v>
       </c>
-      <c r="K15" s="52">
+      <c r="K15" s="69">
         <v>12</v>
       </c>
-      <c r="L15" s="60" t="s">
+      <c r="L15" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="M15" s="60" t="s">
+      <c r="M15" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="N15" s="60" t="s">
+      <c r="N15" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="O15" s="60">
-        <v>1</v>
-      </c>
-      <c r="P15" s="60">
+      <c r="O15" s="77">
+        <v>1</v>
+      </c>
+      <c r="P15" s="77">
         <v>2</v>
       </c>
-      <c r="Q15" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="R15" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="S15" s="53" t="s">
+      <c r="Q15" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="70" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="45">
+      <c r="A16" s="62">
         <v>13</v>
       </c>
-      <c r="B16" s="45">
+      <c r="B16" s="62">
         <v>-13</v>
       </c>
-      <c r="C16" s="52">
+      <c r="C16" s="69">
         <v>13</v>
       </c>
-      <c r="D16" s="46" t="s">
+      <c r="D16" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" s="45">
+      <c r="E16" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="62">
         <v>13</v>
       </c>
-      <c r="J16" s="45">
+      <c r="J16" s="62">
         <v>-13</v>
       </c>
-      <c r="K16" s="52">
+      <c r="K16" s="69">
         <v>13</v>
       </c>
-      <c r="L16" s="60" t="s">
+      <c r="L16" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="M16" s="60">
+      <c r="M16" s="77">
         <v>7</v>
       </c>
-      <c r="N16" s="60">
+      <c r="N16" s="77">
         <v>2</v>
       </c>
-      <c r="O16" s="60">
+      <c r="O16" s="77">
         <v>5</v>
       </c>
-      <c r="P16" s="60">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="R16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="S16" s="53" t="s">
+      <c r="P16" s="77">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="R16" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="S16" s="70" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="45">
+      <c r="A17" s="62">
         <v>14</v>
       </c>
-      <c r="B17" s="45">
+      <c r="B17" s="62">
         <v>-12</v>
       </c>
-      <c r="C17" s="52">
+      <c r="C17" s="69">
         <v>14</v>
       </c>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="45">
+      <c r="E17" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="62">
         <v>14</v>
       </c>
-      <c r="J17" s="45">
+      <c r="J17" s="62">
         <v>-12</v>
       </c>
-      <c r="K17" s="52">
+      <c r="K17" s="69">
         <v>14</v>
       </c>
-      <c r="L17" s="63" t="s">
+      <c r="L17" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="M17" s="64"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="R17" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="S17" s="53" t="s">
+      <c r="M17" s="81"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="77"/>
+      <c r="Q17" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="R17" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="70" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="45">
+      <c r="A18" s="62">
         <v>15</v>
       </c>
-      <c r="B18" s="45">
+      <c r="B18" s="62">
         <v>-11</v>
       </c>
-      <c r="C18" s="52">
+      <c r="C18" s="69">
         <v>15</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="54" t="s">
+      <c r="E18" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="54" t="s">
+      <c r="F18" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="54" t="s">
+      <c r="G18" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="I18" s="45">
+      <c r="I18" s="62">
         <v>15</v>
       </c>
-      <c r="J18" s="45">
+      <c r="J18" s="62">
         <v>-11</v>
       </c>
-      <c r="K18" s="52">
+      <c r="K18" s="69">
         <v>15</v>
       </c>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="54" t="s">
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="83"/>
+      <c r="P18" s="83"/>
+      <c r="Q18" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="R18" s="54" t="s">
+      <c r="R18" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="S18" s="54" t="s">
+      <c r="S18" s="71" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="45">
+      <c r="A19" s="62">
         <v>16</v>
       </c>
-      <c r="B19" s="45">
+      <c r="B19" s="62">
         <v>-10</v>
       </c>
-      <c r="C19" s="52">
+      <c r="C19" s="69">
         <v>16</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="I19" s="45">
+      <c r="E19" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="62">
         <v>16</v>
       </c>
-      <c r="J19" s="45">
+      <c r="J19" s="62">
         <v>-10</v>
       </c>
-      <c r="K19" s="52">
+      <c r="K19" s="69">
         <v>16</v>
       </c>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="R19" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="S19" s="54" t="s">
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="83"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="R19" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="S19" s="71" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="45">
+      <c r="A20" s="62">
         <v>17</v>
       </c>
-      <c r="B20" s="45">
+      <c r="B20" s="62">
         <v>-9</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C20" s="62">
         <v>17</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="45">
+      <c r="E20" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="62">
         <v>17</v>
       </c>
-      <c r="J20" s="45">
+      <c r="J20" s="62">
         <v>-9</v>
       </c>
-      <c r="K20" s="45">
+      <c r="K20" s="62">
         <v>17</v>
       </c>
-      <c r="L20" s="66" t="s">
+      <c r="L20" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="R20" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="S20" s="54" t="s">
+      <c r="M20" s="83"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="83"/>
+      <c r="P20" s="83"/>
+      <c r="Q20" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="71" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="45">
+      <c r="A21" s="62">
         <v>18</v>
       </c>
-      <c r="B21" s="45">
+      <c r="B21" s="62">
         <v>-8</v>
       </c>
-      <c r="C21" s="45">
+      <c r="C21" s="62">
         <v>18</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="54" t="s">
+      <c r="E21" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="54" t="s">
+      <c r="F21" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="G21" s="54" t="s">
+      <c r="G21" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="I21" s="45">
+      <c r="I21" s="62">
         <v>18</v>
       </c>
-      <c r="J21" s="45">
+      <c r="J21" s="62">
         <v>-8</v>
       </c>
-      <c r="K21" s="45">
+      <c r="K21" s="62">
         <v>18</v>
       </c>
-      <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="54" t="s">
+      <c r="L21" s="83"/>
+      <c r="M21" s="83"/>
+      <c r="N21" s="83"/>
+      <c r="O21" s="83"/>
+      <c r="P21" s="83"/>
+      <c r="Q21" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="R21" s="54" t="s">
+      <c r="R21" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="S21" s="54" t="s">
+      <c r="S21" s="71" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="45">
+      <c r="A22" s="62">
         <v>19</v>
       </c>
-      <c r="B22" s="45">
+      <c r="B22" s="62">
         <v>-7</v>
       </c>
-      <c r="C22" s="45">
+      <c r="C22" s="62">
         <v>19</v>
       </c>
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="45">
+      <c r="E22" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="62">
         <v>19</v>
       </c>
-      <c r="J22" s="45">
+      <c r="J22" s="62">
         <v>-7</v>
       </c>
-      <c r="K22" s="45">
+      <c r="K22" s="62">
         <v>19</v>
       </c>
-      <c r="L22" s="66"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="R22" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="S22" s="54" t="s">
+      <c r="L22" s="83"/>
+      <c r="M22" s="84"/>
+      <c r="N22" s="84"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="83"/>
+      <c r="Q22" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="71" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="45">
+      <c r="A23" s="62">
         <v>20</v>
       </c>
-      <c r="B23" s="45">
+      <c r="B23" s="62">
         <v>-6</v>
       </c>
-      <c r="C23" s="45">
+      <c r="C23" s="62">
         <v>20</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="I23" s="45">
+      <c r="E23" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="62">
         <v>20</v>
       </c>
-      <c r="J23" s="45">
+      <c r="J23" s="62">
         <v>-6</v>
       </c>
-      <c r="K23" s="45">
+      <c r="K23" s="62">
         <v>20</v>
       </c>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="R23" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="S23" s="54" t="s">
+      <c r="L23" s="83"/>
+      <c r="M23" s="83"/>
+      <c r="N23" s="83"/>
+      <c r="O23" s="83"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="R23" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="S23" s="71" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="45">
+      <c r="A24" s="62">
         <v>21</v>
       </c>
-      <c r="B24" s="45">
+      <c r="B24" s="62">
         <v>-5</v>
       </c>
-      <c r="C24" s="52">
+      <c r="C24" s="69">
         <v>21</v>
       </c>
-      <c r="D24" s="46" t="s">
+      <c r="D24" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="45">
+      <c r="E24" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="62">
         <v>21</v>
       </c>
-      <c r="J24" s="45">
+      <c r="J24" s="62">
         <v>-5</v>
       </c>
-      <c r="K24" s="52">
+      <c r="K24" s="69">
         <v>21</v>
       </c>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="R24" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="S24" s="54" t="s">
+      <c r="L24" s="83"/>
+      <c r="M24" s="83"/>
+      <c r="N24" s="83"/>
+      <c r="O24" s="83"/>
+      <c r="P24" s="83"/>
+      <c r="Q24" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="R24" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="S24" s="71" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="45">
+      <c r="A25" s="62">
         <v>22</v>
       </c>
-      <c r="B25" s="45">
+      <c r="B25" s="62">
         <v>-4</v>
       </c>
-      <c r="C25" s="52">
+      <c r="C25" s="69">
         <v>22</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="55" t="s">
+      <c r="E25" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="55" t="s">
+      <c r="F25" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="55" t="s">
+      <c r="G25" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="45">
+      <c r="I25" s="62">
         <v>22</v>
       </c>
-      <c r="J25" s="45">
+      <c r="J25" s="62">
         <v>-4</v>
       </c>
-      <c r="K25" s="52">
+      <c r="K25" s="69">
         <v>22</v>
       </c>
-      <c r="L25" s="66" t="s">
+      <c r="L25" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="M25" s="66"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="55" t="s">
+      <c r="M25" s="83"/>
+      <c r="N25" s="83"/>
+      <c r="O25" s="83"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="R25" s="55" t="s">
+      <c r="R25" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="S25" s="55" t="s">
+      <c r="S25" s="72" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="45">
+      <c r="A26" s="62">
         <v>23</v>
       </c>
-      <c r="B26" s="45">
+      <c r="B26" s="62">
         <v>-3</v>
       </c>
-      <c r="C26" s="52">
+      <c r="C26" s="69">
         <v>23</v>
       </c>
-      <c r="D26" s="46" t="s">
+      <c r="D26" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="45">
+      <c r="E26" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="62">
         <v>23</v>
       </c>
-      <c r="J26" s="45">
+      <c r="J26" s="62">
         <v>-3</v>
       </c>
-      <c r="K26" s="52">
+      <c r="K26" s="69">
         <v>23</v>
       </c>
-      <c r="L26" s="66"/>
-      <c r="M26" s="66"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="66"/>
-      <c r="P26" s="66"/>
-      <c r="Q26" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="R26" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="S26" s="55" t="s">
+      <c r="L26" s="83"/>
+      <c r="M26" s="83"/>
+      <c r="N26" s="83"/>
+      <c r="O26" s="83"/>
+      <c r="P26" s="83"/>
+      <c r="Q26" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="R26" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="S26" s="72" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="45">
+      <c r="A27" s="62">
         <v>24</v>
       </c>
-      <c r="B27" s="45">
+      <c r="B27" s="62">
         <v>-2</v>
       </c>
-      <c r="C27" s="52">
+      <c r="C27" s="69">
         <v>24</v>
       </c>
-      <c r="D27" s="46" t="s">
+      <c r="D27" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="55" t="s">
+      <c r="E27" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="55" t="s">
+      <c r="F27" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="55" t="s">
+      <c r="G27" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="I27" s="45">
+      <c r="I27" s="62">
         <v>24</v>
       </c>
-      <c r="J27" s="45">
+      <c r="J27" s="62">
         <v>-2</v>
       </c>
-      <c r="K27" s="52">
+      <c r="K27" s="69">
         <v>24</v>
       </c>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="55" t="s">
+      <c r="L27" s="83"/>
+      <c r="M27" s="83"/>
+      <c r="N27" s="83"/>
+      <c r="O27" s="83"/>
+      <c r="P27" s="83"/>
+      <c r="Q27" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="R27" s="55" t="s">
+      <c r="R27" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="S27" s="55" t="s">
+      <c r="S27" s="72" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="45">
+      <c r="A28" s="62">
         <v>25</v>
       </c>
-      <c r="B28" s="45">
+      <c r="B28" s="62">
         <v>-1</v>
       </c>
-      <c r="C28" s="52">
+      <c r="C28" s="69">
         <v>25</v>
       </c>
-      <c r="D28" s="46" t="s">
+      <c r="D28" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="I28" s="45">
+      <c r="E28" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="62">
         <v>25</v>
       </c>
-      <c r="J28" s="45">
+      <c r="J28" s="62">
         <v>-1</v>
       </c>
-      <c r="K28" s="68">
+      <c r="K28" s="85">
         <v>25</v>
       </c>
-      <c r="L28" s="66"/>
-      <c r="M28" s="66"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="66"/>
-      <c r="P28" s="66"/>
-      <c r="Q28" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="R28" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="S28" s="55" t="s">
+      <c r="L28" s="83"/>
+      <c r="M28" s="83"/>
+      <c r="N28" s="83"/>
+      <c r="O28" s="83"/>
+      <c r="P28" s="83"/>
+      <c r="Q28" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="R28" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="S28" s="72" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="45">
+      <c r="A29" s="62">
         <v>26</v>
       </c>
-      <c r="B29" s="45">
+      <c r="B29" s="62">
         <v>0</v>
       </c>
-      <c r="C29" s="56">
+      <c r="C29" s="73">
         <v>26</v>
       </c>
-      <c r="D29" s="46" t="s">
+      <c r="D29" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="45">
+      <c r="E29" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="62">
         <v>26</v>
       </c>
-      <c r="J29" s="45">
+      <c r="J29" s="62">
         <v>0</v>
       </c>
-      <c r="K29" s="68">
+      <c r="K29" s="85">
         <v>26</v>
       </c>
-      <c r="L29" s="66"/>
-      <c r="M29" s="66"/>
-      <c r="N29" s="66"/>
-      <c r="O29" s="66"/>
-      <c r="P29" s="66"/>
-      <c r="Q29" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="R29" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="S29" s="57" t="s">
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="83"/>
+      <c r="O29" s="83"/>
+      <c r="P29" s="83"/>
+      <c r="Q29" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="R29" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="S29" s="74" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="45">
+      <c r="A30" s="62">
         <v>27</v>
       </c>
-      <c r="B30" s="45">
-        <v>1</v>
-      </c>
-      <c r="C30" s="45">
+      <c r="B30" s="62">
+        <v>1</v>
+      </c>
+      <c r="C30" s="62">
         <v>27</v>
       </c>
-      <c r="D30" s="46" t="s">
+      <c r="D30" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="G30" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="I30" s="45">
+      <c r="E30" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" s="62">
         <v>27</v>
       </c>
-      <c r="J30" s="45">
-        <v>1</v>
-      </c>
-      <c r="K30" s="45">
+      <c r="J30" s="62">
+        <v>1</v>
+      </c>
+      <c r="K30" s="62">
         <v>27</v>
       </c>
-      <c r="L30" s="66"/>
-      <c r="M30" s="66"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="66"/>
-      <c r="Q30" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="R30" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="S30" s="57" t="s">
+      <c r="L30" s="83"/>
+      <c r="M30" s="83"/>
+      <c r="N30" s="83"/>
+      <c r="O30" s="83"/>
+      <c r="P30" s="83"/>
+      <c r="Q30" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="R30" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="S30" s="74" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="58" t="s">
+      <c r="A31" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="57" t="s">
+      <c r="D31" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="I31" s="58" t="s">
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="I31" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="J31" s="58" t="s">
+      <c r="J31" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="K31" s="58" t="s">
+      <c r="K31" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
+      <c r="L31" s="75"/>
+      <c r="M31" s="75"/>
+      <c r="N31" s="75"/>
+      <c r="O31" s="75"/>
+      <c r="P31" s="75"/>
+      <c r="Q31" s="76"/>
+      <c r="R31" s="76"/>
+      <c r="S31" s="76"/>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="58" t="s">
+      <c r="A32" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="58" t="s">
+      <c r="C32" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="57" t="s">
+      <c r="D32" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="I32" s="58" t="s">
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="I32" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="J32" s="58" t="s">
+      <c r="J32" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="58" t="s">
+      <c r="K32" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="59"/>
-      <c r="S32" s="59"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="75"/>
+      <c r="N32" s="75"/>
+      <c r="O32" s="75"/>
+      <c r="P32" s="75"/>
+      <c r="Q32" s="76"/>
+      <c r="R32" s="76"/>
+      <c r="S32" s="76"/>
     </row>
     <row r="33" spans="1:19">
-      <c r="A33" s="58" t="s">
+      <c r="A33" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="58" t="s">
+      <c r="C33" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="57" t="s">
+      <c r="D33" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="I33" s="58" t="s">
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="I33" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="J33" s="58" t="s">
+      <c r="J33" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="K33" s="58" t="s">
+      <c r="K33" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="L33" s="58"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="58"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="58"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="59"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="75"/>
+      <c r="O33" s="75"/>
+      <c r="P33" s="75"/>
+      <c r="Q33" s="76"/>
+      <c r="R33" s="76"/>
+      <c r="S33" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3667,10 +3772,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:V90"/>
+  <dimension ref="B1:V98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Z50" sqref="Z50"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3708,13 +3813,13 @@
       <c r="H3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="39" t="s">
+      <c r="L3" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="39" t="s">
+      <c r="M3" s="52" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3732,20 +3837,20 @@
       <c r="H4" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39" t="s">
+      <c r="K4" s="52"/>
+      <c r="L4" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="39"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="54"/>
     </row>
     <row r="5" spans="2:22">
       <c r="B5" s="28">
@@ -3765,20 +3870,20 @@
       <c r="H5" s="28">
         <v>1</v>
       </c>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39" t="s">
+      <c r="K5" s="52"/>
+      <c r="L5" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="39"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
     </row>
     <row r="6" spans="2:22">
       <c r="B6" s="28">
@@ -3802,15 +3907,15 @@
       <c r="H6" s="28">
         <v>1</v>
       </c>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="54"/>
     </row>
     <row r="7" spans="2:22">
       <c r="B7" s="28">
@@ -3830,20 +3935,20 @@
       <c r="H7" s="37">
         <v>1</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39" t="s">
+      <c r="K7" s="52"/>
+      <c r="L7" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
     </row>
     <row r="8" spans="2:22">
       <c r="B8" s="28">
@@ -3859,20 +3964,20 @@
       <c r="H8" s="28">
         <v>1</v>
       </c>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39" t="s">
+      <c r="K8" s="52"/>
+      <c r="L8" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="39"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
     </row>
     <row r="9" spans="2:22">
       <c r="B9" s="38">
@@ -3896,68 +4001,68 @@
       <c r="H9" s="28">
         <v>1</v>
       </c>
-      <c r="K9" s="39" t="s">
+      <c r="K9" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="39" t="s">
+      <c r="L9" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="39" t="s">
+      <c r="M9" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
     </row>
     <row r="10" spans="14:22">
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
     </row>
     <row r="11" spans="14:22">
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="40"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53"/>
     </row>
     <row r="12" spans="14:22">
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
     </row>
     <row r="13" spans="14:22">
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="54"/>
     </row>
     <row r="14" spans="2:14">
       <c r="B14" s="28">
@@ -4570,35 +4675,1089 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="11:14">
-      <c r="K78" s="34"/>
-      <c r="N78" s="34"/>
-    </row>
-    <row r="79" spans="8:10">
-      <c r="H79" s="34"/>
-      <c r="J79" s="34"/>
-    </row>
-    <row r="80" spans="10:10">
-      <c r="J80" s="34"/>
-    </row>
-    <row r="81" spans="7:7">
-      <c r="G81" s="34"/>
-    </row>
-    <row r="82" spans="11:11">
-      <c r="K82" s="34"/>
-    </row>
-    <row r="84" spans="9:9">
-      <c r="I84" s="34"/>
-    </row>
-    <row r="87" spans="18:18">
-      <c r="R87" s="34"/>
-    </row>
-    <row r="89" spans="7:7">
-      <c r="G89" s="34"/>
-    </row>
-    <row r="90" spans="7:15">
-      <c r="G90" s="34"/>
-      <c r="O90" s="34"/>
+    <row r="43" spans="3:20">
+      <c r="C43" s="28">
+        <v>1</v>
+      </c>
+      <c r="D43" s="28">
+        <v>1</v>
+      </c>
+      <c r="E43" s="28">
+        <v>1</v>
+      </c>
+      <c r="F43" s="28">
+        <v>1</v>
+      </c>
+      <c r="G43" s="28">
+        <v>1</v>
+      </c>
+      <c r="H43" s="28">
+        <v>1</v>
+      </c>
+      <c r="I43" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="N43" s="28">
+        <v>1</v>
+      </c>
+      <c r="O43" s="28">
+        <v>1</v>
+      </c>
+      <c r="P43" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="28">
+        <v>1</v>
+      </c>
+      <c r="R43" s="28">
+        <v>1</v>
+      </c>
+      <c r="S43" s="28">
+        <v>1</v>
+      </c>
+      <c r="T43" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="3:20">
+      <c r="C44" s="30">
+        <v>1</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="G44" s="39"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="N44" s="30">
+        <v>1</v>
+      </c>
+      <c r="O44" s="49"/>
+      <c r="P44" s="49"/>
+      <c r="Q44" s="49"/>
+      <c r="R44" s="49"/>
+      <c r="S44" s="50"/>
+      <c r="T44" s="33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="3:20">
+      <c r="C45" s="28">
+        <v>1</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="H45" s="39"/>
+      <c r="I45" s="28">
+        <v>1</v>
+      </c>
+      <c r="N45" s="28">
+        <v>1</v>
+      </c>
+      <c r="O45" s="49"/>
+      <c r="P45" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q45" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="R45" s="51"/>
+      <c r="S45" s="49"/>
+      <c r="T45" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:20">
+      <c r="C46" s="28">
+        <v>1</v>
+      </c>
+      <c r="D46" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="H46" s="41"/>
+      <c r="I46" s="28">
+        <v>1</v>
+      </c>
+      <c r="N46" s="28">
+        <v>1</v>
+      </c>
+      <c r="O46" s="51"/>
+      <c r="P46" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q46" s="51"/>
+      <c r="R46" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="S46" s="51"/>
+      <c r="T46" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="3:20">
+      <c r="C47" s="28">
+        <v>1</v>
+      </c>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="I47" s="37">
+        <v>1</v>
+      </c>
+      <c r="N47" s="28">
+        <v>1</v>
+      </c>
+      <c r="O47" s="51"/>
+      <c r="P47" s="51"/>
+      <c r="Q47" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="R47" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="S47" s="51"/>
+      <c r="T47" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="3:20">
+      <c r="C48" s="28">
+        <v>1</v>
+      </c>
+      <c r="D48" s="41"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="G48" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="H48" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="I48" s="28">
+        <v>1</v>
+      </c>
+      <c r="N48" s="28">
+        <v>1</v>
+      </c>
+      <c r="O48" s="51"/>
+      <c r="P48" s="51"/>
+      <c r="Q48" s="51"/>
+      <c r="R48" s="51"/>
+      <c r="S48" s="51"/>
+      <c r="T48" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20">
+      <c r="C49" s="38">
+        <v>1</v>
+      </c>
+      <c r="D49" s="28">
+        <v>1</v>
+      </c>
+      <c r="E49" s="28">
+        <v>1</v>
+      </c>
+      <c r="F49" s="28">
+        <v>1</v>
+      </c>
+      <c r="G49" s="28">
+        <v>1</v>
+      </c>
+      <c r="H49" s="28">
+        <v>1</v>
+      </c>
+      <c r="I49" s="28">
+        <v>1</v>
+      </c>
+      <c r="N49" s="38">
+        <v>1</v>
+      </c>
+      <c r="O49" s="28">
+        <v>1</v>
+      </c>
+      <c r="P49" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="28">
+        <v>1</v>
+      </c>
+      <c r="R49" s="28">
+        <v>1</v>
+      </c>
+      <c r="S49" s="28">
+        <v>1</v>
+      </c>
+      <c r="T49" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20">
+      <c r="C51" s="28">
+        <v>1</v>
+      </c>
+      <c r="D51" s="28">
+        <v>1</v>
+      </c>
+      <c r="E51" s="28">
+        <v>1</v>
+      </c>
+      <c r="F51" s="28">
+        <v>1</v>
+      </c>
+      <c r="G51" s="28">
+        <v>1</v>
+      </c>
+      <c r="H51" s="28">
+        <v>1</v>
+      </c>
+      <c r="I51" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="N51" s="28">
+        <v>1</v>
+      </c>
+      <c r="O51" s="28">
+        <v>1</v>
+      </c>
+      <c r="P51" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="28">
+        <v>1</v>
+      </c>
+      <c r="R51" s="28">
+        <v>1</v>
+      </c>
+      <c r="S51" s="28">
+        <v>1</v>
+      </c>
+      <c r="T51" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20">
+      <c r="C52" s="30">
+        <v>1</v>
+      </c>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="42"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="N52" s="30">
+        <v>1</v>
+      </c>
+      <c r="O52" s="42"/>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="42"/>
+      <c r="R52" s="42"/>
+      <c r="S52" s="43"/>
+      <c r="T52" s="33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20">
+      <c r="C53" s="28">
+        <v>1</v>
+      </c>
+      <c r="D53" s="42"/>
+      <c r="E53" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="G53" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="H53" s="42"/>
+      <c r="I53" s="28">
+        <v>1</v>
+      </c>
+      <c r="N53" s="28">
+        <v>1</v>
+      </c>
+      <c r="O53" s="42"/>
+      <c r="P53" s="44"/>
+      <c r="Q53" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="R53" s="46"/>
+      <c r="S53" s="42"/>
+      <c r="T53" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20">
+      <c r="C54" s="28">
+        <v>1</v>
+      </c>
+      <c r="D54" s="45"/>
+      <c r="E54" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="F54" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="H54" s="45"/>
+      <c r="I54" s="28">
+        <v>1</v>
+      </c>
+      <c r="N54" s="28">
+        <v>1</v>
+      </c>
+      <c r="O54" s="45"/>
+      <c r="P54" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q54" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="R54" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="S54" s="45"/>
+      <c r="T54" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20">
+      <c r="C55" s="28">
+        <v>1</v>
+      </c>
+      <c r="D55" s="45"/>
+      <c r="E55" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="F55" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="G55" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" s="45"/>
+      <c r="I55" s="37">
+        <v>1</v>
+      </c>
+      <c r="N55" s="28">
+        <v>1</v>
+      </c>
+      <c r="O55" s="45"/>
+      <c r="P55" s="44"/>
+      <c r="Q55" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="R55" s="48"/>
+      <c r="S55" s="45"/>
+      <c r="T55" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="3:20">
+      <c r="C56" s="28">
+        <v>1</v>
+      </c>
+      <c r="D56" s="45"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="28">
+        <v>1</v>
+      </c>
+      <c r="N56" s="28">
+        <v>1</v>
+      </c>
+      <c r="O56" s="45"/>
+      <c r="P56" s="42"/>
+      <c r="Q56" s="45"/>
+      <c r="R56" s="42"/>
+      <c r="S56" s="42"/>
+      <c r="T56" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="3:20">
+      <c r="C57" s="38">
+        <v>1</v>
+      </c>
+      <c r="D57" s="28">
+        <v>1</v>
+      </c>
+      <c r="E57" s="28">
+        <v>1</v>
+      </c>
+      <c r="F57" s="28">
+        <v>1</v>
+      </c>
+      <c r="G57" s="28">
+        <v>1</v>
+      </c>
+      <c r="H57" s="28">
+        <v>1</v>
+      </c>
+      <c r="I57" s="28">
+        <v>1</v>
+      </c>
+      <c r="N57" s="38">
+        <v>1</v>
+      </c>
+      <c r="O57" s="28">
+        <v>1</v>
+      </c>
+      <c r="P57" s="28">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="28">
+        <v>1</v>
+      </c>
+      <c r="R57" s="28">
+        <v>1</v>
+      </c>
+      <c r="S57" s="28">
+        <v>1</v>
+      </c>
+      <c r="T57" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="3:9">
+      <c r="C59" s="28">
+        <v>1</v>
+      </c>
+      <c r="D59" s="28">
+        <v>1</v>
+      </c>
+      <c r="E59" s="28">
+        <v>1</v>
+      </c>
+      <c r="F59" s="28">
+        <v>1</v>
+      </c>
+      <c r="G59" s="28">
+        <v>1</v>
+      </c>
+      <c r="H59" s="28">
+        <v>1</v>
+      </c>
+      <c r="I59" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="3:9">
+      <c r="C60" s="30">
+        <v>1</v>
+      </c>
+      <c r="D60" s="49"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:9">
+      <c r="C61" s="28">
+        <v>1</v>
+      </c>
+      <c r="D61" s="49"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="G61" s="51"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="3:9">
+      <c r="C62" s="28">
+        <v>1</v>
+      </c>
+      <c r="D62" s="51"/>
+      <c r="E62" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="F62" s="51"/>
+      <c r="G62" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="H62" s="51"/>
+      <c r="I62" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="3:9">
+      <c r="C63" s="28">
+        <v>1</v>
+      </c>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="F63" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="G63" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="H63" s="51"/>
+      <c r="I63" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="3:9">
+      <c r="C64" s="28">
+        <v>1</v>
+      </c>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="51"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9">
+      <c r="C65" s="38">
+        <v>1</v>
+      </c>
+      <c r="D65" s="28">
+        <v>1</v>
+      </c>
+      <c r="E65" s="28">
+        <v>1</v>
+      </c>
+      <c r="F65" s="28">
+        <v>1</v>
+      </c>
+      <c r="G65" s="28">
+        <v>1</v>
+      </c>
+      <c r="H65" s="28">
+        <v>1</v>
+      </c>
+      <c r="I65" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="3:20">
+      <c r="C75" s="55"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="56"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="56"/>
+      <c r="I75" s="56"/>
+      <c r="J75" s="56"/>
+      <c r="K75" s="56"/>
+      <c r="L75" s="56"/>
+      <c r="M75" s="56"/>
+      <c r="N75" s="56"/>
+      <c r="O75" s="56"/>
+      <c r="P75" s="56"/>
+      <c r="Q75" s="56"/>
+      <c r="R75" s="56"/>
+      <c r="S75" s="55"/>
+      <c r="T75" s="55"/>
+    </row>
+    <row r="76" spans="3:20">
+      <c r="C76" s="55"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="56"/>
+      <c r="G76" s="56"/>
+      <c r="H76" s="56"/>
+      <c r="I76" s="56"/>
+      <c r="J76" s="56"/>
+      <c r="K76" s="56"/>
+      <c r="L76" s="56"/>
+      <c r="M76" s="56"/>
+      <c r="N76" s="56"/>
+      <c r="O76" s="56"/>
+      <c r="P76" s="56"/>
+      <c r="Q76" s="56"/>
+      <c r="R76" s="56"/>
+      <c r="S76" s="55"/>
+      <c r="T76" s="55"/>
+    </row>
+    <row r="77" spans="3:20">
+      <c r="C77" s="55"/>
+      <c r="D77" s="56"/>
+      <c r="E77" s="56"/>
+      <c r="F77" s="56"/>
+      <c r="G77" s="56"/>
+      <c r="H77" s="56"/>
+      <c r="I77" s="56"/>
+      <c r="J77" s="56"/>
+      <c r="K77" s="56"/>
+      <c r="L77" s="56"/>
+      <c r="M77" s="56"/>
+      <c r="N77" s="56"/>
+      <c r="O77" s="56"/>
+      <c r="P77" s="56"/>
+      <c r="Q77" s="56"/>
+      <c r="R77" s="56"/>
+      <c r="S77" s="55"/>
+      <c r="T77" s="55"/>
+    </row>
+    <row r="78" spans="3:20">
+      <c r="C78" s="55"/>
+      <c r="D78" s="56"/>
+      <c r="E78" s="56"/>
+      <c r="F78" s="56"/>
+      <c r="G78" s="56"/>
+      <c r="H78" s="56"/>
+      <c r="I78" s="56"/>
+      <c r="J78" s="56"/>
+      <c r="K78" s="57"/>
+      <c r="L78" s="56"/>
+      <c r="M78" s="56"/>
+      <c r="N78" s="57"/>
+      <c r="O78" s="56"/>
+      <c r="P78" s="56"/>
+      <c r="Q78" s="56"/>
+      <c r="R78" s="56"/>
+      <c r="S78" s="55"/>
+      <c r="T78" s="55"/>
+    </row>
+    <row r="79" spans="3:20">
+      <c r="C79" s="55"/>
+      <c r="D79" s="56"/>
+      <c r="E79" s="56"/>
+      <c r="F79" s="56"/>
+      <c r="G79" s="56"/>
+      <c r="H79" s="57"/>
+      <c r="I79" s="56"/>
+      <c r="J79" s="57"/>
+      <c r="K79" s="56"/>
+      <c r="L79" s="56"/>
+      <c r="M79" s="56"/>
+      <c r="N79" s="56"/>
+      <c r="O79" s="56"/>
+      <c r="P79" s="56"/>
+      <c r="Q79" s="56"/>
+      <c r="R79" s="56"/>
+      <c r="S79" s="55"/>
+      <c r="T79" s="55"/>
+    </row>
+    <row r="80" spans="3:20">
+      <c r="C80" s="55"/>
+      <c r="D80" s="56"/>
+      <c r="E80" s="56"/>
+      <c r="F80" s="56"/>
+      <c r="G80" s="56"/>
+      <c r="H80" s="56"/>
+      <c r="I80" s="56"/>
+      <c r="J80" s="57"/>
+      <c r="K80" s="56"/>
+      <c r="L80" s="56"/>
+      <c r="M80" s="56"/>
+      <c r="N80" s="56"/>
+      <c r="O80" s="56"/>
+      <c r="P80" s="56"/>
+      <c r="Q80" s="56"/>
+      <c r="R80" s="56"/>
+      <c r="S80" s="55"/>
+      <c r="T80" s="55"/>
+    </row>
+    <row r="81" spans="3:20">
+      <c r="C81" s="55"/>
+      <c r="D81" s="56"/>
+      <c r="E81" s="56"/>
+      <c r="F81" s="56"/>
+      <c r="G81" s="57"/>
+      <c r="H81" s="56"/>
+      <c r="I81" s="56"/>
+      <c r="J81" s="56"/>
+      <c r="K81" s="56"/>
+      <c r="L81" s="56"/>
+      <c r="M81" s="56"/>
+      <c r="N81" s="56"/>
+      <c r="O81" s="56"/>
+      <c r="P81" s="56"/>
+      <c r="Q81" s="56"/>
+      <c r="R81" s="56"/>
+      <c r="S81" s="55"/>
+      <c r="T81" s="55"/>
+    </row>
+    <row r="82" spans="3:20">
+      <c r="C82" s="55"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="56"/>
+      <c r="F82" s="56"/>
+      <c r="G82" s="56"/>
+      <c r="H82" s="56"/>
+      <c r="I82" s="56"/>
+      <c r="J82" s="56"/>
+      <c r="K82" s="57"/>
+      <c r="L82" s="56"/>
+      <c r="M82" s="56"/>
+      <c r="N82" s="56"/>
+      <c r="O82" s="56"/>
+      <c r="P82" s="56"/>
+      <c r="Q82" s="56"/>
+      <c r="R82" s="56"/>
+      <c r="S82" s="55"/>
+      <c r="T82" s="55"/>
+    </row>
+    <row r="83" spans="3:20">
+      <c r="C83" s="55"/>
+      <c r="D83" s="56"/>
+      <c r="E83" s="56"/>
+      <c r="F83" s="56"/>
+      <c r="G83" s="56"/>
+      <c r="H83" s="56"/>
+      <c r="I83" s="56"/>
+      <c r="J83" s="56"/>
+      <c r="K83" s="56"/>
+      <c r="L83" s="56"/>
+      <c r="M83" s="56"/>
+      <c r="N83" s="56"/>
+      <c r="O83" s="56"/>
+      <c r="P83" s="56"/>
+      <c r="Q83" s="56"/>
+      <c r="R83" s="56"/>
+      <c r="S83" s="55"/>
+      <c r="T83" s="55"/>
+    </row>
+    <row r="84" spans="3:20">
+      <c r="C84" s="55"/>
+      <c r="D84" s="56"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="56"/>
+      <c r="G84" s="56"/>
+      <c r="H84" s="56"/>
+      <c r="I84" s="57"/>
+      <c r="J84" s="56"/>
+      <c r="K84" s="56"/>
+      <c r="L84" s="56"/>
+      <c r="M84" s="56"/>
+      <c r="N84" s="56"/>
+      <c r="O84" s="56"/>
+      <c r="P84" s="56"/>
+      <c r="Q84" s="56"/>
+      <c r="R84" s="56"/>
+      <c r="S84" s="55"/>
+      <c r="T84" s="55"/>
+    </row>
+    <row r="85" spans="3:20">
+      <c r="C85" s="55"/>
+      <c r="D85" s="56"/>
+      <c r="E85" s="56"/>
+      <c r="F85" s="56"/>
+      <c r="G85" s="56"/>
+      <c r="H85" s="56"/>
+      <c r="I85" s="56"/>
+      <c r="J85" s="56"/>
+      <c r="K85" s="56"/>
+      <c r="L85" s="56"/>
+      <c r="M85" s="56"/>
+      <c r="N85" s="56"/>
+      <c r="O85" s="56"/>
+      <c r="P85" s="56"/>
+      <c r="Q85" s="56"/>
+      <c r="R85" s="56"/>
+      <c r="S85" s="55"/>
+      <c r="T85" s="55"/>
+    </row>
+    <row r="86" spans="3:20">
+      <c r="C86" s="55"/>
+      <c r="D86" s="56"/>
+      <c r="E86" s="56"/>
+      <c r="F86" s="56"/>
+      <c r="G86" s="56"/>
+      <c r="H86" s="56"/>
+      <c r="I86" s="56"/>
+      <c r="J86" s="56"/>
+      <c r="K86" s="56"/>
+      <c r="L86" s="56"/>
+      <c r="M86" s="56"/>
+      <c r="N86" s="56"/>
+      <c r="O86" s="56"/>
+      <c r="P86" s="56"/>
+      <c r="Q86" s="56"/>
+      <c r="R86" s="56"/>
+      <c r="S86" s="55"/>
+      <c r="T86" s="55"/>
+    </row>
+    <row r="87" spans="3:20">
+      <c r="C87" s="55"/>
+      <c r="D87" s="56"/>
+      <c r="E87" s="56"/>
+      <c r="F87" s="56"/>
+      <c r="G87" s="56"/>
+      <c r="H87" s="56"/>
+      <c r="I87" s="56"/>
+      <c r="J87" s="56"/>
+      <c r="K87" s="56"/>
+      <c r="L87" s="56"/>
+      <c r="M87" s="56"/>
+      <c r="N87" s="56"/>
+      <c r="O87" s="56"/>
+      <c r="P87" s="56"/>
+      <c r="Q87" s="56"/>
+      <c r="R87" s="57"/>
+      <c r="S87" s="55"/>
+      <c r="T87" s="55"/>
+    </row>
+    <row r="88" spans="3:20">
+      <c r="C88" s="55"/>
+      <c r="D88" s="56"/>
+      <c r="E88" s="56"/>
+      <c r="F88" s="56"/>
+      <c r="G88" s="56"/>
+      <c r="H88" s="56"/>
+      <c r="I88" s="56"/>
+      <c r="J88" s="56"/>
+      <c r="K88" s="56"/>
+      <c r="L88" s="56"/>
+      <c r="M88" s="56"/>
+      <c r="N88" s="56"/>
+      <c r="O88" s="56"/>
+      <c r="P88" s="56"/>
+      <c r="Q88" s="56"/>
+      <c r="R88" s="56"/>
+      <c r="S88" s="55"/>
+      <c r="T88" s="55"/>
+    </row>
+    <row r="89" spans="3:20">
+      <c r="C89" s="55"/>
+      <c r="D89" s="56"/>
+      <c r="E89" s="56"/>
+      <c r="F89" s="56"/>
+      <c r="G89" s="57"/>
+      <c r="H89" s="56"/>
+      <c r="I89" s="56"/>
+      <c r="J89" s="56"/>
+      <c r="K89" s="56"/>
+      <c r="L89" s="56"/>
+      <c r="M89" s="56"/>
+      <c r="N89" s="56"/>
+      <c r="O89" s="56"/>
+      <c r="P89" s="56"/>
+      <c r="Q89" s="56"/>
+      <c r="R89" s="56"/>
+      <c r="S89" s="55"/>
+      <c r="T89" s="55"/>
+    </row>
+    <row r="90" spans="3:20">
+      <c r="C90" s="55"/>
+      <c r="D90" s="56"/>
+      <c r="E90" s="56"/>
+      <c r="F90" s="56"/>
+      <c r="G90" s="57"/>
+      <c r="H90" s="56"/>
+      <c r="I90" s="56"/>
+      <c r="J90" s="56"/>
+      <c r="K90" s="56"/>
+      <c r="L90" s="56"/>
+      <c r="M90" s="56"/>
+      <c r="N90" s="56"/>
+      <c r="O90" s="57"/>
+      <c r="P90" s="56"/>
+      <c r="Q90" s="56"/>
+      <c r="R90" s="56"/>
+      <c r="S90" s="55"/>
+      <c r="T90" s="55"/>
+    </row>
+    <row r="91" spans="3:20">
+      <c r="C91" s="55"/>
+      <c r="D91" s="56"/>
+      <c r="E91" s="56"/>
+      <c r="F91" s="56"/>
+      <c r="G91" s="56"/>
+      <c r="H91" s="56"/>
+      <c r="I91" s="56"/>
+      <c r="J91" s="56"/>
+      <c r="K91" s="56"/>
+      <c r="L91" s="56"/>
+      <c r="M91" s="56"/>
+      <c r="N91" s="56"/>
+      <c r="O91" s="56"/>
+      <c r="P91" s="56"/>
+      <c r="Q91" s="56"/>
+      <c r="R91" s="56"/>
+      <c r="S91" s="55"/>
+      <c r="T91" s="55"/>
+    </row>
+    <row r="92" spans="3:20">
+      <c r="C92" s="55"/>
+      <c r="D92" s="56"/>
+      <c r="E92" s="56"/>
+      <c r="F92" s="56"/>
+      <c r="G92" s="56"/>
+      <c r="H92" s="56"/>
+      <c r="I92" s="56"/>
+      <c r="J92" s="56"/>
+      <c r="K92" s="56"/>
+      <c r="L92" s="56"/>
+      <c r="M92" s="56"/>
+      <c r="N92" s="56"/>
+      <c r="O92" s="56"/>
+      <c r="P92" s="56"/>
+      <c r="Q92" s="56"/>
+      <c r="R92" s="56"/>
+      <c r="S92" s="55"/>
+      <c r="T92" s="55"/>
+    </row>
+    <row r="93" spans="3:20">
+      <c r="C93" s="55"/>
+      <c r="D93" s="56"/>
+      <c r="E93" s="56"/>
+      <c r="F93" s="56"/>
+      <c r="G93" s="56"/>
+      <c r="H93" s="56"/>
+      <c r="I93" s="56"/>
+      <c r="J93" s="56"/>
+      <c r="K93" s="56"/>
+      <c r="L93" s="56"/>
+      <c r="M93" s="56"/>
+      <c r="N93" s="56"/>
+      <c r="O93" s="56"/>
+      <c r="P93" s="56"/>
+      <c r="Q93" s="56"/>
+      <c r="R93" s="56"/>
+      <c r="S93" s="55"/>
+      <c r="T93" s="55"/>
+    </row>
+    <row r="94" spans="3:20">
+      <c r="C94" s="55"/>
+      <c r="D94" s="56"/>
+      <c r="E94" s="56"/>
+      <c r="F94" s="56"/>
+      <c r="G94" s="56"/>
+      <c r="H94" s="56"/>
+      <c r="I94" s="56"/>
+      <c r="J94" s="56"/>
+      <c r="K94" s="56"/>
+      <c r="L94" s="56"/>
+      <c r="M94" s="56"/>
+      <c r="N94" s="56"/>
+      <c r="O94" s="56"/>
+      <c r="P94" s="56"/>
+      <c r="Q94" s="56"/>
+      <c r="R94" s="56"/>
+      <c r="S94" s="55"/>
+      <c r="T94" s="55"/>
+    </row>
+    <row r="95" spans="3:20">
+      <c r="C95" s="55"/>
+      <c r="D95" s="56"/>
+      <c r="E95" s="56"/>
+      <c r="F95" s="56"/>
+      <c r="G95" s="56"/>
+      <c r="H95" s="56"/>
+      <c r="I95" s="56"/>
+      <c r="J95" s="56"/>
+      <c r="K95" s="56"/>
+      <c r="L95" s="56"/>
+      <c r="M95" s="56"/>
+      <c r="N95" s="56"/>
+      <c r="O95" s="56"/>
+      <c r="P95" s="56"/>
+      <c r="Q95" s="56"/>
+      <c r="R95" s="56"/>
+      <c r="S95" s="55"/>
+      <c r="T95" s="55"/>
+    </row>
+    <row r="96" spans="3:20">
+      <c r="C96" s="55"/>
+      <c r="D96" s="56"/>
+      <c r="E96" s="56"/>
+      <c r="F96" s="56"/>
+      <c r="G96" s="56"/>
+      <c r="H96" s="56"/>
+      <c r="I96" s="56"/>
+      <c r="J96" s="56"/>
+      <c r="K96" s="56"/>
+      <c r="L96" s="56"/>
+      <c r="M96" s="56"/>
+      <c r="N96" s="56"/>
+      <c r="O96" s="56"/>
+      <c r="P96" s="56"/>
+      <c r="Q96" s="56"/>
+      <c r="R96" s="56"/>
+      <c r="S96" s="55"/>
+      <c r="T96" s="55"/>
+    </row>
+    <row r="97" spans="3:20">
+      <c r="C97" s="55"/>
+      <c r="D97" s="56"/>
+      <c r="E97" s="56"/>
+      <c r="F97" s="56"/>
+      <c r="G97" s="56"/>
+      <c r="H97" s="56"/>
+      <c r="I97" s="56"/>
+      <c r="J97" s="56"/>
+      <c r="K97" s="56"/>
+      <c r="L97" s="56"/>
+      <c r="M97" s="56"/>
+      <c r="N97" s="56"/>
+      <c r="O97" s="56"/>
+      <c r="P97" s="56"/>
+      <c r="Q97" s="56"/>
+      <c r="R97" s="56"/>
+      <c r="S97" s="55"/>
+      <c r="T97" s="55"/>
+    </row>
+    <row r="98" spans="4:18">
+      <c r="D98" s="58"/>
+      <c r="E98" s="58"/>
+      <c r="F98" s="58"/>
+      <c r="G98" s="58"/>
+      <c r="H98" s="58"/>
+      <c r="I98" s="58"/>
+      <c r="J98" s="58"/>
+      <c r="K98" s="58"/>
+      <c r="L98" s="58"/>
+      <c r="M98" s="58"/>
+      <c r="N98" s="58"/>
+      <c r="O98" s="58"/>
+      <c r="P98" s="58"/>
+      <c r="Q98" s="58"/>
+      <c r="R98" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4611,7 +5770,7 @@
   <sheetPr/>
   <dimension ref="B2:V48"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>
@@ -4628,10 +5787,10 @@
   <sheetData>
     <row r="2" spans="2:22">
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -4652,7 +5811,7 @@
       <c r="T2" s="4"/>
       <c r="U2" s="21"/>
       <c r="V2" s="22" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="2:22">
@@ -4660,7 +5819,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -4689,7 +5848,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -4718,7 +5877,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -4747,7 +5906,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -4803,7 +5962,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -4832,7 +5991,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -4861,7 +6020,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -4890,7 +6049,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -4919,7 +6078,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -4948,7 +6107,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -4977,7 +6136,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -5006,7 +6165,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -5035,7 +6194,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -5064,7 +6223,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -5093,7 +6252,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -5122,7 +6281,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -5151,7 +6310,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -5180,7 +6339,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -5206,10 +6365,10 @@
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="9" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -5230,15 +6389,15 @@
       <c r="T22" s="11"/>
       <c r="U22" s="27"/>
       <c r="V22" s="12" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="12" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
@@ -5250,7 +6409,7 @@
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
       <c r="M28" s="13" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="N28" s="14"/>
       <c r="O28" s="12"/>
@@ -5261,12 +6420,39 @@
       <c r="T28" s="13"/>
       <c r="U28" s="14"/>
       <c r="V28" s="15" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="2:22">
       <c r="B29" s="15">
         <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="V29" s="25" t="s">
         <v>8</v>
@@ -5760,7 +6946,7 @@
     </row>
     <row r="48" spans="2:22">
       <c r="B48" s="9" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>2</v>
@@ -5772,7 +6958,7 @@
         <v>4</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G48" s="12" t="s">
         <v>2</v>
@@ -5784,13 +6970,13 @@
         <v>13</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L48" s="12" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="M48" s="12">
         <v>1</v>
@@ -5799,7 +6985,7 @@
         <v>13</v>
       </c>
       <c r="O48" s="12" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="P48" s="19">
         <v>1</v>
@@ -5820,7 +7006,7 @@
         <v>1</v>
       </c>
       <c r="V48" s="12" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Axcels/rant.xlsx
+++ b/Axcels/rant.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
   <si>
     <t xml:space="preserve"> Z</t>
   </si>
@@ -183,7 +183,34 @@
     <t>一</t>
   </si>
   <si>
+    <t>Ko</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>Ce</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>LL</t>
+  </si>
+  <si>
+    <t>∧</t>
+  </si>
+  <si>
     <t>\</t>
+  </si>
+  <si>
+    <t>＜</t>
+  </si>
+  <si>
+    <t>＞</t>
+  </si>
+  <si>
+    <t>∨</t>
   </si>
   <si>
     <t>&lt;</t>
@@ -308,12 +335,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,9 +412,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="6" tint="-0.25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="黑体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -406,7 +469,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -420,70 +483,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,6 +507,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -512,8 +529,39 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="53">
+  <fills count="61">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -600,13 +648,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor theme="0" tint="-0.0499893185216834"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,7 +684,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.0499893185216834"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.35"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,13 +810,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,19 +888,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,79 +906,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,44 +984,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -945,6 +1008,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -952,6 +1030,39 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -970,21 +1081,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -993,91 +1089,91 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="54" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="42" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="48" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="48" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="60" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1086,56 +1182,56 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1220,226 +1316,310 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="31" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="31" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="32" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="31" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="32" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="32" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="7" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="31" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="30" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="40" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1843,10 +2023,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="116" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
@@ -1854,110 +2034,110 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="89">
-        <v>1</v>
-      </c>
-      <c r="B2" s="90" t="s">
+      <c r="A2" s="117">
+        <v>1</v>
+      </c>
+      <c r="B2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="119" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="92">
+      <c r="A3" s="120">
         <v>2</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="119" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="89">
+      <c r="A4" s="117">
         <v>3</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="119" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="89">
-        <v>4</v>
-      </c>
-      <c r="B5" s="90" t="s">
+      <c r="A5" s="117">
+        <v>4</v>
+      </c>
+      <c r="B5" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="93" t="s">
+      <c r="C5" s="121" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="89">
+      <c r="A6" s="117">
         <v>5</v>
       </c>
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="121" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="89">
+      <c r="A7" s="117">
         <v>6</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="93" t="s">
+      <c r="C7" s="121" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="89">
+      <c r="A8" s="117">
         <v>7</v>
       </c>
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="93" t="s">
+      <c r="C8" s="121" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="89">
+      <c r="A9" s="117">
         <v>8</v>
       </c>
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="93" t="s">
+      <c r="C9" s="121" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="94">
+      <c r="A10" s="122">
         <v>9</v>
       </c>
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="93" t="s">
+      <c r="C10" s="121" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="89">
+      <c r="A11" s="117">
         <v>10</v>
       </c>
-      <c r="B11" s="90"/>
-      <c r="C11" s="93" t="s">
+      <c r="B11" s="118"/>
+      <c r="C11" s="121" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1965,10 +2145,10 @@
       <c r="A12" s="25">
         <v>11</v>
       </c>
-      <c r="B12" s="90" t="s">
+      <c r="B12" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="93" t="s">
+      <c r="C12" s="121" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1976,10 +2156,10 @@
       <c r="A13" s="25">
         <v>12</v>
       </c>
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="95" t="s">
+      <c r="C13" s="123" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1987,10 +2167,10 @@
       <c r="A14" s="25">
         <v>13</v>
       </c>
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="95" t="s">
+      <c r="C14" s="123" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1998,10 +2178,10 @@
       <c r="A15" s="25">
         <v>14</v>
       </c>
-      <c r="B15" s="90" t="s">
+      <c r="B15" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="95" t="s">
+      <c r="C15" s="123" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2009,10 +2189,10 @@
       <c r="A16" s="25">
         <v>15</v>
       </c>
-      <c r="B16" s="90" t="s">
+      <c r="B16" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="96" t="s">
+      <c r="C16" s="124" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2020,54 +2200,54 @@
       <c r="A17" s="25">
         <v>16</v>
       </c>
-      <c r="B17" s="90" t="s">
+      <c r="B17" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="96" t="s">
+      <c r="C17" s="124" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="89">
+      <c r="A18" s="117">
         <v>17</v>
       </c>
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="96" t="s">
+      <c r="C18" s="124" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="89">
+      <c r="A19" s="117">
         <v>18</v>
       </c>
-      <c r="B19" s="90" t="s">
+      <c r="B19" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="96" t="s">
+      <c r="C19" s="124" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="89">
+      <c r="A20" s="117">
         <v>19</v>
       </c>
-      <c r="B20" s="90" t="s">
+      <c r="B20" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="96" t="s">
+      <c r="C20" s="124" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="89">
+      <c r="A21" s="117">
         <v>20</v>
       </c>
-      <c r="B21" s="90" t="s">
+      <c r="B21" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="96" t="s">
+      <c r="C21" s="124" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2075,10 +2255,10 @@
       <c r="A22" s="25">
         <v>21</v>
       </c>
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="96" t="s">
+      <c r="C22" s="124" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2086,10 +2266,10 @@
       <c r="A23" s="25">
         <v>22</v>
       </c>
-      <c r="B23" s="90" t="s">
+      <c r="B23" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="97" t="s">
+      <c r="C23" s="125" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2097,10 +2277,10 @@
       <c r="A24" s="25">
         <v>23</v>
       </c>
-      <c r="B24" s="90" t="s">
+      <c r="B24" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="97" t="s">
+      <c r="C24" s="125" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2108,10 +2288,10 @@
       <c r="A25" s="25">
         <v>24</v>
       </c>
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="97" t="s">
+      <c r="C25" s="125" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2119,43 +2299,43 @@
       <c r="A26" s="25">
         <v>25</v>
       </c>
-      <c r="B26" s="90" t="s">
+      <c r="B26" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="97" t="s">
+      <c r="C26" s="125" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="98">
+      <c r="A27" s="126">
         <v>26</v>
       </c>
-      <c r="B27" s="90" t="s">
+      <c r="B27" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="99" t="s">
+      <c r="C27" s="127" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="89">
+      <c r="A28" s="117">
         <v>27</v>
       </c>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="99" t="s">
+      <c r="C28" s="127" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="100" t="s">
+      <c r="A29" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="99" t="s">
+      <c r="B29" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="101"/>
+      <c r="C29" s="129"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2187,1574 +2367,1574 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="59">
-        <v>1</v>
-      </c>
-      <c r="B1" s="59" t="s">
+      <c r="A1" s="87">
+        <v>1</v>
+      </c>
+      <c r="B1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="59">
-        <v>1</v>
-      </c>
-      <c r="J1" s="59" t="s">
+      <c r="I1" s="87">
+        <v>1</v>
+      </c>
+      <c r="J1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="86" t="s">
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="86" t="s">
+      <c r="R1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="86" t="s">
+      <c r="S1" s="114" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="59">
+      <c r="B2" s="87">
         <v>3</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="61" t="s">
+      <c r="D2" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="61" t="s">
+      <c r="G2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="59">
+      <c r="J2" s="87">
         <v>3</v>
       </c>
-      <c r="K2" s="59" t="s">
+      <c r="K2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="86" t="s">
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="86" t="s">
+      <c r="R2" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="86" t="s">
+      <c r="S2" s="114" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="59" t="s">
+      <c r="A3" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="59">
+      <c r="C3" s="87">
         <v>6</v>
       </c>
-      <c r="D3" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="61" t="s">
+      <c r="D3" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="59" t="s">
+      <c r="I3" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="59">
+      <c r="K3" s="87">
         <v>6</v>
       </c>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="86" t="s">
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="86" t="s">
+      <c r="R3" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="86" t="s">
+      <c r="S3" s="114" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="62">
-        <v>1</v>
-      </c>
-      <c r="B4" s="62">
+      <c r="A4" s="90">
+        <v>1</v>
+      </c>
+      <c r="B4" s="90">
         <v>-25</v>
       </c>
-      <c r="C4" s="62">
-        <v>1</v>
-      </c>
-      <c r="D4" s="63" t="s">
+      <c r="C4" s="90">
+        <v>1</v>
+      </c>
+      <c r="D4" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="64" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="64" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="64" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="62">
-        <v>1</v>
-      </c>
-      <c r="J4" s="62">
+      <c r="E4" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="90">
+        <v>1</v>
+      </c>
+      <c r="J4" s="90">
         <v>-25</v>
       </c>
-      <c r="K4" s="62">
-        <v>1</v>
-      </c>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="64" t="s">
-        <v>4</v>
-      </c>
-      <c r="R4" s="64" t="s">
-        <v>4</v>
-      </c>
-      <c r="S4" s="64" t="s">
+      <c r="K4" s="90">
+        <v>1</v>
+      </c>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" s="92" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="62">
+      <c r="A5" s="90">
         <v>2</v>
       </c>
-      <c r="B5" s="62">
+      <c r="B5" s="90">
         <v>-24</v>
       </c>
-      <c r="C5" s="65">
+      <c r="C5" s="93">
         <v>2</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="62">
+      <c r="I5" s="90">
         <v>2</v>
       </c>
-      <c r="J5" s="62">
+      <c r="J5" s="90">
         <v>-24</v>
       </c>
-      <c r="K5" s="65">
+      <c r="K5" s="93">
         <v>2</v>
       </c>
-      <c r="L5" s="78" t="s">
+      <c r="L5" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="64" t="s">
+      <c r="M5" s="107"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="R5" s="64" t="s">
+      <c r="R5" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="64" t="s">
+      <c r="S5" s="92" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="62">
+      <c r="A6" s="90">
         <v>3</v>
       </c>
-      <c r="B6" s="62">
+      <c r="B6" s="90">
         <v>-23</v>
       </c>
-      <c r="C6" s="62">
+      <c r="C6" s="90">
         <v>3</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="64" t="s">
+      <c r="G6" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="62">
+      <c r="I6" s="90">
         <v>3</v>
       </c>
-      <c r="J6" s="62">
+      <c r="J6" s="90">
         <v>-23</v>
       </c>
-      <c r="K6" s="62">
+      <c r="K6" s="90">
         <v>3</v>
       </c>
-      <c r="L6" s="77">
-        <v>1</v>
-      </c>
-      <c r="M6" s="77">
-        <v>1</v>
-      </c>
-      <c r="N6" s="77">
-        <v>1</v>
-      </c>
-      <c r="O6" s="77">
-        <v>1</v>
-      </c>
-      <c r="P6" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="67" t="s">
+      <c r="L6" s="105">
+        <v>1</v>
+      </c>
+      <c r="M6" s="105">
+        <v>1</v>
+      </c>
+      <c r="N6" s="105">
+        <v>1</v>
+      </c>
+      <c r="O6" s="105">
+        <v>1</v>
+      </c>
+      <c r="P6" s="105">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="R6" s="64" t="s">
+      <c r="R6" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="S6" s="64" t="s">
+      <c r="S6" s="92" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="62">
-        <v>4</v>
-      </c>
-      <c r="B7" s="62">
+      <c r="A7" s="90">
+        <v>4</v>
+      </c>
+      <c r="B7" s="90">
         <v>-22</v>
       </c>
-      <c r="C7" s="62">
-        <v>4</v>
-      </c>
-      <c r="D7" s="63" t="s">
+      <c r="C7" s="90">
+        <v>4</v>
+      </c>
+      <c r="D7" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="66" t="s">
+      <c r="E7" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="66" t="s">
+      <c r="G7" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="62">
-        <v>4</v>
-      </c>
-      <c r="J7" s="62">
+      <c r="I7" s="90">
+        <v>4</v>
+      </c>
+      <c r="J7" s="90">
         <v>-22</v>
       </c>
-      <c r="K7" s="62">
-        <v>4</v>
-      </c>
-      <c r="L7" s="77">
-        <v>1</v>
-      </c>
-      <c r="M7" s="77">
+      <c r="K7" s="90">
+        <v>4</v>
+      </c>
+      <c r="L7" s="105">
+        <v>1</v>
+      </c>
+      <c r="M7" s="105">
         <v>0</v>
       </c>
-      <c r="N7" s="77">
-        <v>1</v>
-      </c>
-      <c r="O7" s="77">
-        <v>1</v>
-      </c>
-      <c r="P7" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="R7" s="66" t="s">
+      <c r="N7" s="105">
+        <v>1</v>
+      </c>
+      <c r="O7" s="105">
+        <v>1</v>
+      </c>
+      <c r="P7" s="105">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="95" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="S7" s="66" t="s">
+      <c r="S7" s="94" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="62">
+      <c r="A8" s="90">
         <v>5</v>
       </c>
-      <c r="B8" s="62">
+      <c r="B8" s="90">
         <v>-21</v>
       </c>
-      <c r="C8" s="62">
+      <c r="C8" s="90">
         <v>5</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="66" t="s">
+      <c r="F8" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="66" t="s">
+      <c r="G8" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="62">
+      <c r="I8" s="90">
         <v>5</v>
       </c>
-      <c r="J8" s="62">
+      <c r="J8" s="90">
         <v>-21</v>
       </c>
-      <c r="K8" s="62">
+      <c r="K8" s="90">
         <v>5</v>
       </c>
-      <c r="L8" s="77">
-        <v>1</v>
-      </c>
-      <c r="M8" s="77">
-        <v>1</v>
-      </c>
-      <c r="N8" s="77">
-        <v>1</v>
-      </c>
-      <c r="O8" s="77">
+      <c r="L8" s="105">
+        <v>1</v>
+      </c>
+      <c r="M8" s="105">
+        <v>1</v>
+      </c>
+      <c r="N8" s="105">
+        <v>1</v>
+      </c>
+      <c r="O8" s="105">
         <v>0</v>
       </c>
-      <c r="P8" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="67" t="s">
+      <c r="P8" s="105">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="R8" s="66" t="s">
+      <c r="R8" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="S8" s="66" t="s">
+      <c r="S8" s="94" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="62">
+      <c r="A9" s="90">
         <v>6</v>
       </c>
-      <c r="B9" s="62">
+      <c r="B9" s="90">
         <v>-20</v>
       </c>
-      <c r="C9" s="62">
+      <c r="C9" s="90">
         <v>6</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="67" t="s">
+      <c r="E9" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="66" t="s">
+      <c r="F9" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="66" t="s">
+      <c r="G9" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="62">
+      <c r="I9" s="90">
         <v>6</v>
       </c>
-      <c r="J9" s="62">
+      <c r="J9" s="90">
         <v>-20</v>
       </c>
-      <c r="K9" s="62">
+      <c r="K9" s="90">
         <v>6</v>
       </c>
-      <c r="L9" s="77">
-        <v>1</v>
-      </c>
-      <c r="M9" s="77">
-        <v>1</v>
-      </c>
-      <c r="N9" s="77">
-        <v>1</v>
-      </c>
-      <c r="O9" s="77">
-        <v>1</v>
-      </c>
-      <c r="P9" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="67" t="s">
+      <c r="L9" s="105">
+        <v>1</v>
+      </c>
+      <c r="M9" s="105">
+        <v>1</v>
+      </c>
+      <c r="N9" s="105">
+        <v>1</v>
+      </c>
+      <c r="O9" s="105">
+        <v>1</v>
+      </c>
+      <c r="P9" s="105">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="R9" s="66" t="s">
+      <c r="R9" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="S9" s="66" t="s">
+      <c r="S9" s="94" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="62">
+      <c r="A10" s="90">
         <v>7</v>
       </c>
-      <c r="B10" s="62">
+      <c r="B10" s="90">
         <v>-19</v>
       </c>
-      <c r="C10" s="62">
+      <c r="C10" s="90">
         <v>7</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="62">
+      <c r="E10" s="95" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="94" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="94" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="90">
         <v>7</v>
       </c>
-      <c r="J10" s="62">
+      <c r="J10" s="90">
         <v>-19</v>
       </c>
-      <c r="K10" s="62">
+      <c r="K10" s="90">
         <v>7</v>
       </c>
-      <c r="L10" s="80" t="s">
+      <c r="L10" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="81"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="77"/>
-      <c r="Q10" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="R10" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="S10" s="66" t="s">
+      <c r="M10" s="109"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="105"/>
+      <c r="P10" s="105"/>
+      <c r="Q10" s="94" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="94" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="94" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="62">
+      <c r="A11" s="90">
         <v>8</v>
       </c>
-      <c r="B11" s="62">
+      <c r="B11" s="90">
         <v>-18</v>
       </c>
-      <c r="C11" s="62">
+      <c r="C11" s="90">
         <v>8</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="67" t="s">
+      <c r="E11" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="66" t="s">
+      <c r="G11" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="62">
+      <c r="I11" s="90">
         <v>8</v>
       </c>
-      <c r="J11" s="62">
+      <c r="J11" s="90">
         <v>-18</v>
       </c>
-      <c r="K11" s="62">
+      <c r="K11" s="90">
         <v>8</v>
       </c>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="66" t="s">
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
+      <c r="N11" s="110"/>
+      <c r="O11" s="110"/>
+      <c r="P11" s="110"/>
+      <c r="Q11" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="R11" s="66" t="s">
+      <c r="R11" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="S11" s="66" t="s">
+      <c r="S11" s="94" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="62">
+      <c r="A12" s="90">
         <v>9</v>
       </c>
-      <c r="B12" s="62">
+      <c r="B12" s="90">
         <v>-17</v>
       </c>
-      <c r="C12" s="68">
+      <c r="C12" s="96">
         <v>9</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="67" t="s">
+      <c r="E12" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="62">
+      <c r="F12" s="94" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="94" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="90">
         <v>9</v>
       </c>
-      <c r="J12" s="62">
+      <c r="J12" s="90">
         <v>-17</v>
       </c>
-      <c r="K12" s="68">
+      <c r="K12" s="96">
         <v>9</v>
       </c>
-      <c r="L12" s="78" t="s">
+      <c r="L12" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="M12" s="79"/>
-      <c r="N12" s="77"/>
-      <c r="O12" s="77"/>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="R12" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="S12" s="66" t="s">
+      <c r="M12" s="107"/>
+      <c r="N12" s="105"/>
+      <c r="O12" s="105"/>
+      <c r="P12" s="105"/>
+      <c r="Q12" s="94" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="94" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="94" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="62">
+      <c r="A13" s="90">
         <v>10</v>
       </c>
-      <c r="B13" s="62">
+      <c r="B13" s="90">
         <v>-16</v>
       </c>
-      <c r="C13" s="62">
+      <c r="C13" s="90">
         <v>10</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="66" t="s">
+      <c r="D13" s="91"/>
+      <c r="E13" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="66" t="s">
+      <c r="G13" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="62">
+      <c r="I13" s="90">
         <v>10</v>
       </c>
-      <c r="J13" s="62">
+      <c r="J13" s="90">
         <v>-16</v>
       </c>
-      <c r="K13" s="62">
+      <c r="K13" s="90">
         <v>10</v>
       </c>
-      <c r="L13" s="77" t="s">
+      <c r="L13" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="M13" s="77" t="s">
+      <c r="M13" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="N13" s="77" t="s">
+      <c r="N13" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="77" t="s">
+      <c r="O13" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="P13" s="77" t="s">
+      <c r="P13" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="Q13" s="66" t="s">
+      <c r="Q13" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="R13" s="66" t="s">
+      <c r="R13" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="S13" s="66" t="s">
+      <c r="S13" s="94" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="62">
+      <c r="A14" s="90">
         <v>11</v>
       </c>
-      <c r="B14" s="62">
+      <c r="B14" s="90">
         <v>-15</v>
       </c>
-      <c r="C14" s="69">
+      <c r="C14" s="97">
         <v>11</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="62">
+      <c r="E14" s="94" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="94" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="94" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="90">
         <v>11</v>
       </c>
-      <c r="J14" s="62">
+      <c r="J14" s="90">
         <v>-15</v>
       </c>
-      <c r="K14" s="69">
+      <c r="K14" s="97">
         <v>11</v>
       </c>
-      <c r="L14" s="77" t="s">
+      <c r="L14" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="M14" s="77" t="s">
+      <c r="M14" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="N14" s="77" t="s">
+      <c r="N14" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="O14" s="77" t="s">
+      <c r="O14" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="P14" s="77" t="s">
+      <c r="P14" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="Q14" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="66" t="s">
+      <c r="Q14" s="94" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="94" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="94" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="62">
+      <c r="A15" s="90">
         <v>12</v>
       </c>
-      <c r="B15" s="62">
+      <c r="B15" s="90">
         <v>-14</v>
       </c>
-      <c r="C15" s="69">
+      <c r="C15" s="97">
         <v>12</v>
       </c>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="62">
+      <c r="E15" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="90">
         <v>12</v>
       </c>
-      <c r="J15" s="62">
+      <c r="J15" s="90">
         <v>-14</v>
       </c>
-      <c r="K15" s="69">
+      <c r="K15" s="97">
         <v>12</v>
       </c>
-      <c r="L15" s="77" t="s">
+      <c r="L15" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="M15" s="77" t="s">
+      <c r="M15" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="N15" s="77" t="s">
+      <c r="N15" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="O15" s="77">
-        <v>1</v>
-      </c>
-      <c r="P15" s="77">
+      <c r="O15" s="105">
+        <v>1</v>
+      </c>
+      <c r="P15" s="105">
         <v>2</v>
       </c>
-      <c r="Q15" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="R15" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="S15" s="70" t="s">
+      <c r="Q15" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="98" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="62">
+      <c r="A16" s="90">
         <v>13</v>
       </c>
-      <c r="B16" s="62">
+      <c r="B16" s="90">
         <v>-13</v>
       </c>
-      <c r="C16" s="69">
+      <c r="C16" s="97">
         <v>13</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" s="62">
+      <c r="E16" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="90">
         <v>13</v>
       </c>
-      <c r="J16" s="62">
+      <c r="J16" s="90">
         <v>-13</v>
       </c>
-      <c r="K16" s="69">
+      <c r="K16" s="97">
         <v>13</v>
       </c>
-      <c r="L16" s="77" t="s">
+      <c r="L16" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="M16" s="77">
+      <c r="M16" s="105">
         <v>7</v>
       </c>
-      <c r="N16" s="77">
+      <c r="N16" s="105">
         <v>2</v>
       </c>
-      <c r="O16" s="77">
+      <c r="O16" s="105">
         <v>5</v>
       </c>
-      <c r="P16" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="R16" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="S16" s="70" t="s">
+      <c r="P16" s="105">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="R16" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="S16" s="98" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="62">
+      <c r="A17" s="90">
         <v>14</v>
       </c>
-      <c r="B17" s="62">
+      <c r="B17" s="90">
         <v>-12</v>
       </c>
-      <c r="C17" s="69">
+      <c r="C17" s="97">
         <v>14</v>
       </c>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="62">
+      <c r="E17" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="90">
         <v>14</v>
       </c>
-      <c r="J17" s="62">
+      <c r="J17" s="90">
         <v>-12</v>
       </c>
-      <c r="K17" s="69">
+      <c r="K17" s="97">
         <v>14</v>
       </c>
-      <c r="L17" s="80" t="s">
+      <c r="L17" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="M17" s="81"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="77"/>
-      <c r="Q17" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="R17" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="S17" s="70" t="s">
+      <c r="M17" s="109"/>
+      <c r="N17" s="105"/>
+      <c r="O17" s="105"/>
+      <c r="P17" s="105"/>
+      <c r="Q17" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="R17" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="98" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="62">
+      <c r="A18" s="90">
         <v>15</v>
       </c>
-      <c r="B18" s="62">
+      <c r="B18" s="90">
         <v>-11</v>
       </c>
-      <c r="C18" s="69">
+      <c r="C18" s="97">
         <v>15</v>
       </c>
-      <c r="D18" s="63" t="s">
+      <c r="D18" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="71" t="s">
+      <c r="E18" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="71" t="s">
+      <c r="F18" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="71" t="s">
+      <c r="G18" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="I18" s="62">
+      <c r="I18" s="90">
         <v>15</v>
       </c>
-      <c r="J18" s="62">
+      <c r="J18" s="90">
         <v>-11</v>
       </c>
-      <c r="K18" s="69">
+      <c r="K18" s="97">
         <v>15</v>
       </c>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="83"/>
-      <c r="O18" s="83"/>
-      <c r="P18" s="83"/>
-      <c r="Q18" s="71" t="s">
+      <c r="L18" s="111"/>
+      <c r="M18" s="111"/>
+      <c r="N18" s="111"/>
+      <c r="O18" s="111"/>
+      <c r="P18" s="111"/>
+      <c r="Q18" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="R18" s="71" t="s">
+      <c r="R18" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="S18" s="71" t="s">
+      <c r="S18" s="99" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="62">
+      <c r="A19" s="90">
         <v>16</v>
       </c>
-      <c r="B19" s="62">
+      <c r="B19" s="90">
         <v>-10</v>
       </c>
-      <c r="C19" s="69">
+      <c r="C19" s="97">
         <v>16</v>
       </c>
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="I19" s="62">
+      <c r="E19" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="90">
         <v>16</v>
       </c>
-      <c r="J19" s="62">
+      <c r="J19" s="90">
         <v>-10</v>
       </c>
-      <c r="K19" s="69">
+      <c r="K19" s="97">
         <v>16</v>
       </c>
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="83"/>
-      <c r="O19" s="83"/>
-      <c r="P19" s="83"/>
-      <c r="Q19" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="R19" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="S19" s="71" t="s">
+      <c r="L19" s="111"/>
+      <c r="M19" s="111"/>
+      <c r="N19" s="111"/>
+      <c r="O19" s="111"/>
+      <c r="P19" s="111"/>
+      <c r="Q19" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="R19" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="S19" s="99" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="62">
+      <c r="A20" s="90">
         <v>17</v>
       </c>
-      <c r="B20" s="62">
+      <c r="B20" s="90">
         <v>-9</v>
       </c>
-      <c r="C20" s="62">
+      <c r="C20" s="90">
         <v>17</v>
       </c>
-      <c r="D20" s="63" t="s">
+      <c r="D20" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="62">
+      <c r="E20" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="90">
         <v>17</v>
       </c>
-      <c r="J20" s="62">
+      <c r="J20" s="90">
         <v>-9</v>
       </c>
-      <c r="K20" s="62">
+      <c r="K20" s="90">
         <v>17</v>
       </c>
-      <c r="L20" s="83" t="s">
+      <c r="L20" s="111" t="s">
         <v>41</v>
       </c>
-      <c r="M20" s="83"/>
-      <c r="N20" s="83"/>
-      <c r="O20" s="83"/>
-      <c r="P20" s="83"/>
-      <c r="Q20" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="R20" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="S20" s="71" t="s">
+      <c r="M20" s="111"/>
+      <c r="N20" s="111"/>
+      <c r="O20" s="111"/>
+      <c r="P20" s="111"/>
+      <c r="Q20" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="99" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="62">
+      <c r="A21" s="90">
         <v>18</v>
       </c>
-      <c r="B21" s="62">
+      <c r="B21" s="90">
         <v>-8</v>
       </c>
-      <c r="C21" s="62">
+      <c r="C21" s="90">
         <v>18</v>
       </c>
-      <c r="D21" s="63" t="s">
+      <c r="D21" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="71" t="s">
+      <c r="E21" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="71" t="s">
+      <c r="F21" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="G21" s="71" t="s">
+      <c r="G21" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="I21" s="62">
+      <c r="I21" s="90">
         <v>18</v>
       </c>
-      <c r="J21" s="62">
+      <c r="J21" s="90">
         <v>-8</v>
       </c>
-      <c r="K21" s="62">
+      <c r="K21" s="90">
         <v>18</v>
       </c>
-      <c r="L21" s="83"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="83"/>
-      <c r="O21" s="83"/>
-      <c r="P21" s="83"/>
-      <c r="Q21" s="71" t="s">
+      <c r="L21" s="111"/>
+      <c r="M21" s="111"/>
+      <c r="N21" s="111"/>
+      <c r="O21" s="111"/>
+      <c r="P21" s="111"/>
+      <c r="Q21" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="R21" s="71" t="s">
+      <c r="R21" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="S21" s="71" t="s">
+      <c r="S21" s="99" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="62">
+      <c r="A22" s="90">
         <v>19</v>
       </c>
-      <c r="B22" s="62">
+      <c r="B22" s="90">
         <v>-7</v>
       </c>
-      <c r="C22" s="62">
+      <c r="C22" s="90">
         <v>19</v>
       </c>
-      <c r="D22" s="63" t="s">
+      <c r="D22" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="62">
+      <c r="E22" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="90">
         <v>19</v>
       </c>
-      <c r="J22" s="62">
+      <c r="J22" s="90">
         <v>-7</v>
       </c>
-      <c r="K22" s="62">
+      <c r="K22" s="90">
         <v>19</v>
       </c>
-      <c r="L22" s="83"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="83"/>
-      <c r="Q22" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="R22" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="S22" s="71" t="s">
+      <c r="L22" s="111"/>
+      <c r="M22" s="112"/>
+      <c r="N22" s="112"/>
+      <c r="O22" s="112"/>
+      <c r="P22" s="111"/>
+      <c r="Q22" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="99" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="62">
+      <c r="A23" s="90">
         <v>20</v>
       </c>
-      <c r="B23" s="62">
+      <c r="B23" s="90">
         <v>-6</v>
       </c>
-      <c r="C23" s="62">
+      <c r="C23" s="90">
         <v>20</v>
       </c>
-      <c r="D23" s="63" t="s">
+      <c r="D23" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="I23" s="62">
+      <c r="E23" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="90">
         <v>20</v>
       </c>
-      <c r="J23" s="62">
+      <c r="J23" s="90">
         <v>-6</v>
       </c>
-      <c r="K23" s="62">
+      <c r="K23" s="90">
         <v>20</v>
       </c>
-      <c r="L23" s="83"/>
-      <c r="M23" s="83"/>
-      <c r="N23" s="83"/>
-      <c r="O23" s="83"/>
-      <c r="P23" s="83"/>
-      <c r="Q23" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="R23" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="S23" s="71" t="s">
+      <c r="L23" s="111"/>
+      <c r="M23" s="111"/>
+      <c r="N23" s="111"/>
+      <c r="O23" s="111"/>
+      <c r="P23" s="111"/>
+      <c r="Q23" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="R23" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="S23" s="99" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="62">
+      <c r="A24" s="90">
         <v>21</v>
       </c>
-      <c r="B24" s="62">
+      <c r="B24" s="90">
         <v>-5</v>
       </c>
-      <c r="C24" s="69">
+      <c r="C24" s="97">
         <v>21</v>
       </c>
-      <c r="D24" s="63" t="s">
+      <c r="D24" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="62">
+      <c r="E24" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="90">
         <v>21</v>
       </c>
-      <c r="J24" s="62">
+      <c r="J24" s="90">
         <v>-5</v>
       </c>
-      <c r="K24" s="69">
+      <c r="K24" s="97">
         <v>21</v>
       </c>
-      <c r="L24" s="83"/>
-      <c r="M24" s="83"/>
-      <c r="N24" s="83"/>
-      <c r="O24" s="83"/>
-      <c r="P24" s="83"/>
-      <c r="Q24" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="R24" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="S24" s="71" t="s">
+      <c r="L24" s="111"/>
+      <c r="M24" s="111"/>
+      <c r="N24" s="111"/>
+      <c r="O24" s="111"/>
+      <c r="P24" s="111"/>
+      <c r="Q24" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="R24" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="S24" s="99" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="62">
+      <c r="A25" s="90">
         <v>22</v>
       </c>
-      <c r="B25" s="62">
+      <c r="B25" s="90">
         <v>-4</v>
       </c>
-      <c r="C25" s="69">
+      <c r="C25" s="97">
         <v>22</v>
       </c>
-      <c r="D25" s="63" t="s">
+      <c r="D25" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="72" t="s">
+      <c r="E25" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="72" t="s">
+      <c r="F25" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="72" t="s">
+      <c r="G25" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="62">
+      <c r="I25" s="90">
         <v>22</v>
       </c>
-      <c r="J25" s="62">
+      <c r="J25" s="90">
         <v>-4</v>
       </c>
-      <c r="K25" s="69">
+      <c r="K25" s="97">
         <v>22</v>
       </c>
-      <c r="L25" s="83" t="s">
+      <c r="L25" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="M25" s="83"/>
-      <c r="N25" s="83"/>
-      <c r="O25" s="83"/>
-      <c r="P25" s="83"/>
-      <c r="Q25" s="72" t="s">
+      <c r="M25" s="111"/>
+      <c r="N25" s="111"/>
+      <c r="O25" s="111"/>
+      <c r="P25" s="111"/>
+      <c r="Q25" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="R25" s="72" t="s">
+      <c r="R25" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="S25" s="72" t="s">
+      <c r="S25" s="100" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="62">
+      <c r="A26" s="90">
         <v>23</v>
       </c>
-      <c r="B26" s="62">
+      <c r="B26" s="90">
         <v>-3</v>
       </c>
-      <c r="C26" s="69">
+      <c r="C26" s="97">
         <v>23</v>
       </c>
-      <c r="D26" s="63" t="s">
+      <c r="D26" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="62">
+      <c r="E26" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="90">
         <v>23</v>
       </c>
-      <c r="J26" s="62">
+      <c r="J26" s="90">
         <v>-3</v>
       </c>
-      <c r="K26" s="69">
+      <c r="K26" s="97">
         <v>23</v>
       </c>
-      <c r="L26" s="83"/>
-      <c r="M26" s="83"/>
-      <c r="N26" s="83"/>
-      <c r="O26" s="83"/>
-      <c r="P26" s="83"/>
-      <c r="Q26" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="R26" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="S26" s="72" t="s">
+      <c r="L26" s="111"/>
+      <c r="M26" s="111"/>
+      <c r="N26" s="111"/>
+      <c r="O26" s="111"/>
+      <c r="P26" s="111"/>
+      <c r="Q26" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="R26" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="S26" s="100" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="62">
+      <c r="A27" s="90">
         <v>24</v>
       </c>
-      <c r="B27" s="62">
+      <c r="B27" s="90">
         <v>-2</v>
       </c>
-      <c r="C27" s="69">
+      <c r="C27" s="97">
         <v>24</v>
       </c>
-      <c r="D27" s="63" t="s">
+      <c r="D27" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="72" t="s">
+      <c r="E27" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="72" t="s">
+      <c r="F27" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="72" t="s">
+      <c r="G27" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="I27" s="62">
+      <c r="I27" s="90">
         <v>24</v>
       </c>
-      <c r="J27" s="62">
+      <c r="J27" s="90">
         <v>-2</v>
       </c>
-      <c r="K27" s="69">
+      <c r="K27" s="97">
         <v>24</v>
       </c>
-      <c r="L27" s="83"/>
-      <c r="M27" s="83"/>
-      <c r="N27" s="83"/>
-      <c r="O27" s="83"/>
-      <c r="P27" s="83"/>
-      <c r="Q27" s="72" t="s">
+      <c r="L27" s="111"/>
+      <c r="M27" s="111"/>
+      <c r="N27" s="111"/>
+      <c r="O27" s="111"/>
+      <c r="P27" s="111"/>
+      <c r="Q27" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="R27" s="72" t="s">
+      <c r="R27" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="S27" s="72" t="s">
+      <c r="S27" s="100" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="62">
+      <c r="A28" s="90">
         <v>25</v>
       </c>
-      <c r="B28" s="62">
+      <c r="B28" s="90">
         <v>-1</v>
       </c>
-      <c r="C28" s="69">
+      <c r="C28" s="97">
         <v>25</v>
       </c>
-      <c r="D28" s="63" t="s">
+      <c r="D28" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="I28" s="62">
+      <c r="E28" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="90">
         <v>25</v>
       </c>
-      <c r="J28" s="62">
+      <c r="J28" s="90">
         <v>-1</v>
       </c>
-      <c r="K28" s="85">
+      <c r="K28" s="113">
         <v>25</v>
       </c>
-      <c r="L28" s="83"/>
-      <c r="M28" s="83"/>
-      <c r="N28" s="83"/>
-      <c r="O28" s="83"/>
-      <c r="P28" s="83"/>
-      <c r="Q28" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="R28" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="S28" s="72" t="s">
+      <c r="L28" s="111"/>
+      <c r="M28" s="111"/>
+      <c r="N28" s="111"/>
+      <c r="O28" s="111"/>
+      <c r="P28" s="111"/>
+      <c r="Q28" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="R28" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="S28" s="100" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="62">
+      <c r="A29" s="90">
         <v>26</v>
       </c>
-      <c r="B29" s="62">
+      <c r="B29" s="90">
         <v>0</v>
       </c>
-      <c r="C29" s="73">
+      <c r="C29" s="101">
         <v>26</v>
       </c>
-      <c r="D29" s="63" t="s">
+      <c r="D29" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="74" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="74" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="74" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="62">
+      <c r="E29" s="102" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="102" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="102" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="90">
         <v>26</v>
       </c>
-      <c r="J29" s="62">
+      <c r="J29" s="90">
         <v>0</v>
       </c>
-      <c r="K29" s="85">
+      <c r="K29" s="113">
         <v>26</v>
       </c>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
-      <c r="N29" s="83"/>
-      <c r="O29" s="83"/>
-      <c r="P29" s="83"/>
-      <c r="Q29" s="74" t="s">
-        <v>4</v>
-      </c>
-      <c r="R29" s="74" t="s">
-        <v>4</v>
-      </c>
-      <c r="S29" s="74" t="s">
+      <c r="L29" s="111"/>
+      <c r="M29" s="111"/>
+      <c r="N29" s="111"/>
+      <c r="O29" s="111"/>
+      <c r="P29" s="111"/>
+      <c r="Q29" s="102" t="s">
+        <v>4</v>
+      </c>
+      <c r="R29" s="102" t="s">
+        <v>4</v>
+      </c>
+      <c r="S29" s="102" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="62">
+      <c r="A30" s="90">
         <v>27</v>
       </c>
-      <c r="B30" s="62">
-        <v>1</v>
-      </c>
-      <c r="C30" s="62">
+      <c r="B30" s="90">
+        <v>1</v>
+      </c>
+      <c r="C30" s="90">
         <v>27</v>
       </c>
-      <c r="D30" s="63" t="s">
+      <c r="D30" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="74" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="74" t="s">
-        <v>4</v>
-      </c>
-      <c r="G30" s="74" t="s">
-        <v>4</v>
-      </c>
-      <c r="I30" s="62">
+      <c r="E30" s="102" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="102" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="102" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" s="90">
         <v>27</v>
       </c>
-      <c r="J30" s="62">
-        <v>1</v>
-      </c>
-      <c r="K30" s="62">
+      <c r="J30" s="90">
+        <v>1</v>
+      </c>
+      <c r="K30" s="90">
         <v>27</v>
       </c>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="83"/>
-      <c r="O30" s="83"/>
-      <c r="P30" s="83"/>
-      <c r="Q30" s="74" t="s">
-        <v>4</v>
-      </c>
-      <c r="R30" s="74" t="s">
-        <v>4</v>
-      </c>
-      <c r="S30" s="74" t="s">
+      <c r="L30" s="111"/>
+      <c r="M30" s="111"/>
+      <c r="N30" s="111"/>
+      <c r="O30" s="111"/>
+      <c r="P30" s="111"/>
+      <c r="Q30" s="102" t="s">
+        <v>4</v>
+      </c>
+      <c r="R30" s="102" t="s">
+        <v>4</v>
+      </c>
+      <c r="S30" s="102" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="75" t="s">
+      <c r="A31" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="75" t="s">
+      <c r="B31" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="75" t="s">
+      <c r="C31" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="74" t="s">
+      <c r="D31" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
-      <c r="I31" s="75" t="s">
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="I31" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="J31" s="75" t="s">
+      <c r="J31" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="K31" s="75" t="s">
+      <c r="K31" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="L31" s="75"/>
-      <c r="M31" s="75"/>
-      <c r="N31" s="75"/>
-      <c r="O31" s="75"/>
-      <c r="P31" s="75"/>
-      <c r="Q31" s="76"/>
-      <c r="R31" s="76"/>
-      <c r="S31" s="76"/>
+      <c r="L31" s="103"/>
+      <c r="M31" s="103"/>
+      <c r="N31" s="103"/>
+      <c r="O31" s="103"/>
+      <c r="P31" s="103"/>
+      <c r="Q31" s="104"/>
+      <c r="R31" s="104"/>
+      <c r="S31" s="104"/>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="75" t="s">
+      <c r="A32" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="75" t="s">
+      <c r="B32" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="75" t="s">
+      <c r="C32" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="74" t="s">
+      <c r="D32" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="I32" s="75" t="s">
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="I32" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="J32" s="75" t="s">
+      <c r="J32" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="75" t="s">
+      <c r="K32" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="L32" s="75"/>
-      <c r="M32" s="75"/>
-      <c r="N32" s="75"/>
-      <c r="O32" s="75"/>
-      <c r="P32" s="75"/>
-      <c r="Q32" s="76"/>
-      <c r="R32" s="76"/>
-      <c r="S32" s="76"/>
+      <c r="L32" s="103"/>
+      <c r="M32" s="103"/>
+      <c r="N32" s="103"/>
+      <c r="O32" s="103"/>
+      <c r="P32" s="103"/>
+      <c r="Q32" s="104"/>
+      <c r="R32" s="104"/>
+      <c r="S32" s="104"/>
     </row>
     <row r="33" spans="1:19">
-      <c r="A33" s="75" t="s">
+      <c r="A33" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="75" t="s">
+      <c r="C33" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="74" t="s">
+      <c r="D33" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="I33" s="75" t="s">
+      <c r="E33" s="104"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="104"/>
+      <c r="I33" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="J33" s="75" t="s">
+      <c r="J33" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="K33" s="75" t="s">
+      <c r="K33" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="L33" s="75"/>
-      <c r="M33" s="75"/>
-      <c r="N33" s="75"/>
-      <c r="O33" s="75"/>
-      <c r="P33" s="75"/>
-      <c r="Q33" s="76"/>
-      <c r="R33" s="76"/>
-      <c r="S33" s="76"/>
+      <c r="L33" s="103"/>
+      <c r="M33" s="103"/>
+      <c r="N33" s="103"/>
+      <c r="O33" s="103"/>
+      <c r="P33" s="103"/>
+      <c r="Q33" s="104"/>
+      <c r="R33" s="104"/>
+      <c r="S33" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3772,10 +3952,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:V98"/>
+  <dimension ref="B1:AI109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="W34" sqref="W34"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AS15" sqref="AS15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3783,7 +3963,14 @@
     <col min="2" max="17" width="2.26666666666667" customWidth="1"/>
     <col min="18" max="18" width="2.36666666666667" customWidth="1"/>
     <col min="19" max="21" width="2.26666666666667" customWidth="1"/>
-    <col min="22" max="22" width="2.81666666666667" customWidth="1"/>
+    <col min="22" max="22" width="2.39166666666667" customWidth="1"/>
+    <col min="23" max="25" width="2.375" customWidth="1"/>
+    <col min="26" max="26" width="2.49166666666667" customWidth="1"/>
+    <col min="27" max="27" width="2.275" customWidth="1"/>
+    <col min="28" max="30" width="2.375" customWidth="1"/>
+    <col min="31" max="31" width="2.275" customWidth="1"/>
+    <col min="32" max="34" width="2.375" customWidth="1"/>
+    <col min="35" max="35" width="2.28333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
@@ -3791,1973 +3978,2395 @@
         <v>44</v>
       </c>
     </row>
+    <row r="2" spans="2:8">
+      <c r="B2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="28">
-        <v>1</v>
-      </c>
-      <c r="C3" s="28">
-        <v>1</v>
-      </c>
-      <c r="D3" s="28">
-        <v>1</v>
-      </c>
-      <c r="E3" s="28">
-        <v>1</v>
-      </c>
-      <c r="F3" s="28">
-        <v>1</v>
-      </c>
-      <c r="G3" s="28">
-        <v>1</v>
-      </c>
-      <c r="H3" s="29" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="31"/>
+      <c r="K3" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="58" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22">
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="35"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="58"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+    </row>
+    <row r="5" spans="2:22">
+      <c r="B5" s="29"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="33"/>
+      <c r="H5" s="29"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="58"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+    </row>
+    <row r="6" spans="2:22">
+      <c r="B6" s="29"/>
+      <c r="C6" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="29"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+    </row>
+    <row r="7" spans="2:22">
+      <c r="B7" s="29"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="58"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+    </row>
+    <row r="8" spans="2:22">
+      <c r="B8" s="29"/>
+      <c r="C8" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="29"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="58"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
+    </row>
+    <row r="9" spans="2:22">
+      <c r="B9" s="40"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="29"/>
+      <c r="K9" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="59"/>
+    </row>
+    <row r="10" spans="2:22">
+      <c r="B10" s="41"/>
+      <c r="H10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+    </row>
+    <row r="11" spans="2:22">
+      <c r="B11" s="41"/>
+      <c r="H11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
+    </row>
+    <row r="12" spans="2:35">
+      <c r="B12" s="41"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59"/>
+      <c r="U12" s="59"/>
+      <c r="AE12" s="33"/>
+      <c r="AF12" s="33"/>
+      <c r="AG12" s="33"/>
+      <c r="AH12" s="33"/>
+      <c r="AI12" s="34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="2:35">
+      <c r="B13" s="41"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
+      <c r="AE13" s="33"/>
+      <c r="AF13" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG13" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH13" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI13" s="33"/>
+    </row>
+    <row r="14" spans="2:35">
+      <c r="B14" s="41"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="59"/>
+      <c r="AE14" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF14" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG14" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH14" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI14" s="37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:35">
+      <c r="B15" s="41"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
+      <c r="AE15" s="77"/>
+      <c r="AF15" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG15" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH15" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI15" s="38"/>
+    </row>
+    <row r="16" spans="2:35">
+      <c r="B16" s="41"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="U16" s="70"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="78"/>
+      <c r="AA16" s="79"/>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="33"/>
+      <c r="AD16" s="80"/>
+      <c r="AE16" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF16" s="77"/>
+      <c r="AG16" s="38"/>
+      <c r="AH16" s="38"/>
+      <c r="AI16" s="33"/>
+    </row>
+    <row r="17" spans="2:31">
+      <c r="B17" s="41"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="S17" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="T17" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="U17" s="68"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="X17" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y17" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z17" s="81"/>
+      <c r="AA17" s="81"/>
+      <c r="AB17" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC17" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD17" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE17" s="80"/>
+    </row>
+    <row r="18" spans="2:31">
+      <c r="B18" s="41"/>
+      <c r="Q18" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="R18" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="S18" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="T18" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="U18" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="V18" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="W18" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="X18" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y18" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z18" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA18" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB18" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC18" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD18" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE18" s="37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="2:31">
+      <c r="B19" s="41"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="S19" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="T19" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="U19" s="69"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="X19" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y19" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z19" s="83"/>
+      <c r="AA19" s="83"/>
+      <c r="AB19" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC19" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD19" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE19" s="38"/>
+    </row>
+    <row r="20" spans="2:35">
+      <c r="B20" s="41"/>
+      <c r="Q20" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="R20" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="S20" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="74"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="84"/>
+      <c r="AA20" s="84"/>
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="38"/>
+      <c r="AD20" s="38"/>
+      <c r="AE20" s="33"/>
+      <c r="AF20" s="33"/>
+      <c r="AG20" s="33"/>
+      <c r="AH20" s="33"/>
+      <c r="AI20" s="34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="2:35">
+      <c r="B21" s="41"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="R21" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="S21" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="T21" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="U21" s="59"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="59"/>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="59"/>
+      <c r="Z21" s="59"/>
+      <c r="AA21" s="59"/>
+      <c r="AB21" s="59"/>
+      <c r="AC21" s="59"/>
+      <c r="AD21" s="59"/>
+      <c r="AE21" s="33"/>
+      <c r="AF21" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG21" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH21" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI21" s="33"/>
+    </row>
+    <row r="22" spans="2:35">
+      <c r="B22" s="41"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="R22" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="S22" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="T22" s="33"/>
+      <c r="U22" s="59"/>
+      <c r="V22" s="59"/>
+      <c r="W22" s="59"/>
+      <c r="X22" s="59"/>
+      <c r="Y22" s="59"/>
+      <c r="Z22" s="59"/>
+      <c r="AA22" s="59"/>
+      <c r="AB22" s="59"/>
+      <c r="AC22" s="59"/>
+      <c r="AD22" s="59"/>
+      <c r="AE22" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF22" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG22" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH22" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI22" s="37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="2:35">
+      <c r="B23" s="41"/>
+      <c r="P23" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q23" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="R23" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="S23" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="T23" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="U23" s="59"/>
+      <c r="V23" s="59"/>
+      <c r="W23" s="59"/>
+      <c r="X23" s="59"/>
+      <c r="Y23" s="59"/>
+      <c r="Z23" s="59"/>
+      <c r="AA23" s="59"/>
+      <c r="AB23" s="59"/>
+      <c r="AC23" s="59"/>
+      <c r="AD23" s="59"/>
+      <c r="AE23" s="38"/>
+      <c r="AF23" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG23" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH23" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI23" s="38"/>
+    </row>
+    <row r="24" spans="2:35">
+      <c r="B24" s="28"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="R24" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="S24" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="T24" s="38"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="59"/>
+      <c r="Z24" s="59"/>
+      <c r="AA24" s="59"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="59"/>
+      <c r="AD24" s="59"/>
+      <c r="AE24" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF24" s="38"/>
+      <c r="AG24" s="38"/>
+      <c r="AH24" s="38"/>
+      <c r="AI24" s="38"/>
+    </row>
+    <row r="25" spans="2:22">
+      <c r="B25" s="28"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="59"/>
+      <c r="V25" s="59"/>
+    </row>
+    <row r="26" spans="2:22">
+      <c r="B26" s="28"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="59"/>
+      <c r="V26" s="59"/>
+    </row>
+    <row r="27" spans="2:22">
+      <c r="B27" s="28"/>
+      <c r="C27" s="42">
+        <v>1</v>
+      </c>
+      <c r="D27" s="42">
+        <v>1</v>
+      </c>
+      <c r="E27" s="42">
+        <v>1</v>
+      </c>
+      <c r="F27" s="42">
+        <v>1</v>
+      </c>
+      <c r="G27" s="42">
+        <v>1</v>
+      </c>
+      <c r="H27" s="42">
+        <v>1</v>
+      </c>
+      <c r="I27" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="52" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="2:22">
-      <c r="B4" s="30">
-        <v>1</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32" t="s">
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="R27" s="59"/>
+      <c r="S27" s="59"/>
+      <c r="T27" s="59"/>
+      <c r="U27" s="59"/>
+      <c r="V27" s="59"/>
+    </row>
+    <row r="28" spans="2:22">
+      <c r="B28" s="28"/>
+      <c r="C28" s="43">
+        <v>1</v>
+      </c>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="44"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="52"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
-    </row>
-    <row r="5" spans="2:22">
-      <c r="B5" s="28">
-        <v>1</v>
-      </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="28">
-        <v>1</v>
-      </c>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" s="52"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-    </row>
-    <row r="6" spans="2:22">
-      <c r="B6" s="28">
-        <v>1</v>
-      </c>
-      <c r="C6" s="35" t="s">
+      <c r="M28" s="33"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="59"/>
+      <c r="T28" s="59"/>
+      <c r="U28" s="59"/>
+      <c r="V28" s="59"/>
+    </row>
+    <row r="29" spans="2:22">
+      <c r="B29" s="28"/>
+      <c r="C29" s="42">
+        <v>1</v>
+      </c>
+      <c r="D29" s="44"/>
+      <c r="E29" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" s="44"/>
+      <c r="I29" s="42">
+        <v>1</v>
+      </c>
+      <c r="M29" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="34" t="s">
+      <c r="N29" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="O29" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="35" t="s">
+      <c r="P29" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q29" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="28">
-        <v>1</v>
-      </c>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54"/>
-      <c r="V6" s="54"/>
-    </row>
-    <row r="7" spans="2:22">
-      <c r="B7" s="28">
-        <v>1</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="37">
-        <v>1</v>
-      </c>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" s="52"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54"/>
-    </row>
-    <row r="8" spans="2:22">
-      <c r="B8" s="28">
-        <v>1</v>
-      </c>
-      <c r="C8" s="35" t="s">
+      <c r="R29" s="59"/>
+      <c r="S29" s="59"/>
+      <c r="T29" s="59"/>
+      <c r="U29" s="59"/>
+      <c r="V29" s="59"/>
+    </row>
+    <row r="30" spans="2:22">
+      <c r="B30" s="28"/>
+      <c r="C30" s="42">
+        <v>1</v>
+      </c>
+      <c r="D30" s="50"/>
+      <c r="E30" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" s="50"/>
+      <c r="I30" s="42">
+        <v>1</v>
+      </c>
+      <c r="M30" s="38"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="38"/>
+      <c r="R30" s="59"/>
+      <c r="S30" s="59"/>
+      <c r="T30" s="59"/>
+      <c r="U30" s="59"/>
+      <c r="V30" s="59"/>
+    </row>
+    <row r="31" spans="2:22">
+      <c r="B31" s="28"/>
+      <c r="C31" s="42">
+        <v>1</v>
+      </c>
+      <c r="D31" s="50"/>
+      <c r="E31" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="28">
-        <v>1</v>
-      </c>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="M8" s="52"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="53"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="53"/>
-      <c r="V8" s="53"/>
-    </row>
-    <row r="9" spans="2:22">
-      <c r="B9" s="38">
-        <v>1</v>
-      </c>
-      <c r="C9" s="28">
-        <v>1</v>
-      </c>
-      <c r="D9" s="28">
-        <v>1</v>
-      </c>
-      <c r="E9" s="28">
-        <v>1</v>
-      </c>
-      <c r="F9" s="28">
-        <v>1</v>
-      </c>
-      <c r="G9" s="28">
-        <v>1</v>
-      </c>
-      <c r="H9" s="28">
-        <v>1</v>
-      </c>
-      <c r="K9" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="L9" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="53"/>
-    </row>
-    <row r="10" spans="14:22">
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="53"/>
-    </row>
-    <row r="11" spans="14:22">
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53"/>
-    </row>
-    <row r="12" spans="14:22">
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="53"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
-    </row>
-    <row r="13" spans="14:22">
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
-    </row>
-    <row r="14" spans="2:14">
-      <c r="B14" s="28">
-        <v>1</v>
-      </c>
-      <c r="C14" s="28">
-        <v>1</v>
-      </c>
-      <c r="D14" s="28">
-        <v>1</v>
-      </c>
-      <c r="E14" s="28">
-        <v>1</v>
-      </c>
-      <c r="F14" s="28">
-        <v>1</v>
-      </c>
-      <c r="G14" s="28">
-        <v>1</v>
-      </c>
-      <c r="H14" s="28">
-        <v>1</v>
-      </c>
-      <c r="I14" s="28">
-        <v>1</v>
-      </c>
-      <c r="J14" s="28">
-        <v>1</v>
-      </c>
-      <c r="K14" s="28">
-        <v>1</v>
-      </c>
-      <c r="L14" s="28">
-        <v>1</v>
-      </c>
-      <c r="M14" s="28">
-        <v>1</v>
-      </c>
-      <c r="N14" s="29" t="s">
+      <c r="H31" s="50"/>
+      <c r="I31" s="67">
+        <v>1</v>
+      </c>
+      <c r="M31" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="59"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="59"/>
+      <c r="V31" s="59"/>
+    </row>
+    <row r="32" spans="2:22">
+      <c r="B32" s="28"/>
+      <c r="C32" s="42">
+        <v>1</v>
+      </c>
+      <c r="D32" s="50"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="42">
+        <v>1</v>
+      </c>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="59"/>
+      <c r="S32" s="59"/>
+      <c r="T32" s="59"/>
+      <c r="U32" s="59"/>
+      <c r="V32" s="59"/>
+    </row>
+    <row r="33" spans="2:22">
+      <c r="B33" s="28"/>
+      <c r="C33" s="52">
+        <v>1</v>
+      </c>
+      <c r="D33" s="42">
+        <v>1</v>
+      </c>
+      <c r="E33" s="42">
+        <v>1</v>
+      </c>
+      <c r="F33" s="42">
+        <v>1</v>
+      </c>
+      <c r="G33" s="42">
+        <v>1</v>
+      </c>
+      <c r="H33" s="42">
+        <v>1</v>
+      </c>
+      <c r="I33" s="42">
+        <v>1</v>
+      </c>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="59"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="59"/>
+      <c r="U33" s="59"/>
+      <c r="V33" s="59"/>
+    </row>
+    <row r="34" spans="2:22">
+      <c r="B34" s="28"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="59"/>
+      <c r="S34" s="59"/>
+      <c r="T34" s="59"/>
+      <c r="U34" s="59"/>
+      <c r="V34" s="59"/>
+    </row>
+    <row r="35" spans="2:22">
+      <c r="B35" s="28"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="59"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="59"/>
+      <c r="U35" s="59"/>
+      <c r="V35" s="59"/>
+    </row>
+    <row r="36" spans="2:22">
+      <c r="B36" s="28"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="59"/>
+      <c r="S36" s="59"/>
+      <c r="T36" s="59"/>
+      <c r="U36" s="59"/>
+      <c r="V36" s="59"/>
+    </row>
+    <row r="37" spans="2:22">
+      <c r="B37" s="28"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="59"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="59"/>
+      <c r="U37" s="59"/>
+      <c r="V37" s="59"/>
+    </row>
+    <row r="38" spans="14:22">
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="59"/>
+      <c r="S38" s="59"/>
+      <c r="T38" s="59"/>
+      <c r="U38" s="59"/>
+      <c r="V38" s="59"/>
+    </row>
+    <row r="39" spans="14:22">
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="30"/>
+      <c r="S39" s="30"/>
+      <c r="T39" s="30"/>
+      <c r="U39" s="30"/>
+      <c r="V39" s="30"/>
+    </row>
+    <row r="40" spans="2:14">
+      <c r="B40" s="42">
+        <v>1</v>
+      </c>
+      <c r="C40" s="42">
+        <v>1</v>
+      </c>
+      <c r="D40" s="42">
+        <v>1</v>
+      </c>
+      <c r="E40" s="42">
+        <v>1</v>
+      </c>
+      <c r="F40" s="42">
+        <v>1</v>
+      </c>
+      <c r="G40" s="42">
+        <v>1</v>
+      </c>
+      <c r="H40" s="42">
+        <v>1</v>
+      </c>
+      <c r="I40" s="42">
+        <v>1</v>
+      </c>
+      <c r="J40" s="42">
+        <v>1</v>
+      </c>
+      <c r="K40" s="42">
+        <v>1</v>
+      </c>
+      <c r="L40" s="42">
+        <v>1</v>
+      </c>
+      <c r="M40" s="42">
+        <v>1</v>
+      </c>
+      <c r="N40" s="62" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
-      <c r="B15" s="30">
-        <v>1</v>
-      </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32" t="s">
+    <row r="41" spans="2:14">
+      <c r="B41" s="43">
+        <v>1</v>
+      </c>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="30">
-        <v>1</v>
-      </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="32" t="s">
+      <c r="H41" s="43">
+        <v>1</v>
+      </c>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="N15" s="33" t="s">
+      <c r="N41" s="63" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
-      <c r="B16" s="28">
-        <v>1</v>
-      </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="28">
-        <v>1</v>
-      </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="K16" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="L16" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="M16" s="31"/>
-      <c r="N16" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14">
-      <c r="B17" s="28">
-        <v>1</v>
-      </c>
-      <c r="C17" s="35" t="s">
+    <row r="42" spans="2:14">
+      <c r="B42" s="42">
+        <v>1</v>
+      </c>
+      <c r="C42" s="33"/>
+      <c r="D42" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G42" s="33"/>
+      <c r="H42" s="42">
+        <v>1</v>
+      </c>
+      <c r="I42" s="33"/>
+      <c r="J42" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="K42" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="L42" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="M42" s="33"/>
+      <c r="N42" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14">
+      <c r="B43" s="42">
+        <v>1</v>
+      </c>
+      <c r="C43" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="34" t="s">
+      <c r="D43" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="35" t="s">
+      <c r="F43" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="28">
-        <v>1</v>
-      </c>
-      <c r="I17" s="35" t="s">
+      <c r="H43" s="42">
+        <v>1</v>
+      </c>
+      <c r="I43" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="J17" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="K17" s="34" t="s">
+      <c r="J43" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="K43" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="M17" s="35" t="s">
+      <c r="L43" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="M43" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="N17" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14">
-      <c r="B18" s="28">
-        <v>1</v>
-      </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="36"/>
-      <c r="H18" s="28">
-        <v>1</v>
-      </c>
-      <c r="I18" s="36"/>
-      <c r="J18" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="K18" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="L18" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="M18" s="36"/>
-      <c r="N18" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14">
-      <c r="B19" s="28">
-        <v>1</v>
-      </c>
-      <c r="C19" s="35" t="s">
+      <c r="N43" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14">
+      <c r="B44" s="42">
+        <v>1</v>
+      </c>
+      <c r="C44" s="38"/>
+      <c r="D44" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G44" s="38"/>
+      <c r="H44" s="42">
+        <v>1</v>
+      </c>
+      <c r="I44" s="38"/>
+      <c r="J44" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="K44" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="L44" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="M44" s="38"/>
+      <c r="N44" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14">
+      <c r="B45" s="42">
+        <v>1</v>
+      </c>
+      <c r="C45" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="28">
-        <v>1</v>
-      </c>
-      <c r="I19" s="35" t="s">
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="42">
+        <v>1</v>
+      </c>
+      <c r="I45" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14">
-      <c r="B20" s="28">
-        <v>1</v>
-      </c>
-      <c r="C20" s="28">
-        <v>1</v>
-      </c>
-      <c r="D20" s="28">
-        <v>1</v>
-      </c>
-      <c r="E20" s="28">
-        <v>1</v>
-      </c>
-      <c r="F20" s="28">
-        <v>1</v>
-      </c>
-      <c r="G20" s="28">
-        <v>1</v>
-      </c>
-      <c r="H20" s="28">
-        <v>1</v>
-      </c>
-      <c r="I20" s="28">
-        <v>1</v>
-      </c>
-      <c r="J20" s="28">
-        <v>1</v>
-      </c>
-      <c r="K20" s="28">
-        <v>1</v>
-      </c>
-      <c r="L20" s="28">
-        <v>1</v>
-      </c>
-      <c r="M20" s="28">
-        <v>1</v>
-      </c>
-      <c r="N20" s="29" t="s">
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14">
+      <c r="B46" s="42">
+        <v>1</v>
+      </c>
+      <c r="C46" s="42">
+        <v>1</v>
+      </c>
+      <c r="D46" s="42">
+        <v>1</v>
+      </c>
+      <c r="E46" s="42">
+        <v>1</v>
+      </c>
+      <c r="F46" s="42">
+        <v>1</v>
+      </c>
+      <c r="G46" s="42">
+        <v>1</v>
+      </c>
+      <c r="H46" s="42">
+        <v>1</v>
+      </c>
+      <c r="I46" s="42">
+        <v>1</v>
+      </c>
+      <c r="J46" s="42">
+        <v>1</v>
+      </c>
+      <c r="K46" s="42">
+        <v>1</v>
+      </c>
+      <c r="L46" s="42">
+        <v>1</v>
+      </c>
+      <c r="M46" s="42">
+        <v>1</v>
+      </c>
+      <c r="N46" s="62" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:14">
-      <c r="B21" s="30">
-        <v>1</v>
-      </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="32" t="s">
+    <row r="47" spans="2:14">
+      <c r="B47" s="43">
+        <v>1</v>
+      </c>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="H21" s="30">
-        <v>1</v>
-      </c>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="32" t="s">
+      <c r="H47" s="43">
+        <v>1</v>
+      </c>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="N21" s="33" t="s">
+      <c r="N47" s="63" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:14">
-      <c r="B22" s="28">
-        <v>1</v>
-      </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="31"/>
-      <c r="H22" s="28">
-        <v>1</v>
-      </c>
-      <c r="I22" s="31"/>
-      <c r="J22" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="K22" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="L22" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="M22" s="31"/>
-      <c r="N22" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14">
-      <c r="B23" s="28">
-        <v>1</v>
-      </c>
-      <c r="C23" s="35" t="s">
+    <row r="48" spans="2:14">
+      <c r="B48" s="42">
+        <v>1</v>
+      </c>
+      <c r="C48" s="33"/>
+      <c r="D48" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G48" s="33"/>
+      <c r="H48" s="42">
+        <v>1</v>
+      </c>
+      <c r="I48" s="33"/>
+      <c r="J48" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="K48" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="L48" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="M48" s="33"/>
+      <c r="N48" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14">
+      <c r="B49" s="42">
+        <v>1</v>
+      </c>
+      <c r="C49" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="34" t="s">
+      <c r="D49" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E49" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="35" t="s">
+      <c r="F49" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G49" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="H23" s="28">
-        <v>1</v>
-      </c>
-      <c r="I23" s="35" t="s">
+      <c r="H49" s="42">
+        <v>1</v>
+      </c>
+      <c r="I49" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="J23" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="K23" s="34" t="s">
+      <c r="J49" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="K49" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="L23" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="M23" s="35" t="s">
+      <c r="L49" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="M49" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="N23" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14">
-      <c r="B24" s="28">
-        <v>1</v>
-      </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="36"/>
-      <c r="H24" s="28">
-        <v>1</v>
-      </c>
-      <c r="I24" s="36"/>
-      <c r="J24" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="K24" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="L24" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="M24" s="36"/>
-      <c r="N24" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14">
-      <c r="B25" s="28">
-        <v>1</v>
-      </c>
-      <c r="C25" s="35" t="s">
+      <c r="N49" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="B50" s="42">
+        <v>1</v>
+      </c>
+      <c r="C50" s="38"/>
+      <c r="D50" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G50" s="38"/>
+      <c r="H50" s="42">
+        <v>1</v>
+      </c>
+      <c r="I50" s="38"/>
+      <c r="J50" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="K50" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="L50" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="M50" s="38"/>
+      <c r="N50" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51" s="42">
+        <v>1</v>
+      </c>
+      <c r="C51" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="28">
-        <v>1</v>
-      </c>
-      <c r="I25" s="35" t="s">
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="42">
+        <v>1</v>
+      </c>
+      <c r="I51" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14">
-      <c r="B26" s="38">
-        <v>1</v>
-      </c>
-      <c r="C26" s="28">
-        <v>1</v>
-      </c>
-      <c r="D26" s="28">
-        <v>1</v>
-      </c>
-      <c r="E26" s="28">
-        <v>1</v>
-      </c>
-      <c r="F26" s="28">
-        <v>1</v>
-      </c>
-      <c r="G26" s="28">
-        <v>1</v>
-      </c>
-      <c r="H26" s="38">
-        <v>1</v>
-      </c>
-      <c r="I26" s="28">
-        <v>1</v>
-      </c>
-      <c r="J26" s="28">
-        <v>1</v>
-      </c>
-      <c r="K26" s="28">
-        <v>1</v>
-      </c>
-      <c r="L26" s="28">
-        <v>1</v>
-      </c>
-      <c r="M26" s="28">
-        <v>1</v>
-      </c>
-      <c r="N26" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="7:15">
-      <c r="G30" t="s">
-        <v>45</v>
-      </c>
-      <c r="H30" t="s">
-        <v>45</v>
-      </c>
-      <c r="I30" t="s">
-        <v>45</v>
-      </c>
-      <c r="J30" t="s">
-        <v>45</v>
-      </c>
-      <c r="K30" t="s">
-        <v>45</v>
-      </c>
-      <c r="L30" t="s">
-        <v>45</v>
-      </c>
-      <c r="M30" t="s">
-        <v>45</v>
-      </c>
-      <c r="N30" t="s">
-        <v>45</v>
-      </c>
-      <c r="O30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="3:15">
-      <c r="C31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G31" t="s">
-        <v>45</v>
-      </c>
-      <c r="H31" t="s">
-        <v>45</v>
-      </c>
-      <c r="I31" t="s">
-        <v>45</v>
-      </c>
-      <c r="J31" t="s">
-        <v>45</v>
-      </c>
-      <c r="K31" t="s">
-        <v>45</v>
-      </c>
-      <c r="L31" t="s">
-        <v>45</v>
-      </c>
-      <c r="M31" t="s">
-        <v>45</v>
-      </c>
-      <c r="N31" t="s">
-        <v>45</v>
-      </c>
-      <c r="O31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="6:15">
-      <c r="F32" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" t="s">
-        <v>45</v>
-      </c>
-      <c r="O32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="5:16">
-      <c r="E33" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" t="s">
-        <v>45</v>
-      </c>
-      <c r="I33" t="s">
-        <v>45</v>
-      </c>
-      <c r="P33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="5:16">
-      <c r="E34" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" t="s">
-        <v>45</v>
-      </c>
-      <c r="P34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="5:17">
-      <c r="E35" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="5:17">
-      <c r="E36" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="5:17">
-      <c r="E37" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="5:16">
-      <c r="E38" t="s">
-        <v>45</v>
-      </c>
-      <c r="P38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="6:15">
-      <c r="F39" t="s">
-        <v>45</v>
-      </c>
-      <c r="O39" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="7:14">
-      <c r="G40" t="s">
-        <v>45</v>
-      </c>
-      <c r="M40" t="s">
-        <v>45</v>
-      </c>
-      <c r="N40" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="8:12">
-      <c r="H41" t="s">
-        <v>45</v>
-      </c>
-      <c r="I41" t="s">
-        <v>45</v>
-      </c>
-      <c r="J41" t="s">
-        <v>45</v>
-      </c>
-      <c r="K41" t="s">
-        <v>45</v>
-      </c>
-      <c r="L41" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="3:20">
-      <c r="C43" s="28">
-        <v>1</v>
-      </c>
-      <c r="D43" s="28">
-        <v>1</v>
-      </c>
-      <c r="E43" s="28">
-        <v>1</v>
-      </c>
-      <c r="F43" s="28">
-        <v>1</v>
-      </c>
-      <c r="G43" s="28">
-        <v>1</v>
-      </c>
-      <c r="H43" s="28">
-        <v>1</v>
-      </c>
-      <c r="I43" s="29" t="s">
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14">
+      <c r="B52" s="52">
+        <v>1</v>
+      </c>
+      <c r="C52" s="42">
+        <v>1</v>
+      </c>
+      <c r="D52" s="42">
+        <v>1</v>
+      </c>
+      <c r="E52" s="42">
+        <v>1</v>
+      </c>
+      <c r="F52" s="42">
+        <v>1</v>
+      </c>
+      <c r="G52" s="42">
+        <v>1</v>
+      </c>
+      <c r="H52" s="52">
+        <v>1</v>
+      </c>
+      <c r="I52" s="42">
+        <v>1</v>
+      </c>
+      <c r="J52" s="42">
+        <v>1</v>
+      </c>
+      <c r="K52" s="42">
+        <v>1</v>
+      </c>
+      <c r="L52" s="42">
+        <v>1</v>
+      </c>
+      <c r="M52" s="42">
+        <v>1</v>
+      </c>
+      <c r="N52" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20">
+      <c r="C54" s="42">
+        <v>1</v>
+      </c>
+      <c r="D54" s="42">
+        <v>1</v>
+      </c>
+      <c r="E54" s="42">
+        <v>1</v>
+      </c>
+      <c r="F54" s="42">
+        <v>1</v>
+      </c>
+      <c r="G54" s="42">
+        <v>1</v>
+      </c>
+      <c r="H54" s="42">
+        <v>1</v>
+      </c>
+      <c r="I54" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="N43" s="28">
-        <v>1</v>
-      </c>
-      <c r="O43" s="28">
-        <v>1</v>
-      </c>
-      <c r="P43" s="28">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="28">
-        <v>1</v>
-      </c>
-      <c r="R43" s="28">
-        <v>1</v>
-      </c>
-      <c r="S43" s="28">
-        <v>1</v>
-      </c>
-      <c r="T43" s="29" t="s">
+      <c r="N54" s="42">
+        <v>1</v>
+      </c>
+      <c r="O54" s="42">
+        <v>1</v>
+      </c>
+      <c r="P54" s="42">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="42">
+        <v>1</v>
+      </c>
+      <c r="R54" s="42">
+        <v>1</v>
+      </c>
+      <c r="S54" s="42">
+        <v>1</v>
+      </c>
+      <c r="T54" s="62" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="3:20">
-      <c r="C44" s="30">
-        <v>1</v>
-      </c>
-      <c r="D44" s="39" t="s">
+    <row r="55" spans="3:20">
+      <c r="C55" s="43">
+        <v>1</v>
+      </c>
+      <c r="D55" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="E44" s="39" t="s">
+      <c r="E55" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="F44" s="39" t="s">
+      <c r="F55" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="G44" s="39"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="33" t="s">
+      <c r="G55" s="53"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="N44" s="30">
-        <v>1</v>
-      </c>
-      <c r="O44" s="49"/>
-      <c r="P44" s="49"/>
-      <c r="Q44" s="49"/>
-      <c r="R44" s="49"/>
-      <c r="S44" s="50"/>
-      <c r="T44" s="33" t="s">
+      <c r="N55" s="43">
+        <v>1</v>
+      </c>
+      <c r="O55" s="68"/>
+      <c r="P55" s="68"/>
+      <c r="Q55" s="68"/>
+      <c r="R55" s="68"/>
+      <c r="S55" s="76"/>
+      <c r="T55" s="63" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="3:20">
-      <c r="C45" s="28">
-        <v>1</v>
-      </c>
-      <c r="D45" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="H45" s="39"/>
-      <c r="I45" s="28">
-        <v>1</v>
-      </c>
-      <c r="N45" s="28">
-        <v>1</v>
-      </c>
-      <c r="O45" s="49"/>
-      <c r="P45" s="51" t="s">
+    <row r="56" spans="3:20">
+      <c r="C56" s="42">
+        <v>1</v>
+      </c>
+      <c r="D56" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="H56" s="53"/>
+      <c r="I56" s="42">
+        <v>1</v>
+      </c>
+      <c r="N56" s="42">
+        <v>1</v>
+      </c>
+      <c r="O56" s="68"/>
+      <c r="P56" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="Q45" s="51" t="s">
+      <c r="Q56" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="R45" s="51"/>
-      <c r="S45" s="49"/>
-      <c r="T45" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="3:20">
-      <c r="C46" s="28">
-        <v>1</v>
-      </c>
-      <c r="D46" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="H46" s="41"/>
-      <c r="I46" s="28">
-        <v>1</v>
-      </c>
-      <c r="N46" s="28">
-        <v>1</v>
-      </c>
-      <c r="O46" s="51"/>
-      <c r="P46" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q46" s="51"/>
-      <c r="R46" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="S46" s="51"/>
-      <c r="T46" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="3:20">
-      <c r="C47" s="28">
-        <v>1</v>
-      </c>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="I47" s="37">
-        <v>1</v>
-      </c>
-      <c r="N47" s="28">
-        <v>1</v>
-      </c>
-      <c r="O47" s="51"/>
-      <c r="P47" s="51"/>
-      <c r="Q47" s="51" t="s">
+      <c r="R56" s="69"/>
+      <c r="S56" s="68"/>
+      <c r="T56" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="3:20">
+      <c r="C57" s="42">
+        <v>1</v>
+      </c>
+      <c r="D57" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="H57" s="55"/>
+      <c r="I57" s="42">
+        <v>1</v>
+      </c>
+      <c r="N57" s="42">
+        <v>1</v>
+      </c>
+      <c r="O57" s="69"/>
+      <c r="P57" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q57" s="69"/>
+      <c r="R57" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="S57" s="69"/>
+      <c r="T57" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20">
+      <c r="C58" s="42">
+        <v>1</v>
+      </c>
+      <c r="D58" s="55"/>
+      <c r="E58" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="I58" s="67">
+        <v>1</v>
+      </c>
+      <c r="N58" s="42">
+        <v>1</v>
+      </c>
+      <c r="O58" s="69"/>
+      <c r="P58" s="69"/>
+      <c r="Q58" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="R47" s="51" t="s">
+      <c r="R58" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="S47" s="51"/>
-      <c r="T47" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="3:20">
-      <c r="C48" s="28">
-        <v>1</v>
-      </c>
-      <c r="D48" s="41"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39" t="s">
+      <c r="S58" s="69"/>
+      <c r="T58" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20">
+      <c r="C59" s="42">
+        <v>1</v>
+      </c>
+      <c r="D59" s="55"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="G48" s="39" t="s">
+      <c r="G59" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="H48" s="39" t="s">
+      <c r="H59" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="I48" s="28">
-        <v>1</v>
-      </c>
-      <c r="N48" s="28">
-        <v>1</v>
-      </c>
-      <c r="O48" s="51"/>
-      <c r="P48" s="51"/>
-      <c r="Q48" s="51"/>
-      <c r="R48" s="51"/>
-      <c r="S48" s="51"/>
-      <c r="T48" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="3:20">
-      <c r="C49" s="38">
-        <v>1</v>
-      </c>
-      <c r="D49" s="28">
-        <v>1</v>
-      </c>
-      <c r="E49" s="28">
-        <v>1</v>
-      </c>
-      <c r="F49" s="28">
-        <v>1</v>
-      </c>
-      <c r="G49" s="28">
-        <v>1</v>
-      </c>
-      <c r="H49" s="28">
-        <v>1</v>
-      </c>
-      <c r="I49" s="28">
-        <v>1</v>
-      </c>
-      <c r="N49" s="38">
-        <v>1</v>
-      </c>
-      <c r="O49" s="28">
-        <v>1</v>
-      </c>
-      <c r="P49" s="28">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="28">
-        <v>1</v>
-      </c>
-      <c r="R49" s="28">
-        <v>1</v>
-      </c>
-      <c r="S49" s="28">
-        <v>1</v>
-      </c>
-      <c r="T49" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="3:20">
-      <c r="C51" s="28">
-        <v>1</v>
-      </c>
-      <c r="D51" s="28">
-        <v>1</v>
-      </c>
-      <c r="E51" s="28">
-        <v>1</v>
-      </c>
-      <c r="F51" s="28">
-        <v>1</v>
-      </c>
-      <c r="G51" s="28">
-        <v>1</v>
-      </c>
-      <c r="H51" s="28">
-        <v>1</v>
-      </c>
-      <c r="I51" s="29" t="s">
+      <c r="I59" s="42">
+        <v>1</v>
+      </c>
+      <c r="N59" s="42">
+        <v>1</v>
+      </c>
+      <c r="O59" s="69"/>
+      <c r="P59" s="69"/>
+      <c r="Q59" s="69"/>
+      <c r="R59" s="69"/>
+      <c r="S59" s="69"/>
+      <c r="T59" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20">
+      <c r="C60" s="52">
+        <v>1</v>
+      </c>
+      <c r="D60" s="42">
+        <v>1</v>
+      </c>
+      <c r="E60" s="42">
+        <v>1</v>
+      </c>
+      <c r="F60" s="42">
+        <v>1</v>
+      </c>
+      <c r="G60" s="42">
+        <v>1</v>
+      </c>
+      <c r="H60" s="42">
+        <v>1</v>
+      </c>
+      <c r="I60" s="42">
+        <v>1</v>
+      </c>
+      <c r="N60" s="52">
+        <v>1</v>
+      </c>
+      <c r="O60" s="42">
+        <v>1</v>
+      </c>
+      <c r="P60" s="42">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="42">
+        <v>1</v>
+      </c>
+      <c r="R60" s="42">
+        <v>1</v>
+      </c>
+      <c r="S60" s="42">
+        <v>1</v>
+      </c>
+      <c r="T60" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20">
+      <c r="C62" s="42">
+        <v>1</v>
+      </c>
+      <c r="D62" s="42">
+        <v>1</v>
+      </c>
+      <c r="E62" s="42">
+        <v>1</v>
+      </c>
+      <c r="F62" s="42">
+        <v>1</v>
+      </c>
+      <c r="G62" s="42">
+        <v>1</v>
+      </c>
+      <c r="H62" s="42">
+        <v>1</v>
+      </c>
+      <c r="I62" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="N51" s="28">
-        <v>1</v>
-      </c>
-      <c r="O51" s="28">
-        <v>1</v>
-      </c>
-      <c r="P51" s="28">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="28">
-        <v>1</v>
-      </c>
-      <c r="R51" s="28">
-        <v>1</v>
-      </c>
-      <c r="S51" s="28">
-        <v>1</v>
-      </c>
-      <c r="T51" s="29" t="s">
+      <c r="N62" s="42">
+        <v>1</v>
+      </c>
+      <c r="O62" s="42">
+        <v>1</v>
+      </c>
+      <c r="P62" s="42">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="42">
+        <v>1</v>
+      </c>
+      <c r="R62" s="42">
+        <v>1</v>
+      </c>
+      <c r="S62" s="42">
+        <v>1</v>
+      </c>
+      <c r="T62" s="62" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="3:20">
-      <c r="C52" s="30">
-        <v>1</v>
-      </c>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="42"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="33" t="s">
+    <row r="63" spans="3:20">
+      <c r="C63" s="43">
+        <v>1</v>
+      </c>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="G63" s="44"/>
+      <c r="H63" s="46"/>
+      <c r="I63" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="N52" s="30">
-        <v>1</v>
-      </c>
-      <c r="O52" s="42"/>
-      <c r="P52" s="42"/>
-      <c r="Q52" s="42"/>
-      <c r="R52" s="42"/>
-      <c r="S52" s="43"/>
-      <c r="T52" s="33" t="s">
+      <c r="N63" s="43">
+        <v>1</v>
+      </c>
+      <c r="O63" s="44"/>
+      <c r="P63" s="44"/>
+      <c r="Q63" s="44"/>
+      <c r="R63" s="44"/>
+      <c r="S63" s="46"/>
+      <c r="T63" s="63" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="3:20">
-      <c r="C53" s="28">
-        <v>1</v>
-      </c>
-      <c r="D53" s="42"/>
-      <c r="E53" s="44" t="s">
+    <row r="64" spans="3:20">
+      <c r="C64" s="42">
+        <v>1</v>
+      </c>
+      <c r="D64" s="44"/>
+      <c r="E64" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="F53" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="G53" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="H53" s="42"/>
-      <c r="I53" s="28">
-        <v>1</v>
-      </c>
-      <c r="N53" s="28">
-        <v>1</v>
-      </c>
-      <c r="O53" s="42"/>
-      <c r="P53" s="44"/>
-      <c r="Q53" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="R53" s="46"/>
-      <c r="S53" s="42"/>
-      <c r="T53" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="3:20">
-      <c r="C54" s="28">
-        <v>1</v>
-      </c>
-      <c r="D54" s="45"/>
-      <c r="E54" s="44" t="s">
+      <c r="F64" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="G64" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="H64" s="44"/>
+      <c r="I64" s="42">
+        <v>1</v>
+      </c>
+      <c r="N64" s="42">
+        <v>1</v>
+      </c>
+      <c r="O64" s="44"/>
+      <c r="P64" s="56"/>
+      <c r="Q64" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="R64" s="57"/>
+      <c r="S64" s="44"/>
+      <c r="T64" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="3:20">
+      <c r="C65" s="42">
+        <v>1</v>
+      </c>
+      <c r="D65" s="50"/>
+      <c r="E65" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="F54" s="45" t="s">
+      <c r="F65" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G54" s="44" t="s">
+      <c r="G65" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="H54" s="45"/>
-      <c r="I54" s="28">
-        <v>1</v>
-      </c>
-      <c r="N54" s="28">
-        <v>1</v>
-      </c>
-      <c r="O54" s="45"/>
-      <c r="P54" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q54" s="45" t="s">
+      <c r="H65" s="50"/>
+      <c r="I65" s="42">
+        <v>1</v>
+      </c>
+      <c r="N65" s="42">
+        <v>1</v>
+      </c>
+      <c r="O65" s="50"/>
+      <c r="P65" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q65" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="R54" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="S54" s="45"/>
-      <c r="T54" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="3:20">
-      <c r="C55" s="28">
-        <v>1</v>
-      </c>
-      <c r="D55" s="45"/>
-      <c r="E55" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="F55" s="47" t="s">
+      <c r="R65" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="S65" s="50"/>
+      <c r="T65" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="3:20">
+      <c r="C66" s="42">
+        <v>1</v>
+      </c>
+      <c r="D66" s="50"/>
+      <c r="E66" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="F66" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="G55" s="48" t="s">
+      <c r="G66" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="H55" s="45"/>
-      <c r="I55" s="37">
-        <v>1</v>
-      </c>
-      <c r="N55" s="28">
-        <v>1</v>
-      </c>
-      <c r="O55" s="45"/>
-      <c r="P55" s="44"/>
-      <c r="Q55" s="47" t="s">
+      <c r="H66" s="50"/>
+      <c r="I66" s="67">
+        <v>1</v>
+      </c>
+      <c r="N66" s="42">
+        <v>1</v>
+      </c>
+      <c r="O66" s="50"/>
+      <c r="P66" s="56"/>
+      <c r="Q66" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R55" s="48"/>
-      <c r="S55" s="45"/>
-      <c r="T55" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="3:20">
-      <c r="C56" s="28">
-        <v>1</v>
-      </c>
-      <c r="D56" s="45"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="45" t="s">
+      <c r="R66" s="57"/>
+      <c r="S66" s="50"/>
+      <c r="T66" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="3:20">
+      <c r="C67" s="42">
+        <v>1</v>
+      </c>
+      <c r="D67" s="50"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="28">
-        <v>1</v>
-      </c>
-      <c r="N56" s="28">
-        <v>1</v>
-      </c>
-      <c r="O56" s="45"/>
-      <c r="P56" s="42"/>
-      <c r="Q56" s="45"/>
-      <c r="R56" s="42"/>
-      <c r="S56" s="42"/>
-      <c r="T56" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="3:20">
-      <c r="C57" s="38">
-        <v>1</v>
-      </c>
-      <c r="D57" s="28">
-        <v>1</v>
-      </c>
-      <c r="E57" s="28">
-        <v>1</v>
-      </c>
-      <c r="F57" s="28">
-        <v>1</v>
-      </c>
-      <c r="G57" s="28">
-        <v>1</v>
-      </c>
-      <c r="H57" s="28">
-        <v>1</v>
-      </c>
-      <c r="I57" s="28">
-        <v>1</v>
-      </c>
-      <c r="N57" s="38">
-        <v>1</v>
-      </c>
-      <c r="O57" s="28">
-        <v>1</v>
-      </c>
-      <c r="P57" s="28">
-        <v>1</v>
-      </c>
-      <c r="Q57" s="28">
-        <v>1</v>
-      </c>
-      <c r="R57" s="28">
-        <v>1</v>
-      </c>
-      <c r="S57" s="28">
-        <v>1</v>
-      </c>
-      <c r="T57" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="3:9">
-      <c r="C59" s="28">
-        <v>1</v>
-      </c>
-      <c r="D59" s="28">
-        <v>1</v>
-      </c>
-      <c r="E59" s="28">
-        <v>1</v>
-      </c>
-      <c r="F59" s="28">
-        <v>1</v>
-      </c>
-      <c r="G59" s="28">
-        <v>1</v>
-      </c>
-      <c r="H59" s="28">
-        <v>1</v>
-      </c>
-      <c r="I59" s="29" t="s">
+      <c r="G67" s="44"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="42">
+        <v>1</v>
+      </c>
+      <c r="N67" s="42">
+        <v>1</v>
+      </c>
+      <c r="O67" s="50"/>
+      <c r="P67" s="44"/>
+      <c r="Q67" s="50"/>
+      <c r="R67" s="44"/>
+      <c r="S67" s="44"/>
+      <c r="T67" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="3:20">
+      <c r="C68" s="52">
+        <v>1</v>
+      </c>
+      <c r="D68" s="42">
+        <v>1</v>
+      </c>
+      <c r="E68" s="42">
+        <v>1</v>
+      </c>
+      <c r="F68" s="42">
+        <v>1</v>
+      </c>
+      <c r="G68" s="42">
+        <v>1</v>
+      </c>
+      <c r="H68" s="42">
+        <v>1</v>
+      </c>
+      <c r="I68" s="42">
+        <v>1</v>
+      </c>
+      <c r="N68" s="52">
+        <v>1</v>
+      </c>
+      <c r="O68" s="42">
+        <v>1</v>
+      </c>
+      <c r="P68" s="42">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="42">
+        <v>1</v>
+      </c>
+      <c r="R68" s="42">
+        <v>1</v>
+      </c>
+      <c r="S68" s="42">
+        <v>1</v>
+      </c>
+      <c r="T68" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="3:9">
+      <c r="C70" s="42">
+        <v>1</v>
+      </c>
+      <c r="D70" s="42">
+        <v>1</v>
+      </c>
+      <c r="E70" s="42">
+        <v>1</v>
+      </c>
+      <c r="F70" s="42">
+        <v>1</v>
+      </c>
+      <c r="G70" s="42">
+        <v>1</v>
+      </c>
+      <c r="H70" s="42">
+        <v>1</v>
+      </c>
+      <c r="I70" s="62" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="3:9">
-      <c r="C60" s="30">
-        <v>1</v>
-      </c>
-      <c r="D60" s="49"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="50"/>
-      <c r="I60" s="33" t="s">
+    <row r="71" spans="3:9">
+      <c r="C71" s="43">
+        <v>1</v>
+      </c>
+      <c r="D71" s="68"/>
+      <c r="E71" s="68"/>
+      <c r="F71" s="68"/>
+      <c r="G71" s="68"/>
+      <c r="H71" s="76"/>
+      <c r="I71" s="63" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="3:9">
-      <c r="C61" s="28">
-        <v>1</v>
-      </c>
-      <c r="D61" s="49"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="G61" s="51"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="3:9">
-      <c r="C62" s="28">
-        <v>1</v>
-      </c>
-      <c r="D62" s="51"/>
-      <c r="E62" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="F62" s="51"/>
-      <c r="G62" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="H62" s="51"/>
-      <c r="I62" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="3:9">
-      <c r="C63" s="28">
-        <v>1</v>
-      </c>
-      <c r="D63" s="51"/>
-      <c r="E63" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="F63" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="G63" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="H63" s="51"/>
-      <c r="I63" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="3:9">
-      <c r="C64" s="28">
-        <v>1</v>
-      </c>
-      <c r="D64" s="51"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="51"/>
-      <c r="G64" s="51"/>
-      <c r="H64" s="51"/>
-      <c r="I64" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="3:9">
-      <c r="C65" s="38">
-        <v>1</v>
-      </c>
-      <c r="D65" s="28">
-        <v>1</v>
-      </c>
-      <c r="E65" s="28">
-        <v>1</v>
-      </c>
-      <c r="F65" s="28">
-        <v>1</v>
-      </c>
-      <c r="G65" s="28">
-        <v>1</v>
-      </c>
-      <c r="H65" s="28">
-        <v>1</v>
-      </c>
-      <c r="I65" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="3:20">
-      <c r="C75" s="55"/>
-      <c r="D75" s="56"/>
-      <c r="E75" s="56"/>
-      <c r="F75" s="56"/>
-      <c r="G75" s="56"/>
-      <c r="H75" s="56"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="56"/>
-      <c r="K75" s="56"/>
-      <c r="L75" s="56"/>
-      <c r="M75" s="56"/>
-      <c r="N75" s="56"/>
-      <c r="O75" s="56"/>
-      <c r="P75" s="56"/>
-      <c r="Q75" s="56"/>
-      <c r="R75" s="56"/>
-      <c r="S75" s="55"/>
-      <c r="T75" s="55"/>
-    </row>
-    <row r="76" spans="3:20">
-      <c r="C76" s="55"/>
-      <c r="D76" s="56"/>
-      <c r="E76" s="56"/>
-      <c r="F76" s="56"/>
-      <c r="G76" s="56"/>
-      <c r="H76" s="56"/>
-      <c r="I76" s="56"/>
-      <c r="J76" s="56"/>
-      <c r="K76" s="56"/>
-      <c r="L76" s="56"/>
-      <c r="M76" s="56"/>
-      <c r="N76" s="56"/>
-      <c r="O76" s="56"/>
-      <c r="P76" s="56"/>
-      <c r="Q76" s="56"/>
-      <c r="R76" s="56"/>
-      <c r="S76" s="55"/>
-      <c r="T76" s="55"/>
-    </row>
-    <row r="77" spans="3:20">
-      <c r="C77" s="55"/>
-      <c r="D77" s="56"/>
-      <c r="E77" s="56"/>
-      <c r="F77" s="56"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="56"/>
-      <c r="K77" s="56"/>
-      <c r="L77" s="56"/>
-      <c r="M77" s="56"/>
-      <c r="N77" s="56"/>
-      <c r="O77" s="56"/>
-      <c r="P77" s="56"/>
-      <c r="Q77" s="56"/>
-      <c r="R77" s="56"/>
-      <c r="S77" s="55"/>
-      <c r="T77" s="55"/>
-    </row>
-    <row r="78" spans="3:20">
-      <c r="C78" s="55"/>
-      <c r="D78" s="56"/>
-      <c r="E78" s="56"/>
-      <c r="F78" s="56"/>
-      <c r="G78" s="56"/>
-      <c r="H78" s="56"/>
-      <c r="I78" s="56"/>
-      <c r="J78" s="56"/>
-      <c r="K78" s="57"/>
-      <c r="L78" s="56"/>
-      <c r="M78" s="56"/>
-      <c r="N78" s="57"/>
-      <c r="O78" s="56"/>
-      <c r="P78" s="56"/>
-      <c r="Q78" s="56"/>
-      <c r="R78" s="56"/>
-      <c r="S78" s="55"/>
-      <c r="T78" s="55"/>
-    </row>
-    <row r="79" spans="3:20">
-      <c r="C79" s="55"/>
-      <c r="D79" s="56"/>
-      <c r="E79" s="56"/>
-      <c r="F79" s="56"/>
-      <c r="G79" s="56"/>
-      <c r="H79" s="57"/>
-      <c r="I79" s="56"/>
-      <c r="J79" s="57"/>
-      <c r="K79" s="56"/>
-      <c r="L79" s="56"/>
-      <c r="M79" s="56"/>
-      <c r="N79" s="56"/>
-      <c r="O79" s="56"/>
-      <c r="P79" s="56"/>
-      <c r="Q79" s="56"/>
-      <c r="R79" s="56"/>
-      <c r="S79" s="55"/>
-      <c r="T79" s="55"/>
-    </row>
-    <row r="80" spans="3:20">
-      <c r="C80" s="55"/>
-      <c r="D80" s="56"/>
-      <c r="E80" s="56"/>
-      <c r="F80" s="56"/>
-      <c r="G80" s="56"/>
-      <c r="H80" s="56"/>
-      <c r="I80" s="56"/>
-      <c r="J80" s="57"/>
-      <c r="K80" s="56"/>
-      <c r="L80" s="56"/>
-      <c r="M80" s="56"/>
-      <c r="N80" s="56"/>
-      <c r="O80" s="56"/>
-      <c r="P80" s="56"/>
-      <c r="Q80" s="56"/>
-      <c r="R80" s="56"/>
-      <c r="S80" s="55"/>
-      <c r="T80" s="55"/>
-    </row>
-    <row r="81" spans="3:20">
-      <c r="C81" s="55"/>
-      <c r="D81" s="56"/>
-      <c r="E81" s="56"/>
-      <c r="F81" s="56"/>
-      <c r="G81" s="57"/>
-      <c r="H81" s="56"/>
-      <c r="I81" s="56"/>
-      <c r="J81" s="56"/>
-      <c r="K81" s="56"/>
-      <c r="L81" s="56"/>
-      <c r="M81" s="56"/>
-      <c r="N81" s="56"/>
-      <c r="O81" s="56"/>
-      <c r="P81" s="56"/>
-      <c r="Q81" s="56"/>
-      <c r="R81" s="56"/>
-      <c r="S81" s="55"/>
-      <c r="T81" s="55"/>
-    </row>
-    <row r="82" spans="3:20">
-      <c r="C82" s="55"/>
-      <c r="D82" s="56"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="56"/>
-      <c r="G82" s="56"/>
-      <c r="H82" s="56"/>
-      <c r="I82" s="56"/>
-      <c r="J82" s="56"/>
-      <c r="K82" s="57"/>
-      <c r="L82" s="56"/>
-      <c r="M82" s="56"/>
-      <c r="N82" s="56"/>
-      <c r="O82" s="56"/>
-      <c r="P82" s="56"/>
-      <c r="Q82" s="56"/>
-      <c r="R82" s="56"/>
-      <c r="S82" s="55"/>
-      <c r="T82" s="55"/>
-    </row>
-    <row r="83" spans="3:20">
-      <c r="C83" s="55"/>
-      <c r="D83" s="56"/>
-      <c r="E83" s="56"/>
-      <c r="F83" s="56"/>
-      <c r="G83" s="56"/>
-      <c r="H83" s="56"/>
-      <c r="I83" s="56"/>
-      <c r="J83" s="56"/>
-      <c r="K83" s="56"/>
-      <c r="L83" s="56"/>
-      <c r="M83" s="56"/>
-      <c r="N83" s="56"/>
-      <c r="O83" s="56"/>
-      <c r="P83" s="56"/>
-      <c r="Q83" s="56"/>
-      <c r="R83" s="56"/>
-      <c r="S83" s="55"/>
-      <c r="T83" s="55"/>
-    </row>
-    <row r="84" spans="3:20">
-      <c r="C84" s="55"/>
-      <c r="D84" s="56"/>
-      <c r="E84" s="56"/>
-      <c r="F84" s="56"/>
-      <c r="G84" s="56"/>
-      <c r="H84" s="56"/>
-      <c r="I84" s="57"/>
-      <c r="J84" s="56"/>
-      <c r="K84" s="56"/>
-      <c r="L84" s="56"/>
-      <c r="M84" s="56"/>
-      <c r="N84" s="56"/>
-      <c r="O84" s="56"/>
-      <c r="P84" s="56"/>
-      <c r="Q84" s="56"/>
-      <c r="R84" s="56"/>
-      <c r="S84" s="55"/>
-      <c r="T84" s="55"/>
-    </row>
-    <row r="85" spans="3:20">
-      <c r="C85" s="55"/>
-      <c r="D85" s="56"/>
-      <c r="E85" s="56"/>
-      <c r="F85" s="56"/>
-      <c r="G85" s="56"/>
-      <c r="H85" s="56"/>
-      <c r="I85" s="56"/>
-      <c r="J85" s="56"/>
-      <c r="K85" s="56"/>
-      <c r="L85" s="56"/>
-      <c r="M85" s="56"/>
-      <c r="N85" s="56"/>
-      <c r="O85" s="56"/>
-      <c r="P85" s="56"/>
-      <c r="Q85" s="56"/>
-      <c r="R85" s="56"/>
-      <c r="S85" s="55"/>
-      <c r="T85" s="55"/>
-    </row>
-    <row r="86" spans="3:20">
-      <c r="C86" s="55"/>
-      <c r="D86" s="56"/>
-      <c r="E86" s="56"/>
-      <c r="F86" s="56"/>
-      <c r="G86" s="56"/>
-      <c r="H86" s="56"/>
-      <c r="I86" s="56"/>
-      <c r="J86" s="56"/>
-      <c r="K86" s="56"/>
-      <c r="L86" s="56"/>
-      <c r="M86" s="56"/>
-      <c r="N86" s="56"/>
-      <c r="O86" s="56"/>
-      <c r="P86" s="56"/>
-      <c r="Q86" s="56"/>
-      <c r="R86" s="56"/>
-      <c r="S86" s="55"/>
-      <c r="T86" s="55"/>
-    </row>
-    <row r="87" spans="3:20">
-      <c r="C87" s="55"/>
-      <c r="D87" s="56"/>
-      <c r="E87" s="56"/>
-      <c r="F87" s="56"/>
-      <c r="G87" s="56"/>
-      <c r="H87" s="56"/>
-      <c r="I87" s="56"/>
-      <c r="J87" s="56"/>
-      <c r="K87" s="56"/>
-      <c r="L87" s="56"/>
-      <c r="M87" s="56"/>
-      <c r="N87" s="56"/>
-      <c r="O87" s="56"/>
-      <c r="P87" s="56"/>
-      <c r="Q87" s="56"/>
-      <c r="R87" s="57"/>
-      <c r="S87" s="55"/>
-      <c r="T87" s="55"/>
-    </row>
-    <row r="88" spans="3:20">
-      <c r="C88" s="55"/>
-      <c r="D88" s="56"/>
-      <c r="E88" s="56"/>
-      <c r="F88" s="56"/>
-      <c r="G88" s="56"/>
-      <c r="H88" s="56"/>
-      <c r="I88" s="56"/>
-      <c r="J88" s="56"/>
-      <c r="K88" s="56"/>
-      <c r="L88" s="56"/>
-      <c r="M88" s="56"/>
-      <c r="N88" s="56"/>
-      <c r="O88" s="56"/>
-      <c r="P88" s="56"/>
-      <c r="Q88" s="56"/>
-      <c r="R88" s="56"/>
-      <c r="S88" s="55"/>
-      <c r="T88" s="55"/>
-    </row>
-    <row r="89" spans="3:20">
-      <c r="C89" s="55"/>
-      <c r="D89" s="56"/>
-      <c r="E89" s="56"/>
-      <c r="F89" s="56"/>
-      <c r="G89" s="57"/>
-      <c r="H89" s="56"/>
-      <c r="I89" s="56"/>
-      <c r="J89" s="56"/>
-      <c r="K89" s="56"/>
-      <c r="L89" s="56"/>
-      <c r="M89" s="56"/>
-      <c r="N89" s="56"/>
-      <c r="O89" s="56"/>
-      <c r="P89" s="56"/>
-      <c r="Q89" s="56"/>
-      <c r="R89" s="56"/>
-      <c r="S89" s="55"/>
-      <c r="T89" s="55"/>
-    </row>
-    <row r="90" spans="3:20">
-      <c r="C90" s="55"/>
-      <c r="D90" s="56"/>
-      <c r="E90" s="56"/>
-      <c r="F90" s="56"/>
-      <c r="G90" s="57"/>
-      <c r="H90" s="56"/>
-      <c r="I90" s="56"/>
-      <c r="J90" s="56"/>
-      <c r="K90" s="56"/>
-      <c r="L90" s="56"/>
-      <c r="M90" s="56"/>
-      <c r="N90" s="56"/>
-      <c r="O90" s="57"/>
-      <c r="P90" s="56"/>
-      <c r="Q90" s="56"/>
-      <c r="R90" s="56"/>
-      <c r="S90" s="55"/>
-      <c r="T90" s="55"/>
+    <row r="72" spans="3:9">
+      <c r="C72" s="42">
+        <v>1</v>
+      </c>
+      <c r="D72" s="68"/>
+      <c r="E72" s="69"/>
+      <c r="F72" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="G72" s="69"/>
+      <c r="H72" s="68"/>
+      <c r="I72" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="3:9">
+      <c r="C73" s="42">
+        <v>1</v>
+      </c>
+      <c r="D73" s="69"/>
+      <c r="E73" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="F73" s="69"/>
+      <c r="G73" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="H73" s="69"/>
+      <c r="I73" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="3:9">
+      <c r="C74" s="42">
+        <v>1</v>
+      </c>
+      <c r="D74" s="69"/>
+      <c r="E74" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="F74" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="G74" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="H74" s="69"/>
+      <c r="I74" s="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="3:9">
+      <c r="C75" s="42">
+        <v>1</v>
+      </c>
+      <c r="D75" s="69"/>
+      <c r="E75" s="69"/>
+      <c r="F75" s="69"/>
+      <c r="G75" s="69"/>
+      <c r="H75" s="69"/>
+      <c r="I75" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="3:9">
+      <c r="C76" s="52">
+        <v>1</v>
+      </c>
+      <c r="D76" s="42">
+        <v>1</v>
+      </c>
+      <c r="E76" s="42">
+        <v>1</v>
+      </c>
+      <c r="F76" s="42">
+        <v>1</v>
+      </c>
+      <c r="G76" s="42">
+        <v>1</v>
+      </c>
+      <c r="H76" s="42">
+        <v>1</v>
+      </c>
+      <c r="I76" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4">
+      <c r="C86" s="86"/>
+      <c r="D86" s="59"/>
+    </row>
+    <row r="87" spans="3:4">
+      <c r="C87" s="86"/>
+      <c r="D87" s="59"/>
+    </row>
+    <row r="88" spans="3:4">
+      <c r="C88" s="86"/>
+      <c r="D88" s="59"/>
+    </row>
+    <row r="89" spans="3:4">
+      <c r="C89" s="86"/>
+      <c r="D89" s="59"/>
+    </row>
+    <row r="90" spans="3:15">
+      <c r="C90" s="86"/>
+      <c r="D90" s="59"/>
+      <c r="E90" s="59"/>
+      <c r="F90" s="59"/>
+      <c r="G90" s="59"/>
+      <c r="H90" s="59"/>
+      <c r="I90" s="59"/>
+      <c r="J90" s="59"/>
+      <c r="K90" s="59"/>
+      <c r="L90" s="59"/>
+      <c r="M90" s="59"/>
+      <c r="N90" s="86"/>
+      <c r="O90" s="86"/>
     </row>
     <row r="91" spans="3:20">
-      <c r="C91" s="55"/>
-      <c r="D91" s="56"/>
-      <c r="E91" s="56"/>
-      <c r="F91" s="56"/>
-      <c r="G91" s="56"/>
-      <c r="H91" s="56"/>
-      <c r="I91" s="56"/>
-      <c r="J91" s="56"/>
-      <c r="K91" s="56"/>
-      <c r="L91" s="56"/>
-      <c r="M91" s="56"/>
-      <c r="N91" s="56"/>
-      <c r="O91" s="56"/>
-      <c r="P91" s="56"/>
-      <c r="Q91" s="56"/>
-      <c r="R91" s="56"/>
-      <c r="S91" s="55"/>
-      <c r="T91" s="55"/>
+      <c r="C91" s="86"/>
+      <c r="D91" s="59"/>
+      <c r="E91" s="59"/>
+      <c r="F91" s="59"/>
+      <c r="G91" s="59"/>
+      <c r="H91" s="59"/>
+      <c r="I91" s="59"/>
+      <c r="J91" s="59"/>
+      <c r="K91" s="59"/>
+      <c r="L91" s="59"/>
+      <c r="M91" s="59"/>
+      <c r="N91" s="59"/>
+      <c r="O91" s="59"/>
+      <c r="P91" s="59"/>
+      <c r="Q91" s="59"/>
+      <c r="R91" s="59"/>
+      <c r="S91" s="86"/>
+      <c r="T91" s="86"/>
     </row>
     <row r="92" spans="3:20">
-      <c r="C92" s="55"/>
-      <c r="D92" s="56"/>
-      <c r="E92" s="56"/>
-      <c r="F92" s="56"/>
-      <c r="G92" s="56"/>
-      <c r="H92" s="56"/>
-      <c r="I92" s="56"/>
-      <c r="J92" s="56"/>
-      <c r="K92" s="56"/>
-      <c r="L92" s="56"/>
-      <c r="M92" s="56"/>
-      <c r="N92" s="56"/>
-      <c r="O92" s="56"/>
-      <c r="P92" s="56"/>
-      <c r="Q92" s="56"/>
-      <c r="R92" s="56"/>
-      <c r="S92" s="55"/>
-      <c r="T92" s="55"/>
+      <c r="C92" s="86"/>
+      <c r="D92" s="59"/>
+      <c r="E92" s="59"/>
+      <c r="F92" s="59"/>
+      <c r="G92" s="59"/>
+      <c r="H92" s="59"/>
+      <c r="I92" s="59"/>
+      <c r="J92" s="59"/>
+      <c r="K92" s="59"/>
+      <c r="L92" s="59"/>
+      <c r="M92" s="59"/>
+      <c r="N92" s="59"/>
+      <c r="O92" s="59"/>
+      <c r="P92" s="59"/>
+      <c r="Q92" s="59"/>
+      <c r="R92" s="59"/>
+      <c r="S92" s="86"/>
+      <c r="T92" s="86"/>
     </row>
     <row r="93" spans="3:20">
-      <c r="C93" s="55"/>
-      <c r="D93" s="56"/>
-      <c r="E93" s="56"/>
-      <c r="F93" s="56"/>
-      <c r="G93" s="56"/>
-      <c r="H93" s="56"/>
-      <c r="I93" s="56"/>
-      <c r="J93" s="56"/>
-      <c r="K93" s="56"/>
-      <c r="L93" s="56"/>
-      <c r="M93" s="56"/>
-      <c r="N93" s="56"/>
-      <c r="O93" s="56"/>
-      <c r="P93" s="56"/>
-      <c r="Q93" s="56"/>
-      <c r="R93" s="56"/>
-      <c r="S93" s="55"/>
-      <c r="T93" s="55"/>
+      <c r="C93" s="86"/>
+      <c r="D93" s="59"/>
+      <c r="E93" s="59"/>
+      <c r="F93" s="59"/>
+      <c r="G93" s="59"/>
+      <c r="H93" s="59"/>
+      <c r="I93" s="59"/>
+      <c r="J93" s="59"/>
+      <c r="K93" s="59"/>
+      <c r="L93" s="59"/>
+      <c r="M93" s="59"/>
+      <c r="N93" s="59"/>
+      <c r="O93" s="59"/>
+      <c r="P93" s="59"/>
+      <c r="Q93" s="59"/>
+      <c r="R93" s="59"/>
+      <c r="S93" s="86"/>
+      <c r="T93" s="86"/>
     </row>
     <row r="94" spans="3:20">
-      <c r="C94" s="55"/>
-      <c r="D94" s="56"/>
-      <c r="E94" s="56"/>
-      <c r="F94" s="56"/>
-      <c r="G94" s="56"/>
-      <c r="H94" s="56"/>
-      <c r="I94" s="56"/>
-      <c r="J94" s="56"/>
-      <c r="K94" s="56"/>
-      <c r="L94" s="56"/>
-      <c r="M94" s="56"/>
-      <c r="N94" s="56"/>
-      <c r="O94" s="56"/>
-      <c r="P94" s="56"/>
-      <c r="Q94" s="56"/>
-      <c r="R94" s="56"/>
-      <c r="S94" s="55"/>
-      <c r="T94" s="55"/>
+      <c r="C94" s="86"/>
+      <c r="D94" s="59"/>
+      <c r="E94" s="59"/>
+      <c r="F94" s="59"/>
+      <c r="G94" s="59"/>
+      <c r="H94" s="59"/>
+      <c r="I94" s="59"/>
+      <c r="J94" s="59"/>
+      <c r="K94" s="59"/>
+      <c r="L94" s="59"/>
+      <c r="M94" s="59"/>
+      <c r="N94" s="59"/>
+      <c r="O94" s="59"/>
+      <c r="P94" s="59"/>
+      <c r="Q94" s="59"/>
+      <c r="R94" s="59"/>
+      <c r="S94" s="86"/>
+      <c r="T94" s="86"/>
     </row>
     <row r="95" spans="3:20">
-      <c r="C95" s="55"/>
-      <c r="D95" s="56"/>
-      <c r="E95" s="56"/>
-      <c r="F95" s="56"/>
-      <c r="G95" s="56"/>
-      <c r="H95" s="56"/>
-      <c r="I95" s="56"/>
-      <c r="J95" s="56"/>
-      <c r="K95" s="56"/>
-      <c r="L95" s="56"/>
-      <c r="M95" s="56"/>
-      <c r="N95" s="56"/>
-      <c r="O95" s="56"/>
-      <c r="P95" s="56"/>
-      <c r="Q95" s="56"/>
-      <c r="R95" s="56"/>
-      <c r="S95" s="55"/>
-      <c r="T95" s="55"/>
+      <c r="C95" s="86"/>
+      <c r="D95" s="59"/>
+      <c r="E95" s="59"/>
+      <c r="F95" s="59"/>
+      <c r="G95" s="59"/>
+      <c r="H95" s="59"/>
+      <c r="I95" s="59"/>
+      <c r="J95" s="59"/>
+      <c r="K95" s="59"/>
+      <c r="L95" s="59"/>
+      <c r="M95" s="59"/>
+      <c r="N95" s="59"/>
+      <c r="O95" s="59"/>
+      <c r="P95" s="59"/>
+      <c r="Q95" s="59"/>
+      <c r="R95" s="59"/>
+      <c r="S95" s="86"/>
+      <c r="T95" s="86"/>
     </row>
     <row r="96" spans="3:20">
-      <c r="C96" s="55"/>
-      <c r="D96" s="56"/>
-      <c r="E96" s="56"/>
-      <c r="F96" s="56"/>
-      <c r="G96" s="56"/>
-      <c r="H96" s="56"/>
-      <c r="I96" s="56"/>
-      <c r="J96" s="56"/>
-      <c r="K96" s="56"/>
-      <c r="L96" s="56"/>
-      <c r="M96" s="56"/>
-      <c r="N96" s="56"/>
-      <c r="O96" s="56"/>
-      <c r="P96" s="56"/>
-      <c r="Q96" s="56"/>
-      <c r="R96" s="56"/>
-      <c r="S96" s="55"/>
-      <c r="T96" s="55"/>
+      <c r="C96" s="86"/>
+      <c r="D96" s="59"/>
+      <c r="E96" s="59"/>
+      <c r="F96" s="59"/>
+      <c r="G96" s="59"/>
+      <c r="H96" s="59"/>
+      <c r="I96" s="59"/>
+      <c r="J96" s="59"/>
+      <c r="K96" s="59"/>
+      <c r="L96" s="59"/>
+      <c r="M96" s="59"/>
+      <c r="N96" s="59"/>
+      <c r="O96" s="59"/>
+      <c r="P96" s="59"/>
+      <c r="Q96" s="59"/>
+      <c r="R96" s="59"/>
+      <c r="S96" s="86"/>
+      <c r="T96" s="86"/>
     </row>
     <row r="97" spans="3:20">
-      <c r="C97" s="55"/>
-      <c r="D97" s="56"/>
-      <c r="E97" s="56"/>
-      <c r="F97" s="56"/>
-      <c r="G97" s="56"/>
-      <c r="H97" s="56"/>
-      <c r="I97" s="56"/>
-      <c r="J97" s="56"/>
-      <c r="K97" s="56"/>
-      <c r="L97" s="56"/>
-      <c r="M97" s="56"/>
-      <c r="N97" s="56"/>
-      <c r="O97" s="56"/>
-      <c r="P97" s="56"/>
-      <c r="Q97" s="56"/>
-      <c r="R97" s="56"/>
-      <c r="S97" s="55"/>
-      <c r="T97" s="55"/>
-    </row>
-    <row r="98" spans="4:18">
-      <c r="D98" s="58"/>
-      <c r="E98" s="58"/>
-      <c r="F98" s="58"/>
-      <c r="G98" s="58"/>
-      <c r="H98" s="58"/>
-      <c r="I98" s="58"/>
-      <c r="J98" s="58"/>
-      <c r="K98" s="58"/>
-      <c r="L98" s="58"/>
-      <c r="M98" s="58"/>
-      <c r="N98" s="58"/>
-      <c r="O98" s="58"/>
-      <c r="P98" s="58"/>
-      <c r="Q98" s="58"/>
-      <c r="R98" s="58"/>
+      <c r="C97" s="86"/>
+      <c r="D97" s="59"/>
+      <c r="E97" s="59"/>
+      <c r="F97" s="59"/>
+      <c r="G97" s="59"/>
+      <c r="H97" s="59"/>
+      <c r="I97" s="59"/>
+      <c r="J97" s="59"/>
+      <c r="K97" s="59"/>
+      <c r="L97" s="59"/>
+      <c r="M97" s="59"/>
+      <c r="N97" s="59"/>
+      <c r="O97" s="59"/>
+      <c r="P97" s="59"/>
+      <c r="Q97" s="59"/>
+      <c r="R97" s="59"/>
+      <c r="S97" s="86"/>
+      <c r="T97" s="86"/>
+    </row>
+    <row r="98" spans="3:20">
+      <c r="C98" s="86"/>
+      <c r="D98" s="59"/>
+      <c r="E98" s="59"/>
+      <c r="F98" s="59"/>
+      <c r="G98" s="59"/>
+      <c r="H98" s="59"/>
+      <c r="I98" s="59"/>
+      <c r="J98" s="59"/>
+      <c r="K98" s="59"/>
+      <c r="L98" s="59"/>
+      <c r="M98" s="59"/>
+      <c r="N98" s="59"/>
+      <c r="O98" s="59"/>
+      <c r="P98" s="59"/>
+      <c r="Q98" s="59"/>
+      <c r="R98" s="59"/>
+      <c r="S98" s="86"/>
+      <c r="T98" s="86"/>
+    </row>
+    <row r="99" spans="3:20">
+      <c r="C99" s="86"/>
+      <c r="D99" s="59"/>
+      <c r="E99" s="59"/>
+      <c r="F99" s="59"/>
+      <c r="G99" s="59"/>
+      <c r="H99" s="59"/>
+      <c r="I99" s="59"/>
+      <c r="J99" s="59"/>
+      <c r="K99" s="59"/>
+      <c r="L99" s="59"/>
+      <c r="M99" s="59"/>
+      <c r="N99" s="59"/>
+      <c r="O99" s="59"/>
+      <c r="P99" s="59"/>
+      <c r="Q99" s="59"/>
+      <c r="R99" s="59"/>
+      <c r="S99" s="86"/>
+      <c r="T99" s="86"/>
+    </row>
+    <row r="100" spans="3:20">
+      <c r="C100" s="86"/>
+      <c r="D100" s="59"/>
+      <c r="E100" s="59"/>
+      <c r="F100" s="59"/>
+      <c r="G100" s="59"/>
+      <c r="H100" s="59"/>
+      <c r="I100" s="59"/>
+      <c r="J100" s="59"/>
+      <c r="K100" s="59"/>
+      <c r="L100" s="59"/>
+      <c r="M100" s="59"/>
+      <c r="N100" s="59"/>
+      <c r="O100" s="59"/>
+      <c r="P100" s="59"/>
+      <c r="Q100" s="59"/>
+      <c r="R100" s="59"/>
+      <c r="S100" s="86"/>
+      <c r="T100" s="86"/>
+    </row>
+    <row r="101" spans="3:20">
+      <c r="C101" s="86"/>
+      <c r="D101" s="59"/>
+      <c r="E101" s="59"/>
+      <c r="F101" s="59"/>
+      <c r="G101" s="59"/>
+      <c r="H101" s="59"/>
+      <c r="I101" s="59"/>
+      <c r="J101" s="59"/>
+      <c r="K101" s="59"/>
+      <c r="L101" s="59"/>
+      <c r="M101" s="59"/>
+      <c r="N101" s="59"/>
+      <c r="O101" s="59"/>
+      <c r="P101" s="59"/>
+      <c r="Q101" s="59"/>
+      <c r="R101" s="59"/>
+      <c r="S101" s="86"/>
+      <c r="T101" s="86"/>
+    </row>
+    <row r="102" spans="3:20">
+      <c r="C102" s="86"/>
+      <c r="D102" s="59"/>
+      <c r="E102" s="59"/>
+      <c r="F102" s="59"/>
+      <c r="G102" s="59"/>
+      <c r="H102" s="59"/>
+      <c r="I102" s="59"/>
+      <c r="J102" s="59"/>
+      <c r="K102" s="59"/>
+      <c r="L102" s="59"/>
+      <c r="M102" s="59"/>
+      <c r="N102" s="59"/>
+      <c r="O102" s="59"/>
+      <c r="P102" s="59"/>
+      <c r="Q102" s="59"/>
+      <c r="R102" s="59"/>
+      <c r="S102" s="86"/>
+      <c r="T102" s="86"/>
+    </row>
+    <row r="103" spans="3:20">
+      <c r="C103" s="86"/>
+      <c r="D103" s="59"/>
+      <c r="E103" s="59"/>
+      <c r="F103" s="59"/>
+      <c r="G103" s="59"/>
+      <c r="H103" s="59"/>
+      <c r="I103" s="59"/>
+      <c r="J103" s="59"/>
+      <c r="K103" s="59"/>
+      <c r="L103" s="59"/>
+      <c r="M103" s="59"/>
+      <c r="N103" s="59"/>
+      <c r="O103" s="59"/>
+      <c r="P103" s="59"/>
+      <c r="Q103" s="59"/>
+      <c r="R103" s="59"/>
+      <c r="S103" s="86"/>
+      <c r="T103" s="86"/>
+    </row>
+    <row r="104" spans="3:20">
+      <c r="C104" s="86"/>
+      <c r="D104" s="59"/>
+      <c r="E104" s="59"/>
+      <c r="F104" s="59"/>
+      <c r="G104" s="59"/>
+      <c r="H104" s="59"/>
+      <c r="I104" s="59"/>
+      <c r="J104" s="59"/>
+      <c r="K104" s="59"/>
+      <c r="L104" s="59"/>
+      <c r="M104" s="59"/>
+      <c r="N104" s="59"/>
+      <c r="O104" s="59"/>
+      <c r="P104" s="59"/>
+      <c r="Q104" s="59"/>
+      <c r="R104" s="59"/>
+      <c r="S104" s="86"/>
+      <c r="T104" s="86"/>
+    </row>
+    <row r="105" spans="3:20">
+      <c r="C105" s="86"/>
+      <c r="D105" s="59"/>
+      <c r="E105" s="59"/>
+      <c r="F105" s="59"/>
+      <c r="G105" s="59"/>
+      <c r="H105" s="59"/>
+      <c r="I105" s="59"/>
+      <c r="J105" s="59"/>
+      <c r="K105" s="59"/>
+      <c r="L105" s="59"/>
+      <c r="M105" s="59"/>
+      <c r="N105" s="59"/>
+      <c r="O105" s="59"/>
+      <c r="P105" s="59"/>
+      <c r="Q105" s="59"/>
+      <c r="R105" s="59"/>
+      <c r="S105" s="86"/>
+      <c r="T105" s="86"/>
+    </row>
+    <row r="106" spans="3:20">
+      <c r="C106" s="86"/>
+      <c r="D106" s="59"/>
+      <c r="E106" s="59"/>
+      <c r="F106" s="59"/>
+      <c r="G106" s="59"/>
+      <c r="H106" s="59"/>
+      <c r="I106" s="59"/>
+      <c r="J106" s="59"/>
+      <c r="K106" s="59"/>
+      <c r="L106" s="59"/>
+      <c r="M106" s="59"/>
+      <c r="N106" s="59"/>
+      <c r="O106" s="59"/>
+      <c r="P106" s="59"/>
+      <c r="Q106" s="59"/>
+      <c r="R106" s="59"/>
+      <c r="S106" s="86"/>
+      <c r="T106" s="86"/>
+    </row>
+    <row r="107" spans="3:20">
+      <c r="C107" s="86"/>
+      <c r="D107" s="59"/>
+      <c r="E107" s="59"/>
+      <c r="F107" s="59"/>
+      <c r="G107" s="59"/>
+      <c r="H107" s="59"/>
+      <c r="I107" s="59"/>
+      <c r="J107" s="59"/>
+      <c r="K107" s="59"/>
+      <c r="L107" s="59"/>
+      <c r="M107" s="59"/>
+      <c r="N107" s="59"/>
+      <c r="O107" s="59"/>
+      <c r="P107" s="59"/>
+      <c r="Q107" s="59"/>
+      <c r="R107" s="59"/>
+      <c r="S107" s="86"/>
+      <c r="T107" s="86"/>
+    </row>
+    <row r="108" spans="3:20">
+      <c r="C108" s="86"/>
+      <c r="D108" s="59"/>
+      <c r="E108" s="59"/>
+      <c r="F108" s="59"/>
+      <c r="G108" s="59"/>
+      <c r="H108" s="59"/>
+      <c r="I108" s="59"/>
+      <c r="J108" s="59"/>
+      <c r="K108" s="59"/>
+      <c r="L108" s="59"/>
+      <c r="M108" s="59"/>
+      <c r="N108" s="59"/>
+      <c r="O108" s="59"/>
+      <c r="P108" s="59"/>
+      <c r="Q108" s="59"/>
+      <c r="R108" s="59"/>
+      <c r="S108" s="86"/>
+      <c r="T108" s="86"/>
+    </row>
+    <row r="109" spans="4:18">
+      <c r="D109" s="30"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="30"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="30"/>
+      <c r="I109" s="30"/>
+      <c r="J109" s="30"/>
+      <c r="K109" s="30"/>
+      <c r="L109" s="30"/>
+      <c r="M109" s="30"/>
+      <c r="N109" s="30"/>
+      <c r="O109" s="30"/>
+      <c r="P109" s="30"/>
+      <c r="Q109" s="30"/>
+      <c r="R109" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5787,10 +6396,10 @@
   <sheetData>
     <row r="2" spans="2:22">
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -5811,7 +6420,7 @@
       <c r="T2" s="4"/>
       <c r="U2" s="21"/>
       <c r="V2" s="22" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="2:22">
@@ -5819,7 +6428,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -5848,7 +6457,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -5877,7 +6486,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -5906,7 +6515,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -5962,7 +6571,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -5991,7 +6600,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -6020,7 +6629,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -6049,7 +6658,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -6078,7 +6687,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -6107,7 +6716,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -6136,7 +6745,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -6165,7 +6774,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -6194,7 +6803,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -6223,7 +6832,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -6252,7 +6861,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -6281,7 +6890,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -6310,7 +6919,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -6339,7 +6948,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -6365,10 +6974,10 @@
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="9" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -6389,15 +6998,15 @@
       <c r="T22" s="11"/>
       <c r="U22" s="27"/>
       <c r="V22" s="12" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="12" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
@@ -6409,7 +7018,7 @@
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
       <c r="M28" s="13" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="N28" s="14"/>
       <c r="O28" s="12"/>
@@ -6420,7 +7029,7 @@
       <c r="T28" s="13"/>
       <c r="U28" s="14"/>
       <c r="V28" s="15" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="2:22">
@@ -6428,31 +7037,31 @@
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="R29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="V29" s="25" t="s">
         <v>8</v>
@@ -6946,7 +7555,7 @@
     </row>
     <row r="48" spans="2:22">
       <c r="B48" s="9" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>2</v>
@@ -6958,7 +7567,7 @@
         <v>4</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="G48" s="12" t="s">
         <v>2</v>
@@ -6970,13 +7579,13 @@
         <v>13</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="L48" s="12" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="M48" s="12">
         <v>1</v>
@@ -6985,7 +7594,7 @@
         <v>13</v>
       </c>
       <c r="O48" s="12" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="P48" s="19">
         <v>1</v>
@@ -7006,7 +7615,7 @@
         <v>1</v>
       </c>
       <c r="V48" s="12" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Axcels/rant.xlsx
+++ b/Axcels/rant.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="13650" activeTab="4"/>
+    <workbookView windowWidth="19174" windowHeight="13440" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="letter" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="98">
   <si>
     <t xml:space="preserve"> Z</t>
   </si>
@@ -335,10 +335,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -439,6 +439,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -446,10 +453,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -460,9 +475,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,16 +514,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,53 +545,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -810,7 +810,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,19 +858,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,79 +906,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,11 +984,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1008,21 +1023,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1030,6 +1030,24 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1045,24 +1063,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1089,10 +1089,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="54" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="42" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1101,7 +1101,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1110,70 +1110,70 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="48" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="48" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="60" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="54" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="54" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="55" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1182,52 +1182,52 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1976,7 +1976,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1993,7 +1993,7 @@
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2010,16 +2010,16 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="3.36666666666667" customWidth="1"/>
-    <col min="2" max="2" width="77.0916666666667" customWidth="1"/>
-    <col min="3" max="3" width="2.36666666666667" customWidth="1"/>
-    <col min="4" max="4" width="3.36666666666667" customWidth="1"/>
-    <col min="5" max="5" width="4.36666666666667" customWidth="1"/>
-    <col min="6" max="6" width="3.36666666666667" customWidth="1"/>
-    <col min="7" max="7" width="77.0916666666667" customWidth="1"/>
-    <col min="8" max="10" width="2.36666666666667" customWidth="1"/>
+    <col min="1" max="1" width="3.36936936936937" customWidth="1"/>
+    <col min="2" max="2" width="77.0900900900901" customWidth="1"/>
+    <col min="3" max="3" width="2.36936936936937" customWidth="1"/>
+    <col min="4" max="4" width="3.36936936936937" customWidth="1"/>
+    <col min="5" max="5" width="4.36936936936937" customWidth="1"/>
+    <col min="6" max="6" width="3.36936936936937" customWidth="1"/>
+    <col min="7" max="7" width="77.0900900900901" customWidth="1"/>
+    <col min="8" max="10" width="2.36936936936937" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2353,17 +2353,17 @@
       <selection activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="3.36666666666667" customWidth="1"/>
-    <col min="2" max="2" width="4.36666666666667" customWidth="1"/>
-    <col min="3" max="3" width="3.09166666666667" customWidth="1"/>
-    <col min="4" max="4" width="77.0916666666667" customWidth="1"/>
-    <col min="5" max="7" width="2.36666666666667" customWidth="1"/>
-    <col min="9" max="9" width="3.36666666666667" customWidth="1"/>
-    <col min="10" max="10" width="3.45" customWidth="1"/>
-    <col min="11" max="11" width="3.36666666666667" customWidth="1"/>
-    <col min="12" max="19" width="2.36666666666667" customWidth="1"/>
+    <col min="1" max="1" width="3.36936936936937" customWidth="1"/>
+    <col min="2" max="2" width="4.36936936936937" customWidth="1"/>
+    <col min="3" max="3" width="3.09009009009009" customWidth="1"/>
+    <col min="4" max="4" width="77.0900900900901" customWidth="1"/>
+    <col min="5" max="7" width="2.36936936936937" customWidth="1"/>
+    <col min="9" max="9" width="3.36936936936937" customWidth="1"/>
+    <col min="10" max="10" width="3.45045045045045" customWidth="1"/>
+    <col min="11" max="11" width="3.36936936936937" customWidth="1"/>
+    <col min="12" max="19" width="2.36936936936937" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -3556,7 +3556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" ht="14.15" spans="1:19">
       <c r="A25" s="90">
         <v>22</v>
       </c>
@@ -3955,22 +3955,22 @@
   <dimension ref="B1:AI109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AS15" sqref="AS15"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <cols>
-    <col min="2" max="17" width="2.26666666666667" customWidth="1"/>
-    <col min="18" max="18" width="2.36666666666667" customWidth="1"/>
-    <col min="19" max="21" width="2.26666666666667" customWidth="1"/>
-    <col min="22" max="22" width="2.39166666666667" customWidth="1"/>
-    <col min="23" max="25" width="2.375" customWidth="1"/>
-    <col min="26" max="26" width="2.49166666666667" customWidth="1"/>
-    <col min="27" max="27" width="2.275" customWidth="1"/>
-    <col min="28" max="30" width="2.375" customWidth="1"/>
-    <col min="31" max="31" width="2.275" customWidth="1"/>
-    <col min="32" max="34" width="2.375" customWidth="1"/>
-    <col min="35" max="35" width="2.28333333333333" customWidth="1"/>
+    <col min="2" max="17" width="2.27027027027027" customWidth="1"/>
+    <col min="18" max="18" width="2.36936936936937" customWidth="1"/>
+    <col min="19" max="21" width="2.27027027027027" customWidth="1"/>
+    <col min="22" max="22" width="2.38738738738739" customWidth="1"/>
+    <col min="23" max="25" width="2.37837837837838" customWidth="1"/>
+    <col min="26" max="26" width="2.4954954954955" customWidth="1"/>
+    <col min="27" max="27" width="2.27927927927928" customWidth="1"/>
+    <col min="28" max="30" width="2.37837837837838" customWidth="1"/>
+    <col min="31" max="31" width="2.27927927927928" customWidth="1"/>
+    <col min="32" max="34" width="2.37837837837838" customWidth="1"/>
+    <col min="35" max="35" width="2.27927927927928" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
@@ -6383,14 +6383,14 @@
       <selection activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="4.375" style="1" customWidth="1"/>
-    <col min="3" max="21" width="2.375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="4.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.37837837837838" style="1" customWidth="1"/>
+    <col min="3" max="21" width="2.37837837837838" style="1" customWidth="1"/>
+    <col min="22" max="22" width="4.37837837837838" style="1" customWidth="1"/>
     <col min="23" max="23" width="9" style="1"/>
-    <col min="24" max="24" width="32.625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="32.6216216216216" style="1" customWidth="1"/>
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -6423,7 +6423,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="2:22">
+    <row r="3" ht="15" spans="2:22">
       <c r="B3" s="5">
         <v>1</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="2:22">
+    <row r="4" ht="15" spans="2:22">
       <c r="B4" s="5">
         <v>2</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="2:22">
+    <row r="5" ht="15" spans="2:22">
       <c r="B5" s="5">
         <v>3</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="2:22">
+    <row r="6" ht="15" spans="2:22">
       <c r="B6" s="5">
         <v>4</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="2:22">
+    <row r="7" ht="15" spans="2:22">
       <c r="B7" s="5">
         <v>5</v>
       </c>
@@ -6566,7 +6566,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="2:22">
+    <row r="8" ht="15" spans="2:22">
       <c r="B8" s="5">
         <v>6</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="2:22">
+    <row r="9" ht="15" spans="2:22">
       <c r="B9" s="5">
         <v>7</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="2:22">
+    <row r="10" ht="15" spans="2:22">
       <c r="B10" s="5">
         <v>8</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="2:22">
+    <row r="11" ht="15" spans="2:22">
       <c r="B11" s="5">
         <v>9</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="2:22">
+    <row r="12" ht="15" spans="2:22">
       <c r="B12" s="5">
         <v>10</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="2:22">
+    <row r="13" ht="15" spans="2:22">
       <c r="B13" s="5">
         <v>11</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="2:22">
+    <row r="14" ht="15" spans="2:22">
       <c r="B14" s="5">
         <v>12</v>
       </c>
@@ -6769,7 +6769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="2:22">
+    <row r="15" ht="15" spans="2:22">
       <c r="B15" s="5">
         <v>13</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="2:22">
+    <row r="16" ht="15" spans="2:22">
       <c r="B16" s="5">
         <v>14</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="2:22">
+    <row r="17" ht="15" spans="2:22">
       <c r="B17" s="5">
         <v>15</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="2:22">
+    <row r="18" ht="15" spans="2:22">
       <c r="B18" s="5">
         <v>16</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="2:22">
+    <row r="19" ht="15" spans="2:22">
       <c r="B19" s="5">
         <v>17</v>
       </c>
@@ -6914,7 +6914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="2:22">
+    <row r="20" ht="15" spans="2:22">
       <c r="B20" s="5">
         <v>18</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="2:22">
+    <row r="21" ht="15" spans="2:22">
       <c r="B21" s="5">
         <v>19</v>
       </c>

--- a/Axcels/rant.xlsx
+++ b/Axcels/rant.xlsx
@@ -4,22 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19174" windowHeight="13440" activeTab="4"/>
+    <workbookView windowWidth="23074" windowHeight="13440" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="letter" sheetId="2" r:id="rId1"/>
-    <sheet name="word" sheetId="3" r:id="rId2"/>
-    <sheet name="func" sheetId="1" r:id="rId3"/>
-    <sheet name="nint" sheetId="4" r:id="rId4"/>
-    <sheet name="camary" sheetId="5" r:id="rId5"/>
-    <sheet name="komet-O-Keset" sheetId="6" r:id="rId6"/>
+    <sheet name="func" sheetId="1" r:id="rId1"/>
+    <sheet name="nint" sheetId="4" r:id="rId2"/>
+    <sheet name="camary" sheetId="5" r:id="rId3"/>
+    <sheet name="komet-O-Keset" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="91">
   <si>
     <t xml:space="preserve"> Z</t>
   </si>
@@ -282,7 +280,7 @@
     <t xml:space="preserve">    char[68] = 1080/16 67.5</t>
   </si>
   <si>
-    <t xml:space="preserve">  covid.display</t>
+    <t xml:space="preserve">  dcibt screen</t>
   </si>
   <si>
     <t xml:space="preserve">   linb:</t>
@@ -304,27 +302,6 @@
   </si>
   <si>
     <t>S</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>H</t>
@@ -335,8 +312,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -438,13 +415,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -460,9 +431,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,6 +462,22 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -483,26 +491,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -514,24 +507,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,7 +517,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -553,15 +531,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="61">
+  <fills count="62">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -613,6 +590,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,12 +680,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,7 +793,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,73 +889,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,25 +901,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,6 +967,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -999,15 +1011,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1019,35 +1022,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1081,6 +1055,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1089,10 +1072,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="42" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="44" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1101,7 +1084,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1110,128 +1093,128 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="48" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="48" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="52" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="54" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="54" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="55" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1289,28 +1272,46 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1364,13 +1365,13 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="32" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1382,31 +1383,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="31" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="31" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1415,7 +1416,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="32" applyFont="1" applyBorder="1">
@@ -1424,58 +1425,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="7" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1484,142 +1488,139 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="37" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="40" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="41" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="37" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1970,44 +1971,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="2"/>
@@ -2023,10 +1990,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="122" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
@@ -2034,308 +2001,308 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="117">
-        <v>1</v>
-      </c>
-      <c r="B2" s="118" t="s">
+      <c r="A2" s="123">
+        <v>1</v>
+      </c>
+      <c r="B2" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="119" t="s">
+      <c r="C2" s="125" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="120">
+      <c r="A3" s="126">
         <v>2</v>
       </c>
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="119" t="s">
+      <c r="C3" s="125" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="117">
+      <c r="A4" s="123">
         <v>3</v>
       </c>
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="119" t="s">
+      <c r="C4" s="125" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="117">
-        <v>4</v>
-      </c>
-      <c r="B5" s="118" t="s">
+      <c r="A5" s="123">
+        <v>4</v>
+      </c>
+      <c r="B5" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="121" t="s">
+      <c r="C5" s="127" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="117">
+      <c r="A6" s="123">
         <v>5</v>
       </c>
-      <c r="B6" s="118" t="s">
+      <c r="B6" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="121" t="s">
+      <c r="C6" s="127" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="117">
+      <c r="A7" s="123">
         <v>6</v>
       </c>
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="127" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="117">
+      <c r="A8" s="123">
         <v>7</v>
       </c>
-      <c r="B8" s="118" t="s">
+      <c r="B8" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="121" t="s">
+      <c r="C8" s="127" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="117">
+      <c r="A9" s="123">
         <v>8</v>
       </c>
-      <c r="B9" s="118" t="s">
+      <c r="B9" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="127" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="122">
+      <c r="A10" s="128">
         <v>9</v>
       </c>
-      <c r="B10" s="118" t="s">
+      <c r="B10" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="121" t="s">
+      <c r="C10" s="127" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="117">
+      <c r="A11" s="123">
         <v>10</v>
       </c>
-      <c r="B11" s="118"/>
-      <c r="C11" s="121" t="s">
+      <c r="B11" s="124"/>
+      <c r="C11" s="127" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="25">
+      <c r="A12" s="31">
         <v>11</v>
       </c>
-      <c r="B12" s="118" t="s">
+      <c r="B12" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="121" t="s">
+      <c r="C12" s="127" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="25">
+      <c r="A13" s="31">
         <v>12</v>
       </c>
-      <c r="B13" s="118" t="s">
+      <c r="B13" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="123" t="s">
+      <c r="C13" s="129" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="25">
+      <c r="A14" s="31">
         <v>13</v>
       </c>
-      <c r="B14" s="118" t="s">
+      <c r="B14" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="123" t="s">
+      <c r="C14" s="129" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="25">
+      <c r="A15" s="31">
         <v>14</v>
       </c>
-      <c r="B15" s="118" t="s">
+      <c r="B15" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="123" t="s">
+      <c r="C15" s="129" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="25">
+      <c r="A16" s="31">
         <v>15</v>
       </c>
-      <c r="B16" s="118" t="s">
+      <c r="B16" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="124" t="s">
+      <c r="C16" s="130" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="25">
+      <c r="A17" s="31">
         <v>16</v>
       </c>
-      <c r="B17" s="118" t="s">
+      <c r="B17" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="124" t="s">
+      <c r="C17" s="130" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="117">
+      <c r="A18" s="123">
         <v>17</v>
       </c>
-      <c r="B18" s="118" t="s">
+      <c r="B18" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="124" t="s">
+      <c r="C18" s="130" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="117">
+      <c r="A19" s="123">
         <v>18</v>
       </c>
-      <c r="B19" s="118" t="s">
+      <c r="B19" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="124" t="s">
+      <c r="C19" s="130" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="117">
+      <c r="A20" s="123">
         <v>19</v>
       </c>
-      <c r="B20" s="118" t="s">
+      <c r="B20" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="124" t="s">
+      <c r="C20" s="130" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="117">
+      <c r="A21" s="123">
         <v>20</v>
       </c>
-      <c r="B21" s="118" t="s">
+      <c r="B21" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="124" t="s">
+      <c r="C21" s="130" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="25">
+      <c r="A22" s="31">
         <v>21</v>
       </c>
-      <c r="B22" s="118" t="s">
+      <c r="B22" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="124" t="s">
+      <c r="C22" s="130" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="25">
+      <c r="A23" s="31">
         <v>22</v>
       </c>
-      <c r="B23" s="118" t="s">
+      <c r="B23" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="125" t="s">
+      <c r="C23" s="131" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="25">
+      <c r="A24" s="31">
         <v>23</v>
       </c>
-      <c r="B24" s="118" t="s">
+      <c r="B24" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="125" t="s">
+      <c r="C24" s="131" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="25">
+      <c r="A25" s="31">
         <v>24</v>
       </c>
-      <c r="B25" s="118" t="s">
+      <c r="B25" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="125" t="s">
+      <c r="C25" s="131" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="25">
+      <c r="A26" s="31">
         <v>25</v>
       </c>
-      <c r="B26" s="118" t="s">
+      <c r="B26" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="125" t="s">
+      <c r="C26" s="131" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="126">
+      <c r="A27" s="132">
         <v>26</v>
       </c>
-      <c r="B27" s="118" t="s">
+      <c r="B27" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="127" t="s">
+      <c r="C27" s="133" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="117">
+      <c r="A28" s="123">
         <v>27</v>
       </c>
-      <c r="B28" s="118" t="s">
+      <c r="B28" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="127" t="s">
+      <c r="C28" s="133" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="128" t="s">
+      <c r="A29" s="134" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="127" t="s">
+      <c r="B29" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="129"/>
+      <c r="C29" s="135"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2344,13 +2311,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T34" sqref="T34"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
@@ -2367,1574 +2334,1574 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="87">
-        <v>1</v>
-      </c>
-      <c r="B1" s="87" t="s">
+      <c r="A1" s="93">
+        <v>1</v>
+      </c>
+      <c r="B1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="G1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="87">
-        <v>1</v>
-      </c>
-      <c r="J1" s="87" t="s">
+      <c r="I1" s="93">
+        <v>1</v>
+      </c>
+      <c r="J1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="87" t="s">
+      <c r="K1" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="114" t="s">
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="114" t="s">
+      <c r="R1" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="114" t="s">
+      <c r="S1" s="120" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="87">
+      <c r="B2" s="93">
         <v>3</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="89" t="s">
+      <c r="D2" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="89" t="s">
+      <c r="F2" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="87" t="s">
+      <c r="I2" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="87">
+      <c r="J2" s="93">
         <v>3</v>
       </c>
-      <c r="K2" s="87" t="s">
+      <c r="K2" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="114" t="s">
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="114" t="s">
+      <c r="R2" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="114" t="s">
+      <c r="S2" s="120" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="87" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="87" t="s">
+      <c r="A3" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="87">
+      <c r="C3" s="93">
         <v>6</v>
       </c>
-      <c r="D3" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="89" t="s">
+      <c r="D3" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="89" t="s">
+      <c r="F3" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="89" t="s">
+      <c r="G3" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="87" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="87" t="s">
+      <c r="I3" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="87">
+      <c r="K3" s="93">
         <v>6</v>
       </c>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="114" t="s">
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="114" t="s">
+      <c r="R3" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="114" t="s">
+      <c r="S3" s="120" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="90">
-        <v>1</v>
-      </c>
-      <c r="B4" s="90">
+      <c r="A4" s="96">
+        <v>1</v>
+      </c>
+      <c r="B4" s="96">
         <v>-25</v>
       </c>
-      <c r="C4" s="90">
-        <v>1</v>
-      </c>
-      <c r="D4" s="91" t="s">
+      <c r="C4" s="96">
+        <v>1</v>
+      </c>
+      <c r="D4" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="90">
-        <v>1</v>
-      </c>
-      <c r="J4" s="90">
+      <c r="E4" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="96">
+        <v>1</v>
+      </c>
+      <c r="J4" s="96">
         <v>-25</v>
       </c>
-      <c r="K4" s="90">
-        <v>1</v>
-      </c>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="R4" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="S4" s="92" t="s">
+      <c r="K4" s="96">
+        <v>1</v>
+      </c>
+      <c r="N4" s="111"/>
+      <c r="O4" s="111"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" s="98" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="90">
+      <c r="A5" s="96">
         <v>2</v>
       </c>
-      <c r="B5" s="90">
+      <c r="B5" s="96">
         <v>-24</v>
       </c>
-      <c r="C5" s="93">
+      <c r="C5" s="99">
         <v>2</v>
       </c>
-      <c r="D5" s="91" t="s">
+      <c r="D5" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="92" t="s">
+      <c r="E5" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="92" t="s">
+      <c r="F5" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="92" t="s">
+      <c r="G5" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="90">
+      <c r="I5" s="96">
         <v>2</v>
       </c>
-      <c r="J5" s="90">
+      <c r="J5" s="96">
         <v>-24</v>
       </c>
-      <c r="K5" s="93">
+      <c r="K5" s="99">
         <v>2</v>
       </c>
-      <c r="L5" s="106" t="s">
+      <c r="L5" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="107"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="105"/>
-      <c r="P5" s="105"/>
-      <c r="Q5" s="92" t="s">
+      <c r="M5" s="113"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="R5" s="92" t="s">
+      <c r="R5" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="92" t="s">
+      <c r="S5" s="98" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="90">
+      <c r="A6" s="96">
         <v>3</v>
       </c>
-      <c r="B6" s="90">
+      <c r="B6" s="96">
         <v>-23</v>
       </c>
-      <c r="C6" s="90">
+      <c r="C6" s="96">
         <v>3</v>
       </c>
-      <c r="D6" s="91" t="s">
+      <c r="D6" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="92" t="s">
+      <c r="E6" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="92" t="s">
+      <c r="F6" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="92" t="s">
+      <c r="G6" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="90">
+      <c r="I6" s="96">
         <v>3</v>
       </c>
-      <c r="J6" s="90">
+      <c r="J6" s="96">
         <v>-23</v>
       </c>
-      <c r="K6" s="90">
+      <c r="K6" s="96">
         <v>3</v>
       </c>
-      <c r="L6" s="105">
-        <v>1</v>
-      </c>
-      <c r="M6" s="105">
-        <v>1</v>
-      </c>
-      <c r="N6" s="105">
-        <v>1</v>
-      </c>
-      <c r="O6" s="105">
-        <v>1</v>
-      </c>
-      <c r="P6" s="105">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="95" t="s">
+      <c r="L6" s="111">
+        <v>1</v>
+      </c>
+      <c r="M6" s="111">
+        <v>1</v>
+      </c>
+      <c r="N6" s="111">
+        <v>1</v>
+      </c>
+      <c r="O6" s="111">
+        <v>1</v>
+      </c>
+      <c r="P6" s="111">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="R6" s="92" t="s">
+      <c r="R6" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="S6" s="92" t="s">
+      <c r="S6" s="98" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="90">
-        <v>4</v>
-      </c>
-      <c r="B7" s="90">
+      <c r="A7" s="96">
+        <v>4</v>
+      </c>
+      <c r="B7" s="96">
         <v>-22</v>
       </c>
-      <c r="C7" s="90">
-        <v>4</v>
-      </c>
-      <c r="D7" s="91" t="s">
+      <c r="C7" s="96">
+        <v>4</v>
+      </c>
+      <c r="D7" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="94" t="s">
+      <c r="E7" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="94" t="s">
+      <c r="F7" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="94" t="s">
+      <c r="G7" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="90">
-        <v>4</v>
-      </c>
-      <c r="J7" s="90">
+      <c r="I7" s="96">
+        <v>4</v>
+      </c>
+      <c r="J7" s="96">
         <v>-22</v>
       </c>
-      <c r="K7" s="90">
-        <v>4</v>
-      </c>
-      <c r="L7" s="105">
-        <v>1</v>
-      </c>
-      <c r="M7" s="105">
+      <c r="K7" s="96">
+        <v>4</v>
+      </c>
+      <c r="L7" s="111">
+        <v>1</v>
+      </c>
+      <c r="M7" s="111">
         <v>0</v>
       </c>
-      <c r="N7" s="105">
-        <v>1</v>
-      </c>
-      <c r="O7" s="105">
-        <v>1</v>
-      </c>
-      <c r="P7" s="105">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="95" t="s">
-        <v>4</v>
-      </c>
-      <c r="R7" s="94" t="s">
+      <c r="N7" s="111">
+        <v>1</v>
+      </c>
+      <c r="O7" s="111">
+        <v>1</v>
+      </c>
+      <c r="P7" s="111">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="S7" s="94" t="s">
+      <c r="S7" s="100" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="90">
+      <c r="A8" s="96">
         <v>5</v>
       </c>
-      <c r="B8" s="90">
+      <c r="B8" s="96">
         <v>-21</v>
       </c>
-      <c r="C8" s="90">
+      <c r="C8" s="96">
         <v>5</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="94" t="s">
+      <c r="E8" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="94" t="s">
+      <c r="F8" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="94" t="s">
+      <c r="G8" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="90">
+      <c r="I8" s="96">
         <v>5</v>
       </c>
-      <c r="J8" s="90">
+      <c r="J8" s="96">
         <v>-21</v>
       </c>
-      <c r="K8" s="90">
+      <c r="K8" s="96">
         <v>5</v>
       </c>
-      <c r="L8" s="105">
-        <v>1</v>
-      </c>
-      <c r="M8" s="105">
-        <v>1</v>
-      </c>
-      <c r="N8" s="105">
-        <v>1</v>
-      </c>
-      <c r="O8" s="105">
+      <c r="L8" s="111">
+        <v>1</v>
+      </c>
+      <c r="M8" s="111">
+        <v>1</v>
+      </c>
+      <c r="N8" s="111">
+        <v>1</v>
+      </c>
+      <c r="O8" s="111">
         <v>0</v>
       </c>
-      <c r="P8" s="105">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="95" t="s">
+      <c r="P8" s="111">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="R8" s="94" t="s">
+      <c r="R8" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="S8" s="94" t="s">
+      <c r="S8" s="100" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="90">
+      <c r="A9" s="96">
         <v>6</v>
       </c>
-      <c r="B9" s="90">
+      <c r="B9" s="96">
         <v>-20</v>
       </c>
-      <c r="C9" s="90">
+      <c r="C9" s="96">
         <v>6</v>
       </c>
-      <c r="D9" s="91" t="s">
+      <c r="D9" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="95" t="s">
+      <c r="E9" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="94" t="s">
+      <c r="F9" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="94" t="s">
+      <c r="G9" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="90">
+      <c r="I9" s="96">
         <v>6</v>
       </c>
-      <c r="J9" s="90">
+      <c r="J9" s="96">
         <v>-20</v>
       </c>
-      <c r="K9" s="90">
+      <c r="K9" s="96">
         <v>6</v>
       </c>
-      <c r="L9" s="105">
-        <v>1</v>
-      </c>
-      <c r="M9" s="105">
-        <v>1</v>
-      </c>
-      <c r="N9" s="105">
-        <v>1</v>
-      </c>
-      <c r="O9" s="105">
-        <v>1</v>
-      </c>
-      <c r="P9" s="105">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="95" t="s">
+      <c r="L9" s="111">
+        <v>1</v>
+      </c>
+      <c r="M9" s="111">
+        <v>1</v>
+      </c>
+      <c r="N9" s="111">
+        <v>1</v>
+      </c>
+      <c r="O9" s="111">
+        <v>1</v>
+      </c>
+      <c r="P9" s="111">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="R9" s="94" t="s">
+      <c r="R9" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="S9" s="94" t="s">
+      <c r="S9" s="100" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="90">
+      <c r="A10" s="96">
         <v>7</v>
       </c>
-      <c r="B10" s="90">
+      <c r="B10" s="96">
         <v>-19</v>
       </c>
-      <c r="C10" s="90">
+      <c r="C10" s="96">
         <v>7</v>
       </c>
-      <c r="D10" s="91" t="s">
+      <c r="D10" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="95" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="94" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="94" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="90">
+      <c r="E10" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="96">
         <v>7</v>
       </c>
-      <c r="J10" s="90">
+      <c r="J10" s="96">
         <v>-19</v>
       </c>
-      <c r="K10" s="90">
+      <c r="K10" s="96">
         <v>7</v>
       </c>
-      <c r="L10" s="108" t="s">
+      <c r="L10" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="109"/>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="94" t="s">
-        <v>4</v>
-      </c>
-      <c r="R10" s="94" t="s">
-        <v>4</v>
-      </c>
-      <c r="S10" s="94" t="s">
+      <c r="M10" s="115"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="100" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="90">
+      <c r="A11" s="96">
         <v>8</v>
       </c>
-      <c r="B11" s="90">
+      <c r="B11" s="96">
         <v>-18</v>
       </c>
-      <c r="C11" s="90">
+      <c r="C11" s="96">
         <v>8</v>
       </c>
-      <c r="D11" s="91" t="s">
+      <c r="D11" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="95" t="s">
+      <c r="E11" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="94" t="s">
+      <c r="F11" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="94" t="s">
+      <c r="G11" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="90">
+      <c r="I11" s="96">
         <v>8</v>
       </c>
-      <c r="J11" s="90">
+      <c r="J11" s="96">
         <v>-18</v>
       </c>
-      <c r="K11" s="90">
+      <c r="K11" s="96">
         <v>8</v>
       </c>
-      <c r="L11" s="110"/>
-      <c r="M11" s="110"/>
-      <c r="N11" s="110"/>
-      <c r="O11" s="110"/>
-      <c r="P11" s="110"/>
-      <c r="Q11" s="94" t="s">
+      <c r="L11" s="116"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="116"/>
+      <c r="O11" s="116"/>
+      <c r="P11" s="116"/>
+      <c r="Q11" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="R11" s="94" t="s">
+      <c r="R11" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="S11" s="94" t="s">
+      <c r="S11" s="100" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="90">
+      <c r="A12" s="96">
         <v>9</v>
       </c>
-      <c r="B12" s="90">
+      <c r="B12" s="96">
         <v>-17</v>
       </c>
-      <c r="C12" s="96">
+      <c r="C12" s="102">
         <v>9</v>
       </c>
-      <c r="D12" s="91" t="s">
+      <c r="D12" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="95" t="s">
+      <c r="E12" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="94" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="94" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="90">
+      <c r="F12" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="96">
         <v>9</v>
       </c>
-      <c r="J12" s="90">
+      <c r="J12" s="96">
         <v>-17</v>
       </c>
-      <c r="K12" s="96">
+      <c r="K12" s="102">
         <v>9</v>
       </c>
-      <c r="L12" s="106" t="s">
+      <c r="L12" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="M12" s="107"/>
-      <c r="N12" s="105"/>
-      <c r="O12" s="105"/>
-      <c r="P12" s="105"/>
-      <c r="Q12" s="94" t="s">
-        <v>4</v>
-      </c>
-      <c r="R12" s="94" t="s">
-        <v>4</v>
-      </c>
-      <c r="S12" s="94" t="s">
+      <c r="M12" s="113"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="111"/>
+      <c r="Q12" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="100" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="90">
+      <c r="A13" s="96">
         <v>10</v>
       </c>
-      <c r="B13" s="90">
+      <c r="B13" s="96">
         <v>-16</v>
       </c>
-      <c r="C13" s="90">
+      <c r="C13" s="96">
         <v>10</v>
       </c>
-      <c r="D13" s="91"/>
-      <c r="E13" s="94" t="s">
+      <c r="D13" s="97"/>
+      <c r="E13" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="94" t="s">
+      <c r="F13" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="94" t="s">
+      <c r="G13" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="90">
+      <c r="I13" s="96">
         <v>10</v>
       </c>
-      <c r="J13" s="90">
+      <c r="J13" s="96">
         <v>-16</v>
       </c>
-      <c r="K13" s="90">
+      <c r="K13" s="96">
         <v>10</v>
       </c>
-      <c r="L13" s="105" t="s">
+      <c r="L13" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="M13" s="105" t="s">
+      <c r="M13" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="N13" s="105" t="s">
+      <c r="N13" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="105" t="s">
+      <c r="O13" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="P13" s="105" t="s">
+      <c r="P13" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="Q13" s="94" t="s">
+      <c r="Q13" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="R13" s="94" t="s">
+      <c r="R13" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="S13" s="94" t="s">
+      <c r="S13" s="100" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="90">
+      <c r="A14" s="96">
         <v>11</v>
       </c>
-      <c r="B14" s="90">
+      <c r="B14" s="96">
         <v>-15</v>
       </c>
-      <c r="C14" s="97">
+      <c r="C14" s="103">
         <v>11</v>
       </c>
-      <c r="D14" s="91" t="s">
+      <c r="D14" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="94" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="94" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="94" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="90">
+      <c r="E14" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="96">
         <v>11</v>
       </c>
-      <c r="J14" s="90">
+      <c r="J14" s="96">
         <v>-15</v>
       </c>
-      <c r="K14" s="97">
+      <c r="K14" s="103">
         <v>11</v>
       </c>
-      <c r="L14" s="105" t="s">
+      <c r="L14" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="M14" s="105" t="s">
+      <c r="M14" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="N14" s="105" t="s">
+      <c r="N14" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="O14" s="105" t="s">
+      <c r="O14" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="P14" s="105" t="s">
+      <c r="P14" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="Q14" s="94" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="94" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="94" t="s">
+      <c r="Q14" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="100" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="90">
+      <c r="A15" s="96">
         <v>12</v>
       </c>
-      <c r="B15" s="90">
+      <c r="B15" s="96">
         <v>-14</v>
       </c>
-      <c r="C15" s="97">
+      <c r="C15" s="103">
         <v>12</v>
       </c>
-      <c r="D15" s="91" t="s">
+      <c r="D15" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="98" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="98" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="98" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="90">
+      <c r="E15" s="104" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="104" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="104" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="96">
         <v>12</v>
       </c>
-      <c r="J15" s="90">
+      <c r="J15" s="96">
         <v>-14</v>
       </c>
-      <c r="K15" s="97">
+      <c r="K15" s="103">
         <v>12</v>
       </c>
-      <c r="L15" s="105" t="s">
+      <c r="L15" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="M15" s="105" t="s">
+      <c r="M15" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="N15" s="105" t="s">
+      <c r="N15" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="O15" s="105">
-        <v>1</v>
-      </c>
-      <c r="P15" s="105">
+      <c r="O15" s="111">
+        <v>1</v>
+      </c>
+      <c r="P15" s="111">
         <v>2</v>
       </c>
-      <c r="Q15" s="98" t="s">
-        <v>4</v>
-      </c>
-      <c r="R15" s="98" t="s">
-        <v>4</v>
-      </c>
-      <c r="S15" s="98" t="s">
+      <c r="Q15" s="104" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="104" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="104" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="90">
+      <c r="A16" s="96">
         <v>13</v>
       </c>
-      <c r="B16" s="90">
+      <c r="B16" s="96">
         <v>-13</v>
       </c>
-      <c r="C16" s="97">
+      <c r="C16" s="103">
         <v>13</v>
       </c>
-      <c r="D16" s="91" t="s">
+      <c r="D16" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="98" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="98" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="98" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" s="90">
+      <c r="E16" s="104" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="104" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="104" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="96">
         <v>13</v>
       </c>
-      <c r="J16" s="90">
+      <c r="J16" s="96">
         <v>-13</v>
       </c>
-      <c r="K16" s="97">
+      <c r="K16" s="103">
         <v>13</v>
       </c>
-      <c r="L16" s="105" t="s">
+      <c r="L16" s="111" t="s">
         <v>40</v>
       </c>
-      <c r="M16" s="105">
+      <c r="M16" s="111">
         <v>7</v>
       </c>
-      <c r="N16" s="105">
+      <c r="N16" s="111">
         <v>2</v>
       </c>
-      <c r="O16" s="105">
+      <c r="O16" s="111">
         <v>5</v>
       </c>
-      <c r="P16" s="105">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="98" t="s">
-        <v>4</v>
-      </c>
-      <c r="R16" s="98" t="s">
-        <v>4</v>
-      </c>
-      <c r="S16" s="98" t="s">
+      <c r="P16" s="111">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="104" t="s">
+        <v>4</v>
+      </c>
+      <c r="R16" s="104" t="s">
+        <v>4</v>
+      </c>
+      <c r="S16" s="104" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="90">
+      <c r="A17" s="96">
         <v>14</v>
       </c>
-      <c r="B17" s="90">
+      <c r="B17" s="96">
         <v>-12</v>
       </c>
-      <c r="C17" s="97">
+      <c r="C17" s="103">
         <v>14</v>
       </c>
-      <c r="D17" s="91" t="s">
+      <c r="D17" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="98" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="98" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="98" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="90">
+      <c r="E17" s="104" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="104" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="104" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="96">
         <v>14</v>
       </c>
-      <c r="J17" s="90">
+      <c r="J17" s="96">
         <v>-12</v>
       </c>
-      <c r="K17" s="97">
+      <c r="K17" s="103">
         <v>14</v>
       </c>
-      <c r="L17" s="108" t="s">
+      <c r="L17" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="M17" s="109"/>
-      <c r="N17" s="105"/>
-      <c r="O17" s="105"/>
-      <c r="P17" s="105"/>
-      <c r="Q17" s="98" t="s">
-        <v>4</v>
-      </c>
-      <c r="R17" s="98" t="s">
-        <v>4</v>
-      </c>
-      <c r="S17" s="98" t="s">
+      <c r="M17" s="115"/>
+      <c r="N17" s="111"/>
+      <c r="O17" s="111"/>
+      <c r="P17" s="111"/>
+      <c r="Q17" s="104" t="s">
+        <v>4</v>
+      </c>
+      <c r="R17" s="104" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="104" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="90">
+      <c r="A18" s="96">
         <v>15</v>
       </c>
-      <c r="B18" s="90">
+      <c r="B18" s="96">
         <v>-11</v>
       </c>
-      <c r="C18" s="97">
+      <c r="C18" s="103">
         <v>15</v>
       </c>
-      <c r="D18" s="91" t="s">
+      <c r="D18" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="99" t="s">
+      <c r="E18" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="99" t="s">
+      <c r="F18" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="99" t="s">
+      <c r="G18" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="I18" s="90">
+      <c r="I18" s="96">
         <v>15</v>
       </c>
-      <c r="J18" s="90">
+      <c r="J18" s="96">
         <v>-11</v>
       </c>
-      <c r="K18" s="97">
+      <c r="K18" s="103">
         <v>15</v>
       </c>
-      <c r="L18" s="111"/>
-      <c r="M18" s="111"/>
-      <c r="N18" s="111"/>
-      <c r="O18" s="111"/>
-      <c r="P18" s="111"/>
-      <c r="Q18" s="99" t="s">
+      <c r="L18" s="117"/>
+      <c r="M18" s="117"/>
+      <c r="N18" s="117"/>
+      <c r="O18" s="117"/>
+      <c r="P18" s="117"/>
+      <c r="Q18" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="R18" s="99" t="s">
+      <c r="R18" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="S18" s="99" t="s">
+      <c r="S18" s="105" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="90">
+      <c r="A19" s="96">
         <v>16</v>
       </c>
-      <c r="B19" s="90">
+      <c r="B19" s="96">
         <v>-10</v>
       </c>
-      <c r="C19" s="97">
+      <c r="C19" s="103">
         <v>16</v>
       </c>
-      <c r="D19" s="91" t="s">
+      <c r="D19" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="I19" s="90">
+      <c r="E19" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="96">
         <v>16</v>
       </c>
-      <c r="J19" s="90">
+      <c r="J19" s="96">
         <v>-10</v>
       </c>
-      <c r="K19" s="97">
+      <c r="K19" s="103">
         <v>16</v>
       </c>
-      <c r="L19" s="111"/>
-      <c r="M19" s="111"/>
-      <c r="N19" s="111"/>
-      <c r="O19" s="111"/>
-      <c r="P19" s="111"/>
-      <c r="Q19" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="R19" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="S19" s="99" t="s">
+      <c r="L19" s="117"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="117"/>
+      <c r="O19" s="117"/>
+      <c r="P19" s="117"/>
+      <c r="Q19" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="R19" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="S19" s="105" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="90">
+      <c r="A20" s="96">
         <v>17</v>
       </c>
-      <c r="B20" s="90">
+      <c r="B20" s="96">
         <v>-9</v>
       </c>
-      <c r="C20" s="90">
+      <c r="C20" s="96">
         <v>17</v>
       </c>
-      <c r="D20" s="91" t="s">
+      <c r="D20" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="90">
+      <c r="E20" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="96">
         <v>17</v>
       </c>
-      <c r="J20" s="90">
+      <c r="J20" s="96">
         <v>-9</v>
       </c>
-      <c r="K20" s="90">
+      <c r="K20" s="96">
         <v>17</v>
       </c>
-      <c r="L20" s="111" t="s">
+      <c r="L20" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="M20" s="111"/>
-      <c r="N20" s="111"/>
-      <c r="O20" s="111"/>
-      <c r="P20" s="111"/>
-      <c r="Q20" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="R20" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="S20" s="99" t="s">
+      <c r="M20" s="117"/>
+      <c r="N20" s="117"/>
+      <c r="O20" s="117"/>
+      <c r="P20" s="117"/>
+      <c r="Q20" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="105" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="90">
+      <c r="A21" s="96">
         <v>18</v>
       </c>
-      <c r="B21" s="90">
+      <c r="B21" s="96">
         <v>-8</v>
       </c>
-      <c r="C21" s="90">
+      <c r="C21" s="96">
         <v>18</v>
       </c>
-      <c r="D21" s="91" t="s">
+      <c r="D21" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="99" t="s">
+      <c r="E21" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="99" t="s">
+      <c r="F21" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="G21" s="99" t="s">
+      <c r="G21" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="I21" s="90">
+      <c r="I21" s="96">
         <v>18</v>
       </c>
-      <c r="J21" s="90">
+      <c r="J21" s="96">
         <v>-8</v>
       </c>
-      <c r="K21" s="90">
+      <c r="K21" s="96">
         <v>18</v>
       </c>
-      <c r="L21" s="111"/>
-      <c r="M21" s="111"/>
-      <c r="N21" s="111"/>
-      <c r="O21" s="111"/>
-      <c r="P21" s="111"/>
-      <c r="Q21" s="99" t="s">
+      <c r="L21" s="117"/>
+      <c r="M21" s="117"/>
+      <c r="N21" s="117"/>
+      <c r="O21" s="117"/>
+      <c r="P21" s="117"/>
+      <c r="Q21" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="R21" s="99" t="s">
+      <c r="R21" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="S21" s="99" t="s">
+      <c r="S21" s="105" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="90">
+      <c r="A22" s="96">
         <v>19</v>
       </c>
-      <c r="B22" s="90">
+      <c r="B22" s="96">
         <v>-7</v>
       </c>
-      <c r="C22" s="90">
+      <c r="C22" s="96">
         <v>19</v>
       </c>
-      <c r="D22" s="91" t="s">
+      <c r="D22" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="90">
+      <c r="E22" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="96">
         <v>19</v>
       </c>
-      <c r="J22" s="90">
+      <c r="J22" s="96">
         <v>-7</v>
       </c>
-      <c r="K22" s="90">
+      <c r="K22" s="96">
         <v>19</v>
       </c>
-      <c r="L22" s="111"/>
-      <c r="M22" s="112"/>
-      <c r="N22" s="112"/>
-      <c r="O22" s="112"/>
-      <c r="P22" s="111"/>
-      <c r="Q22" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="R22" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="S22" s="99" t="s">
+      <c r="L22" s="117"/>
+      <c r="M22" s="118"/>
+      <c r="N22" s="118"/>
+      <c r="O22" s="118"/>
+      <c r="P22" s="117"/>
+      <c r="Q22" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="105" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="90">
+      <c r="A23" s="96">
         <v>20</v>
       </c>
-      <c r="B23" s="90">
+      <c r="B23" s="96">
         <v>-6</v>
       </c>
-      <c r="C23" s="90">
+      <c r="C23" s="96">
         <v>20</v>
       </c>
-      <c r="D23" s="91" t="s">
+      <c r="D23" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="I23" s="90">
+      <c r="E23" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="96">
         <v>20</v>
       </c>
-      <c r="J23" s="90">
+      <c r="J23" s="96">
         <v>-6</v>
       </c>
-      <c r="K23" s="90">
+      <c r="K23" s="96">
         <v>20</v>
       </c>
-      <c r="L23" s="111"/>
-      <c r="M23" s="111"/>
-      <c r="N23" s="111"/>
-      <c r="O23" s="111"/>
-      <c r="P23" s="111"/>
-      <c r="Q23" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="R23" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="S23" s="99" t="s">
+      <c r="L23" s="117"/>
+      <c r="M23" s="117"/>
+      <c r="N23" s="117"/>
+      <c r="O23" s="117"/>
+      <c r="P23" s="117"/>
+      <c r="Q23" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="R23" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="S23" s="105" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="90">
+      <c r="A24" s="96">
         <v>21</v>
       </c>
-      <c r="B24" s="90">
+      <c r="B24" s="96">
         <v>-5</v>
       </c>
-      <c r="C24" s="97">
+      <c r="C24" s="103">
         <v>21</v>
       </c>
-      <c r="D24" s="91" t="s">
+      <c r="D24" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="90">
+      <c r="E24" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="96">
         <v>21</v>
       </c>
-      <c r="J24" s="90">
+      <c r="J24" s="96">
         <v>-5</v>
       </c>
-      <c r="K24" s="97">
+      <c r="K24" s="103">
         <v>21</v>
       </c>
-      <c r="L24" s="111"/>
-      <c r="M24" s="111"/>
-      <c r="N24" s="111"/>
-      <c r="O24" s="111"/>
-      <c r="P24" s="111"/>
-      <c r="Q24" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="R24" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="S24" s="99" t="s">
+      <c r="L24" s="117"/>
+      <c r="M24" s="117"/>
+      <c r="N24" s="117"/>
+      <c r="O24" s="117"/>
+      <c r="P24" s="117"/>
+      <c r="Q24" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="R24" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="S24" s="105" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="25" ht="14.15" spans="1:19">
-      <c r="A25" s="90">
+      <c r="A25" s="96">
         <v>22</v>
       </c>
-      <c r="B25" s="90">
+      <c r="B25" s="96">
         <v>-4</v>
       </c>
-      <c r="C25" s="97">
+      <c r="C25" s="103">
         <v>22</v>
       </c>
-      <c r="D25" s="91" t="s">
+      <c r="D25" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="100" t="s">
+      <c r="E25" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="100" t="s">
+      <c r="F25" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="100" t="s">
+      <c r="G25" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="90">
+      <c r="I25" s="96">
         <v>22</v>
       </c>
-      <c r="J25" s="90">
+      <c r="J25" s="96">
         <v>-4</v>
       </c>
-      <c r="K25" s="97">
+      <c r="K25" s="103">
         <v>22</v>
       </c>
-      <c r="L25" s="111" t="s">
+      <c r="L25" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="M25" s="111"/>
-      <c r="N25" s="111"/>
-      <c r="O25" s="111"/>
-      <c r="P25" s="111"/>
-      <c r="Q25" s="100" t="s">
+      <c r="M25" s="117"/>
+      <c r="N25" s="117"/>
+      <c r="O25" s="117"/>
+      <c r="P25" s="117"/>
+      <c r="Q25" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="R25" s="100" t="s">
+      <c r="R25" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="S25" s="100" t="s">
+      <c r="S25" s="106" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="90">
+      <c r="A26" s="96">
         <v>23</v>
       </c>
-      <c r="B26" s="90">
+      <c r="B26" s="96">
         <v>-3</v>
       </c>
-      <c r="C26" s="97">
+      <c r="C26" s="103">
         <v>23</v>
       </c>
-      <c r="D26" s="91" t="s">
+      <c r="D26" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="100" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="100" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="100" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="90">
+      <c r="E26" s="106" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="106" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="106" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="96">
         <v>23</v>
       </c>
-      <c r="J26" s="90">
+      <c r="J26" s="96">
         <v>-3</v>
       </c>
-      <c r="K26" s="97">
+      <c r="K26" s="103">
         <v>23</v>
       </c>
-      <c r="L26" s="111"/>
-      <c r="M26" s="111"/>
-      <c r="N26" s="111"/>
-      <c r="O26" s="111"/>
-      <c r="P26" s="111"/>
-      <c r="Q26" s="100" t="s">
-        <v>4</v>
-      </c>
-      <c r="R26" s="100" t="s">
-        <v>4</v>
-      </c>
-      <c r="S26" s="100" t="s">
+      <c r="L26" s="117"/>
+      <c r="M26" s="117"/>
+      <c r="N26" s="117"/>
+      <c r="O26" s="117"/>
+      <c r="P26" s="117"/>
+      <c r="Q26" s="106" t="s">
+        <v>4</v>
+      </c>
+      <c r="R26" s="106" t="s">
+        <v>4</v>
+      </c>
+      <c r="S26" s="106" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="90">
+      <c r="A27" s="96">
         <v>24</v>
       </c>
-      <c r="B27" s="90">
+      <c r="B27" s="96">
         <v>-2</v>
       </c>
-      <c r="C27" s="97">
+      <c r="C27" s="103">
         <v>24</v>
       </c>
-      <c r="D27" s="91" t="s">
+      <c r="D27" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="100" t="s">
+      <c r="E27" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="100" t="s">
+      <c r="F27" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="100" t="s">
+      <c r="G27" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="I27" s="90">
+      <c r="I27" s="96">
         <v>24</v>
       </c>
-      <c r="J27" s="90">
+      <c r="J27" s="96">
         <v>-2</v>
       </c>
-      <c r="K27" s="97">
+      <c r="K27" s="103">
         <v>24</v>
       </c>
-      <c r="L27" s="111"/>
-      <c r="M27" s="111"/>
-      <c r="N27" s="111"/>
-      <c r="O27" s="111"/>
-      <c r="P27" s="111"/>
-      <c r="Q27" s="100" t="s">
+      <c r="L27" s="117"/>
+      <c r="M27" s="117"/>
+      <c r="N27" s="117"/>
+      <c r="O27" s="117"/>
+      <c r="P27" s="117"/>
+      <c r="Q27" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="R27" s="100" t="s">
+      <c r="R27" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="S27" s="100" t="s">
+      <c r="S27" s="106" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="90">
+      <c r="A28" s="96">
         <v>25</v>
       </c>
-      <c r="B28" s="90">
+      <c r="B28" s="96">
         <v>-1</v>
       </c>
-      <c r="C28" s="97">
+      <c r="C28" s="103">
         <v>25</v>
       </c>
-      <c r="D28" s="91" t="s">
+      <c r="D28" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="100" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="100" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" s="100" t="s">
-        <v>4</v>
-      </c>
-      <c r="I28" s="90">
+      <c r="E28" s="106" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="106" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="106" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="96">
         <v>25</v>
       </c>
-      <c r="J28" s="90">
+      <c r="J28" s="96">
         <v>-1</v>
       </c>
-      <c r="K28" s="113">
+      <c r="K28" s="119">
         <v>25</v>
       </c>
-      <c r="L28" s="111"/>
-      <c r="M28" s="111"/>
-      <c r="N28" s="111"/>
-      <c r="O28" s="111"/>
-      <c r="P28" s="111"/>
-      <c r="Q28" s="100" t="s">
-        <v>4</v>
-      </c>
-      <c r="R28" s="100" t="s">
-        <v>4</v>
-      </c>
-      <c r="S28" s="100" t="s">
+      <c r="L28" s="117"/>
+      <c r="M28" s="117"/>
+      <c r="N28" s="117"/>
+      <c r="O28" s="117"/>
+      <c r="P28" s="117"/>
+      <c r="Q28" s="106" t="s">
+        <v>4</v>
+      </c>
+      <c r="R28" s="106" t="s">
+        <v>4</v>
+      </c>
+      <c r="S28" s="106" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="90">
+      <c r="A29" s="96">
         <v>26</v>
       </c>
-      <c r="B29" s="90">
+      <c r="B29" s="96">
         <v>0</v>
       </c>
-      <c r="C29" s="101">
+      <c r="C29" s="107">
         <v>26</v>
       </c>
-      <c r="D29" s="91" t="s">
+      <c r="D29" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="102" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="102" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="102" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="90">
+      <c r="E29" s="108" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="108" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="108" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="96">
         <v>26</v>
       </c>
-      <c r="J29" s="90">
+      <c r="J29" s="96">
         <v>0</v>
       </c>
-      <c r="K29" s="113">
+      <c r="K29" s="119">
         <v>26</v>
       </c>
-      <c r="L29" s="111"/>
-      <c r="M29" s="111"/>
-      <c r="N29" s="111"/>
-      <c r="O29" s="111"/>
-      <c r="P29" s="111"/>
-      <c r="Q29" s="102" t="s">
-        <v>4</v>
-      </c>
-      <c r="R29" s="102" t="s">
-        <v>4</v>
-      </c>
-      <c r="S29" s="102" t="s">
+      <c r="L29" s="117"/>
+      <c r="M29" s="117"/>
+      <c r="N29" s="117"/>
+      <c r="O29" s="117"/>
+      <c r="P29" s="117"/>
+      <c r="Q29" s="108" t="s">
+        <v>4</v>
+      </c>
+      <c r="R29" s="108" t="s">
+        <v>4</v>
+      </c>
+      <c r="S29" s="108" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="90">
+      <c r="A30" s="96">
         <v>27</v>
       </c>
-      <c r="B30" s="90">
-        <v>1</v>
-      </c>
-      <c r="C30" s="90">
+      <c r="B30" s="96">
+        <v>1</v>
+      </c>
+      <c r="C30" s="96">
         <v>27</v>
       </c>
-      <c r="D30" s="91" t="s">
+      <c r="D30" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="102" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="102" t="s">
-        <v>4</v>
-      </c>
-      <c r="G30" s="102" t="s">
-        <v>4</v>
-      </c>
-      <c r="I30" s="90">
+      <c r="E30" s="108" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="108" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="108" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" s="96">
         <v>27</v>
       </c>
-      <c r="J30" s="90">
-        <v>1</v>
-      </c>
-      <c r="K30" s="90">
+      <c r="J30" s="96">
+        <v>1</v>
+      </c>
+      <c r="K30" s="96">
         <v>27</v>
       </c>
-      <c r="L30" s="111"/>
-      <c r="M30" s="111"/>
-      <c r="N30" s="111"/>
-      <c r="O30" s="111"/>
-      <c r="P30" s="111"/>
-      <c r="Q30" s="102" t="s">
-        <v>4</v>
-      </c>
-      <c r="R30" s="102" t="s">
-        <v>4</v>
-      </c>
-      <c r="S30" s="102" t="s">
+      <c r="L30" s="117"/>
+      <c r="M30" s="117"/>
+      <c r="N30" s="117"/>
+      <c r="O30" s="117"/>
+      <c r="P30" s="117"/>
+      <c r="Q30" s="108" t="s">
+        <v>4</v>
+      </c>
+      <c r="R30" s="108" t="s">
+        <v>4</v>
+      </c>
+      <c r="S30" s="108" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="103" t="s">
+      <c r="A31" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="103" t="s">
+      <c r="B31" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="103" t="s">
+      <c r="C31" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="102" t="s">
+      <c r="D31" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="I31" s="103" t="s">
+      <c r="E31" s="110"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="110"/>
+      <c r="I31" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="J31" s="103" t="s">
+      <c r="J31" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="K31" s="103" t="s">
+      <c r="K31" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="L31" s="103"/>
-      <c r="M31" s="103"/>
-      <c r="N31" s="103"/>
-      <c r="O31" s="103"/>
-      <c r="P31" s="103"/>
-      <c r="Q31" s="104"/>
-      <c r="R31" s="104"/>
-      <c r="S31" s="104"/>
+      <c r="L31" s="109"/>
+      <c r="M31" s="109"/>
+      <c r="N31" s="109"/>
+      <c r="O31" s="109"/>
+      <c r="P31" s="109"/>
+      <c r="Q31" s="110"/>
+      <c r="R31" s="110"/>
+      <c r="S31" s="110"/>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="103" t="s">
+      <c r="A32" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="103" t="s">
+      <c r="B32" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="103" t="s">
+      <c r="C32" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="102" t="s">
+      <c r="D32" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="104"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="104"/>
-      <c r="I32" s="103" t="s">
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="I32" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="J32" s="103" t="s">
+      <c r="J32" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="103" t="s">
+      <c r="K32" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="L32" s="103"/>
-      <c r="M32" s="103"/>
-      <c r="N32" s="103"/>
-      <c r="O32" s="103"/>
-      <c r="P32" s="103"/>
-      <c r="Q32" s="104"/>
-      <c r="R32" s="104"/>
-      <c r="S32" s="104"/>
+      <c r="L32" s="109"/>
+      <c r="M32" s="109"/>
+      <c r="N32" s="109"/>
+      <c r="O32" s="109"/>
+      <c r="P32" s="109"/>
+      <c r="Q32" s="110"/>
+      <c r="R32" s="110"/>
+      <c r="S32" s="110"/>
     </row>
     <row r="33" spans="1:19">
-      <c r="A33" s="103" t="s">
+      <c r="A33" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="103" t="s">
+      <c r="B33" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="103" t="s">
+      <c r="C33" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="102" t="s">
+      <c r="D33" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="104"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="I33" s="103" t="s">
+      <c r="E33" s="110"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="110"/>
+      <c r="I33" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="J33" s="103" t="s">
+      <c r="J33" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="K33" s="103" t="s">
+      <c r="K33" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="L33" s="103"/>
-      <c r="M33" s="103"/>
-      <c r="N33" s="103"/>
-      <c r="O33" s="103"/>
-      <c r="P33" s="103"/>
-      <c r="Q33" s="104"/>
-      <c r="R33" s="104"/>
-      <c r="S33" s="104"/>
+      <c r="L33" s="109"/>
+      <c r="M33" s="109"/>
+      <c r="N33" s="109"/>
+      <c r="O33" s="109"/>
+      <c r="P33" s="109"/>
+      <c r="Q33" s="110"/>
+      <c r="R33" s="110"/>
+      <c r="S33" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3949,13 +3916,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:AI109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
@@ -3979,2394 +3946,2394 @@
       </c>
     </row>
     <row r="2" spans="2:8">
-      <c r="B2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="B2" s="34"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="31"/>
-      <c r="K3" s="58" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="37"/>
+      <c r="K3" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="58" t="s">
+      <c r="L3" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="58" t="s">
+      <c r="M3" s="64" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:22">
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="35"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58" t="s">
+      <c r="H4" s="41"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="58"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
     </row>
     <row r="5" spans="2:22">
-      <c r="B5" s="29"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="29"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" s="58"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="39"/>
+      <c r="H5" s="35"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="64"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
     </row>
     <row r="6" spans="2:22">
-      <c r="B6" s="29"/>
-      <c r="C6" s="37" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="36" t="s">
+      <c r="D6" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="37" t="s">
+      <c r="F6" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="29"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
+      <c r="H6" s="35"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
     </row>
     <row r="7" spans="2:22">
-      <c r="B7" s="29"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="39"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" s="58"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="45"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="64"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
     </row>
     <row r="8" spans="2:22">
-      <c r="B8" s="29"/>
-      <c r="C8" s="37" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="29"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58" t="s">
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="35"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="58"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="65"/>
+      <c r="S8" s="65"/>
+      <c r="T8" s="65"/>
+      <c r="U8" s="65"/>
+      <c r="V8" s="65"/>
     </row>
     <row r="9" spans="2:22">
-      <c r="B9" s="40"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="29"/>
-      <c r="K9" s="58" t="s">
+      <c r="B9" s="46"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="35"/>
+      <c r="K9" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="58" t="s">
+      <c r="L9" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="58" t="s">
+      <c r="M9" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="59"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
     </row>
     <row r="10" spans="2:22">
-      <c r="B10" s="41"/>
-      <c r="H10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
+      <c r="B10" s="47"/>
+      <c r="H10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="65"/>
+      <c r="U10" s="65"/>
+      <c r="V10" s="65"/>
     </row>
     <row r="11" spans="2:22">
-      <c r="B11" s="41"/>
-      <c r="H11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="59"/>
-      <c r="V11" s="59"/>
+      <c r="B11" s="47"/>
+      <c r="H11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
     </row>
     <row r="12" spans="2:35">
-      <c r="B12" s="41"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="59"/>
-      <c r="AE12" s="33"/>
-      <c r="AF12" s="33"/>
-      <c r="AG12" s="33"/>
-      <c r="AH12" s="33"/>
-      <c r="AI12" s="34" t="s">
+      <c r="B12" s="47"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="65"/>
+      <c r="AE12" s="39"/>
+      <c r="AF12" s="39"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="39"/>
+      <c r="AI12" s="40" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="2:35">
-      <c r="B13" s="41"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="59"/>
-      <c r="AE13" s="33"/>
-      <c r="AF13" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG13" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH13" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI13" s="33"/>
+      <c r="B13" s="47"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="65"/>
+      <c r="AE13" s="39"/>
+      <c r="AF13" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG13" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH13" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI13" s="39"/>
     </row>
     <row r="14" spans="2:35">
-      <c r="B14" s="41"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="59"/>
-      <c r="AE14" s="61" t="s">
+      <c r="B14" s="47"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="65"/>
+      <c r="AE14" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="AF14" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG14" s="36" t="s">
+      <c r="AF14" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG14" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="AH14" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI14" s="37" t="s">
+      <c r="AH14" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI14" s="43" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="2:35">
-      <c r="B15" s="41"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="59"/>
-      <c r="AE15" s="77"/>
-      <c r="AF15" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG15" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH15" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI15" s="38"/>
+      <c r="B15" s="47"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="65"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="65"/>
+      <c r="AE15" s="83"/>
+      <c r="AF15" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG15" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH15" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI15" s="44"/>
     </row>
     <row r="16" spans="2:35">
-      <c r="B16" s="41"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33" t="s">
+      <c r="B16" s="47"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="U16" s="70"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="78"/>
-      <c r="AA16" s="79"/>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="33"/>
-      <c r="AD16" s="80"/>
-      <c r="AE16" s="77" t="s">
+      <c r="U16" s="76"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="39"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="84"/>
+      <c r="AA16" s="85"/>
+      <c r="AB16" s="39"/>
+      <c r="AC16" s="39"/>
+      <c r="AD16" s="86"/>
+      <c r="AE16" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="AF16" s="77"/>
-      <c r="AG16" s="38"/>
-      <c r="AH16" s="38"/>
-      <c r="AI16" s="33"/>
+      <c r="AF16" s="83"/>
+      <c r="AG16" s="44"/>
+      <c r="AH16" s="44"/>
+      <c r="AI16" s="39"/>
     </row>
     <row r="17" spans="2:31">
-      <c r="B17" s="41"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="S17" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="T17" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="U17" s="68"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="X17" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y17" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z17" s="81"/>
-      <c r="AA17" s="81"/>
-      <c r="AB17" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC17" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD17" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE17" s="80"/>
+      <c r="B17" s="47"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="S17" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="T17" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="U17" s="74"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="X17" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y17" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z17" s="87"/>
+      <c r="AA17" s="87"/>
+      <c r="AB17" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC17" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD17" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE17" s="86"/>
     </row>
     <row r="18" spans="2:31">
-      <c r="B18" s="41"/>
-      <c r="Q18" s="37" t="s">
+      <c r="B18" s="47"/>
+      <c r="Q18" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="R18" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="S18" s="36" t="s">
+      <c r="R18" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="S18" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="T18" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="U18" s="71" t="s">
+      <c r="T18" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="U18" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="V18" s="37" t="s">
+      <c r="V18" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="W18" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="X18" s="36" t="s">
+      <c r="W18" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="X18" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="Y18" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z18" s="82" t="s">
+      <c r="Y18" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z18" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="AA18" s="82" t="s">
+      <c r="AA18" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="AB18" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC18" s="36" t="s">
+      <c r="AB18" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC18" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="AD18" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE18" s="37" t="s">
+      <c r="AD18" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE18" s="43" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="2:31">
-      <c r="B19" s="41"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="S19" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="T19" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="U19" s="69"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="X19" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y19" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z19" s="83"/>
-      <c r="AA19" s="83"/>
-      <c r="AB19" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC19" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD19" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE19" s="38"/>
+      <c r="B19" s="47"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="S19" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="T19" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="U19" s="75"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="X19" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y19" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z19" s="89"/>
+      <c r="AA19" s="89"/>
+      <c r="AB19" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC19" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD19" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE19" s="44"/>
     </row>
     <row r="20" spans="2:35">
-      <c r="B20" s="41"/>
-      <c r="Q20" s="72" t="s">
+      <c r="B20" s="47"/>
+      <c r="Q20" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="R20" s="73" t="s">
+      <c r="R20" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="S20" s="72" t="s">
+      <c r="S20" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="T20" s="38"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="74"/>
-      <c r="W20" s="38"/>
-      <c r="X20" s="38"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="84"/>
-      <c r="AA20" s="84"/>
-      <c r="AB20" s="38"/>
-      <c r="AC20" s="38"/>
-      <c r="AD20" s="38"/>
-      <c r="AE20" s="33"/>
-      <c r="AF20" s="33"/>
-      <c r="AG20" s="33"/>
-      <c r="AH20" s="33"/>
-      <c r="AI20" s="34" t="s">
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="80"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="90"/>
+      <c r="AA20" s="90"/>
+      <c r="AB20" s="44"/>
+      <c r="AC20" s="44"/>
+      <c r="AD20" s="44"/>
+      <c r="AE20" s="39"/>
+      <c r="AF20" s="39"/>
+      <c r="AG20" s="39"/>
+      <c r="AH20" s="39"/>
+      <c r="AI20" s="40" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" spans="2:35">
-      <c r="B21" s="41"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="75" t="s">
+      <c r="B21" s="47"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="R21" s="75" t="s">
+      <c r="R21" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="S21" s="75" t="s">
+      <c r="S21" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="T21" s="34" t="s">
+      <c r="T21" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="U21" s="59"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="59"/>
-      <c r="Z21" s="59"/>
-      <c r="AA21" s="59"/>
-      <c r="AB21" s="59"/>
-      <c r="AC21" s="59"/>
-      <c r="AD21" s="59"/>
-      <c r="AE21" s="33"/>
-      <c r="AF21" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG21" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH21" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI21" s="33"/>
+      <c r="U21" s="65"/>
+      <c r="V21" s="65"/>
+      <c r="W21" s="65"/>
+      <c r="X21" s="65"/>
+      <c r="Y21" s="65"/>
+      <c r="Z21" s="65"/>
+      <c r="AA21" s="65"/>
+      <c r="AB21" s="65"/>
+      <c r="AC21" s="65"/>
+      <c r="AD21" s="65"/>
+      <c r="AE21" s="39"/>
+      <c r="AF21" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG21" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH21" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI21" s="39"/>
     </row>
     <row r="22" spans="2:35">
-      <c r="B22" s="41"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="R22" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="S22" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="T22" s="33"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="59"/>
-      <c r="Z22" s="59"/>
-      <c r="AA22" s="59"/>
-      <c r="AB22" s="59"/>
-      <c r="AC22" s="59"/>
-      <c r="AD22" s="59"/>
-      <c r="AE22" s="61" t="s">
+      <c r="B22" s="47"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="R22" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="S22" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="T22" s="39"/>
+      <c r="U22" s="65"/>
+      <c r="V22" s="65"/>
+      <c r="W22" s="65"/>
+      <c r="X22" s="65"/>
+      <c r="Y22" s="65"/>
+      <c r="Z22" s="65"/>
+      <c r="AA22" s="65"/>
+      <c r="AB22" s="65"/>
+      <c r="AC22" s="65"/>
+      <c r="AD22" s="65"/>
+      <c r="AE22" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="AF22" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG22" s="36" t="s">
+      <c r="AF22" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG22" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="AH22" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI22" s="37" t="s">
+      <c r="AH22" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI22" s="43" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="23" spans="2:35">
-      <c r="B23" s="41"/>
-      <c r="P23" s="61" t="s">
+      <c r="B23" s="47"/>
+      <c r="P23" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="Q23" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="R23" s="36" t="s">
+      <c r="Q23" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="R23" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="S23" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="T23" s="37" t="s">
+      <c r="S23" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="T23" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="U23" s="59"/>
-      <c r="V23" s="59"/>
-      <c r="W23" s="59"/>
-      <c r="X23" s="59"/>
-      <c r="Y23" s="59"/>
-      <c r="Z23" s="59"/>
-      <c r="AA23" s="59"/>
-      <c r="AB23" s="59"/>
-      <c r="AC23" s="59"/>
-      <c r="AD23" s="59"/>
-      <c r="AE23" s="38"/>
-      <c r="AF23" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG23" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH23" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI23" s="38"/>
+      <c r="U23" s="65"/>
+      <c r="V23" s="65"/>
+      <c r="W23" s="65"/>
+      <c r="X23" s="65"/>
+      <c r="Y23" s="65"/>
+      <c r="Z23" s="65"/>
+      <c r="AA23" s="65"/>
+      <c r="AB23" s="65"/>
+      <c r="AC23" s="65"/>
+      <c r="AD23" s="65"/>
+      <c r="AE23" s="44"/>
+      <c r="AF23" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG23" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH23" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI23" s="44"/>
     </row>
     <row r="24" spans="2:35">
-      <c r="B24" s="28"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="R24" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="S24" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="T24" s="38"/>
-      <c r="U24" s="59"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="59"/>
-      <c r="AA24" s="59"/>
-      <c r="AB24" s="59"/>
-      <c r="AC24" s="59"/>
-      <c r="AD24" s="59"/>
-      <c r="AE24" s="37" t="s">
+      <c r="B24" s="34"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="R24" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="S24" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="T24" s="44"/>
+      <c r="U24" s="65"/>
+      <c r="V24" s="65"/>
+      <c r="W24" s="65"/>
+      <c r="X24" s="65"/>
+      <c r="Y24" s="65"/>
+      <c r="Z24" s="65"/>
+      <c r="AA24" s="65"/>
+      <c r="AB24" s="65"/>
+      <c r="AC24" s="65"/>
+      <c r="AD24" s="65"/>
+      <c r="AE24" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="AF24" s="38"/>
-      <c r="AG24" s="38"/>
-      <c r="AH24" s="38"/>
-      <c r="AI24" s="38"/>
+      <c r="AF24" s="44"/>
+      <c r="AG24" s="44"/>
+      <c r="AH24" s="44"/>
+      <c r="AI24" s="44"/>
     </row>
     <row r="25" spans="2:22">
-      <c r="B25" s="28"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="37" t="s">
+      <c r="B25" s="34"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="59"/>
-      <c r="V25" s="59"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="65"/>
+      <c r="V25" s="65"/>
     </row>
     <row r="26" spans="2:22">
-      <c r="B26" s="28"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="59"/>
-      <c r="T26" s="59"/>
-      <c r="U26" s="59"/>
-      <c r="V26" s="59"/>
+      <c r="B26" s="34"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="65"/>
+      <c r="S26" s="65"/>
+      <c r="T26" s="65"/>
+      <c r="U26" s="65"/>
+      <c r="V26" s="65"/>
     </row>
     <row r="27" spans="2:22">
-      <c r="B27" s="28"/>
-      <c r="C27" s="42">
-        <v>1</v>
-      </c>
-      <c r="D27" s="42">
-        <v>1</v>
-      </c>
-      <c r="E27" s="42">
-        <v>1</v>
-      </c>
-      <c r="F27" s="42">
-        <v>1</v>
-      </c>
-      <c r="G27" s="42">
-        <v>1</v>
-      </c>
-      <c r="H27" s="42">
-        <v>1</v>
-      </c>
-      <c r="I27" s="62" t="s">
+      <c r="B27" s="34"/>
+      <c r="C27" s="48">
+        <v>1</v>
+      </c>
+      <c r="D27" s="48">
+        <v>1</v>
+      </c>
+      <c r="E27" s="48">
+        <v>1</v>
+      </c>
+      <c r="F27" s="48">
+        <v>1</v>
+      </c>
+      <c r="G27" s="48">
+        <v>1</v>
+      </c>
+      <c r="H27" s="48">
+        <v>1</v>
+      </c>
+      <c r="I27" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="34" t="s">
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="R27" s="59"/>
-      <c r="S27" s="59"/>
-      <c r="T27" s="59"/>
-      <c r="U27" s="59"/>
-      <c r="V27" s="59"/>
+      <c r="R27" s="65"/>
+      <c r="S27" s="65"/>
+      <c r="T27" s="65"/>
+      <c r="U27" s="65"/>
+      <c r="V27" s="65"/>
     </row>
     <row r="28" spans="2:22">
-      <c r="B28" s="28"/>
-      <c r="C28" s="43">
-        <v>1</v>
-      </c>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" s="44"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="63" t="s">
+      <c r="B28" s="34"/>
+      <c r="C28" s="49">
+        <v>1</v>
+      </c>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="50"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="33"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36" t="s">
+      <c r="M28" s="39"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="59"/>
-      <c r="T28" s="59"/>
-      <c r="U28" s="59"/>
-      <c r="V28" s="59"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="65"/>
+      <c r="T28" s="65"/>
+      <c r="U28" s="65"/>
+      <c r="V28" s="65"/>
     </row>
     <row r="29" spans="2:22">
-      <c r="B29" s="28"/>
-      <c r="C29" s="42">
-        <v>1</v>
-      </c>
-      <c r="D29" s="44"/>
-      <c r="E29" s="47" t="s">
+      <c r="B29" s="34"/>
+      <c r="C29" s="48">
+        <v>1</v>
+      </c>
+      <c r="D29" s="50"/>
+      <c r="E29" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="F29" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="49" t="s">
+      <c r="F29" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="H29" s="44"/>
-      <c r="I29" s="42">
-        <v>1</v>
-      </c>
-      <c r="M29" s="37" t="s">
+      <c r="H29" s="50"/>
+      <c r="I29" s="48">
+        <v>1</v>
+      </c>
+      <c r="M29" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="N29" s="64" t="s">
+      <c r="N29" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="O29" s="65" t="s">
+      <c r="O29" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="P29" s="66" t="s">
+      <c r="P29" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="Q29" s="37" t="s">
+      <c r="Q29" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="R29" s="59"/>
-      <c r="S29" s="59"/>
-      <c r="T29" s="59"/>
-      <c r="U29" s="59"/>
-      <c r="V29" s="59"/>
+      <c r="R29" s="65"/>
+      <c r="S29" s="65"/>
+      <c r="T29" s="65"/>
+      <c r="U29" s="65"/>
+      <c r="V29" s="65"/>
     </row>
     <row r="30" spans="2:22">
-      <c r="B30" s="28"/>
-      <c r="C30" s="42">
-        <v>1</v>
-      </c>
-      <c r="D30" s="50"/>
-      <c r="E30" s="47" t="s">
+      <c r="B30" s="34"/>
+      <c r="C30" s="48">
+        <v>1</v>
+      </c>
+      <c r="D30" s="56"/>
+      <c r="E30" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="F30" s="48" t="s">
+      <c r="F30" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="47" t="s">
+      <c r="G30" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="H30" s="50"/>
-      <c r="I30" s="42">
-        <v>1</v>
-      </c>
-      <c r="M30" s="38"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36" t="s">
+      <c r="H30" s="56"/>
+      <c r="I30" s="48">
+        <v>1</v>
+      </c>
+      <c r="M30" s="44"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="59"/>
-      <c r="S30" s="59"/>
-      <c r="T30" s="59"/>
-      <c r="U30" s="59"/>
-      <c r="V30" s="59"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="65"/>
+      <c r="S30" s="65"/>
+      <c r="T30" s="65"/>
+      <c r="U30" s="65"/>
+      <c r="V30" s="65"/>
     </row>
     <row r="31" spans="2:22">
-      <c r="B31" s="28"/>
-      <c r="C31" s="42">
-        <v>1</v>
-      </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="47" t="s">
+      <c r="B31" s="34"/>
+      <c r="C31" s="48">
+        <v>1</v>
+      </c>
+      <c r="D31" s="56"/>
+      <c r="E31" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="51" t="s">
+      <c r="F31" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="G31" s="49" t="s">
+      <c r="G31" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="H31" s="50"/>
-      <c r="I31" s="67">
-        <v>1</v>
-      </c>
-      <c r="M31" s="37" t="s">
+      <c r="H31" s="56"/>
+      <c r="I31" s="73">
+        <v>1</v>
+      </c>
+      <c r="M31" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="59"/>
-      <c r="V31" s="59"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="65"/>
+      <c r="S31" s="65"/>
+      <c r="T31" s="65"/>
+      <c r="U31" s="65"/>
+      <c r="V31" s="65"/>
     </row>
     <row r="32" spans="2:22">
-      <c r="B32" s="28"/>
-      <c r="C32" s="42">
-        <v>1</v>
-      </c>
-      <c r="D32" s="50"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="48" t="s">
+      <c r="B32" s="34"/>
+      <c r="C32" s="48">
+        <v>1</v>
+      </c>
+      <c r="D32" s="56"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="42">
-        <v>1</v>
-      </c>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="59"/>
-      <c r="S32" s="59"/>
-      <c r="T32" s="59"/>
-      <c r="U32" s="59"/>
-      <c r="V32" s="59"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="48">
+        <v>1</v>
+      </c>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="65"/>
+      <c r="S32" s="65"/>
+      <c r="T32" s="65"/>
+      <c r="U32" s="65"/>
+      <c r="V32" s="65"/>
     </row>
     <row r="33" spans="2:22">
-      <c r="B33" s="28"/>
-      <c r="C33" s="52">
-        <v>1</v>
-      </c>
-      <c r="D33" s="42">
-        <v>1</v>
-      </c>
-      <c r="E33" s="42">
-        <v>1</v>
-      </c>
-      <c r="F33" s="42">
-        <v>1</v>
-      </c>
-      <c r="G33" s="42">
-        <v>1</v>
-      </c>
-      <c r="H33" s="42">
-        <v>1</v>
-      </c>
-      <c r="I33" s="42">
-        <v>1</v>
-      </c>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="59"/>
-      <c r="T33" s="59"/>
-      <c r="U33" s="59"/>
-      <c r="V33" s="59"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="58">
+        <v>1</v>
+      </c>
+      <c r="D33" s="48">
+        <v>1</v>
+      </c>
+      <c r="E33" s="48">
+        <v>1</v>
+      </c>
+      <c r="F33" s="48">
+        <v>1</v>
+      </c>
+      <c r="G33" s="48">
+        <v>1</v>
+      </c>
+      <c r="H33" s="48">
+        <v>1</v>
+      </c>
+      <c r="I33" s="48">
+        <v>1</v>
+      </c>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="65"/>
+      <c r="S33" s="65"/>
+      <c r="T33" s="65"/>
+      <c r="U33" s="65"/>
+      <c r="V33" s="65"/>
     </row>
     <row r="34" spans="2:22">
-      <c r="B34" s="28"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="59"/>
-      <c r="S34" s="59"/>
-      <c r="T34" s="59"/>
-      <c r="U34" s="59"/>
-      <c r="V34" s="59"/>
+      <c r="B34" s="34"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="65"/>
+      <c r="S34" s="65"/>
+      <c r="T34" s="65"/>
+      <c r="U34" s="65"/>
+      <c r="V34" s="65"/>
     </row>
     <row r="35" spans="2:22">
-      <c r="B35" s="28"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="59"/>
-      <c r="S35" s="59"/>
-      <c r="T35" s="59"/>
-      <c r="U35" s="59"/>
-      <c r="V35" s="59"/>
+      <c r="B35" s="34"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="65"/>
+      <c r="S35" s="65"/>
+      <c r="T35" s="65"/>
+      <c r="U35" s="65"/>
+      <c r="V35" s="65"/>
     </row>
     <row r="36" spans="2:22">
-      <c r="B36" s="28"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="59"/>
-      <c r="S36" s="59"/>
-      <c r="T36" s="59"/>
-      <c r="U36" s="59"/>
-      <c r="V36" s="59"/>
+      <c r="B36" s="34"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="65"/>
+      <c r="S36" s="65"/>
+      <c r="T36" s="65"/>
+      <c r="U36" s="65"/>
+      <c r="V36" s="65"/>
     </row>
     <row r="37" spans="2:22">
-      <c r="B37" s="28"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="59"/>
-      <c r="S37" s="59"/>
-      <c r="T37" s="59"/>
-      <c r="U37" s="59"/>
-      <c r="V37" s="59"/>
+      <c r="B37" s="34"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="65"/>
+      <c r="S37" s="65"/>
+      <c r="T37" s="65"/>
+      <c r="U37" s="65"/>
+      <c r="V37" s="65"/>
     </row>
     <row r="38" spans="14:22">
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="59"/>
-      <c r="S38" s="59"/>
-      <c r="T38" s="59"/>
-      <c r="U38" s="59"/>
-      <c r="V38" s="59"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="65"/>
+      <c r="S38" s="65"/>
+      <c r="T38" s="65"/>
+      <c r="U38" s="65"/>
+      <c r="V38" s="65"/>
     </row>
     <row r="39" spans="14:22">
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="30"/>
-      <c r="S39" s="30"/>
-      <c r="T39" s="30"/>
-      <c r="U39" s="30"/>
-      <c r="V39" s="30"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="36"/>
+      <c r="T39" s="36"/>
+      <c r="U39" s="36"/>
+      <c r="V39" s="36"/>
     </row>
     <row r="40" spans="2:14">
-      <c r="B40" s="42">
-        <v>1</v>
-      </c>
-      <c r="C40" s="42">
-        <v>1</v>
-      </c>
-      <c r="D40" s="42">
-        <v>1</v>
-      </c>
-      <c r="E40" s="42">
-        <v>1</v>
-      </c>
-      <c r="F40" s="42">
-        <v>1</v>
-      </c>
-      <c r="G40" s="42">
-        <v>1</v>
-      </c>
-      <c r="H40" s="42">
-        <v>1</v>
-      </c>
-      <c r="I40" s="42">
-        <v>1</v>
-      </c>
-      <c r="J40" s="42">
-        <v>1</v>
-      </c>
-      <c r="K40" s="42">
-        <v>1</v>
-      </c>
-      <c r="L40" s="42">
-        <v>1</v>
-      </c>
-      <c r="M40" s="42">
-        <v>1</v>
-      </c>
-      <c r="N40" s="62" t="s">
+      <c r="B40" s="48">
+        <v>1</v>
+      </c>
+      <c r="C40" s="48">
+        <v>1</v>
+      </c>
+      <c r="D40" s="48">
+        <v>1</v>
+      </c>
+      <c r="E40" s="48">
+        <v>1</v>
+      </c>
+      <c r="F40" s="48">
+        <v>1</v>
+      </c>
+      <c r="G40" s="48">
+        <v>1</v>
+      </c>
+      <c r="H40" s="48">
+        <v>1</v>
+      </c>
+      <c r="I40" s="48">
+        <v>1</v>
+      </c>
+      <c r="J40" s="48">
+        <v>1</v>
+      </c>
+      <c r="K40" s="48">
+        <v>1</v>
+      </c>
+      <c r="L40" s="48">
+        <v>1</v>
+      </c>
+      <c r="M40" s="48">
+        <v>1</v>
+      </c>
+      <c r="N40" s="68" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="41" spans="2:14">
-      <c r="B41" s="43">
-        <v>1</v>
-      </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="34" t="s">
+      <c r="B41" s="49">
+        <v>1</v>
+      </c>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="H41" s="43">
-        <v>1</v>
-      </c>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="34" t="s">
+      <c r="H41" s="49">
+        <v>1</v>
+      </c>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="N41" s="63" t="s">
+      <c r="N41" s="69" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="42" spans="2:14">
-      <c r="B42" s="42">
-        <v>1</v>
-      </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="E42" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="F42" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G42" s="33"/>
-      <c r="H42" s="42">
-        <v>1</v>
-      </c>
-      <c r="I42" s="33"/>
-      <c r="J42" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K42" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="L42" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="M42" s="33"/>
-      <c r="N42" s="42">
+      <c r="B42" s="48">
+        <v>1</v>
+      </c>
+      <c r="C42" s="39"/>
+      <c r="D42" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="G42" s="39"/>
+      <c r="H42" s="48">
+        <v>1</v>
+      </c>
+      <c r="I42" s="39"/>
+      <c r="J42" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="K42" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="L42" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="M42" s="39"/>
+      <c r="N42" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="2:14">
-      <c r="B43" s="42">
-        <v>1</v>
-      </c>
-      <c r="C43" s="37" t="s">
+      <c r="B43" s="48">
+        <v>1</v>
+      </c>
+      <c r="C43" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="E43" s="36" t="s">
+      <c r="D43" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G43" s="37" t="s">
+      <c r="F43" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="H43" s="42">
-        <v>1</v>
-      </c>
-      <c r="I43" s="37" t="s">
+      <c r="H43" s="48">
+        <v>1</v>
+      </c>
+      <c r="I43" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="J43" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K43" s="36" t="s">
+      <c r="J43" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="K43" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="L43" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="M43" s="37" t="s">
+      <c r="L43" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="M43" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="N43" s="42">
+      <c r="N43" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="2:14">
-      <c r="B44" s="42">
-        <v>1</v>
-      </c>
-      <c r="C44" s="38"/>
-      <c r="D44" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="E44" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="F44" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G44" s="38"/>
-      <c r="H44" s="42">
-        <v>1</v>
-      </c>
-      <c r="I44" s="38"/>
-      <c r="J44" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K44" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="L44" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="M44" s="38"/>
-      <c r="N44" s="67">
+      <c r="B44" s="48">
+        <v>1</v>
+      </c>
+      <c r="C44" s="44"/>
+      <c r="D44" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="G44" s="44"/>
+      <c r="H44" s="48">
+        <v>1</v>
+      </c>
+      <c r="I44" s="44"/>
+      <c r="J44" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="K44" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="L44" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="M44" s="44"/>
+      <c r="N44" s="73">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="2:14">
-      <c r="B45" s="42">
-        <v>1</v>
-      </c>
-      <c r="C45" s="37" t="s">
+      <c r="B45" s="48">
+        <v>1</v>
+      </c>
+      <c r="C45" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="42">
-        <v>1</v>
-      </c>
-      <c r="I45" s="37" t="s">
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="48">
+        <v>1</v>
+      </c>
+      <c r="I45" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="42">
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="2:14">
-      <c r="B46" s="42">
-        <v>1</v>
-      </c>
-      <c r="C46" s="42">
-        <v>1</v>
-      </c>
-      <c r="D46" s="42">
-        <v>1</v>
-      </c>
-      <c r="E46" s="42">
-        <v>1</v>
-      </c>
-      <c r="F46" s="42">
-        <v>1</v>
-      </c>
-      <c r="G46" s="42">
-        <v>1</v>
-      </c>
-      <c r="H46" s="42">
-        <v>1</v>
-      </c>
-      <c r="I46" s="42">
-        <v>1</v>
-      </c>
-      <c r="J46" s="42">
-        <v>1</v>
-      </c>
-      <c r="K46" s="42">
-        <v>1</v>
-      </c>
-      <c r="L46" s="42">
-        <v>1</v>
-      </c>
-      <c r="M46" s="42">
-        <v>1</v>
-      </c>
-      <c r="N46" s="62" t="s">
+      <c r="B46" s="48">
+        <v>1</v>
+      </c>
+      <c r="C46" s="48">
+        <v>1</v>
+      </c>
+      <c r="D46" s="48">
+        <v>1</v>
+      </c>
+      <c r="E46" s="48">
+        <v>1</v>
+      </c>
+      <c r="F46" s="48">
+        <v>1</v>
+      </c>
+      <c r="G46" s="48">
+        <v>1</v>
+      </c>
+      <c r="H46" s="48">
+        <v>1</v>
+      </c>
+      <c r="I46" s="48">
+        <v>1</v>
+      </c>
+      <c r="J46" s="48">
+        <v>1</v>
+      </c>
+      <c r="K46" s="48">
+        <v>1</v>
+      </c>
+      <c r="L46" s="48">
+        <v>1</v>
+      </c>
+      <c r="M46" s="48">
+        <v>1</v>
+      </c>
+      <c r="N46" s="68" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="47" spans="2:14">
-      <c r="B47" s="43">
-        <v>1</v>
-      </c>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="34" t="s">
+      <c r="B47" s="49">
+        <v>1</v>
+      </c>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="H47" s="43">
-        <v>1</v>
-      </c>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="33"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="34" t="s">
+      <c r="H47" s="49">
+        <v>1</v>
+      </c>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="N47" s="63" t="s">
+      <c r="N47" s="69" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="48" spans="2:14">
-      <c r="B48" s="42">
-        <v>1</v>
-      </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="E48" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="F48" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G48" s="33"/>
-      <c r="H48" s="42">
-        <v>1</v>
-      </c>
-      <c r="I48" s="33"/>
-      <c r="J48" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K48" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="L48" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="M48" s="33"/>
-      <c r="N48" s="42">
+      <c r="B48" s="48">
+        <v>1</v>
+      </c>
+      <c r="C48" s="39"/>
+      <c r="D48" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="G48" s="39"/>
+      <c r="H48" s="48">
+        <v>1</v>
+      </c>
+      <c r="I48" s="39"/>
+      <c r="J48" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="K48" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="L48" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="M48" s="39"/>
+      <c r="N48" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="2:14">
-      <c r="B49" s="42">
-        <v>1</v>
-      </c>
-      <c r="C49" s="37" t="s">
+      <c r="B49" s="48">
+        <v>1</v>
+      </c>
+      <c r="C49" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D49" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="E49" s="36" t="s">
+      <c r="D49" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E49" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F49" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G49" s="37" t="s">
+      <c r="F49" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="G49" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="H49" s="42">
-        <v>1</v>
-      </c>
-      <c r="I49" s="37" t="s">
+      <c r="H49" s="48">
+        <v>1</v>
+      </c>
+      <c r="I49" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="J49" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K49" s="36" t="s">
+      <c r="J49" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="K49" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="L49" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="M49" s="37" t="s">
+      <c r="L49" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="M49" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="N49" s="42">
+      <c r="N49" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="2:14">
-      <c r="B50" s="42">
-        <v>1</v>
-      </c>
-      <c r="C50" s="38"/>
-      <c r="D50" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="E50" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="F50" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G50" s="38"/>
-      <c r="H50" s="42">
-        <v>1</v>
-      </c>
-      <c r="I50" s="38"/>
-      <c r="J50" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="K50" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="L50" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="M50" s="38"/>
-      <c r="N50" s="67">
+      <c r="B50" s="48">
+        <v>1</v>
+      </c>
+      <c r="C50" s="44"/>
+      <c r="D50" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="G50" s="44"/>
+      <c r="H50" s="48">
+        <v>1</v>
+      </c>
+      <c r="I50" s="44"/>
+      <c r="J50" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="K50" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="L50" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="M50" s="44"/>
+      <c r="N50" s="73">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="2:14">
-      <c r="B51" s="42">
-        <v>1</v>
-      </c>
-      <c r="C51" s="37" t="s">
+      <c r="B51" s="48">
+        <v>1</v>
+      </c>
+      <c r="C51" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="42">
-        <v>1</v>
-      </c>
-      <c r="I51" s="37" t="s">
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="48">
+        <v>1</v>
+      </c>
+      <c r="I51" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="J51" s="38"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="38"/>
-      <c r="M51" s="38"/>
-      <c r="N51" s="42">
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="44"/>
+      <c r="N51" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="2:14">
-      <c r="B52" s="52">
-        <v>1</v>
-      </c>
-      <c r="C52" s="42">
-        <v>1</v>
-      </c>
-      <c r="D52" s="42">
-        <v>1</v>
-      </c>
-      <c r="E52" s="42">
-        <v>1</v>
-      </c>
-      <c r="F52" s="42">
-        <v>1</v>
-      </c>
-      <c r="G52" s="42">
-        <v>1</v>
-      </c>
-      <c r="H52" s="52">
-        <v>1</v>
-      </c>
-      <c r="I52" s="42">
-        <v>1</v>
-      </c>
-      <c r="J52" s="42">
-        <v>1</v>
-      </c>
-      <c r="K52" s="42">
-        <v>1</v>
-      </c>
-      <c r="L52" s="42">
-        <v>1</v>
-      </c>
-      <c r="M52" s="42">
-        <v>1</v>
-      </c>
-      <c r="N52" s="42">
+      <c r="B52" s="58">
+        <v>1</v>
+      </c>
+      <c r="C52" s="48">
+        <v>1</v>
+      </c>
+      <c r="D52" s="48">
+        <v>1</v>
+      </c>
+      <c r="E52" s="48">
+        <v>1</v>
+      </c>
+      <c r="F52" s="48">
+        <v>1</v>
+      </c>
+      <c r="G52" s="48">
+        <v>1</v>
+      </c>
+      <c r="H52" s="58">
+        <v>1</v>
+      </c>
+      <c r="I52" s="48">
+        <v>1</v>
+      </c>
+      <c r="J52" s="48">
+        <v>1</v>
+      </c>
+      <c r="K52" s="48">
+        <v>1</v>
+      </c>
+      <c r="L52" s="48">
+        <v>1</v>
+      </c>
+      <c r="M52" s="48">
+        <v>1</v>
+      </c>
+      <c r="N52" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="3:20">
-      <c r="C54" s="42">
-        <v>1</v>
-      </c>
-      <c r="D54" s="42">
-        <v>1</v>
-      </c>
-      <c r="E54" s="42">
-        <v>1</v>
-      </c>
-      <c r="F54" s="42">
-        <v>1</v>
-      </c>
-      <c r="G54" s="42">
-        <v>1</v>
-      </c>
-      <c r="H54" s="42">
-        <v>1</v>
-      </c>
-      <c r="I54" s="62" t="s">
+      <c r="C54" s="48">
+        <v>1</v>
+      </c>
+      <c r="D54" s="48">
+        <v>1</v>
+      </c>
+      <c r="E54" s="48">
+        <v>1</v>
+      </c>
+      <c r="F54" s="48">
+        <v>1</v>
+      </c>
+      <c r="G54" s="48">
+        <v>1</v>
+      </c>
+      <c r="H54" s="48">
+        <v>1</v>
+      </c>
+      <c r="I54" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="N54" s="42">
-        <v>1</v>
-      </c>
-      <c r="O54" s="42">
-        <v>1</v>
-      </c>
-      <c r="P54" s="42">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="42">
-        <v>1</v>
-      </c>
-      <c r="R54" s="42">
-        <v>1</v>
-      </c>
-      <c r="S54" s="42">
-        <v>1</v>
-      </c>
-      <c r="T54" s="62" t="s">
+      <c r="N54" s="48">
+        <v>1</v>
+      </c>
+      <c r="O54" s="48">
+        <v>1</v>
+      </c>
+      <c r="P54" s="48">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="48">
+        <v>1</v>
+      </c>
+      <c r="R54" s="48">
+        <v>1</v>
+      </c>
+      <c r="S54" s="48">
+        <v>1</v>
+      </c>
+      <c r="T54" s="68" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="55" spans="3:20">
-      <c r="C55" s="43">
-        <v>1</v>
-      </c>
-      <c r="D55" s="53" t="s">
+      <c r="C55" s="49">
+        <v>1</v>
+      </c>
+      <c r="D55" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="E55" s="53" t="s">
+      <c r="E55" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="F55" s="53" t="s">
+      <c r="F55" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="G55" s="53"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="63" t="s">
+      <c r="G55" s="59"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="N55" s="43">
-        <v>1</v>
-      </c>
-      <c r="O55" s="68"/>
-      <c r="P55" s="68"/>
-      <c r="Q55" s="68"/>
-      <c r="R55" s="68"/>
-      <c r="S55" s="76"/>
-      <c r="T55" s="63" t="s">
+      <c r="N55" s="49">
+        <v>1</v>
+      </c>
+      <c r="O55" s="74"/>
+      <c r="P55" s="74"/>
+      <c r="Q55" s="74"/>
+      <c r="R55" s="74"/>
+      <c r="S55" s="82"/>
+      <c r="T55" s="69" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="56" spans="3:20">
-      <c r="C56" s="42">
-        <v>1</v>
-      </c>
-      <c r="D56" s="53" t="s">
+      <c r="C56" s="48">
+        <v>1</v>
+      </c>
+      <c r="D56" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55" t="s">
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="H56" s="53"/>
-      <c r="I56" s="42">
-        <v>1</v>
-      </c>
-      <c r="N56" s="42">
-        <v>1</v>
-      </c>
-      <c r="O56" s="68"/>
-      <c r="P56" s="69" t="s">
+      <c r="H56" s="59"/>
+      <c r="I56" s="48">
+        <v>1</v>
+      </c>
+      <c r="N56" s="48">
+        <v>1</v>
+      </c>
+      <c r="O56" s="74"/>
+      <c r="P56" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="Q56" s="69" t="s">
+      <c r="Q56" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="R56" s="69"/>
-      <c r="S56" s="68"/>
-      <c r="T56" s="42">
+      <c r="R56" s="75"/>
+      <c r="S56" s="74"/>
+      <c r="T56" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="3:20">
-      <c r="C57" s="42">
-        <v>1</v>
-      </c>
-      <c r="D57" s="55" t="s">
+      <c r="C57" s="48">
+        <v>1</v>
+      </c>
+      <c r="D57" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55" t="s">
+      <c r="E57" s="61"/>
+      <c r="F57" s="61"/>
+      <c r="G57" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="H57" s="55"/>
-      <c r="I57" s="42">
-        <v>1</v>
-      </c>
-      <c r="N57" s="42">
-        <v>1</v>
-      </c>
-      <c r="O57" s="69"/>
-      <c r="P57" s="69" t="s">
+      <c r="H57" s="61"/>
+      <c r="I57" s="48">
+        <v>1</v>
+      </c>
+      <c r="N57" s="48">
+        <v>1</v>
+      </c>
+      <c r="O57" s="75"/>
+      <c r="P57" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="Q57" s="69"/>
-      <c r="R57" s="69" t="s">
+      <c r="Q57" s="75"/>
+      <c r="R57" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="S57" s="69"/>
-      <c r="T57" s="42">
+      <c r="S57" s="75"/>
+      <c r="T57" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="3:20">
-      <c r="C58" s="42">
-        <v>1</v>
-      </c>
-      <c r="D58" s="55"/>
-      <c r="E58" s="55" t="s">
+      <c r="C58" s="48">
+        <v>1</v>
+      </c>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="F58" s="55"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="55" t="s">
+      <c r="F58" s="61"/>
+      <c r="G58" s="61"/>
+      <c r="H58" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="I58" s="67">
-        <v>1</v>
-      </c>
-      <c r="N58" s="42">
-        <v>1</v>
-      </c>
-      <c r="O58" s="69"/>
-      <c r="P58" s="69"/>
-      <c r="Q58" s="69" t="s">
+      <c r="I58" s="73">
+        <v>1</v>
+      </c>
+      <c r="N58" s="48">
+        <v>1</v>
+      </c>
+      <c r="O58" s="75"/>
+      <c r="P58" s="75"/>
+      <c r="Q58" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="R58" s="69" t="s">
+      <c r="R58" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="S58" s="69"/>
-      <c r="T58" s="67">
+      <c r="S58" s="75"/>
+      <c r="T58" s="73">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="3:20">
-      <c r="C59" s="42">
-        <v>1</v>
-      </c>
-      <c r="D59" s="55"/>
-      <c r="E59" s="53"/>
-      <c r="F59" s="53" t="s">
+      <c r="C59" s="48">
+        <v>1</v>
+      </c>
+      <c r="D59" s="61"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="G59" s="53" t="s">
+      <c r="G59" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="H59" s="53" t="s">
+      <c r="H59" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="I59" s="42">
-        <v>1</v>
-      </c>
-      <c r="N59" s="42">
-        <v>1</v>
-      </c>
-      <c r="O59" s="69"/>
-      <c r="P59" s="69"/>
-      <c r="Q59" s="69"/>
-      <c r="R59" s="69"/>
-      <c r="S59" s="69"/>
-      <c r="T59" s="42">
+      <c r="I59" s="48">
+        <v>1</v>
+      </c>
+      <c r="N59" s="48">
+        <v>1</v>
+      </c>
+      <c r="O59" s="75"/>
+      <c r="P59" s="75"/>
+      <c r="Q59" s="75"/>
+      <c r="R59" s="75"/>
+      <c r="S59" s="75"/>
+      <c r="T59" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="3:20">
-      <c r="C60" s="52">
-        <v>1</v>
-      </c>
-      <c r="D60" s="42">
-        <v>1</v>
-      </c>
-      <c r="E60" s="42">
-        <v>1</v>
-      </c>
-      <c r="F60" s="42">
-        <v>1</v>
-      </c>
-      <c r="G60" s="42">
-        <v>1</v>
-      </c>
-      <c r="H60" s="42">
-        <v>1</v>
-      </c>
-      <c r="I60" s="42">
-        <v>1</v>
-      </c>
-      <c r="N60" s="52">
-        <v>1</v>
-      </c>
-      <c r="O60" s="42">
-        <v>1</v>
-      </c>
-      <c r="P60" s="42">
-        <v>1</v>
-      </c>
-      <c r="Q60" s="42">
-        <v>1</v>
-      </c>
-      <c r="R60" s="42">
-        <v>1</v>
-      </c>
-      <c r="S60" s="42">
-        <v>1</v>
-      </c>
-      <c r="T60" s="42">
+      <c r="C60" s="58">
+        <v>1</v>
+      </c>
+      <c r="D60" s="48">
+        <v>1</v>
+      </c>
+      <c r="E60" s="48">
+        <v>1</v>
+      </c>
+      <c r="F60" s="48">
+        <v>1</v>
+      </c>
+      <c r="G60" s="48">
+        <v>1</v>
+      </c>
+      <c r="H60" s="48">
+        <v>1</v>
+      </c>
+      <c r="I60" s="48">
+        <v>1</v>
+      </c>
+      <c r="N60" s="58">
+        <v>1</v>
+      </c>
+      <c r="O60" s="48">
+        <v>1</v>
+      </c>
+      <c r="P60" s="48">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="48">
+        <v>1</v>
+      </c>
+      <c r="R60" s="48">
+        <v>1</v>
+      </c>
+      <c r="S60" s="48">
+        <v>1</v>
+      </c>
+      <c r="T60" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="3:20">
-      <c r="C62" s="42">
-        <v>1</v>
-      </c>
-      <c r="D62" s="42">
-        <v>1</v>
-      </c>
-      <c r="E62" s="42">
-        <v>1</v>
-      </c>
-      <c r="F62" s="42">
-        <v>1</v>
-      </c>
-      <c r="G62" s="42">
-        <v>1</v>
-      </c>
-      <c r="H62" s="42">
-        <v>1</v>
-      </c>
-      <c r="I62" s="62" t="s">
+      <c r="C62" s="48">
+        <v>1</v>
+      </c>
+      <c r="D62" s="48">
+        <v>1</v>
+      </c>
+      <c r="E62" s="48">
+        <v>1</v>
+      </c>
+      <c r="F62" s="48">
+        <v>1</v>
+      </c>
+      <c r="G62" s="48">
+        <v>1</v>
+      </c>
+      <c r="H62" s="48">
+        <v>1</v>
+      </c>
+      <c r="I62" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="N62" s="42">
-        <v>1</v>
-      </c>
-      <c r="O62" s="42">
-        <v>1</v>
-      </c>
-      <c r="P62" s="42">
-        <v>1</v>
-      </c>
-      <c r="Q62" s="42">
-        <v>1</v>
-      </c>
-      <c r="R62" s="42">
-        <v>1</v>
-      </c>
-      <c r="S62" s="42">
-        <v>1</v>
-      </c>
-      <c r="T62" s="62" t="s">
+      <c r="N62" s="48">
+        <v>1</v>
+      </c>
+      <c r="O62" s="48">
+        <v>1</v>
+      </c>
+      <c r="P62" s="48">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="48">
+        <v>1</v>
+      </c>
+      <c r="R62" s="48">
+        <v>1</v>
+      </c>
+      <c r="S62" s="48">
+        <v>1</v>
+      </c>
+      <c r="T62" s="68" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="63" spans="3:20">
-      <c r="C63" s="43">
-        <v>1</v>
-      </c>
-      <c r="D63" s="44"/>
-      <c r="E63" s="44"/>
-      <c r="F63" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="G63" s="44"/>
-      <c r="H63" s="46"/>
-      <c r="I63" s="63" t="s">
+      <c r="C63" s="49">
+        <v>1</v>
+      </c>
+      <c r="D63" s="50"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="G63" s="50"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="N63" s="43">
-        <v>1</v>
-      </c>
-      <c r="O63" s="44"/>
-      <c r="P63" s="44"/>
-      <c r="Q63" s="44"/>
-      <c r="R63" s="44"/>
-      <c r="S63" s="46"/>
-      <c r="T63" s="63" t="s">
+      <c r="N63" s="49">
+        <v>1</v>
+      </c>
+      <c r="O63" s="50"/>
+      <c r="P63" s="50"/>
+      <c r="Q63" s="50"/>
+      <c r="R63" s="50"/>
+      <c r="S63" s="52"/>
+      <c r="T63" s="69" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="64" spans="3:20">
-      <c r="C64" s="42">
-        <v>1</v>
-      </c>
-      <c r="D64" s="44"/>
-      <c r="E64" s="56" t="s">
+      <c r="C64" s="48">
+        <v>1</v>
+      </c>
+      <c r="D64" s="50"/>
+      <c r="E64" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="F64" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="G64" s="57" t="s">
+      <c r="F64" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="G64" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="H64" s="44"/>
-      <c r="I64" s="42">
-        <v>1</v>
-      </c>
-      <c r="N64" s="42">
-        <v>1</v>
-      </c>
-      <c r="O64" s="44"/>
-      <c r="P64" s="56"/>
-      <c r="Q64" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="R64" s="57"/>
-      <c r="S64" s="44"/>
-      <c r="T64" s="42">
+      <c r="H64" s="50"/>
+      <c r="I64" s="48">
+        <v>1</v>
+      </c>
+      <c r="N64" s="48">
+        <v>1</v>
+      </c>
+      <c r="O64" s="50"/>
+      <c r="P64" s="62"/>
+      <c r="Q64" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="R64" s="63"/>
+      <c r="S64" s="50"/>
+      <c r="T64" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="3:20">
-      <c r="C65" s="42">
-        <v>1</v>
-      </c>
-      <c r="D65" s="50"/>
-      <c r="E65" s="56" t="s">
+      <c r="C65" s="48">
+        <v>1</v>
+      </c>
+      <c r="D65" s="56"/>
+      <c r="E65" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="F65" s="50" t="s">
+      <c r="F65" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="G65" s="56" t="s">
+      <c r="G65" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="H65" s="50"/>
-      <c r="I65" s="42">
-        <v>1</v>
-      </c>
-      <c r="N65" s="42">
-        <v>1</v>
-      </c>
-      <c r="O65" s="50"/>
-      <c r="P65" s="56" t="s">
+      <c r="H65" s="56"/>
+      <c r="I65" s="48">
+        <v>1</v>
+      </c>
+      <c r="N65" s="48">
+        <v>1</v>
+      </c>
+      <c r="O65" s="56"/>
+      <c r="P65" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="Q65" s="50" t="s">
+      <c r="Q65" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="R65" s="57" t="s">
+      <c r="R65" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="S65" s="50"/>
-      <c r="T65" s="42">
+      <c r="S65" s="56"/>
+      <c r="T65" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="3:20">
-      <c r="C66" s="42">
-        <v>1</v>
-      </c>
-      <c r="D66" s="50"/>
-      <c r="E66" s="56" t="s">
+      <c r="C66" s="48">
+        <v>1</v>
+      </c>
+      <c r="D66" s="56"/>
+      <c r="E66" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="F66" s="85" t="s">
+      <c r="F66" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="G66" s="57" t="s">
+      <c r="G66" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="H66" s="50"/>
-      <c r="I66" s="67">
-        <v>1</v>
-      </c>
-      <c r="N66" s="42">
-        <v>1</v>
-      </c>
-      <c r="O66" s="50"/>
-      <c r="P66" s="56"/>
-      <c r="Q66" s="85" t="s">
+      <c r="H66" s="56"/>
+      <c r="I66" s="73">
+        <v>1</v>
+      </c>
+      <c r="N66" s="48">
+        <v>1</v>
+      </c>
+      <c r="O66" s="56"/>
+      <c r="P66" s="62"/>
+      <c r="Q66" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="R66" s="57"/>
-      <c r="S66" s="50"/>
-      <c r="T66" s="67">
+      <c r="R66" s="63"/>
+      <c r="S66" s="56"/>
+      <c r="T66" s="73">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="3:20">
-      <c r="C67" s="42">
-        <v>1</v>
-      </c>
-      <c r="D67" s="50"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="50" t="s">
+      <c r="C67" s="48">
+        <v>1</v>
+      </c>
+      <c r="D67" s="56"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="G67" s="44"/>
-      <c r="H67" s="44"/>
-      <c r="I67" s="42">
-        <v>1</v>
-      </c>
-      <c r="N67" s="42">
-        <v>1</v>
-      </c>
-      <c r="O67" s="50"/>
-      <c r="P67" s="44"/>
-      <c r="Q67" s="50"/>
-      <c r="R67" s="44"/>
-      <c r="S67" s="44"/>
-      <c r="T67" s="42">
+      <c r="G67" s="50"/>
+      <c r="H67" s="50"/>
+      <c r="I67" s="48">
+        <v>1</v>
+      </c>
+      <c r="N67" s="48">
+        <v>1</v>
+      </c>
+      <c r="O67" s="56"/>
+      <c r="P67" s="50"/>
+      <c r="Q67" s="56"/>
+      <c r="R67" s="50"/>
+      <c r="S67" s="50"/>
+      <c r="T67" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="3:20">
-      <c r="C68" s="52">
-        <v>1</v>
-      </c>
-      <c r="D68" s="42">
-        <v>1</v>
-      </c>
-      <c r="E68" s="42">
-        <v>1</v>
-      </c>
-      <c r="F68" s="42">
-        <v>1</v>
-      </c>
-      <c r="G68" s="42">
-        <v>1</v>
-      </c>
-      <c r="H68" s="42">
-        <v>1</v>
-      </c>
-      <c r="I68" s="42">
-        <v>1</v>
-      </c>
-      <c r="N68" s="52">
-        <v>1</v>
-      </c>
-      <c r="O68" s="42">
-        <v>1</v>
-      </c>
-      <c r="P68" s="42">
-        <v>1</v>
-      </c>
-      <c r="Q68" s="42">
-        <v>1</v>
-      </c>
-      <c r="R68" s="42">
-        <v>1</v>
-      </c>
-      <c r="S68" s="42">
-        <v>1</v>
-      </c>
-      <c r="T68" s="42">
+      <c r="C68" s="58">
+        <v>1</v>
+      </c>
+      <c r="D68" s="48">
+        <v>1</v>
+      </c>
+      <c r="E68" s="48">
+        <v>1</v>
+      </c>
+      <c r="F68" s="48">
+        <v>1</v>
+      </c>
+      <c r="G68" s="48">
+        <v>1</v>
+      </c>
+      <c r="H68" s="48">
+        <v>1</v>
+      </c>
+      <c r="I68" s="48">
+        <v>1</v>
+      </c>
+      <c r="N68" s="58">
+        <v>1</v>
+      </c>
+      <c r="O68" s="48">
+        <v>1</v>
+      </c>
+      <c r="P68" s="48">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="48">
+        <v>1</v>
+      </c>
+      <c r="R68" s="48">
+        <v>1</v>
+      </c>
+      <c r="S68" s="48">
+        <v>1</v>
+      </c>
+      <c r="T68" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="3:9">
-      <c r="C70" s="42">
-        <v>1</v>
-      </c>
-      <c r="D70" s="42">
-        <v>1</v>
-      </c>
-      <c r="E70" s="42">
-        <v>1</v>
-      </c>
-      <c r="F70" s="42">
-        <v>1</v>
-      </c>
-      <c r="G70" s="42">
-        <v>1</v>
-      </c>
-      <c r="H70" s="42">
-        <v>1</v>
-      </c>
-      <c r="I70" s="62" t="s">
+      <c r="C70" s="48">
+        <v>1</v>
+      </c>
+      <c r="D70" s="48">
+        <v>1</v>
+      </c>
+      <c r="E70" s="48">
+        <v>1</v>
+      </c>
+      <c r="F70" s="48">
+        <v>1</v>
+      </c>
+      <c r="G70" s="48">
+        <v>1</v>
+      </c>
+      <c r="H70" s="48">
+        <v>1</v>
+      </c>
+      <c r="I70" s="68" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="71" spans="3:9">
-      <c r="C71" s="43">
-        <v>1</v>
-      </c>
-      <c r="D71" s="68"/>
-      <c r="E71" s="68"/>
-      <c r="F71" s="68"/>
-      <c r="G71" s="68"/>
-      <c r="H71" s="76"/>
-      <c r="I71" s="63" t="s">
+      <c r="C71" s="49">
+        <v>1</v>
+      </c>
+      <c r="D71" s="74"/>
+      <c r="E71" s="74"/>
+      <c r="F71" s="74"/>
+      <c r="G71" s="74"/>
+      <c r="H71" s="82"/>
+      <c r="I71" s="69" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="72" spans="3:9">
-      <c r="C72" s="42">
-        <v>1</v>
-      </c>
-      <c r="D72" s="68"/>
-      <c r="E72" s="69"/>
-      <c r="F72" s="69" t="s">
+      <c r="C72" s="48">
+        <v>1</v>
+      </c>
+      <c r="D72" s="74"/>
+      <c r="E72" s="75"/>
+      <c r="F72" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="G72" s="69"/>
-      <c r="H72" s="68"/>
-      <c r="I72" s="42">
+      <c r="G72" s="75"/>
+      <c r="H72" s="74"/>
+      <c r="I72" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="3:9">
-      <c r="C73" s="42">
-        <v>1</v>
-      </c>
-      <c r="D73" s="69"/>
-      <c r="E73" s="69" t="s">
+      <c r="C73" s="48">
+        <v>1</v>
+      </c>
+      <c r="D73" s="75"/>
+      <c r="E73" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="F73" s="69"/>
-      <c r="G73" s="69" t="s">
+      <c r="F73" s="75"/>
+      <c r="G73" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="H73" s="69"/>
-      <c r="I73" s="42">
+      <c r="H73" s="75"/>
+      <c r="I73" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="3:9">
-      <c r="C74" s="42">
-        <v>1</v>
-      </c>
-      <c r="D74" s="69"/>
-      <c r="E74" s="69" t="s">
+      <c r="C74" s="48">
+        <v>1</v>
+      </c>
+      <c r="D74" s="75"/>
+      <c r="E74" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="F74" s="69" t="s">
+      <c r="F74" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="G74" s="69" t="s">
+      <c r="G74" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="H74" s="69"/>
-      <c r="I74" s="67">
+      <c r="H74" s="75"/>
+      <c r="I74" s="73">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="3:9">
-      <c r="C75" s="42">
-        <v>1</v>
-      </c>
-      <c r="D75" s="69"/>
-      <c r="E75" s="69"/>
-      <c r="F75" s="69"/>
-      <c r="G75" s="69"/>
-      <c r="H75" s="69"/>
-      <c r="I75" s="42">
+      <c r="C75" s="48">
+        <v>1</v>
+      </c>
+      <c r="D75" s="75"/>
+      <c r="E75" s="75"/>
+      <c r="F75" s="75"/>
+      <c r="G75" s="75"/>
+      <c r="H75" s="75"/>
+      <c r="I75" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="3:9">
-      <c r="C76" s="52">
-        <v>1</v>
-      </c>
-      <c r="D76" s="42">
-        <v>1</v>
-      </c>
-      <c r="E76" s="42">
-        <v>1</v>
-      </c>
-      <c r="F76" s="42">
-        <v>1</v>
-      </c>
-      <c r="G76" s="42">
-        <v>1</v>
-      </c>
-      <c r="H76" s="42">
-        <v>1</v>
-      </c>
-      <c r="I76" s="42">
+      <c r="C76" s="58">
+        <v>1</v>
+      </c>
+      <c r="D76" s="48">
+        <v>1</v>
+      </c>
+      <c r="E76" s="48">
+        <v>1</v>
+      </c>
+      <c r="F76" s="48">
+        <v>1</v>
+      </c>
+      <c r="G76" s="48">
+        <v>1</v>
+      </c>
+      <c r="H76" s="48">
+        <v>1</v>
+      </c>
+      <c r="I76" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="3:4">
-      <c r="C86" s="86"/>
-      <c r="D86" s="59"/>
+      <c r="C86" s="92"/>
+      <c r="D86" s="65"/>
     </row>
     <row r="87" spans="3:4">
-      <c r="C87" s="86"/>
-      <c r="D87" s="59"/>
+      <c r="C87" s="92"/>
+      <c r="D87" s="65"/>
     </row>
     <row r="88" spans="3:4">
-      <c r="C88" s="86"/>
-      <c r="D88" s="59"/>
+      <c r="C88" s="92"/>
+      <c r="D88" s="65"/>
     </row>
     <row r="89" spans="3:4">
-      <c r="C89" s="86"/>
-      <c r="D89" s="59"/>
+      <c r="C89" s="92"/>
+      <c r="D89" s="65"/>
     </row>
     <row r="90" spans="3:15">
-      <c r="C90" s="86"/>
-      <c r="D90" s="59"/>
-      <c r="E90" s="59"/>
-      <c r="F90" s="59"/>
-      <c r="G90" s="59"/>
-      <c r="H90" s="59"/>
-      <c r="I90" s="59"/>
-      <c r="J90" s="59"/>
-      <c r="K90" s="59"/>
-      <c r="L90" s="59"/>
-      <c r="M90" s="59"/>
-      <c r="N90" s="86"/>
-      <c r="O90" s="86"/>
+      <c r="C90" s="92"/>
+      <c r="D90" s="65"/>
+      <c r="E90" s="65"/>
+      <c r="F90" s="65"/>
+      <c r="G90" s="65"/>
+      <c r="H90" s="65"/>
+      <c r="I90" s="65"/>
+      <c r="J90" s="65"/>
+      <c r="K90" s="65"/>
+      <c r="L90" s="65"/>
+      <c r="M90" s="65"/>
+      <c r="N90" s="92"/>
+      <c r="O90" s="92"/>
     </row>
     <row r="91" spans="3:20">
-      <c r="C91" s="86"/>
-      <c r="D91" s="59"/>
-      <c r="E91" s="59"/>
-      <c r="F91" s="59"/>
-      <c r="G91" s="59"/>
-      <c r="H91" s="59"/>
-      <c r="I91" s="59"/>
-      <c r="J91" s="59"/>
-      <c r="K91" s="59"/>
-      <c r="L91" s="59"/>
-      <c r="M91" s="59"/>
-      <c r="N91" s="59"/>
-      <c r="O91" s="59"/>
-      <c r="P91" s="59"/>
-      <c r="Q91" s="59"/>
-      <c r="R91" s="59"/>
-      <c r="S91" s="86"/>
-      <c r="T91" s="86"/>
+      <c r="C91" s="92"/>
+      <c r="D91" s="65"/>
+      <c r="E91" s="65"/>
+      <c r="F91" s="65"/>
+      <c r="G91" s="65"/>
+      <c r="H91" s="65"/>
+      <c r="I91" s="65"/>
+      <c r="J91" s="65"/>
+      <c r="K91" s="65"/>
+      <c r="L91" s="65"/>
+      <c r="M91" s="65"/>
+      <c r="N91" s="65"/>
+      <c r="O91" s="65"/>
+      <c r="P91" s="65"/>
+      <c r="Q91" s="65"/>
+      <c r="R91" s="65"/>
+      <c r="S91" s="92"/>
+      <c r="T91" s="92"/>
     </row>
     <row r="92" spans="3:20">
-      <c r="C92" s="86"/>
-      <c r="D92" s="59"/>
-      <c r="E92" s="59"/>
-      <c r="F92" s="59"/>
-      <c r="G92" s="59"/>
-      <c r="H92" s="59"/>
-      <c r="I92" s="59"/>
-      <c r="J92" s="59"/>
-      <c r="K92" s="59"/>
-      <c r="L92" s="59"/>
-      <c r="M92" s="59"/>
-      <c r="N92" s="59"/>
-      <c r="O92" s="59"/>
-      <c r="P92" s="59"/>
-      <c r="Q92" s="59"/>
-      <c r="R92" s="59"/>
-      <c r="S92" s="86"/>
-      <c r="T92" s="86"/>
+      <c r="C92" s="92"/>
+      <c r="D92" s="65"/>
+      <c r="E92" s="65"/>
+      <c r="F92" s="65"/>
+      <c r="G92" s="65"/>
+      <c r="H92" s="65"/>
+      <c r="I92" s="65"/>
+      <c r="J92" s="65"/>
+      <c r="K92" s="65"/>
+      <c r="L92" s="65"/>
+      <c r="M92" s="65"/>
+      <c r="N92" s="65"/>
+      <c r="O92" s="65"/>
+      <c r="P92" s="65"/>
+      <c r="Q92" s="65"/>
+      <c r="R92" s="65"/>
+      <c r="S92" s="92"/>
+      <c r="T92" s="92"/>
     </row>
     <row r="93" spans="3:20">
-      <c r="C93" s="86"/>
-      <c r="D93" s="59"/>
-      <c r="E93" s="59"/>
-      <c r="F93" s="59"/>
-      <c r="G93" s="59"/>
-      <c r="H93" s="59"/>
-      <c r="I93" s="59"/>
-      <c r="J93" s="59"/>
-      <c r="K93" s="59"/>
-      <c r="L93" s="59"/>
-      <c r="M93" s="59"/>
-      <c r="N93" s="59"/>
-      <c r="O93" s="59"/>
-      <c r="P93" s="59"/>
-      <c r="Q93" s="59"/>
-      <c r="R93" s="59"/>
-      <c r="S93" s="86"/>
-      <c r="T93" s="86"/>
+      <c r="C93" s="92"/>
+      <c r="D93" s="65"/>
+      <c r="E93" s="65"/>
+      <c r="F93" s="65"/>
+      <c r="G93" s="65"/>
+      <c r="H93" s="65"/>
+      <c r="I93" s="65"/>
+      <c r="J93" s="65"/>
+      <c r="K93" s="65"/>
+      <c r="L93" s="65"/>
+      <c r="M93" s="65"/>
+      <c r="N93" s="65"/>
+      <c r="O93" s="65"/>
+      <c r="P93" s="65"/>
+      <c r="Q93" s="65"/>
+      <c r="R93" s="65"/>
+      <c r="S93" s="92"/>
+      <c r="T93" s="92"/>
     </row>
     <row r="94" spans="3:20">
-      <c r="C94" s="86"/>
-      <c r="D94" s="59"/>
-      <c r="E94" s="59"/>
-      <c r="F94" s="59"/>
-      <c r="G94" s="59"/>
-      <c r="H94" s="59"/>
-      <c r="I94" s="59"/>
-      <c r="J94" s="59"/>
-      <c r="K94" s="59"/>
-      <c r="L94" s="59"/>
-      <c r="M94" s="59"/>
-      <c r="N94" s="59"/>
-      <c r="O94" s="59"/>
-      <c r="P94" s="59"/>
-      <c r="Q94" s="59"/>
-      <c r="R94" s="59"/>
-      <c r="S94" s="86"/>
-      <c r="T94" s="86"/>
+      <c r="C94" s="92"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="65"/>
+      <c r="F94" s="65"/>
+      <c r="G94" s="65"/>
+      <c r="H94" s="65"/>
+      <c r="I94" s="65"/>
+      <c r="J94" s="65"/>
+      <c r="K94" s="65"/>
+      <c r="L94" s="65"/>
+      <c r="M94" s="65"/>
+      <c r="N94" s="65"/>
+      <c r="O94" s="65"/>
+      <c r="P94" s="65"/>
+      <c r="Q94" s="65"/>
+      <c r="R94" s="65"/>
+      <c r="S94" s="92"/>
+      <c r="T94" s="92"/>
     </row>
     <row r="95" spans="3:20">
-      <c r="C95" s="86"/>
-      <c r="D95" s="59"/>
-      <c r="E95" s="59"/>
-      <c r="F95" s="59"/>
-      <c r="G95" s="59"/>
-      <c r="H95" s="59"/>
-      <c r="I95" s="59"/>
-      <c r="J95" s="59"/>
-      <c r="K95" s="59"/>
-      <c r="L95" s="59"/>
-      <c r="M95" s="59"/>
-      <c r="N95" s="59"/>
-      <c r="O95" s="59"/>
-      <c r="P95" s="59"/>
-      <c r="Q95" s="59"/>
-      <c r="R95" s="59"/>
-      <c r="S95" s="86"/>
-      <c r="T95" s="86"/>
+      <c r="C95" s="92"/>
+      <c r="D95" s="65"/>
+      <c r="E95" s="65"/>
+      <c r="F95" s="65"/>
+      <c r="G95" s="65"/>
+      <c r="H95" s="65"/>
+      <c r="I95" s="65"/>
+      <c r="J95" s="65"/>
+      <c r="K95" s="65"/>
+      <c r="L95" s="65"/>
+      <c r="M95" s="65"/>
+      <c r="N95" s="65"/>
+      <c r="O95" s="65"/>
+      <c r="P95" s="65"/>
+      <c r="Q95" s="65"/>
+      <c r="R95" s="65"/>
+      <c r="S95" s="92"/>
+      <c r="T95" s="92"/>
     </row>
     <row r="96" spans="3:20">
-      <c r="C96" s="86"/>
-      <c r="D96" s="59"/>
-      <c r="E96" s="59"/>
-      <c r="F96" s="59"/>
-      <c r="G96" s="59"/>
-      <c r="H96" s="59"/>
-      <c r="I96" s="59"/>
-      <c r="J96" s="59"/>
-      <c r="K96" s="59"/>
-      <c r="L96" s="59"/>
-      <c r="M96" s="59"/>
-      <c r="N96" s="59"/>
-      <c r="O96" s="59"/>
-      <c r="P96" s="59"/>
-      <c r="Q96" s="59"/>
-      <c r="R96" s="59"/>
-      <c r="S96" s="86"/>
-      <c r="T96" s="86"/>
+      <c r="C96" s="92"/>
+      <c r="D96" s="65"/>
+      <c r="E96" s="65"/>
+      <c r="F96" s="65"/>
+      <c r="G96" s="65"/>
+      <c r="H96" s="65"/>
+      <c r="I96" s="65"/>
+      <c r="J96" s="65"/>
+      <c r="K96" s="65"/>
+      <c r="L96" s="65"/>
+      <c r="M96" s="65"/>
+      <c r="N96" s="65"/>
+      <c r="O96" s="65"/>
+      <c r="P96" s="65"/>
+      <c r="Q96" s="65"/>
+      <c r="R96" s="65"/>
+      <c r="S96" s="92"/>
+      <c r="T96" s="92"/>
     </row>
     <row r="97" spans="3:20">
-      <c r="C97" s="86"/>
-      <c r="D97" s="59"/>
-      <c r="E97" s="59"/>
-      <c r="F97" s="59"/>
-      <c r="G97" s="59"/>
-      <c r="H97" s="59"/>
-      <c r="I97" s="59"/>
-      <c r="J97" s="59"/>
-      <c r="K97" s="59"/>
-      <c r="L97" s="59"/>
-      <c r="M97" s="59"/>
-      <c r="N97" s="59"/>
-      <c r="O97" s="59"/>
-      <c r="P97" s="59"/>
-      <c r="Q97" s="59"/>
-      <c r="R97" s="59"/>
-      <c r="S97" s="86"/>
-      <c r="T97" s="86"/>
+      <c r="C97" s="92"/>
+      <c r="D97" s="65"/>
+      <c r="E97" s="65"/>
+      <c r="F97" s="65"/>
+      <c r="G97" s="65"/>
+      <c r="H97" s="65"/>
+      <c r="I97" s="65"/>
+      <c r="J97" s="65"/>
+      <c r="K97" s="65"/>
+      <c r="L97" s="65"/>
+      <c r="M97" s="65"/>
+      <c r="N97" s="65"/>
+      <c r="O97" s="65"/>
+      <c r="P97" s="65"/>
+      <c r="Q97" s="65"/>
+      <c r="R97" s="65"/>
+      <c r="S97" s="92"/>
+      <c r="T97" s="92"/>
     </row>
     <row r="98" spans="3:20">
-      <c r="C98" s="86"/>
-      <c r="D98" s="59"/>
-      <c r="E98" s="59"/>
-      <c r="F98" s="59"/>
-      <c r="G98" s="59"/>
-      <c r="H98" s="59"/>
-      <c r="I98" s="59"/>
-      <c r="J98" s="59"/>
-      <c r="K98" s="59"/>
-      <c r="L98" s="59"/>
-      <c r="M98" s="59"/>
-      <c r="N98" s="59"/>
-      <c r="O98" s="59"/>
-      <c r="P98" s="59"/>
-      <c r="Q98" s="59"/>
-      <c r="R98" s="59"/>
-      <c r="S98" s="86"/>
-      <c r="T98" s="86"/>
+      <c r="C98" s="92"/>
+      <c r="D98" s="65"/>
+      <c r="E98" s="65"/>
+      <c r="F98" s="65"/>
+      <c r="G98" s="65"/>
+      <c r="H98" s="65"/>
+      <c r="I98" s="65"/>
+      <c r="J98" s="65"/>
+      <c r="K98" s="65"/>
+      <c r="L98" s="65"/>
+      <c r="M98" s="65"/>
+      <c r="N98" s="65"/>
+      <c r="O98" s="65"/>
+      <c r="P98" s="65"/>
+      <c r="Q98" s="65"/>
+      <c r="R98" s="65"/>
+      <c r="S98" s="92"/>
+      <c r="T98" s="92"/>
     </row>
     <row r="99" spans="3:20">
-      <c r="C99" s="86"/>
-      <c r="D99" s="59"/>
-      <c r="E99" s="59"/>
-      <c r="F99" s="59"/>
-      <c r="G99" s="59"/>
-      <c r="H99" s="59"/>
-      <c r="I99" s="59"/>
-      <c r="J99" s="59"/>
-      <c r="K99" s="59"/>
-      <c r="L99" s="59"/>
-      <c r="M99" s="59"/>
-      <c r="N99" s="59"/>
-      <c r="O99" s="59"/>
-      <c r="P99" s="59"/>
-      <c r="Q99" s="59"/>
-      <c r="R99" s="59"/>
-      <c r="S99" s="86"/>
-      <c r="T99" s="86"/>
+      <c r="C99" s="92"/>
+      <c r="D99" s="65"/>
+      <c r="E99" s="65"/>
+      <c r="F99" s="65"/>
+      <c r="G99" s="65"/>
+      <c r="H99" s="65"/>
+      <c r="I99" s="65"/>
+      <c r="J99" s="65"/>
+      <c r="K99" s="65"/>
+      <c r="L99" s="65"/>
+      <c r="M99" s="65"/>
+      <c r="N99" s="65"/>
+      <c r="O99" s="65"/>
+      <c r="P99" s="65"/>
+      <c r="Q99" s="65"/>
+      <c r="R99" s="65"/>
+      <c r="S99" s="92"/>
+      <c r="T99" s="92"/>
     </row>
     <row r="100" spans="3:20">
-      <c r="C100" s="86"/>
-      <c r="D100" s="59"/>
-      <c r="E100" s="59"/>
-      <c r="F100" s="59"/>
-      <c r="G100" s="59"/>
-      <c r="H100" s="59"/>
-      <c r="I100" s="59"/>
-      <c r="J100" s="59"/>
-      <c r="K100" s="59"/>
-      <c r="L100" s="59"/>
-      <c r="M100" s="59"/>
-      <c r="N100" s="59"/>
-      <c r="O100" s="59"/>
-      <c r="P100" s="59"/>
-      <c r="Q100" s="59"/>
-      <c r="R100" s="59"/>
-      <c r="S100" s="86"/>
-      <c r="T100" s="86"/>
+      <c r="C100" s="92"/>
+      <c r="D100" s="65"/>
+      <c r="E100" s="65"/>
+      <c r="F100" s="65"/>
+      <c r="G100" s="65"/>
+      <c r="H100" s="65"/>
+      <c r="I100" s="65"/>
+      <c r="J100" s="65"/>
+      <c r="K100" s="65"/>
+      <c r="L100" s="65"/>
+      <c r="M100" s="65"/>
+      <c r="N100" s="65"/>
+      <c r="O100" s="65"/>
+      <c r="P100" s="65"/>
+      <c r="Q100" s="65"/>
+      <c r="R100" s="65"/>
+      <c r="S100" s="92"/>
+      <c r="T100" s="92"/>
     </row>
     <row r="101" spans="3:20">
-      <c r="C101" s="86"/>
-      <c r="D101" s="59"/>
-      <c r="E101" s="59"/>
-      <c r="F101" s="59"/>
-      <c r="G101" s="59"/>
-      <c r="H101" s="59"/>
-      <c r="I101" s="59"/>
-      <c r="J101" s="59"/>
-      <c r="K101" s="59"/>
-      <c r="L101" s="59"/>
-      <c r="M101" s="59"/>
-      <c r="N101" s="59"/>
-      <c r="O101" s="59"/>
-      <c r="P101" s="59"/>
-      <c r="Q101" s="59"/>
-      <c r="R101" s="59"/>
-      <c r="S101" s="86"/>
-      <c r="T101" s="86"/>
+      <c r="C101" s="92"/>
+      <c r="D101" s="65"/>
+      <c r="E101" s="65"/>
+      <c r="F101" s="65"/>
+      <c r="G101" s="65"/>
+      <c r="H101" s="65"/>
+      <c r="I101" s="65"/>
+      <c r="J101" s="65"/>
+      <c r="K101" s="65"/>
+      <c r="L101" s="65"/>
+      <c r="M101" s="65"/>
+      <c r="N101" s="65"/>
+      <c r="O101" s="65"/>
+      <c r="P101" s="65"/>
+      <c r="Q101" s="65"/>
+      <c r="R101" s="65"/>
+      <c r="S101" s="92"/>
+      <c r="T101" s="92"/>
     </row>
     <row r="102" spans="3:20">
-      <c r="C102" s="86"/>
-      <c r="D102" s="59"/>
-      <c r="E102" s="59"/>
-      <c r="F102" s="59"/>
-      <c r="G102" s="59"/>
-      <c r="H102" s="59"/>
-      <c r="I102" s="59"/>
-      <c r="J102" s="59"/>
-      <c r="K102" s="59"/>
-      <c r="L102" s="59"/>
-      <c r="M102" s="59"/>
-      <c r="N102" s="59"/>
-      <c r="O102" s="59"/>
-      <c r="P102" s="59"/>
-      <c r="Q102" s="59"/>
-      <c r="R102" s="59"/>
-      <c r="S102" s="86"/>
-      <c r="T102" s="86"/>
+      <c r="C102" s="92"/>
+      <c r="D102" s="65"/>
+      <c r="E102" s="65"/>
+      <c r="F102" s="65"/>
+      <c r="G102" s="65"/>
+      <c r="H102" s="65"/>
+      <c r="I102" s="65"/>
+      <c r="J102" s="65"/>
+      <c r="K102" s="65"/>
+      <c r="L102" s="65"/>
+      <c r="M102" s="65"/>
+      <c r="N102" s="65"/>
+      <c r="O102" s="65"/>
+      <c r="P102" s="65"/>
+      <c r="Q102" s="65"/>
+      <c r="R102" s="65"/>
+      <c r="S102" s="92"/>
+      <c r="T102" s="92"/>
     </row>
     <row r="103" spans="3:20">
-      <c r="C103" s="86"/>
-      <c r="D103" s="59"/>
-      <c r="E103" s="59"/>
-      <c r="F103" s="59"/>
-      <c r="G103" s="59"/>
-      <c r="H103" s="59"/>
-      <c r="I103" s="59"/>
-      <c r="J103" s="59"/>
-      <c r="K103" s="59"/>
-      <c r="L103" s="59"/>
-      <c r="M103" s="59"/>
-      <c r="N103" s="59"/>
-      <c r="O103" s="59"/>
-      <c r="P103" s="59"/>
-      <c r="Q103" s="59"/>
-      <c r="R103" s="59"/>
-      <c r="S103" s="86"/>
-      <c r="T103" s="86"/>
+      <c r="C103" s="92"/>
+      <c r="D103" s="65"/>
+      <c r="E103" s="65"/>
+      <c r="F103" s="65"/>
+      <c r="G103" s="65"/>
+      <c r="H103" s="65"/>
+      <c r="I103" s="65"/>
+      <c r="J103" s="65"/>
+      <c r="K103" s="65"/>
+      <c r="L103" s="65"/>
+      <c r="M103" s="65"/>
+      <c r="N103" s="65"/>
+      <c r="O103" s="65"/>
+      <c r="P103" s="65"/>
+      <c r="Q103" s="65"/>
+      <c r="R103" s="65"/>
+      <c r="S103" s="92"/>
+      <c r="T103" s="92"/>
     </row>
     <row r="104" spans="3:20">
-      <c r="C104" s="86"/>
-      <c r="D104" s="59"/>
-      <c r="E104" s="59"/>
-      <c r="F104" s="59"/>
-      <c r="G104" s="59"/>
-      <c r="H104" s="59"/>
-      <c r="I104" s="59"/>
-      <c r="J104" s="59"/>
-      <c r="K104" s="59"/>
-      <c r="L104" s="59"/>
-      <c r="M104" s="59"/>
-      <c r="N104" s="59"/>
-      <c r="O104" s="59"/>
-      <c r="P104" s="59"/>
-      <c r="Q104" s="59"/>
-      <c r="R104" s="59"/>
-      <c r="S104" s="86"/>
-      <c r="T104" s="86"/>
+      <c r="C104" s="92"/>
+      <c r="D104" s="65"/>
+      <c r="E104" s="65"/>
+      <c r="F104" s="65"/>
+      <c r="G104" s="65"/>
+      <c r="H104" s="65"/>
+      <c r="I104" s="65"/>
+      <c r="J104" s="65"/>
+      <c r="K104" s="65"/>
+      <c r="L104" s="65"/>
+      <c r="M104" s="65"/>
+      <c r="N104" s="65"/>
+      <c r="O104" s="65"/>
+      <c r="P104" s="65"/>
+      <c r="Q104" s="65"/>
+      <c r="R104" s="65"/>
+      <c r="S104" s="92"/>
+      <c r="T104" s="92"/>
     </row>
     <row r="105" spans="3:20">
-      <c r="C105" s="86"/>
-      <c r="D105" s="59"/>
-      <c r="E105" s="59"/>
-      <c r="F105" s="59"/>
-      <c r="G105" s="59"/>
-      <c r="H105" s="59"/>
-      <c r="I105" s="59"/>
-      <c r="J105" s="59"/>
-      <c r="K105" s="59"/>
-      <c r="L105" s="59"/>
-      <c r="M105" s="59"/>
-      <c r="N105" s="59"/>
-      <c r="O105" s="59"/>
-      <c r="P105" s="59"/>
-      <c r="Q105" s="59"/>
-      <c r="R105" s="59"/>
-      <c r="S105" s="86"/>
-      <c r="T105" s="86"/>
+      <c r="C105" s="92"/>
+      <c r="D105" s="65"/>
+      <c r="E105" s="65"/>
+      <c r="F105" s="65"/>
+      <c r="G105" s="65"/>
+      <c r="H105" s="65"/>
+      <c r="I105" s="65"/>
+      <c r="J105" s="65"/>
+      <c r="K105" s="65"/>
+      <c r="L105" s="65"/>
+      <c r="M105" s="65"/>
+      <c r="N105" s="65"/>
+      <c r="O105" s="65"/>
+      <c r="P105" s="65"/>
+      <c r="Q105" s="65"/>
+      <c r="R105" s="65"/>
+      <c r="S105" s="92"/>
+      <c r="T105" s="92"/>
     </row>
     <row r="106" spans="3:20">
-      <c r="C106" s="86"/>
-      <c r="D106" s="59"/>
-      <c r="E106" s="59"/>
-      <c r="F106" s="59"/>
-      <c r="G106" s="59"/>
-      <c r="H106" s="59"/>
-      <c r="I106" s="59"/>
-      <c r="J106" s="59"/>
-      <c r="K106" s="59"/>
-      <c r="L106" s="59"/>
-      <c r="M106" s="59"/>
-      <c r="N106" s="59"/>
-      <c r="O106" s="59"/>
-      <c r="P106" s="59"/>
-      <c r="Q106" s="59"/>
-      <c r="R106" s="59"/>
-      <c r="S106" s="86"/>
-      <c r="T106" s="86"/>
+      <c r="C106" s="92"/>
+      <c r="D106" s="65"/>
+      <c r="E106" s="65"/>
+      <c r="F106" s="65"/>
+      <c r="G106" s="65"/>
+      <c r="H106" s="65"/>
+      <c r="I106" s="65"/>
+      <c r="J106" s="65"/>
+      <c r="K106" s="65"/>
+      <c r="L106" s="65"/>
+      <c r="M106" s="65"/>
+      <c r="N106" s="65"/>
+      <c r="O106" s="65"/>
+      <c r="P106" s="65"/>
+      <c r="Q106" s="65"/>
+      <c r="R106" s="65"/>
+      <c r="S106" s="92"/>
+      <c r="T106" s="92"/>
     </row>
     <row r="107" spans="3:20">
-      <c r="C107" s="86"/>
-      <c r="D107" s="59"/>
-      <c r="E107" s="59"/>
-      <c r="F107" s="59"/>
-      <c r="G107" s="59"/>
-      <c r="H107" s="59"/>
-      <c r="I107" s="59"/>
-      <c r="J107" s="59"/>
-      <c r="K107" s="59"/>
-      <c r="L107" s="59"/>
-      <c r="M107" s="59"/>
-      <c r="N107" s="59"/>
-      <c r="O107" s="59"/>
-      <c r="P107" s="59"/>
-      <c r="Q107" s="59"/>
-      <c r="R107" s="59"/>
-      <c r="S107" s="86"/>
-      <c r="T107" s="86"/>
+      <c r="C107" s="92"/>
+      <c r="D107" s="65"/>
+      <c r="E107" s="65"/>
+      <c r="F107" s="65"/>
+      <c r="G107" s="65"/>
+      <c r="H107" s="65"/>
+      <c r="I107" s="65"/>
+      <c r="J107" s="65"/>
+      <c r="K107" s="65"/>
+      <c r="L107" s="65"/>
+      <c r="M107" s="65"/>
+      <c r="N107" s="65"/>
+      <c r="O107" s="65"/>
+      <c r="P107" s="65"/>
+      <c r="Q107" s="65"/>
+      <c r="R107" s="65"/>
+      <c r="S107" s="92"/>
+      <c r="T107" s="92"/>
     </row>
     <row r="108" spans="3:20">
-      <c r="C108" s="86"/>
-      <c r="D108" s="59"/>
-      <c r="E108" s="59"/>
-      <c r="F108" s="59"/>
-      <c r="G108" s="59"/>
-      <c r="H108" s="59"/>
-      <c r="I108" s="59"/>
-      <c r="J108" s="59"/>
-      <c r="K108" s="59"/>
-      <c r="L108" s="59"/>
-      <c r="M108" s="59"/>
-      <c r="N108" s="59"/>
-      <c r="O108" s="59"/>
-      <c r="P108" s="59"/>
-      <c r="Q108" s="59"/>
-      <c r="R108" s="59"/>
-      <c r="S108" s="86"/>
-      <c r="T108" s="86"/>
+      <c r="C108" s="92"/>
+      <c r="D108" s="65"/>
+      <c r="E108" s="65"/>
+      <c r="F108" s="65"/>
+      <c r="G108" s="65"/>
+      <c r="H108" s="65"/>
+      <c r="I108" s="65"/>
+      <c r="J108" s="65"/>
+      <c r="K108" s="65"/>
+      <c r="L108" s="65"/>
+      <c r="M108" s="65"/>
+      <c r="N108" s="65"/>
+      <c r="O108" s="65"/>
+      <c r="P108" s="65"/>
+      <c r="Q108" s="65"/>
+      <c r="R108" s="65"/>
+      <c r="S108" s="92"/>
+      <c r="T108" s="92"/>
     </row>
     <row r="109" spans="4:18">
-      <c r="D109" s="30"/>
-      <c r="E109" s="30"/>
-      <c r="F109" s="30"/>
-      <c r="G109" s="30"/>
-      <c r="H109" s="30"/>
-      <c r="I109" s="30"/>
-      <c r="J109" s="30"/>
-      <c r="K109" s="30"/>
-      <c r="L109" s="30"/>
-      <c r="M109" s="30"/>
-      <c r="N109" s="30"/>
-      <c r="O109" s="30"/>
-      <c r="P109" s="30"/>
-      <c r="Q109" s="30"/>
-      <c r="R109" s="30"/>
+      <c r="D109" s="36"/>
+      <c r="E109" s="36"/>
+      <c r="F109" s="36"/>
+      <c r="G109" s="36"/>
+      <c r="H109" s="36"/>
+      <c r="I109" s="36"/>
+      <c r="J109" s="36"/>
+      <c r="K109" s="36"/>
+      <c r="L109" s="36"/>
+      <c r="M109" s="36"/>
+      <c r="N109" s="36"/>
+      <c r="O109" s="36"/>
+      <c r="P109" s="36"/>
+      <c r="Q109" s="36"/>
+      <c r="R109" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6374,12 +6341,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:V48"/>
+  <dimension ref="B2:V70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>
@@ -6418,8 +6385,8 @@
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="22" t="s">
+      <c r="U2" s="27"/>
+      <c r="V2" s="28" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6448,7 +6415,7 @@
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
-      <c r="V3" s="23" t="s">
+      <c r="V3" s="29" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6476,8 +6443,8 @@
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="25">
+      <c r="U4" s="30"/>
+      <c r="V4" s="31">
         <v>18</v>
       </c>
     </row>
@@ -6505,8 +6472,8 @@
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="25">
+      <c r="U5" s="30"/>
+      <c r="V5" s="31">
         <v>13</v>
       </c>
     </row>
@@ -6534,8 +6501,8 @@
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="25">
+      <c r="U6" s="30"/>
+      <c r="V6" s="31">
         <v>13</v>
       </c>
     </row>
@@ -6561,8 +6528,8 @@
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="25">
+      <c r="U7" s="30"/>
+      <c r="V7" s="31">
         <v>16</v>
       </c>
     </row>
@@ -6590,8 +6557,8 @@
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="25">
+      <c r="U8" s="30"/>
+      <c r="V8" s="31">
         <v>15</v>
       </c>
     </row>
@@ -6619,8 +6586,8 @@
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="25">
+      <c r="U9" s="30"/>
+      <c r="V9" s="31">
         <v>15</v>
       </c>
     </row>
@@ -6648,8 +6615,8 @@
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="25">
+      <c r="U10" s="30"/>
+      <c r="V10" s="31">
         <v>14</v>
       </c>
     </row>
@@ -6677,8 +6644,8 @@
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="26">
+      <c r="U11" s="30"/>
+      <c r="V11" s="32">
         <v>12</v>
       </c>
     </row>
@@ -6706,8 +6673,8 @@
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="26">
+      <c r="U12" s="30"/>
+      <c r="V12" s="32">
         <v>11</v>
       </c>
     </row>
@@ -6735,8 +6702,8 @@
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="26">
+      <c r="U13" s="30"/>
+      <c r="V13" s="32">
         <v>9</v>
       </c>
     </row>
@@ -6764,8 +6731,8 @@
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
       <c r="T14" s="8"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="26">
+      <c r="U14" s="30"/>
+      <c r="V14" s="32">
         <v>8</v>
       </c>
     </row>
@@ -6793,8 +6760,8 @@
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
       <c r="T15" s="8"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="26">
+      <c r="U15" s="30"/>
+      <c r="V15" s="32">
         <v>7</v>
       </c>
     </row>
@@ -6822,8 +6789,8 @@
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="26">
+      <c r="U16" s="30"/>
+      <c r="V16" s="32">
         <v>6</v>
       </c>
     </row>
@@ -6851,8 +6818,8 @@
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="26">
+      <c r="U17" s="30"/>
+      <c r="V17" s="32">
         <v>5</v>
       </c>
     </row>
@@ -6880,8 +6847,8 @@
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
       <c r="T18" s="8"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="26">
+      <c r="U18" s="30"/>
+      <c r="V18" s="32">
         <v>4</v>
       </c>
     </row>
@@ -6909,8 +6876,8 @@
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
       <c r="T19" s="8"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="26">
+      <c r="U19" s="30"/>
+      <c r="V19" s="32">
         <v>3</v>
       </c>
     </row>
@@ -6938,8 +6905,8 @@
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
       <c r="T20" s="8"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="26">
+      <c r="U20" s="30"/>
+      <c r="V20" s="32">
         <v>2</v>
       </c>
     </row>
@@ -6967,8 +6934,8 @@
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
       <c r="T21" s="8"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="26">
+      <c r="U21" s="30"/>
+      <c r="V21" s="32">
         <v>1</v>
       </c>
     </row>
@@ -6996,7 +6963,7 @@
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
       <c r="T22" s="11"/>
-      <c r="U22" s="27"/>
+      <c r="U22" s="33"/>
       <c r="V22" s="12" t="s">
         <v>87</v>
       </c>
@@ -7036,35 +7003,27 @@
       <c r="B29" s="15">
         <v>1</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="V29" s="25" t="s">
-        <v>8</v>
+      <c r="C29" s="13"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="31" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="2:22">
@@ -7090,8 +7049,8 @@
       <c r="S30" s="16"/>
       <c r="T30" s="16"/>
       <c r="U30" s="13"/>
-      <c r="V30" s="25">
-        <v>18</v>
+      <c r="V30" s="31" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="2:22">
@@ -7117,8 +7076,8 @@
       <c r="S31" s="16"/>
       <c r="T31" s="16"/>
       <c r="U31" s="17"/>
-      <c r="V31" s="25">
-        <v>13</v>
+      <c r="V31" s="31" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="2:22">
@@ -7144,8 +7103,8 @@
       <c r="S32" s="16"/>
       <c r="T32" s="16"/>
       <c r="U32" s="13"/>
-      <c r="V32" s="25">
-        <v>13</v>
+      <c r="V32" s="31" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="2:22">
@@ -7171,8 +7130,8 @@
       <c r="S33" s="13"/>
       <c r="T33" s="13"/>
       <c r="U33" s="13"/>
-      <c r="V33" s="25">
-        <v>16</v>
+      <c r="V33" s="31" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="2:22">
@@ -7185,21 +7144,21 @@
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
-      <c r="I34" s="19"/>
+      <c r="I34" s="24"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
-      <c r="P34" s="19"/>
+      <c r="P34" s="24"/>
       <c r="Q34" s="12"/>
       <c r="R34" s="12"/>
       <c r="S34" s="12"/>
       <c r="T34" s="12"/>
       <c r="U34" s="12"/>
-      <c r="V34" s="25">
-        <v>15</v>
+      <c r="V34" s="31" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="2:22">
@@ -7225,8 +7184,8 @@
       <c r="S35" s="12"/>
       <c r="T35" s="12"/>
       <c r="U35" s="12"/>
-      <c r="V35" s="25">
-        <v>15</v>
+      <c r="V35" s="31" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="2:22">
@@ -7252,7 +7211,7 @@
       <c r="S36" s="13"/>
       <c r="T36" s="13"/>
       <c r="U36" s="14"/>
-      <c r="V36" s="25">
+      <c r="V36" s="31">
         <v>14</v>
       </c>
     </row>
@@ -7279,7 +7238,7 @@
       <c r="S37" s="16"/>
       <c r="T37" s="16"/>
       <c r="U37" s="13"/>
-      <c r="V37" s="26">
+      <c r="V37" s="32">
         <v>12</v>
       </c>
     </row>
@@ -7306,7 +7265,7 @@
       <c r="S38" s="16"/>
       <c r="T38" s="16"/>
       <c r="U38" s="17"/>
-      <c r="V38" s="26">
+      <c r="V38" s="32">
         <v>11</v>
       </c>
     </row>
@@ -7333,7 +7292,7 @@
       <c r="S39" s="16"/>
       <c r="T39" s="16"/>
       <c r="U39" s="13"/>
-      <c r="V39" s="26">
+      <c r="V39" s="32">
         <v>9</v>
       </c>
     </row>
@@ -7350,7 +7309,7 @@
       <c r="I40" s="12"/>
       <c r="J40" s="17"/>
       <c r="K40" s="13"/>
-      <c r="L40" s="20"/>
+      <c r="L40" s="25"/>
       <c r="M40" s="13"/>
       <c r="N40" s="13"/>
       <c r="O40" s="12"/>
@@ -7360,7 +7319,7 @@
       <c r="S40" s="13"/>
       <c r="T40" s="13"/>
       <c r="U40" s="13"/>
-      <c r="V40" s="26">
+      <c r="V40" s="32">
         <v>8</v>
       </c>
     </row>
@@ -7374,20 +7333,20 @@
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
-      <c r="I41" s="19"/>
+      <c r="I41" s="24"/>
       <c r="J41" s="12"/>
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
       <c r="M41" s="12"/>
       <c r="N41" s="12"/>
       <c r="O41" s="12"/>
-      <c r="P41" s="19"/>
+      <c r="P41" s="24"/>
       <c r="Q41" s="12"/>
       <c r="R41" s="12"/>
       <c r="S41" s="12"/>
       <c r="T41" s="12"/>
       <c r="U41" s="12"/>
-      <c r="V41" s="26">
+      <c r="V41" s="32">
         <v>7</v>
       </c>
     </row>
@@ -7414,7 +7373,7 @@
       <c r="S42" s="12"/>
       <c r="T42" s="12"/>
       <c r="U42" s="12"/>
-      <c r="V42" s="26">
+      <c r="V42" s="32">
         <v>6</v>
       </c>
     </row>
@@ -7441,7 +7400,7 @@
       <c r="S43" s="13"/>
       <c r="T43" s="13"/>
       <c r="U43" s="14"/>
-      <c r="V43" s="26">
+      <c r="V43" s="32">
         <v>5</v>
       </c>
     </row>
@@ -7468,7 +7427,7 @@
       <c r="S44" s="16"/>
       <c r="T44" s="16"/>
       <c r="U44" s="13"/>
-      <c r="V44" s="26">
+      <c r="V44" s="32">
         <v>4</v>
       </c>
     </row>
@@ -7495,7 +7454,7 @@
       <c r="S45" s="16"/>
       <c r="T45" s="16"/>
       <c r="U45" s="17"/>
-      <c r="V45" s="26">
+      <c r="V45" s="32">
         <v>3</v>
       </c>
     </row>
@@ -7522,7 +7481,7 @@
       <c r="S46" s="16"/>
       <c r="T46" s="16"/>
       <c r="U46" s="13"/>
-      <c r="V46" s="26">
+      <c r="V46" s="32">
         <v>2</v>
       </c>
     </row>
@@ -7549,7 +7508,7 @@
       <c r="S47" s="13"/>
       <c r="T47" s="13"/>
       <c r="U47" s="13"/>
-      <c r="V47" s="26">
+      <c r="V47" s="32">
         <v>1</v>
       </c>
     </row>
@@ -7557,25 +7516,25 @@
       <c r="B48" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="12">
+        <v>1</v>
+      </c>
+      <c r="D48" s="12">
         <v>2</v>
       </c>
-      <c r="D48" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>2</v>
+      <c r="E48" s="12">
+        <v>3</v>
+      </c>
+      <c r="F48" s="12">
+        <v>4</v>
+      </c>
+      <c r="G48" s="12">
+        <v>5</v>
       </c>
       <c r="H48" s="12">
         <v>1</v>
       </c>
-      <c r="I48" s="19" t="s">
+      <c r="I48" s="24" t="s">
         <v>13</v>
       </c>
       <c r="J48" s="12" t="s">
@@ -7585,7 +7544,7 @@
         <v>89</v>
       </c>
       <c r="L48" s="12" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="M48" s="12">
         <v>1</v>
@@ -7596,7 +7555,7 @@
       <c r="O48" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="P48" s="19">
+      <c r="P48" s="24">
         <v>1</v>
       </c>
       <c r="Q48" s="12" t="s">
@@ -7615,6 +7574,615 @@
         <v>1</v>
       </c>
       <c r="V48" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="2:22">
+      <c r="B50" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="N50" s="14"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="13"/>
+      <c r="U50" s="14"/>
+      <c r="V50" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="2:22">
+      <c r="B51" s="15">
+        <v>1</v>
+      </c>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:22">
+      <c r="B52" s="15">
+        <v>2</v>
+      </c>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="19"/>
+      <c r="T52" s="19"/>
+      <c r="U52" s="19"/>
+      <c r="V52" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="2:22">
+      <c r="B53" s="15">
+        <v>3</v>
+      </c>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="19"/>
+      <c r="R53" s="19"/>
+      <c r="S53" s="19"/>
+      <c r="T53" s="19"/>
+      <c r="U53" s="19"/>
+      <c r="V53" s="31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="2:22">
+      <c r="B54" s="15">
+        <v>4</v>
+      </c>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="19"/>
+      <c r="S54" s="19"/>
+      <c r="T54" s="19"/>
+      <c r="U54" s="19"/>
+      <c r="V54" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="2:22">
+      <c r="B55" s="15">
+        <v>5</v>
+      </c>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="19"/>
+      <c r="S55" s="19"/>
+      <c r="T55" s="19"/>
+      <c r="U55" s="19"/>
+      <c r="V55" s="31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:22">
+      <c r="B56" s="15">
+        <v>6</v>
+      </c>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="26"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="20"/>
+      <c r="S56" s="20"/>
+      <c r="T56" s="20"/>
+      <c r="U56" s="20"/>
+      <c r="V56" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="2:22">
+      <c r="B57" s="15">
+        <v>7</v>
+      </c>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="20"/>
+      <c r="Q57" s="20"/>
+      <c r="R57" s="20"/>
+      <c r="S57" s="20"/>
+      <c r="T57" s="20"/>
+      <c r="U57" s="20"/>
+      <c r="V57" s="31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="2:22">
+      <c r="B58" s="15">
+        <v>8</v>
+      </c>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="23"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="19"/>
+      <c r="R58" s="19"/>
+      <c r="S58" s="19"/>
+      <c r="T58" s="19"/>
+      <c r="U58" s="23"/>
+      <c r="V58" s="31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="2:22">
+      <c r="B59" s="15">
+        <v>9</v>
+      </c>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="19"/>
+      <c r="T59" s="19"/>
+      <c r="U59" s="19"/>
+      <c r="V59" s="32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="2:22">
+      <c r="B60" s="15">
+        <v>10</v>
+      </c>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="19"/>
+      <c r="R60" s="19"/>
+      <c r="S60" s="19"/>
+      <c r="T60" s="19"/>
+      <c r="U60" s="19"/>
+      <c r="V60" s="32">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="2:22">
+      <c r="B61" s="15">
+        <v>11</v>
+      </c>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="19"/>
+      <c r="R61" s="19"/>
+      <c r="S61" s="19"/>
+      <c r="T61" s="19"/>
+      <c r="U61" s="19"/>
+      <c r="V61" s="32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="2:22">
+      <c r="B62" s="15">
+        <v>12</v>
+      </c>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="20"/>
+      <c r="P62" s="20"/>
+      <c r="Q62" s="19"/>
+      <c r="R62" s="19"/>
+      <c r="S62" s="19"/>
+      <c r="T62" s="19"/>
+      <c r="U62" s="19"/>
+      <c r="V62" s="32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="2:22">
+      <c r="B63" s="15">
+        <v>13</v>
+      </c>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="20"/>
+      <c r="N63" s="20"/>
+      <c r="O63" s="20"/>
+      <c r="P63" s="26"/>
+      <c r="Q63" s="20"/>
+      <c r="R63" s="20"/>
+      <c r="S63" s="20"/>
+      <c r="T63" s="20"/>
+      <c r="U63" s="20"/>
+      <c r="V63" s="32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="2:22">
+      <c r="B64" s="15">
+        <v>14</v>
+      </c>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="20"/>
+      <c r="O64" s="22"/>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="20"/>
+      <c r="S64" s="20"/>
+      <c r="T64" s="20"/>
+      <c r="U64" s="20"/>
+      <c r="V64" s="32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22">
+      <c r="B65" s="15">
+        <v>15</v>
+      </c>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="23"/>
+      <c r="O65" s="20"/>
+      <c r="P65" s="22"/>
+      <c r="Q65" s="19"/>
+      <c r="R65" s="19"/>
+      <c r="S65" s="19"/>
+      <c r="T65" s="19"/>
+      <c r="U65" s="23"/>
+      <c r="V65" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22">
+      <c r="B66" s="15">
+        <v>16</v>
+      </c>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="19"/>
+      <c r="O66" s="20"/>
+      <c r="P66" s="20"/>
+      <c r="Q66" s="19"/>
+      <c r="R66" s="19"/>
+      <c r="S66" s="19"/>
+      <c r="T66" s="19"/>
+      <c r="U66" s="19"/>
+      <c r="V66" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22">
+      <c r="B67" s="15">
+        <v>17</v>
+      </c>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="19"/>
+      <c r="O67" s="20"/>
+      <c r="P67" s="20"/>
+      <c r="Q67" s="19"/>
+      <c r="R67" s="19"/>
+      <c r="S67" s="19"/>
+      <c r="T67" s="19"/>
+      <c r="U67" s="19"/>
+      <c r="V67" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:22">
+      <c r="B68" s="15">
+        <v>18</v>
+      </c>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="19"/>
+      <c r="N68" s="19"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="20"/>
+      <c r="Q68" s="19"/>
+      <c r="R68" s="19"/>
+      <c r="S68" s="19"/>
+      <c r="T68" s="19"/>
+      <c r="U68" s="19"/>
+      <c r="V68" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22">
+      <c r="B69" s="15">
+        <v>19</v>
+      </c>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="20"/>
+      <c r="P69" s="20"/>
+      <c r="Q69" s="19"/>
+      <c r="R69" s="19"/>
+      <c r="S69" s="19"/>
+      <c r="T69" s="19"/>
+      <c r="U69" s="19"/>
+      <c r="V69" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22">
+      <c r="B70" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="12">
+        <v>1</v>
+      </c>
+      <c r="D70" s="12">
+        <v>2</v>
+      </c>
+      <c r="E70" s="12">
+        <v>3</v>
+      </c>
+      <c r="F70" s="12">
+        <v>4</v>
+      </c>
+      <c r="G70" s="12">
+        <v>5</v>
+      </c>
+      <c r="H70" s="12">
+        <v>1</v>
+      </c>
+      <c r="I70" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J70" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="K70" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="L70" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="M70" s="12">
+        <v>1</v>
+      </c>
+      <c r="N70" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O70" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="P70" s="24">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="R70" s="12">
+        <v>1</v>
+      </c>
+      <c r="S70" s="12">
+        <v>1</v>
+      </c>
+      <c r="T70" s="12">
+        <v>1</v>
+      </c>
+      <c r="U70" s="12">
+        <v>1</v>
+      </c>
+      <c r="V70" s="12" t="s">
         <v>87</v>
       </c>
     </row>
